--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Geek_space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF73970-06F1-4792-9B96-834BFA000C3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655ED2DB-BE74-4B87-A17B-547DBBEA1A6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="657">
   <si>
     <t>command</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>npm start</t>
-  </si>
-  <si>
-    <t>npx create-react-app --use-npm</t>
   </si>
   <si>
     <t>start the development server</t>
@@ -202,9 +199,6 @@
   </si>
   <si>
     <t>npm init</t>
-  </si>
-  <si>
-    <t>to initialize a package</t>
   </si>
   <si>
     <t>start .</t>
@@ -577,14 +571,6 @@
     </r>
   </si>
   <si>
-    <t>import Moment from 'react-moment';
-&lt;Moment
-										date={ item.aptDate }
-										parse="YYYY-MM-DD hh:mm"
-										format="MMM-D h:mma"
-									/&gt;</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">import { FaTimes } from 'react-icons/fa';
 &lt;button type="button" className="btn btn-sm btn-primary"&gt;
@@ -3621,9 +3607,6 @@
     <t>npm i -D &lt;package name(s)&gt;</t>
   </si>
   <si>
-    <t>insall packages as DevDependencies(same will e reflected in package.json)</t>
-  </si>
-  <si>
     <t>create react app manually(as part of Django-app)</t>
   </si>
   <si>
@@ -4411,77 +4394,6 @@
 };
 console.log(suma(2, 3));
 console.log(sumb(2, 3));</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>const axios = require("axios");</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">same as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>import axios from "axios";
-axios
-  .get("</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://jsonplaceholde.typicode.com/users</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>")
-  .then((response) =&gt; console.log(response.data))
-  .catch((error) =&gt; console.log(error.message));</t>
     </r>
   </si>
   <si>
@@ -5200,9 +5112,6 @@
     <t>https://medium.com/better-programming/should-i-use-promises-or-async-await-126ab5c98789#:~:text=async%20functions%20return%20a%20promise,is%20passed%20through%20a%20promise.&amp;text=await%20only%20blocks%20the%20code%20execution%20within%20the%20async%20function.</t>
   </si>
   <si>
-    <t>learn about async-await-promise</t>
-  </si>
-  <si>
     <t>1.The async function returns a promise. The converse is also true. Every function that returns a promise can be considered as async function.
 2.await is used for calling an async function and waits for it to resolve or reject.
 3.await blocks the execution of the code within the async function in which it is located.
@@ -5595,54 +5504,6 @@
   </si>
   <si>
     <t>redirect or go to a page</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">use of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>require</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> function for import statement
-(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>require</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> can be used within function blocks or for internal imports to avoid any global imports.)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -6872,23 +6733,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>- ID can be replaced with &lt;repo:tag&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">echo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is the print function for terminal
-1. echo &lt;some text&gt; prints it on the terminal
-2. use quotes for printing multiple words</t>
     </r>
   </si>
   <si>
@@ -11462,516 +11306,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PIPENV
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. pip install pipenv.
-2. to create an environment-
-     a. navigate to the folder, run command </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pipenv install</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,
-     b. for specifying python version </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install --python 3.8
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">c. to activate the environment, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pipenv shell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(can also be used to create and activate a non-existing environment)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">d. to deactivate, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">exit
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(When the env is created, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pipfile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pipfile.lock</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> files are added to the location. Since python recognises these files, the actual executables are nomore required. So, activation can only be done from the location of the virtual env. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The environment is created in user-&gt;.virtualenvs folder in C-drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pipfile contains all packages, python version and other info about the env. Pipfile.lock is a more descriptive version that should not be touched. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3. to remove the env, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv --rm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">from the location. But this will not remove the Pipfile and Pipfile.lock files.
-4. if the files are already present, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">will create an env using the info present in the file.
-5. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> refers to Pipfile, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv sync </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">refers to Pipfile.lock for installation of packages
-6. to install a package </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install/uninstall &lt;package&gt;, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">this will also add/remove the package from Pipfile
-7. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv lock </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is to generate or update the Pipfile.lock file
-8. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv --dev &lt;package&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>installs the package in dev-mode, will not be part of main packages</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-9. This will fail a build if the Pipfile.lock is out–of–date, instead of generating a new one.
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install --deploy
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">This is useful when creating Dockerfile while creating containers using pipenv
-10. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install --system
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">This will install packages from Pipfile to the parent system and not create a separate virtaul env.    This is useful when creating a container when a separate virtual env is not required to be created and packages can be installed directly to the container.
-11. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">dev mode
-pipenv install --dev/-d &lt;package&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">installs the package in dv-mode and enlists the package name in Pipfile under 'dev-packages'. Now if the Pipfile is copied to some other location, and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">command is run, then only the regular packages are installed and the dev-packages are skipped. This is helpful when sending the files from dev to user environment
-12. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv --venv </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">searches for the pipfiles in the location, then identifies the virtual env linked to it and returns the location where the virtualenv is stored.
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -12726,12 +12060,1440 @@
 </t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to initialize a package(this will create a package.json file in the folder)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">note:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">After creating a package.json, if any package is installed with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">npm i/install &lt;package&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, then it will be enlisted in the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">package.json </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">as a dependency and a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">package-lock.json </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">file will also be created.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This is same as Pipfile and Pipfile.lock in pipenv</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PIPENV
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. pip install pipenv.
+2. to create an environment-
+     a. navigate to the folder, run command </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pipenv install</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,
+     b. for specifying python version </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install --python 3.8
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">c. to activate the environment, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pipenv shell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(can also be used to create and activate a non-existing environment)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">d. to deactivate, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">exit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(When the env is created, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pipfile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pipfile.lock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> files are added to the location. Since python recognises these files, the actual executables are nomore required. So, activation can only be done from the location of the virtual env. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The environment is created in user-&gt;.virtualenvs folder in C-drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pipfile contains all packages, python version and other info about the env. Pipfile.lock is a more descriptive version that should not be touched. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. to remove the env, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv --rm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">from the location. But this will not remove the Pipfile and Pipfile.lock files.
+4. if the files are already present, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">will create an env using the info present in the file.
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> refers to Pipfile, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv sync </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">refers to Pipfile.lock for installation of packages
+6. to install a package </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install/uninstall &lt;package&gt;, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">this will also add/remove the package from Pipfile
+7. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv lock </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to generate or update the Pipfile.lock file
+8. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv --dev &lt;package&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>installs the package in dev-mode, will not be part of main packages</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+9. This will fail a build if the Pipfile.lock is out–of–date, instead of generating a new one.
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install --deploy
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This is useful when creating Dockerfile while creating containers using pipenv
+10. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install --system
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This will install packages from Pipfile to the parent system and not create a separate virtaul env.    This is useful when creating a container when a separate virtual env is not required to be created and packages can be installed directly to the container.
+11. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dev mode
+pipenv install --dev/-d &lt;package&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">installs the package in dev-mode and enlists the package name in Pipfile under 'dev-packages'. Now if the Pipfile is copied to some other location, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">command is run, then only the regular packages are installed and the dev-packages are skipped. This is helpful when sending the files from dev to user environment
+12. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv --venv </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">searches for the pipfiles in the location, then identifies the virtual env linked to it and returns the location where the virtualenv is stored.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">install packages as DevDependencies(same will e reflected in package.json)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">note:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>packages that are enlisted n devDependencies will not be installed, when the package.json file is used elsewhere to instll the packages enlisted in it(just like in pipenv)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const axios = require("axios");</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+import axios from "axios";
+or,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>const { graphqlHTTP } = require("express-graphql");</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+import { graphqlHTTP } from "express-graphql";</t>
+    </r>
+  </si>
+  <si>
+    <t>node file.js</t>
+  </si>
+  <si>
+    <r>
+      <t>to run a js file with node
+(same as</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> python file.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">importing modules in node
+require </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is older format of importing packages from node-module.
+ES6 format is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import .. from ..</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and is more preferrable.
+But if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">import </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is used outside a module, it will throw error </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cannot use import statement outside a module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. So here </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">require </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>should be used.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>within message.js</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+module.exports = 'Hello world';
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">within script.js
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">var msg = require('./Messages.js');
+console.log(msg);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">running </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">node script.js </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gives 'Hello world'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">exporting modules in node 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The module.exports is a special object which is included in every JavaScript file in the Node.js application by default. The module is a variable that represents the current module, and exports is an object that will be exposed as a module. So, whatever you assign to module.exports will be exposed as a module.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ref- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="8" tint="0.39997558519241921"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.tutorialsteacher.com/nodejs/nodejs-module-exports</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">learn about async-await-promise
+async resolve(parent, args) {
+        const res = await axios.get("https://api.spacexdata.com/v3/launches");
+        return res.data;
+      }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without aysnc</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+resolve(parent, args) {
+  return axios.get("https://api.spacexdata.com/v3/launches")
+  .then(res =&gt; res.data);
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>django-admin startproject &lt;project-name&gt; .</t>
+  </si>
+  <si>
+    <t>this will create a django project and place all the contents in the current folder instead of creating a folder with project-name</t>
+  </si>
+  <si>
+    <t>npx create-react-app &lt;app-name&gt; --use-npm</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">echo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is the print function for terminal
+1. echo &lt;some text&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prints it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the terminal
+2. use quotes for printing multiple words</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">npm i concurrently
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uaage</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+concurrently "command 1" "command 2"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">running multiple commands in command prompt using concurrently
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">note:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This can be used to introduce concurrent commands in package.json
+"scripts": {
+    "start": "node server.js",
+    "server": "nodemon server.js",
+    "client": "npm start --prefix client",
+    "dev": "concurrently \"npm run server\" \"npm run client\""
+  },
+now running </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">npm run dev </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will take care of both the commands</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import Moment from 'react-moment';
+&lt;Moment
+										date={ item.aptDate }
+										parse="YYYY-MM-DD hh:mm"
+										format="MMM-D h:mma"
+									/&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Moment format="MMM-D, YYYY h:mma"&gt;{launch_date_local}&lt;/Moment&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">using a dynamic variable in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">attribute of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Link
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(need to provide {} around the whole url string)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;Link className="btn btn-secondary" to=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{`/launch/${flight_number}`}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&gt;
+            Launch Details
+          &lt;/Link&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if no variable needsd to be passed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;Link className="btn btn-secondary" to=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>`/launch`</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt;
+            Launch Details
+          &lt;/Link&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>npm run &lt;script-name&gt;</t>
+  </si>
+  <si>
+    <t>to run a script in package.json file</t>
+  </si>
+  <si>
+    <t>heroku logs --tail</t>
+  </si>
+  <si>
+    <t>to get logs related to deployment or errors generated while the app is running on heroku</t>
+  </si>
+  <si>
+    <t>heroku login</t>
+  </si>
+  <si>
+    <t>to login to heroku from cli</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Create heroku app via </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">heroku create &lt;app-name&gt;.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">this can be done both from cli and heroku website.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. If the app involves multiple dev servers(e.g. django and react, react and express), then make sure to-
+   a. add backend server to proxy of react
+   b. do settings in backend so that both backend and frontend can run on same server.
+3. Add Procfile, if necessary(wsgi apps e.g. django, require an application server such as gunicorn which in turn requires Procfile).
+4. Add buildpacks such as 
+    a. heroku/python for django
+    b. heroku/nodejs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>this can be done both from cli and heroku website.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git add . -&gt; git commit -m "message" -&gt; git push heroku master
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(this git repo is automatically added to root folder when </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git create app-name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is run)</t>
+    </r>
+  </si>
+  <si>
+    <t>add buildpacks</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>heroku buildpacks:add --index 1 heroku/nodejs
+heroku buildpacks:add --index 2 heroku/python
+heroku addons:create heroku-postgresql:hobby-dev</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(for postgres)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12917,6 +13679,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -12956,7 +13733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -13387,12 +14164,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13563,6 +14355,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -14361,437 +15177,437 @@
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="151.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="73" t="s">
-        <v>162</v>
-      </c>
-      <c r="B14" s="74"/>
+      <c r="A14" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="82"/>
     </row>
     <row r="15" spans="1:4" ht="171" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="77" t="s">
-        <v>357</v>
-      </c>
-      <c r="B16" s="78"/>
+      <c r="A16" s="85" t="s">
+        <v>350</v>
+      </c>
+      <c r="B16" s="86"/>
     </row>
     <row r="17" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="112.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="363.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="75" t="s">
-        <v>235</v>
-      </c>
-      <c r="B21" s="76"/>
+      <c r="A21" s="83" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="84"/>
     </row>
     <row r="22" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="75" t="s">
-        <v>308</v>
-      </c>
-      <c r="B24" s="76"/>
+      <c r="A24" s="83" t="s">
+        <v>302</v>
+      </c>
+      <c r="B24" s="84"/>
     </row>
     <row r="25" spans="1:2" ht="60.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="279.39999999999998" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A30" s="14" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="71.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="14" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="150.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="69" t="s">
-        <v>483</v>
-      </c>
-      <c r="B45" s="70"/>
+      <c r="A45" s="77" t="s">
+        <v>475</v>
+      </c>
+      <c r="B45" s="78"/>
     </row>
     <row r="46" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="71" t="s">
-        <v>482</v>
-      </c>
-      <c r="B46" s="72"/>
+      <c r="A46" s="79" t="s">
+        <v>474</v>
+      </c>
+      <c r="B46" s="80"/>
     </row>
     <row r="47" spans="1:2" ht="357" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="14" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="285.39999999999998" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="52" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="63" t="s">
+      <c r="A54" s="71" t="s">
+        <v>602</v>
+      </c>
+      <c r="B54" s="72"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="73"/>
+      <c r="B55" s="74"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="73"/>
+      <c r="B56" s="74"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="75"/>
+      <c r="B57" s="76"/>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="69" t="s">
         <v>610</v>
       </c>
-      <c r="B54" s="64"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="65"/>
-      <c r="B55" s="66"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="65"/>
-      <c r="B56" s="66"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="67"/>
-      <c r="B57" s="68"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="61" t="s">
-        <v>619</v>
-      </c>
-      <c r="B58" s="62"/>
+      <c r="B58" s="70"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B59" s="5"/>
@@ -14823,7 +15639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A03C223-3A32-4643-903E-5A6CFDBE4BF7}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="51" workbookViewId="0">
+    <sheetView zoomScale="51" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:V39"/>
     </sheetView>
   </sheetViews>
@@ -14843,777 +15659,777 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" s="114" t="s">
-        <v>618</v>
-      </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
+        <v>235</v>
+      </c>
+      <c r="E3" s="122" t="s">
+        <v>630</v>
+      </c>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="122"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" s="114"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="114"/>
-      <c r="H4" s="114"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
-      <c r="M4" s="114"/>
-      <c r="N4" s="114"/>
-      <c r="O4" s="114"/>
-      <c r="P4" s="114"/>
-      <c r="Q4" s="114"/>
-      <c r="R4" s="114"/>
-      <c r="S4" s="114"/>
-      <c r="T4" s="114"/>
-      <c r="U4" s="114"/>
-      <c r="V4" s="114"/>
+        <v>300</v>
+      </c>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
+      <c r="R4" s="122"/>
+      <c r="S4" s="122"/>
+      <c r="T4" s="122"/>
+      <c r="U4" s="122"/>
+      <c r="V4" s="122"/>
     </row>
     <row r="5" spans="1:22" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
-      <c r="H5" s="114"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
-      <c r="M5" s="114"/>
-      <c r="N5" s="114"/>
-      <c r="O5" s="114"/>
-      <c r="P5" s="114"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-      <c r="S5" s="114"/>
-      <c r="T5" s="114"/>
-      <c r="U5" s="114"/>
-      <c r="V5" s="114"/>
+        <v>541</v>
+      </c>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="122"/>
+      <c r="O5" s="122"/>
+      <c r="P5" s="122"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
     </row>
     <row r="6" spans="1:22" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>564</v>
-      </c>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="114"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
-      <c r="P6" s="114"/>
-      <c r="Q6" s="114"/>
-      <c r="R6" s="114"/>
-      <c r="S6" s="114"/>
-      <c r="T6" s="114"/>
-      <c r="U6" s="114"/>
-      <c r="V6" s="114"/>
+        <v>556</v>
+      </c>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="122"/>
+      <c r="O6" s="122"/>
+      <c r="P6" s="122"/>
+      <c r="Q6" s="122"/>
+      <c r="R6" s="122"/>
+      <c r="S6" s="122"/>
+      <c r="T6" s="122"/>
+      <c r="U6" s="122"/>
+      <c r="V6" s="122"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="114"/>
-      <c r="J7" s="114"/>
-      <c r="K7" s="114"/>
-      <c r="L7" s="114"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="114"/>
-      <c r="R7" s="114"/>
-      <c r="S7" s="114"/>
-      <c r="T7" s="114"/>
-      <c r="U7" s="114"/>
-      <c r="V7" s="114"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="122"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
-      <c r="G8" s="114"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
-      <c r="M8" s="114"/>
-      <c r="N8" s="114"/>
-      <c r="O8" s="114"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="114"/>
-      <c r="R8" s="114"/>
-      <c r="S8" s="114"/>
-      <c r="T8" s="114"/>
-      <c r="U8" s="114"/>
-      <c r="V8" s="114"/>
+      <c r="E8" s="122"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="122"/>
+      <c r="O8" s="122"/>
+      <c r="P8" s="122"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="122"/>
+      <c r="S8" s="122"/>
+      <c r="T8" s="122"/>
+      <c r="U8" s="122"/>
+      <c r="V8" s="122"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-      <c r="M9" s="114"/>
-      <c r="N9" s="114"/>
-      <c r="O9" s="114"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="114"/>
-      <c r="R9" s="114"/>
-      <c r="S9" s="114"/>
-      <c r="T9" s="114"/>
-      <c r="U9" s="114"/>
-      <c r="V9" s="114"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="122"/>
+      <c r="O9" s="122"/>
+      <c r="P9" s="122"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="122"/>
+      <c r="U9" s="122"/>
+      <c r="V9" s="122"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="114"/>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="122"/>
+      <c r="U10" s="122"/>
+      <c r="V10" s="122"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
-      <c r="L11" s="114"/>
-      <c r="M11" s="114"/>
-      <c r="N11" s="114"/>
-      <c r="O11" s="114"/>
-      <c r="P11" s="114"/>
-      <c r="Q11" s="114"/>
-      <c r="R11" s="114"/>
-      <c r="S11" s="114"/>
-      <c r="T11" s="114"/>
-      <c r="U11" s="114"/>
-      <c r="V11" s="114"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
+      <c r="O11" s="122"/>
+      <c r="P11" s="122"/>
+      <c r="Q11" s="122"/>
+      <c r="R11" s="122"/>
+      <c r="S11" s="122"/>
+      <c r="T11" s="122"/>
+      <c r="U11" s="122"/>
+      <c r="V11" s="122"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="114"/>
-      <c r="J12" s="114"/>
-      <c r="K12" s="114"/>
-      <c r="L12" s="114"/>
-      <c r="M12" s="114"/>
-      <c r="N12" s="114"/>
-      <c r="O12" s="114"/>
-      <c r="P12" s="114"/>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114"/>
-      <c r="U12" s="114"/>
-      <c r="V12" s="114"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
+      <c r="O12" s="122"/>
+      <c r="P12" s="122"/>
+      <c r="Q12" s="122"/>
+      <c r="R12" s="122"/>
+      <c r="S12" s="122"/>
+      <c r="T12" s="122"/>
+      <c r="U12" s="122"/>
+      <c r="V12" s="122"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="114"/>
-      <c r="N13" s="114"/>
-      <c r="O13" s="114"/>
-      <c r="P13" s="114"/>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114"/>
-      <c r="U13" s="114"/>
-      <c r="V13" s="114"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
+      <c r="R13" s="122"/>
+      <c r="S13" s="122"/>
+      <c r="T13" s="122"/>
+      <c r="U13" s="122"/>
+      <c r="V13" s="122"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="114"/>
-      <c r="N14" s="114"/>
-      <c r="O14" s="114"/>
-      <c r="P14" s="114"/>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114"/>
-      <c r="U14" s="114"/>
-      <c r="V14" s="114"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="122"/>
+      <c r="R14" s="122"/>
+      <c r="S14" s="122"/>
+      <c r="T14" s="122"/>
+      <c r="U14" s="122"/>
+      <c r="V14" s="122"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="114"/>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="114"/>
-      <c r="S15" s="114"/>
-      <c r="T15" s="114"/>
-      <c r="U15" s="114"/>
-      <c r="V15" s="114"/>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="122"/>
+      <c r="R15" s="122"/>
+      <c r="S15" s="122"/>
+      <c r="T15" s="122"/>
+      <c r="U15" s="122"/>
+      <c r="V15" s="122"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
-      <c r="O16" s="114"/>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="114"/>
-      <c r="R16" s="114"/>
-      <c r="S16" s="114"/>
-      <c r="T16" s="114"/>
-      <c r="U16" s="114"/>
-      <c r="V16" s="114"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="122"/>
+      <c r="R16" s="122"/>
+      <c r="S16" s="122"/>
+      <c r="T16" s="122"/>
+      <c r="U16" s="122"/>
+      <c r="V16" s="122"/>
     </row>
     <row r="17" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="114"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="114"/>
-      <c r="N17" s="114"/>
-      <c r="O17" s="114"/>
-      <c r="P17" s="114"/>
-      <c r="Q17" s="114"/>
-      <c r="R17" s="114"/>
-      <c r="S17" s="114"/>
-      <c r="T17" s="114"/>
-      <c r="U17" s="114"/>
-      <c r="V17" s="114"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="122"/>
+      <c r="O17" s="122"/>
+      <c r="P17" s="122"/>
+      <c r="Q17" s="122"/>
+      <c r="R17" s="122"/>
+      <c r="S17" s="122"/>
+      <c r="T17" s="122"/>
+      <c r="U17" s="122"/>
+      <c r="V17" s="122"/>
     </row>
     <row r="18" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="114"/>
-      <c r="I18" s="114"/>
-      <c r="J18" s="114"/>
-      <c r="K18" s="114"/>
-      <c r="L18" s="114"/>
-      <c r="M18" s="114"/>
-      <c r="N18" s="114"/>
-      <c r="O18" s="114"/>
-      <c r="P18" s="114"/>
-      <c r="Q18" s="114"/>
-      <c r="R18" s="114"/>
-      <c r="S18" s="114"/>
-      <c r="T18" s="114"/>
-      <c r="U18" s="114"/>
-      <c r="V18" s="114"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="122"/>
+      <c r="P18" s="122"/>
+      <c r="Q18" s="122"/>
+      <c r="R18" s="122"/>
+      <c r="S18" s="122"/>
+      <c r="T18" s="122"/>
+      <c r="U18" s="122"/>
+      <c r="V18" s="122"/>
     </row>
     <row r="19" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="114"/>
-      <c r="J19" s="114"/>
-      <c r="K19" s="114"/>
-      <c r="L19" s="114"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="114"/>
-      <c r="P19" s="114"/>
-      <c r="Q19" s="114"/>
-      <c r="R19" s="114"/>
-      <c r="S19" s="114"/>
-      <c r="T19" s="114"/>
-      <c r="U19" s="114"/>
-      <c r="V19" s="114"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="122"/>
+      <c r="O19" s="122"/>
+      <c r="P19" s="122"/>
+      <c r="Q19" s="122"/>
+      <c r="R19" s="122"/>
+      <c r="S19" s="122"/>
+      <c r="T19" s="122"/>
+      <c r="U19" s="122"/>
+      <c r="V19" s="122"/>
     </row>
     <row r="20" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="114"/>
-      <c r="K20" s="114"/>
-      <c r="L20" s="114"/>
-      <c r="M20" s="114"/>
-      <c r="N20" s="114"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="114"/>
-      <c r="Q20" s="114"/>
-      <c r="R20" s="114"/>
-      <c r="S20" s="114"/>
-      <c r="T20" s="114"/>
-      <c r="U20" s="114"/>
-      <c r="V20" s="114"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
+      <c r="O20" s="122"/>
+      <c r="P20" s="122"/>
+      <c r="Q20" s="122"/>
+      <c r="R20" s="122"/>
+      <c r="S20" s="122"/>
+      <c r="T20" s="122"/>
+      <c r="U20" s="122"/>
+      <c r="V20" s="122"/>
     </row>
     <row r="21" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="114"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="114"/>
-      <c r="P21" s="114"/>
-      <c r="Q21" s="114"/>
-      <c r="R21" s="114"/>
-      <c r="S21" s="114"/>
-      <c r="T21" s="114"/>
-      <c r="U21" s="114"/>
-      <c r="V21" s="114"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
+      <c r="O21" s="122"/>
+      <c r="P21" s="122"/>
+      <c r="Q21" s="122"/>
+      <c r="R21" s="122"/>
+      <c r="S21" s="122"/>
+      <c r="T21" s="122"/>
+      <c r="U21" s="122"/>
+      <c r="V21" s="122"/>
     </row>
     <row r="22" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="114"/>
-      <c r="M22" s="114"/>
-      <c r="N22" s="114"/>
-      <c r="O22" s="114"/>
-      <c r="P22" s="114"/>
-      <c r="Q22" s="114"/>
-      <c r="R22" s="114"/>
-      <c r="S22" s="114"/>
-      <c r="T22" s="114"/>
-      <c r="U22" s="114"/>
-      <c r="V22" s="114"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
+      <c r="O22" s="122"/>
+      <c r="P22" s="122"/>
+      <c r="Q22" s="122"/>
+      <c r="R22" s="122"/>
+      <c r="S22" s="122"/>
+      <c r="T22" s="122"/>
+      <c r="U22" s="122"/>
+      <c r="V22" s="122"/>
     </row>
     <row r="23" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="114"/>
-      <c r="L23" s="114"/>
-      <c r="M23" s="114"/>
-      <c r="N23" s="114"/>
-      <c r="O23" s="114"/>
-      <c r="P23" s="114"/>
-      <c r="Q23" s="114"/>
-      <c r="R23" s="114"/>
-      <c r="S23" s="114"/>
-      <c r="T23" s="114"/>
-      <c r="U23" s="114"/>
-      <c r="V23" s="114"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="122"/>
+      <c r="O23" s="122"/>
+      <c r="P23" s="122"/>
+      <c r="Q23" s="122"/>
+      <c r="R23" s="122"/>
+      <c r="S23" s="122"/>
+      <c r="T23" s="122"/>
+      <c r="U23" s="122"/>
+      <c r="V23" s="122"/>
     </row>
     <row r="24" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
-      <c r="L24" s="114"/>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="114"/>
-      <c r="Q24" s="114"/>
-      <c r="R24" s="114"/>
-      <c r="S24" s="114"/>
-      <c r="T24" s="114"/>
-      <c r="U24" s="114"/>
-      <c r="V24" s="114"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="122"/>
+      <c r="P24" s="122"/>
+      <c r="Q24" s="122"/>
+      <c r="R24" s="122"/>
+      <c r="S24" s="122"/>
+      <c r="T24" s="122"/>
+      <c r="U24" s="122"/>
+      <c r="V24" s="122"/>
     </row>
     <row r="25" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
-      <c r="L25" s="114"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="114"/>
-      <c r="P25" s="114"/>
-      <c r="Q25" s="114"/>
-      <c r="R25" s="114"/>
-      <c r="S25" s="114"/>
-      <c r="T25" s="114"/>
-      <c r="U25" s="114"/>
-      <c r="V25" s="114"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="122"/>
+      <c r="O25" s="122"/>
+      <c r="P25" s="122"/>
+      <c r="Q25" s="122"/>
+      <c r="R25" s="122"/>
+      <c r="S25" s="122"/>
+      <c r="T25" s="122"/>
+      <c r="U25" s="122"/>
+      <c r="V25" s="122"/>
     </row>
     <row r="26" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
-      <c r="K26" s="114"/>
-      <c r="L26" s="114"/>
-      <c r="M26" s="114"/>
-      <c r="N26" s="114"/>
-      <c r="O26" s="114"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="114"/>
-      <c r="R26" s="114"/>
-      <c r="S26" s="114"/>
-      <c r="T26" s="114"/>
-      <c r="U26" s="114"/>
-      <c r="V26" s="114"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="122"/>
+      <c r="O26" s="122"/>
+      <c r="P26" s="122"/>
+      <c r="Q26" s="122"/>
+      <c r="R26" s="122"/>
+      <c r="S26" s="122"/>
+      <c r="T26" s="122"/>
+      <c r="U26" s="122"/>
+      <c r="V26" s="122"/>
     </row>
     <row r="27" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
-      <c r="K27" s="114"/>
-      <c r="L27" s="114"/>
-      <c r="M27" s="114"/>
-      <c r="N27" s="114"/>
-      <c r="O27" s="114"/>
-      <c r="P27" s="114"/>
-      <c r="Q27" s="114"/>
-      <c r="R27" s="114"/>
-      <c r="S27" s="114"/>
-      <c r="T27" s="114"/>
-      <c r="U27" s="114"/>
-      <c r="V27" s="114"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="122"/>
+      <c r="O27" s="122"/>
+      <c r="P27" s="122"/>
+      <c r="Q27" s="122"/>
+      <c r="R27" s="122"/>
+      <c r="S27" s="122"/>
+      <c r="T27" s="122"/>
+      <c r="U27" s="122"/>
+      <c r="V27" s="122"/>
     </row>
     <row r="28" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="114"/>
-      <c r="O28" s="114"/>
-      <c r="P28" s="114"/>
-      <c r="Q28" s="114"/>
-      <c r="R28" s="114"/>
-      <c r="S28" s="114"/>
-      <c r="T28" s="114"/>
-      <c r="U28" s="114"/>
-      <c r="V28" s="114"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="122"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="122"/>
+      <c r="R28" s="122"/>
+      <c r="S28" s="122"/>
+      <c r="T28" s="122"/>
+      <c r="U28" s="122"/>
+      <c r="V28" s="122"/>
     </row>
     <row r="29" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="114"/>
-      <c r="P29" s="114"/>
-      <c r="Q29" s="114"/>
-      <c r="R29" s="114"/>
-      <c r="S29" s="114"/>
-      <c r="T29" s="114"/>
-      <c r="U29" s="114"/>
-      <c r="V29" s="114"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="122"/>
+      <c r="O29" s="122"/>
+      <c r="P29" s="122"/>
+      <c r="Q29" s="122"/>
+      <c r="R29" s="122"/>
+      <c r="S29" s="122"/>
+      <c r="T29" s="122"/>
+      <c r="U29" s="122"/>
+      <c r="V29" s="122"/>
     </row>
     <row r="30" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="114"/>
-      <c r="P30" s="114"/>
-      <c r="Q30" s="114"/>
-      <c r="R30" s="114"/>
-      <c r="S30" s="114"/>
-      <c r="T30" s="114"/>
-      <c r="U30" s="114"/>
-      <c r="V30" s="114"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="122"/>
+      <c r="P30" s="122"/>
+      <c r="Q30" s="122"/>
+      <c r="R30" s="122"/>
+      <c r="S30" s="122"/>
+      <c r="T30" s="122"/>
+      <c r="U30" s="122"/>
+      <c r="V30" s="122"/>
     </row>
     <row r="31" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="114"/>
-      <c r="P31" s="114"/>
-      <c r="Q31" s="114"/>
-      <c r="R31" s="114"/>
-      <c r="S31" s="114"/>
-      <c r="T31" s="114"/>
-      <c r="U31" s="114"/>
-      <c r="V31" s="114"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="122"/>
+      <c r="P31" s="122"/>
+      <c r="Q31" s="122"/>
+      <c r="R31" s="122"/>
+      <c r="S31" s="122"/>
+      <c r="T31" s="122"/>
+      <c r="U31" s="122"/>
+      <c r="V31" s="122"/>
     </row>
     <row r="32" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="114"/>
-      <c r="P32" s="114"/>
-      <c r="Q32" s="114"/>
-      <c r="R32" s="114"/>
-      <c r="S32" s="114"/>
-      <c r="T32" s="114"/>
-      <c r="U32" s="114"/>
-      <c r="V32" s="114"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="122"/>
+      <c r="O32" s="122"/>
+      <c r="P32" s="122"/>
+      <c r="Q32" s="122"/>
+      <c r="R32" s="122"/>
+      <c r="S32" s="122"/>
+      <c r="T32" s="122"/>
+      <c r="U32" s="122"/>
+      <c r="V32" s="122"/>
     </row>
     <row r="33" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="114"/>
-      <c r="K33" s="114"/>
-      <c r="L33" s="114"/>
-      <c r="M33" s="114"/>
-      <c r="N33" s="114"/>
-      <c r="O33" s="114"/>
-      <c r="P33" s="114"/>
-      <c r="Q33" s="114"/>
-      <c r="R33" s="114"/>
-      <c r="S33" s="114"/>
-      <c r="T33" s="114"/>
-      <c r="U33" s="114"/>
-      <c r="V33" s="114"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="122"/>
+      <c r="O33" s="122"/>
+      <c r="P33" s="122"/>
+      <c r="Q33" s="122"/>
+      <c r="R33" s="122"/>
+      <c r="S33" s="122"/>
+      <c r="T33" s="122"/>
+      <c r="U33" s="122"/>
+      <c r="V33" s="122"/>
     </row>
     <row r="34" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="114"/>
-      <c r="L34" s="114"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="114"/>
-      <c r="P34" s="114"/>
-      <c r="Q34" s="114"/>
-      <c r="R34" s="114"/>
-      <c r="S34" s="114"/>
-      <c r="T34" s="114"/>
-      <c r="U34" s="114"/>
-      <c r="V34" s="114"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="122"/>
+      <c r="P34" s="122"/>
+      <c r="Q34" s="122"/>
+      <c r="R34" s="122"/>
+      <c r="S34" s="122"/>
+      <c r="T34" s="122"/>
+      <c r="U34" s="122"/>
+      <c r="V34" s="122"/>
     </row>
     <row r="35" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E35" s="114"/>
-      <c r="F35" s="114"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="114"/>
-      <c r="J35" s="114"/>
-      <c r="K35" s="114"/>
-      <c r="L35" s="114"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="114"/>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="114"/>
-      <c r="S35" s="114"/>
-      <c r="T35" s="114"/>
-      <c r="U35" s="114"/>
-      <c r="V35" s="114"/>
+      <c r="E35" s="122"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
+      <c r="H35" s="122"/>
+      <c r="I35" s="122"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="122"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="122"/>
+      <c r="P35" s="122"/>
+      <c r="Q35" s="122"/>
+      <c r="R35" s="122"/>
+      <c r="S35" s="122"/>
+      <c r="T35" s="122"/>
+      <c r="U35" s="122"/>
+      <c r="V35" s="122"/>
     </row>
     <row r="36" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E36" s="114"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="114"/>
-      <c r="J36" s="114"/>
-      <c r="K36" s="114"/>
-      <c r="L36" s="114"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="114"/>
-      <c r="O36" s="114"/>
-      <c r="P36" s="114"/>
-      <c r="Q36" s="114"/>
-      <c r="R36" s="114"/>
-      <c r="S36" s="114"/>
-      <c r="T36" s="114"/>
-      <c r="U36" s="114"/>
-      <c r="V36" s="114"/>
+      <c r="E36" s="122"/>
+      <c r="F36" s="122"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="122"/>
+      <c r="J36" s="122"/>
+      <c r="K36" s="122"/>
+      <c r="L36" s="122"/>
+      <c r="M36" s="122"/>
+      <c r="N36" s="122"/>
+      <c r="O36" s="122"/>
+      <c r="P36" s="122"/>
+      <c r="Q36" s="122"/>
+      <c r="R36" s="122"/>
+      <c r="S36" s="122"/>
+      <c r="T36" s="122"/>
+      <c r="U36" s="122"/>
+      <c r="V36" s="122"/>
     </row>
     <row r="37" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E37" s="114"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="114"/>
-      <c r="J37" s="114"/>
-      <c r="K37" s="114"/>
-      <c r="L37" s="114"/>
-      <c r="M37" s="114"/>
-      <c r="N37" s="114"/>
-      <c r="O37" s="114"/>
-      <c r="P37" s="114"/>
-      <c r="Q37" s="114"/>
-      <c r="R37" s="114"/>
-      <c r="S37" s="114"/>
-      <c r="T37" s="114"/>
-      <c r="U37" s="114"/>
-      <c r="V37" s="114"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="122"/>
+      <c r="M37" s="122"/>
+      <c r="N37" s="122"/>
+      <c r="O37" s="122"/>
+      <c r="P37" s="122"/>
+      <c r="Q37" s="122"/>
+      <c r="R37" s="122"/>
+      <c r="S37" s="122"/>
+      <c r="T37" s="122"/>
+      <c r="U37" s="122"/>
+      <c r="V37" s="122"/>
     </row>
     <row r="38" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
-      <c r="O38" s="114"/>
-      <c r="P38" s="114"/>
-      <c r="Q38" s="114"/>
-      <c r="R38" s="114"/>
-      <c r="S38" s="114"/>
-      <c r="T38" s="114"/>
-      <c r="U38" s="114"/>
-      <c r="V38" s="114"/>
+      <c r="E38" s="122"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="122"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="122"/>
+      <c r="M38" s="122"/>
+      <c r="N38" s="122"/>
+      <c r="O38" s="122"/>
+      <c r="P38" s="122"/>
+      <c r="Q38" s="122"/>
+      <c r="R38" s="122"/>
+      <c r="S38" s="122"/>
+      <c r="T38" s="122"/>
+      <c r="U38" s="122"/>
+      <c r="V38" s="122"/>
     </row>
     <row r="39" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E39" s="114"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-      <c r="K39" s="114"/>
-      <c r="L39" s="114"/>
-      <c r="M39" s="114"/>
-      <c r="N39" s="114"/>
-      <c r="O39" s="114"/>
-      <c r="P39" s="114"/>
-      <c r="Q39" s="114"/>
-      <c r="R39" s="114"/>
-      <c r="S39" s="114"/>
-      <c r="T39" s="114"/>
-      <c r="U39" s="114"/>
-      <c r="V39" s="114"/>
+      <c r="E39" s="122"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="122"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="122"/>
+      <c r="M39" s="122"/>
+      <c r="N39" s="122"/>
+      <c r="O39" s="122"/>
+      <c r="P39" s="122"/>
+      <c r="Q39" s="122"/>
+      <c r="R39" s="122"/>
+      <c r="S39" s="122"/>
+      <c r="T39" s="122"/>
+      <c r="U39" s="122"/>
+      <c r="V39" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -15628,7 +16444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE852DC-AF0F-4D7F-BADD-3903303A2B7E}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="62" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="62" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -15639,10 +16455,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="117" t="s">
-        <v>598</v>
-      </c>
-      <c r="B1" s="117"/>
+      <c r="A1" s="125" t="s">
+        <v>590</v>
+      </c>
+      <c r="B1" s="125"/>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
       <c r="E1" s="49"/>
@@ -15653,8 +16469,8 @@
       <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
       <c r="C2" s="49"/>
       <c r="D2" s="49"/>
       <c r="E2" s="49"/>
@@ -15665,8 +16481,8 @@
       <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="117"/>
-      <c r="B3" s="117"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
       <c r="C3" s="49"/>
       <c r="D3" s="49"/>
       <c r="E3" s="49"/>
@@ -15677,8 +16493,8 @@
       <c r="J3" s="49"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="117"/>
-      <c r="B4" s="117"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="125"/>
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
       <c r="E4" s="49"/>
@@ -15689,8 +16505,8 @@
       <c r="J4" s="49"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
+      <c r="A5" s="125"/>
+      <c r="B5" s="125"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
       <c r="E5" s="49"/>
@@ -15701,8 +16517,8 @@
       <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="125"/>
+      <c r="B6" s="125"/>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
@@ -15713,8 +16529,8 @@
       <c r="J6" s="49"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
+      <c r="A7" s="125"/>
+      <c r="B7" s="125"/>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
       <c r="E7" s="49"/>
@@ -15725,8 +16541,8 @@
       <c r="J7" s="49"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="117"/>
-      <c r="B8" s="117"/>
+      <c r="A8" s="125"/>
+      <c r="B8" s="125"/>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
       <c r="E8" s="49"/>
@@ -15737,8 +16553,8 @@
       <c r="J8" s="49"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="117"/>
-      <c r="B9" s="117"/>
+      <c r="A9" s="125"/>
+      <c r="B9" s="125"/>
       <c r="C9" s="49"/>
       <c r="D9" s="49"/>
       <c r="E9" s="49"/>
@@ -15749,76 +16565,76 @@
       <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="115" t="s">
-        <v>599</v>
-      </c>
-      <c r="B10" s="116"/>
+      <c r="A10" s="123" t="s">
+        <v>591</v>
+      </c>
+      <c r="B10" s="124"/>
     </row>
     <row r="11" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="85.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="61" t="s">
-        <v>613</v>
-      </c>
-      <c r="B15" s="62"/>
+      <c r="A15" s="69" t="s">
+        <v>605</v>
+      </c>
+      <c r="B15" s="70"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="118" t="s">
-        <v>615</v>
-      </c>
-      <c r="B16" s="119"/>
+      <c r="A16" s="126" t="s">
+        <v>607</v>
+      </c>
+      <c r="B16" s="127"/>
     </row>
     <row r="17" spans="1:3" ht="131.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="120"/>
-      <c r="B17" s="121"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="129"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="122" t="s">
-        <v>614</v>
-      </c>
-      <c r="B18" s="123"/>
+      <c r="A18" s="130" t="s">
+        <v>606</v>
+      </c>
+      <c r="B18" s="131"/>
       <c r="C18" s="50"/>
     </row>
     <row r="19" spans="1:3" ht="44.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="124"/>
-      <c r="B19" s="125"/>
+      <c r="A19" s="132"/>
+      <c r="B19" s="133"/>
     </row>
     <row r="20" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -15841,7 +16657,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -15860,88 +16676,88 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="75" t="s">
-        <v>411</v>
-      </c>
-      <c r="B7" s="126"/>
+      <c r="A7" s="83" t="s">
+        <v>642</v>
+      </c>
+      <c r="B7" s="134"/>
     </row>
     <row r="8" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -15979,104 +16795,104 @@
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="53" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="56" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>627</v>
-      </c>
-      <c r="C8" s="127" t="s">
-        <v>628</v>
+        <v>618</v>
+      </c>
+      <c r="C8" s="135" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="58" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="C9" s="128"/>
+        <v>616</v>
+      </c>
+      <c r="C9" s="136"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="C10" s="128"/>
+        <v>614</v>
+      </c>
+      <c r="C10" s="136"/>
     </row>
     <row r="11" spans="1:3" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="57" t="s">
-        <v>622</v>
+        <v>613</v>
       </c>
       <c r="B11" s="60" t="s">
-        <v>624</v>
-      </c>
-      <c r="C11" s="129"/>
+        <v>615</v>
+      </c>
+      <c r="C11" s="137"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="54" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="B12" s="55" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -16093,10 +16909,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B77C4E-3E7B-4D80-A747-5F4AAFEFADA7}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView zoomScale="53" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A46" zoomScale="53" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16119,339 +16935,363 @@
         <v>2</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
-        <v>3</v>
+        <v>641</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="387" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>266</v>
+        <v>631</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="18" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A12" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A14" s="18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A15" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>69</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A17" s="18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A18" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A20" s="18" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A23" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A24" s="18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="138" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="139"/>
+      <c r="A25" s="146" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="147"/>
     </row>
     <row r="26" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A26" s="18" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A27" s="18" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A28" s="18" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="140" t="s">
-        <v>97</v>
-      </c>
-      <c r="B29" s="141"/>
+      <c r="A29" s="148" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="149"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A32" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="153" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="18" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="142" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="143"/>
+      <c r="A35" s="150" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="151"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="144" t="s">
-        <v>247</v>
-      </c>
-      <c r="B37" s="145"/>
+      <c r="A37" s="152" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" s="153"/>
     </row>
     <row r="38" spans="1:2" ht="202.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="B38" s="137"/>
+      <c r="A38" s="144" t="s">
+        <v>257</v>
+      </c>
+      <c r="B38" s="145"/>
     </row>
     <row r="39" spans="1:2" ht="324" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="134" t="s">
-        <v>282</v>
-      </c>
-      <c r="B39" s="135"/>
+      <c r="A39" s="142" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" s="143"/>
     </row>
     <row r="40" spans="1:2" ht="149.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="146" t="s">
-        <v>283</v>
-      </c>
-      <c r="B40" s="147"/>
+      <c r="A40" s="154" t="s">
+        <v>278</v>
+      </c>
+      <c r="B40" s="155"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="381.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="132" t="s">
-        <v>269</v>
-      </c>
-      <c r="B42" s="133"/>
+      <c r="A42" s="140" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" s="141"/>
     </row>
     <row r="43" spans="1:2" ht="238.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="130"/>
-      <c r="B43" s="131"/>
+      <c r="A43" s="138"/>
+      <c r="B43" s="139"/>
     </row>
     <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="18" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A45" s="18" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A46" s="18" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>350</v>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+      <c r="A47" s="65" t="s">
+        <v>643</v>
+      </c>
+      <c r="B47" s="66" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A48" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -16474,10 +17314,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E09B06-1057-4116-8B55-B9253BA9DADF}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="60" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="B10" zoomScale="60" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -16494,7 +17334,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -16502,213 +17342,232 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>255</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>254</v>
-      </c>
       <c r="C6" s="3" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="283.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="228" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>289</v>
+        <v>638</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="263.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="77" t="s">
-        <v>273</v>
-      </c>
-      <c r="B11" s="148"/>
-      <c r="C11" s="112"/>
+      <c r="A11" s="85" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="156"/>
+      <c r="C11" s="120"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A15" s="62" t="s">
+        <v>632</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="63" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="123.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="62" t="s">
+        <v>636</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="62" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="64" t="s">
+        <v>633</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A15" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="69" t="s">
         <v>281</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="121.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="B18" s="149"/>
-      <c r="C18" s="150"/>
-    </row>
-    <row r="19" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="163.5" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="158"/>
+    </row>
+    <row r="21" spans="1:3" ht="47.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" xr:uid="{112FE728-33E3-43B9-9736-070CB7F35CE4}"/>
@@ -16722,89 +17581,117 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD53EB3-5666-4086-A858-E334E9D7BFD5}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="64" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="49" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.9296875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="10"/>
+    <col min="3" max="3" width="44.06640625" style="10" customWidth="1"/>
+    <col min="4" max="16384" width="9.06640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="299.64999999999998" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="B3" s="67" t="s">
+        <v>527</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
         <v>517</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="285" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="B6" s="6" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>532</v>
+    <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A12" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>655</v>
       </c>
     </row>
   </sheetData>
@@ -16841,10 +17728,10 @@
     </row>
     <row r="2" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -16910,41 +17797,41 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="212.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="88" t="s">
-        <v>548</v>
-      </c>
-      <c r="B5" s="97"/>
+      <c r="A5" s="96" t="s">
+        <v>540</v>
+      </c>
+      <c r="B5" s="105"/>
       <c r="C5" s="45"/>
     </row>
   </sheetData>
@@ -16963,7 +17850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9486391-4526-4CDB-B19C-462E8D7C0BE7}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="71" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="71" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -16983,352 +17870,352 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="151" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="152"/>
+      <c r="A29" s="159" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="160"/>
     </row>
     <row r="30" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="153" t="s">
-        <v>637</v>
-      </c>
-      <c r="B31" s="154"/>
+      <c r="A31" s="161" t="s">
+        <v>628</v>
+      </c>
+      <c r="B31" s="162"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="155"/>
-      <c r="B32" s="156"/>
+      <c r="A32" s="163"/>
+      <c r="B32" s="164"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="155"/>
-      <c r="B33" s="156"/>
+      <c r="A33" s="163"/>
+      <c r="B33" s="164"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="155"/>
-      <c r="B34" s="156"/>
+      <c r="A34" s="163"/>
+      <c r="B34" s="164"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="155"/>
-      <c r="B35" s="156"/>
+      <c r="A35" s="163"/>
+      <c r="B35" s="164"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="155"/>
-      <c r="B36" s="156"/>
+      <c r="A36" s="163"/>
+      <c r="B36" s="164"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="155"/>
-      <c r="B37" s="156"/>
+      <c r="A37" s="163"/>
+      <c r="B37" s="164"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="155"/>
-      <c r="B38" s="156"/>
+      <c r="A38" s="163"/>
+      <c r="B38" s="164"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="155"/>
-      <c r="B39" s="156"/>
+      <c r="A39" s="163"/>
+      <c r="B39" s="164"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="155"/>
-      <c r="B40" s="156"/>
+      <c r="A40" s="163"/>
+      <c r="B40" s="164"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="155"/>
-      <c r="B41" s="156"/>
+      <c r="A41" s="163"/>
+      <c r="B41" s="164"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="155"/>
-      <c r="B42" s="156"/>
+      <c r="A42" s="163"/>
+      <c r="B42" s="164"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="155"/>
-      <c r="B43" s="156"/>
+      <c r="A43" s="163"/>
+      <c r="B43" s="164"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="155"/>
-      <c r="B44" s="156"/>
+      <c r="A44" s="163"/>
+      <c r="B44" s="164"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="155"/>
-      <c r="B45" s="156"/>
+      <c r="A45" s="163"/>
+      <c r="B45" s="164"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="155"/>
-      <c r="B46" s="156"/>
+      <c r="A46" s="163"/>
+      <c r="B46" s="164"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="155"/>
-      <c r="B47" s="156"/>
+      <c r="A47" s="163"/>
+      <c r="B47" s="164"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="155"/>
-      <c r="B48" s="156"/>
+      <c r="A48" s="163"/>
+      <c r="B48" s="164"/>
     </row>
     <row r="49" spans="1:2" ht="6.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="155"/>
-      <c r="B49" s="156"/>
+      <c r="A49" s="163"/>
+      <c r="B49" s="164"/>
     </row>
     <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="155"/>
-      <c r="B50" s="156"/>
+      <c r="A50" s="163"/>
+      <c r="B50" s="164"/>
     </row>
     <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="155"/>
-      <c r="B51" s="156"/>
+      <c r="A51" s="163"/>
+      <c r="B51" s="164"/>
     </row>
     <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="155"/>
-      <c r="B52" s="156"/>
+      <c r="A52" s="163"/>
+      <c r="B52" s="164"/>
     </row>
     <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="155"/>
-      <c r="B53" s="156"/>
+      <c r="A53" s="163"/>
+      <c r="B53" s="164"/>
     </row>
     <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="155"/>
-      <c r="B54" s="156"/>
+      <c r="A54" s="163"/>
+      <c r="B54" s="164"/>
     </row>
     <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="155"/>
-      <c r="B55" s="156"/>
+      <c r="A55" s="163"/>
+      <c r="B55" s="164"/>
     </row>
     <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="155"/>
-      <c r="B56" s="156"/>
+      <c r="A56" s="163"/>
+      <c r="B56" s="164"/>
     </row>
     <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="155"/>
-      <c r="B57" s="156"/>
+      <c r="A57" s="163"/>
+      <c r="B57" s="164"/>
     </row>
     <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="155"/>
-      <c r="B58" s="156"/>
+      <c r="A58" s="163"/>
+      <c r="B58" s="164"/>
     </row>
     <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="155"/>
-      <c r="B59" s="156"/>
+      <c r="A59" s="163"/>
+      <c r="B59" s="164"/>
     </row>
     <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="157"/>
-      <c r="B60" s="158"/>
+      <c r="A60" s="165"/>
+      <c r="B60" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -17361,221 +18248,221 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="156.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="F2" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="F2" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="80"/>
+      <c r="G2" s="88"/>
     </row>
     <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="90" t="s">
-        <v>100</v>
+      <c r="A3" s="98" t="s">
+        <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="91"/>
+      <c r="A4" s="99"/>
       <c r="B4" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A6" s="98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A7" s="99"/>
+      <c r="B7" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="90" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="91"/>
-      <c r="B7" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
     <row r="8" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="90" t="s">
-        <v>133</v>
+      <c r="A8" s="98" t="s">
+        <v>130</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="91"/>
+      <c r="A9" s="99"/>
       <c r="B9" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A10" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="285" x14ac:dyDescent="0.45">
       <c r="A11" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="392.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>378</v>
+      </c>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102" t="s">
+        <v>379</v>
+      </c>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B13" s="89"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B14" s="89"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B15" s="89"/>
+      <c r="D15" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B16" s="89"/>
+      <c r="D16" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="89"/>
+      <c r="D17" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="92" t="s">
-        <v>385</v>
-      </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="94" t="s">
-        <v>386</v>
-      </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="96"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="81"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B14" s="81"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="81"/>
-      <c r="D15" s="5" t="s">
+      <c r="E17" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B18" s="89"/>
+      <c r="D18" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="81"/>
-      <c r="D16" s="5" t="s">
+      <c r="F18" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B19" s="89"/>
+      <c r="D19" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="81"/>
-      <c r="D17" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B18" s="81"/>
-      <c r="D18" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B19" s="81"/>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>174</v>
-      </c>
       <c r="F19" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="81"/>
-      <c r="C20" s="86" t="s">
-        <v>368</v>
-      </c>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="94" t="s">
+        <v>361</v>
+      </c>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="95"/>
     </row>
     <row r="21" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="31"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="83" t="s">
-        <v>367</v>
-      </c>
-      <c r="D21" s="84"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="85"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91" t="s">
+        <v>360</v>
+      </c>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="93"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="88" t="s">
-        <v>369</v>
-      </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89" t="s">
-        <v>370</v>
+      <c r="A22" s="96" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" s="96"/>
+      <c r="C22" s="97" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="88"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
     </row>
     <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="32" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -17631,682 +18518,682 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="104.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="185.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="D6" s="161" t="s">
-        <v>401</v>
-      </c>
-      <c r="E6" s="161"/>
-      <c r="G6" s="162" t="s">
-        <v>512</v>
-      </c>
-      <c r="H6" s="162"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="162"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="162"/>
-      <c r="M6" s="162"/>
-      <c r="N6" s="162"/>
-      <c r="O6" s="162"/>
-      <c r="P6" s="162"/>
-      <c r="R6" s="159" t="s">
-        <v>580</v>
-      </c>
-      <c r="S6" s="160"/>
-      <c r="T6" s="160"/>
-      <c r="U6" s="160"/>
-      <c r="V6" s="160"/>
-      <c r="W6" s="160"/>
-      <c r="X6" s="160"/>
-      <c r="Y6" s="160"/>
-      <c r="Z6" s="160"/>
-      <c r="AA6" s="160"/>
-      <c r="AB6" s="160"/>
+        <v>404</v>
+      </c>
+      <c r="D6" s="169" t="s">
+        <v>394</v>
+      </c>
+      <c r="E6" s="169"/>
+      <c r="G6" s="170" t="s">
+        <v>504</v>
+      </c>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="170"/>
+      <c r="R6" s="167" t="s">
+        <v>572</v>
+      </c>
+      <c r="S6" s="168"/>
+      <c r="T6" s="168"/>
+      <c r="U6" s="168"/>
+      <c r="V6" s="168"/>
+      <c r="W6" s="168"/>
+      <c r="X6" s="168"/>
+      <c r="Y6" s="168"/>
+      <c r="Z6" s="168"/>
+      <c r="AA6" s="168"/>
+      <c r="AB6" s="168"/>
     </row>
     <row r="7" spans="1:28" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>595</v>
-      </c>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="162"/>
-      <c r="K7" s="162"/>
-      <c r="L7" s="162"/>
-      <c r="M7" s="162"/>
-      <c r="N7" s="162"/>
-      <c r="O7" s="162"/>
-      <c r="P7" s="162"/>
-      <c r="R7" s="160"/>
-      <c r="S7" s="160"/>
-      <c r="T7" s="160"/>
-      <c r="U7" s="160"/>
-      <c r="V7" s="160"/>
-      <c r="W7" s="160"/>
-      <c r="X7" s="160"/>
-      <c r="Y7" s="160"/>
-      <c r="Z7" s="160"/>
-      <c r="AA7" s="160"/>
-      <c r="AB7" s="160"/>
+        <v>587</v>
+      </c>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
+      <c r="G7" s="170"/>
+      <c r="H7" s="170"/>
+      <c r="I7" s="170"/>
+      <c r="J7" s="170"/>
+      <c r="K7" s="170"/>
+      <c r="L7" s="170"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+      <c r="O7" s="170"/>
+      <c r="P7" s="170"/>
+      <c r="R7" s="168"/>
+      <c r="S7" s="168"/>
+      <c r="T7" s="168"/>
+      <c r="U7" s="168"/>
+      <c r="V7" s="168"/>
+      <c r="W7" s="168"/>
+      <c r="X7" s="168"/>
+      <c r="Y7" s="168"/>
+      <c r="Z7" s="168"/>
+      <c r="AA7" s="168"/>
+      <c r="AB7" s="168"/>
     </row>
     <row r="8" spans="1:28" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="162"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="162"/>
-      <c r="K8" s="162"/>
-      <c r="L8" s="162"/>
-      <c r="M8" s="162"/>
-      <c r="N8" s="162"/>
-      <c r="O8" s="162"/>
-      <c r="P8" s="162"/>
-      <c r="R8" s="160"/>
-      <c r="S8" s="160"/>
-      <c r="T8" s="160"/>
-      <c r="U8" s="160"/>
-      <c r="V8" s="160"/>
-      <c r="W8" s="160"/>
-      <c r="X8" s="160"/>
-      <c r="Y8" s="160"/>
-      <c r="Z8" s="160"/>
-      <c r="AA8" s="160"/>
-      <c r="AB8" s="160"/>
+        <v>409</v>
+      </c>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="170"/>
+      <c r="J8" s="170"/>
+      <c r="K8" s="170"/>
+      <c r="L8" s="170"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+      <c r="O8" s="170"/>
+      <c r="P8" s="170"/>
+      <c r="R8" s="168"/>
+      <c r="S8" s="168"/>
+      <c r="T8" s="168"/>
+      <c r="U8" s="168"/>
+      <c r="V8" s="168"/>
+      <c r="W8" s="168"/>
+      <c r="X8" s="168"/>
+      <c r="Y8" s="168"/>
+      <c r="Z8" s="168"/>
+      <c r="AA8" s="168"/>
+      <c r="AB8" s="168"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="162"/>
-      <c r="R9" s="160"/>
-      <c r="S9" s="160"/>
-      <c r="T9" s="160"/>
-      <c r="U9" s="160"/>
-      <c r="V9" s="160"/>
-      <c r="W9" s="160"/>
-      <c r="X9" s="160"/>
-      <c r="Y9" s="160"/>
-      <c r="Z9" s="160"/>
-      <c r="AA9" s="160"/>
-      <c r="AB9" s="160"/>
+        <v>396</v>
+      </c>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="170"/>
+      <c r="J9" s="170"/>
+      <c r="K9" s="170"/>
+      <c r="L9" s="170"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+      <c r="O9" s="170"/>
+      <c r="P9" s="170"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="168"/>
+      <c r="T9" s="168"/>
+      <c r="U9" s="168"/>
+      <c r="V9" s="168"/>
+      <c r="W9" s="168"/>
+      <c r="X9" s="168"/>
+      <c r="Y9" s="168"/>
+      <c r="Z9" s="168"/>
+      <c r="AA9" s="168"/>
+      <c r="AB9" s="168"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="R10" s="160"/>
-      <c r="S10" s="160"/>
-      <c r="T10" s="160"/>
-      <c r="U10" s="160"/>
-      <c r="V10" s="160"/>
-      <c r="W10" s="160"/>
-      <c r="X10" s="160"/>
-      <c r="Y10" s="160"/>
-      <c r="Z10" s="160"/>
-      <c r="AA10" s="160"/>
-      <c r="AB10" s="160"/>
+        <v>414</v>
+      </c>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+      <c r="O10" s="170"/>
+      <c r="P10" s="170"/>
+      <c r="R10" s="168"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="168"/>
+      <c r="U10" s="168"/>
+      <c r="V10" s="168"/>
+      <c r="W10" s="168"/>
+      <c r="X10" s="168"/>
+      <c r="Y10" s="168"/>
+      <c r="Z10" s="168"/>
+      <c r="AA10" s="168"/>
+      <c r="AB10" s="168"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="R11" s="160"/>
-      <c r="S11" s="160"/>
-      <c r="T11" s="160"/>
-      <c r="U11" s="160"/>
-      <c r="V11" s="160"/>
-      <c r="W11" s="160"/>
-      <c r="X11" s="160"/>
-      <c r="Y11" s="160"/>
-      <c r="Z11" s="160"/>
-      <c r="AA11" s="160"/>
-      <c r="AB11" s="160"/>
+        <v>398</v>
+      </c>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="170"/>
+      <c r="R11" s="168"/>
+      <c r="S11" s="168"/>
+      <c r="T11" s="168"/>
+      <c r="U11" s="168"/>
+      <c r="V11" s="168"/>
+      <c r="W11" s="168"/>
+      <c r="X11" s="168"/>
+      <c r="Y11" s="168"/>
+      <c r="Z11" s="168"/>
+      <c r="AA11" s="168"/>
+      <c r="AB11" s="168"/>
     </row>
     <row r="12" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
-      <c r="L12" s="162"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="162"/>
-      <c r="P12" s="162"/>
-      <c r="R12" s="160"/>
-      <c r="S12" s="160"/>
-      <c r="T12" s="160"/>
-      <c r="U12" s="160"/>
-      <c r="V12" s="160"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="160"/>
-      <c r="AA12" s="160"/>
-      <c r="AB12" s="160"/>
+        <v>403</v>
+      </c>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="170"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="170"/>
+      <c r="L12" s="170"/>
+      <c r="M12" s="170"/>
+      <c r="N12" s="170"/>
+      <c r="O12" s="170"/>
+      <c r="P12" s="170"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="168"/>
+      <c r="T12" s="168"/>
+      <c r="U12" s="168"/>
+      <c r="V12" s="168"/>
+      <c r="W12" s="168"/>
+      <c r="X12" s="168"/>
+      <c r="Y12" s="168"/>
+      <c r="Z12" s="168"/>
+      <c r="AA12" s="168"/>
+      <c r="AB12" s="168"/>
     </row>
     <row r="13" spans="1:28" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="R13" s="160"/>
-      <c r="S13" s="160"/>
-      <c r="T13" s="160"/>
-      <c r="U13" s="160"/>
-      <c r="V13" s="160"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="160"/>
-      <c r="AA13" s="160"/>
-      <c r="AB13" s="160"/>
+        <v>401</v>
+      </c>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="170"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="170"/>
+      <c r="M13" s="170"/>
+      <c r="N13" s="170"/>
+      <c r="O13" s="170"/>
+      <c r="P13" s="170"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="168"/>
+      <c r="T13" s="168"/>
+      <c r="U13" s="168"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="168"/>
+      <c r="AA13" s="168"/>
+      <c r="AB13" s="168"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="162"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="162"/>
-      <c r="R14" s="160"/>
-      <c r="S14" s="160"/>
-      <c r="T14" s="160"/>
-      <c r="U14" s="160"/>
-      <c r="V14" s="160"/>
-      <c r="W14" s="160"/>
-      <c r="X14" s="160"/>
-      <c r="Y14" s="160"/>
-      <c r="Z14" s="160"/>
-      <c r="AA14" s="160"/>
-      <c r="AB14" s="160"/>
+        <v>416</v>
+      </c>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="170"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="170"/>
+      <c r="L14" s="170"/>
+      <c r="M14" s="170"/>
+      <c r="N14" s="170"/>
+      <c r="O14" s="170"/>
+      <c r="P14" s="170"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="168"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="168"/>
+      <c r="Z14" s="168"/>
+      <c r="AA14" s="168"/>
+      <c r="AB14" s="168"/>
     </row>
     <row r="15" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="162"/>
-      <c r="R15" s="160"/>
-      <c r="S15" s="160"/>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="160"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="160"/>
+        <v>506</v>
+      </c>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="170"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="170"/>
+      <c r="L15" s="170"/>
+      <c r="M15" s="170"/>
+      <c r="N15" s="170"/>
+      <c r="O15" s="170"/>
+      <c r="P15" s="170"/>
+      <c r="R15" s="168"/>
+      <c r="S15" s="168"/>
+      <c r="T15" s="168"/>
+      <c r="U15" s="168"/>
+      <c r="V15" s="168"/>
+      <c r="W15" s="168"/>
+      <c r="X15" s="168"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="168"/>
+      <c r="AA15" s="168"/>
+      <c r="AB15" s="168"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="162"/>
-      <c r="R16" s="160"/>
-      <c r="S16" s="160"/>
-      <c r="T16" s="160"/>
-      <c r="U16" s="160"/>
-      <c r="V16" s="160"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="160"/>
-      <c r="AB16" s="160"/>
+        <v>508</v>
+      </c>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="170"/>
+      <c r="J16" s="170"/>
+      <c r="K16" s="170"/>
+      <c r="L16" s="170"/>
+      <c r="M16" s="170"/>
+      <c r="N16" s="170"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="170"/>
+      <c r="R16" s="168"/>
+      <c r="S16" s="168"/>
+      <c r="T16" s="168"/>
+      <c r="U16" s="168"/>
+      <c r="V16" s="168"/>
+      <c r="W16" s="168"/>
+      <c r="X16" s="168"/>
+      <c r="Y16" s="168"/>
+      <c r="Z16" s="168"/>
+      <c r="AA16" s="168"/>
+      <c r="AB16" s="168"/>
     </row>
     <row r="17" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>579</v>
-      </c>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="162"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="162"/>
-      <c r="M17" s="162"/>
-      <c r="N17" s="162"/>
-      <c r="O17" s="162"/>
-      <c r="P17" s="162"/>
-      <c r="R17" s="160"/>
-      <c r="S17" s="160"/>
-      <c r="T17" s="160"/>
-      <c r="U17" s="160"/>
-      <c r="V17" s="160"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="160"/>
-      <c r="AB17" s="160"/>
+        <v>571</v>
+      </c>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="G17" s="170"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="170"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="170"/>
+      <c r="N17" s="170"/>
+      <c r="O17" s="170"/>
+      <c r="P17" s="170"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="168"/>
+      <c r="T17" s="168"/>
+      <c r="U17" s="168"/>
+      <c r="V17" s="168"/>
+      <c r="W17" s="168"/>
+      <c r="X17" s="168"/>
+      <c r="Y17" s="168"/>
+      <c r="Z17" s="168"/>
+      <c r="AA17" s="168"/>
+      <c r="AB17" s="168"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="162"/>
-      <c r="R18" s="160"/>
-      <c r="S18" s="160"/>
-      <c r="T18" s="160"/>
-      <c r="U18" s="160"/>
-      <c r="V18" s="160"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="160"/>
-      <c r="Y18" s="160"/>
-      <c r="Z18" s="160"/>
-      <c r="AA18" s="160"/>
-      <c r="AB18" s="160"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="G18" s="170"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="170"/>
+      <c r="J18" s="170"/>
+      <c r="K18" s="170"/>
+      <c r="L18" s="170"/>
+      <c r="M18" s="170"/>
+      <c r="N18" s="170"/>
+      <c r="O18" s="170"/>
+      <c r="P18" s="170"/>
+      <c r="R18" s="168"/>
+      <c r="S18" s="168"/>
+      <c r="T18" s="168"/>
+      <c r="U18" s="168"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="168"/>
+      <c r="X18" s="168"/>
+      <c r="Y18" s="168"/>
+      <c r="Z18" s="168"/>
+      <c r="AA18" s="168"/>
+      <c r="AB18" s="168"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="162"/>
-      <c r="R19" s="160"/>
-      <c r="S19" s="160"/>
-      <c r="T19" s="160"/>
-      <c r="U19" s="160"/>
-      <c r="V19" s="160"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="160"/>
-      <c r="Y19" s="160"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="160"/>
-      <c r="AB19" s="160"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="170"/>
+      <c r="J19" s="170"/>
+      <c r="K19" s="170"/>
+      <c r="L19" s="170"/>
+      <c r="M19" s="170"/>
+      <c r="N19" s="170"/>
+      <c r="O19" s="170"/>
+      <c r="P19" s="170"/>
+      <c r="R19" s="168"/>
+      <c r="S19" s="168"/>
+      <c r="T19" s="168"/>
+      <c r="U19" s="168"/>
+      <c r="V19" s="168"/>
+      <c r="W19" s="168"/>
+      <c r="X19" s="168"/>
+      <c r="Y19" s="168"/>
+      <c r="Z19" s="168"/>
+      <c r="AA19" s="168"/>
+      <c r="AB19" s="168"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="162"/>
-      <c r="R20" s="160"/>
-      <c r="S20" s="160"/>
-      <c r="T20" s="160"/>
-      <c r="U20" s="160"/>
-      <c r="V20" s="160"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="160"/>
-      <c r="AA20" s="160"/>
-      <c r="AB20" s="160"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="170"/>
+      <c r="J20" s="170"/>
+      <c r="K20" s="170"/>
+      <c r="L20" s="170"/>
+      <c r="M20" s="170"/>
+      <c r="N20" s="170"/>
+      <c r="O20" s="170"/>
+      <c r="P20" s="170"/>
+      <c r="R20" s="168"/>
+      <c r="S20" s="168"/>
+      <c r="T20" s="168"/>
+      <c r="U20" s="168"/>
+      <c r="V20" s="168"/>
+      <c r="W20" s="168"/>
+      <c r="X20" s="168"/>
+      <c r="Y20" s="168"/>
+      <c r="Z20" s="168"/>
+      <c r="AA20" s="168"/>
+      <c r="AB20" s="168"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="162"/>
-      <c r="O21" s="162"/>
-      <c r="P21" s="162"/>
-      <c r="R21" s="160"/>
-      <c r="S21" s="160"/>
-      <c r="T21" s="160"/>
-      <c r="U21" s="160"/>
-      <c r="V21" s="160"/>
-      <c r="W21" s="160"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="160"/>
-      <c r="AA21" s="160"/>
-      <c r="AB21" s="160"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
+      <c r="J21" s="170"/>
+      <c r="K21" s="170"/>
+      <c r="L21" s="170"/>
+      <c r="M21" s="170"/>
+      <c r="N21" s="170"/>
+      <c r="O21" s="170"/>
+      <c r="P21" s="170"/>
+      <c r="R21" s="168"/>
+      <c r="S21" s="168"/>
+      <c r="T21" s="168"/>
+      <c r="U21" s="168"/>
+      <c r="V21" s="168"/>
+      <c r="W21" s="168"/>
+      <c r="X21" s="168"/>
+      <c r="Y21" s="168"/>
+      <c r="Z21" s="168"/>
+      <c r="AA21" s="168"/>
+      <c r="AB21" s="168"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="R22" s="160"/>
-      <c r="S22" s="160"/>
-      <c r="T22" s="160"/>
-      <c r="U22" s="160"/>
-      <c r="V22" s="160"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="160"/>
-      <c r="AB22" s="160"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="170"/>
+      <c r="J22" s="170"/>
+      <c r="K22" s="170"/>
+      <c r="L22" s="170"/>
+      <c r="M22" s="170"/>
+      <c r="N22" s="170"/>
+      <c r="O22" s="170"/>
+      <c r="P22" s="170"/>
+      <c r="R22" s="168"/>
+      <c r="S22" s="168"/>
+      <c r="T22" s="168"/>
+      <c r="U22" s="168"/>
+      <c r="V22" s="168"/>
+      <c r="W22" s="168"/>
+      <c r="X22" s="168"/>
+      <c r="Y22" s="168"/>
+      <c r="Z22" s="168"/>
+      <c r="AA22" s="168"/>
+      <c r="AB22" s="168"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="162"/>
-      <c r="L23" s="162"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="R23" s="160"/>
-      <c r="S23" s="160"/>
-      <c r="T23" s="160"/>
-      <c r="U23" s="160"/>
-      <c r="V23" s="160"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="160"/>
-      <c r="AB23" s="160"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="88"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="170"/>
+      <c r="J23" s="170"/>
+      <c r="K23" s="170"/>
+      <c r="L23" s="170"/>
+      <c r="M23" s="170"/>
+      <c r="N23" s="170"/>
+      <c r="O23" s="170"/>
+      <c r="P23" s="170"/>
+      <c r="R23" s="168"/>
+      <c r="S23" s="168"/>
+      <c r="T23" s="168"/>
+      <c r="U23" s="168"/>
+      <c r="V23" s="168"/>
+      <c r="W23" s="168"/>
+      <c r="X23" s="168"/>
+      <c r="Y23" s="168"/>
+      <c r="Z23" s="168"/>
+      <c r="AA23" s="168"/>
+      <c r="AB23" s="168"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="162"/>
-      <c r="I24" s="162"/>
-      <c r="J24" s="162"/>
-      <c r="K24" s="162"/>
-      <c r="L24" s="162"/>
-      <c r="M24" s="162"/>
-      <c r="N24" s="162"/>
-      <c r="O24" s="162"/>
-      <c r="P24" s="162"/>
-      <c r="R24" s="160"/>
-      <c r="S24" s="160"/>
-      <c r="T24" s="160"/>
-      <c r="U24" s="160"/>
-      <c r="V24" s="160"/>
-      <c r="W24" s="160"/>
-      <c r="X24" s="160"/>
-      <c r="Y24" s="160"/>
-      <c r="Z24" s="160"/>
-      <c r="AA24" s="160"/>
-      <c r="AB24" s="160"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="G24" s="170"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="170"/>
+      <c r="J24" s="170"/>
+      <c r="K24" s="170"/>
+      <c r="L24" s="170"/>
+      <c r="M24" s="170"/>
+      <c r="N24" s="170"/>
+      <c r="O24" s="170"/>
+      <c r="P24" s="170"/>
+      <c r="R24" s="168"/>
+      <c r="S24" s="168"/>
+      <c r="T24" s="168"/>
+      <c r="U24" s="168"/>
+      <c r="V24" s="168"/>
+      <c r="W24" s="168"/>
+      <c r="X24" s="168"/>
+      <c r="Y24" s="168"/>
+      <c r="Z24" s="168"/>
+      <c r="AA24" s="168"/>
+      <c r="AB24" s="168"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="G25" s="162"/>
-      <c r="H25" s="162"/>
-      <c r="I25" s="162"/>
-      <c r="J25" s="162"/>
-      <c r="K25" s="162"/>
-      <c r="L25" s="162"/>
-      <c r="M25" s="162"/>
-      <c r="N25" s="162"/>
-      <c r="O25" s="162"/>
-      <c r="P25" s="162"/>
-      <c r="R25" s="160"/>
-      <c r="S25" s="160"/>
-      <c r="T25" s="160"/>
-      <c r="U25" s="160"/>
-      <c r="V25" s="160"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
-      <c r="Y25" s="160"/>
-      <c r="Z25" s="160"/>
-      <c r="AA25" s="160"/>
-      <c r="AB25" s="160"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="170"/>
+      <c r="J25" s="170"/>
+      <c r="K25" s="170"/>
+      <c r="L25" s="170"/>
+      <c r="M25" s="170"/>
+      <c r="N25" s="170"/>
+      <c r="O25" s="170"/>
+      <c r="P25" s="170"/>
+      <c r="R25" s="168"/>
+      <c r="S25" s="168"/>
+      <c r="T25" s="168"/>
+      <c r="U25" s="168"/>
+      <c r="V25" s="168"/>
+      <c r="W25" s="168"/>
+      <c r="X25" s="168"/>
+      <c r="Y25" s="168"/>
+      <c r="Z25" s="168"/>
+      <c r="AA25" s="168"/>
+      <c r="AB25" s="168"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="162"/>
-      <c r="L26" s="162"/>
-      <c r="M26" s="162"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="162"/>
-      <c r="P26" s="162"/>
-      <c r="R26" s="160"/>
-      <c r="S26" s="160"/>
-      <c r="T26" s="160"/>
-      <c r="U26" s="160"/>
-      <c r="V26" s="160"/>
-      <c r="W26" s="160"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="160"/>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="160"/>
-      <c r="AB26" s="160"/>
+      <c r="G26" s="170"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="170"/>
+      <c r="J26" s="170"/>
+      <c r="K26" s="170"/>
+      <c r="L26" s="170"/>
+      <c r="M26" s="170"/>
+      <c r="N26" s="170"/>
+      <c r="O26" s="170"/>
+      <c r="P26" s="170"/>
+      <c r="R26" s="168"/>
+      <c r="S26" s="168"/>
+      <c r="T26" s="168"/>
+      <c r="U26" s="168"/>
+      <c r="V26" s="168"/>
+      <c r="W26" s="168"/>
+      <c r="X26" s="168"/>
+      <c r="Y26" s="168"/>
+      <c r="Z26" s="168"/>
+      <c r="AA26" s="168"/>
+      <c r="AB26" s="168"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="162"/>
-      <c r="L27" s="162"/>
-      <c r="M27" s="162"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
-      <c r="P27" s="162"/>
-      <c r="R27" s="160"/>
-      <c r="S27" s="160"/>
-      <c r="T27" s="160"/>
-      <c r="U27" s="160"/>
-      <c r="V27" s="160"/>
-      <c r="W27" s="160"/>
-      <c r="X27" s="160"/>
-      <c r="Y27" s="160"/>
-      <c r="Z27" s="160"/>
-      <c r="AA27" s="160"/>
-      <c r="AB27" s="160"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
+      <c r="L27" s="170"/>
+      <c r="M27" s="170"/>
+      <c r="N27" s="170"/>
+      <c r="O27" s="170"/>
+      <c r="P27" s="170"/>
+      <c r="R27" s="168"/>
+      <c r="S27" s="168"/>
+      <c r="T27" s="168"/>
+      <c r="U27" s="168"/>
+      <c r="V27" s="168"/>
+      <c r="W27" s="168"/>
+      <c r="X27" s="168"/>
+      <c r="Y27" s="168"/>
+      <c r="Z27" s="168"/>
+      <c r="AA27" s="168"/>
+      <c r="AB27" s="168"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="162"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="162"/>
-      <c r="P28" s="162"/>
-      <c r="R28" s="160"/>
-      <c r="S28" s="160"/>
-      <c r="T28" s="160"/>
-      <c r="U28" s="160"/>
-      <c r="V28" s="160"/>
-      <c r="W28" s="160"/>
-      <c r="X28" s="160"/>
-      <c r="Y28" s="160"/>
-      <c r="Z28" s="160"/>
-      <c r="AA28" s="160"/>
-      <c r="AB28" s="160"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="170"/>
+      <c r="J28" s="170"/>
+      <c r="K28" s="170"/>
+      <c r="L28" s="170"/>
+      <c r="M28" s="170"/>
+      <c r="N28" s="170"/>
+      <c r="O28" s="170"/>
+      <c r="P28" s="170"/>
+      <c r="R28" s="168"/>
+      <c r="S28" s="168"/>
+      <c r="T28" s="168"/>
+      <c r="U28" s="168"/>
+      <c r="V28" s="168"/>
+      <c r="W28" s="168"/>
+      <c r="X28" s="168"/>
+      <c r="Y28" s="168"/>
+      <c r="Z28" s="168"/>
+      <c r="AA28" s="168"/>
+      <c r="AB28" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -18324,10 +19211,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="68" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:B46"/>
+    <sheetView topLeftCell="A4" zoomScale="68" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18347,360 +19234,368 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="169.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="108" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="109"/>
+    </row>
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="61" t="s">
+        <v>639</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="46" t="s">
         <v>431</v>
       </c>
-      <c r="B6" s="101"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A7" s="44" t="s">
-        <v>438</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="111.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="75" t="s">
-        <v>182</v>
-      </c>
-      <c r="B9" s="76"/>
-    </row>
-    <row r="10" spans="1:2" ht="142.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="75" t="s">
-        <v>233</v>
-      </c>
-      <c r="B10" s="76"/>
-    </row>
-    <row r="11" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="75" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="76"/>
+    </row>
+    <row r="9" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="111.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="83" t="s">
+        <v>179</v>
+      </c>
+      <c r="B10" s="84"/>
+    </row>
+    <row r="11" spans="1:2" ht="142.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="83" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="75" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="76"/>
-    </row>
-    <row r="13" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="5" t="s">
+      <c r="A12" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="84"/>
+    </row>
+    <row r="13" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="83" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="75" t="s">
-        <v>568</v>
-      </c>
-      <c r="B14" s="76"/>
-    </row>
-    <row r="15" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="B15" s="76"/>
-    </row>
-    <row r="16" spans="1:2" ht="56.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="84"/>
+    </row>
+    <row r="14" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="83" t="s">
+        <v>560</v>
+      </c>
+      <c r="B15" s="84"/>
+    </row>
+    <row r="16" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="83" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="84"/>
+    </row>
+    <row r="17" spans="1:2" ht="56.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="83" t="s">
         <v>301</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="75" t="s">
-        <v>307</v>
-      </c>
-      <c r="B20" s="76"/>
-    </row>
-    <row r="21" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="77" t="s">
-        <v>325</v>
-      </c>
-      <c r="B21" s="78"/>
-    </row>
-    <row r="22" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A22" s="14" t="s">
+      <c r="B21" s="84"/>
+    </row>
+    <row r="22" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="85" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" s="86"/>
+    </row>
+    <row r="23" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A23" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="85" t="s">
+        <v>330</v>
+      </c>
+      <c r="B28" s="86"/>
+    </row>
+    <row r="29" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B29" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A30" s="5" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="77" t="s">
-        <v>336</v>
-      </c>
-      <c r="B27" s="78"/>
-    </row>
-    <row r="28" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B31" s="98" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="B32" s="99"/>
-    </row>
-    <row r="33" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="285" x14ac:dyDescent="0.45">
+        <v>344</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A32" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B32" s="106" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B33" s="107"/>
+    </row>
+    <row r="34" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="36" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="285" x14ac:dyDescent="0.45">
+      <c r="A35" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A36" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A37" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B35" s="47" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A36" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A37" s="5" t="s">
-        <v>463</v>
-      </c>
       <c r="B37" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>551</v>
+        <v>455</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>552</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="5" t="s">
+    <row r="42" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A42" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="243" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="69" t="s">
+        <v>559</v>
+      </c>
+      <c r="B43" s="70"/>
+    </row>
+    <row r="44" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A44" s="5" t="s">
         <v>562</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="243" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="61" t="s">
-        <v>567</v>
-      </c>
-      <c r="B42" s="62"/>
-    </row>
-    <row r="43" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A43" s="5" t="s">
-        <v>570</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="B44" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A45" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A44" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A45" s="5" t="s">
+    <row r="46" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A46" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="105" t="s">
         <v>589</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="97" t="s">
-        <v>597</v>
-      </c>
-      <c r="B46" s="72"/>
+      <c r="B47" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" xr:uid="{B3A5F69C-D686-43CD-96E0-B7F7221DEAE2}"/>
-    <hyperlink ref="A22" r:id="rId2" display="https://www.youtube.com/watch?v=myqfTX9ZbTs" xr:uid="{42824858-BCB2-40FE-A1B1-363AF15C6E08}"/>
-    <hyperlink ref="A24" r:id="rId3" xr:uid="{BF850609-5B29-47FB-BC2C-FF245182470F}"/>
-    <hyperlink ref="A25" r:id="rId4" xr:uid="{EFB79A59-163D-4498-B11F-2FDAE67D8C27}"/>
-    <hyperlink ref="A32" r:id="rId5" xr:uid="{A5C1ECE4-53CB-4192-B030-792C595341DA}"/>
+    <hyperlink ref="A19" r:id="rId1" xr:uid="{B3A5F69C-D686-43CD-96E0-B7F7221DEAE2}"/>
+    <hyperlink ref="A23" r:id="rId2" display="https://www.youtube.com/watch?v=myqfTX9ZbTs" xr:uid="{42824858-BCB2-40FE-A1B1-363AF15C6E08}"/>
+    <hyperlink ref="A25" r:id="rId3" xr:uid="{BF850609-5B29-47FB-BC2C-FF245182470F}"/>
+    <hyperlink ref="A26" r:id="rId4" xr:uid="{EFB79A59-163D-4498-B11F-2FDAE67D8C27}"/>
+    <hyperlink ref="A33" r:id="rId5" xr:uid="{A5C1ECE4-53CB-4192-B030-792C595341DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -18727,93 +19622,93 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="E1" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F4" s="29" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="102" t="s">
-        <v>348</v>
-      </c>
-      <c r="D9" s="103"/>
+      <c r="C9" s="110" t="s">
+        <v>341</v>
+      </c>
+      <c r="D9" s="111"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C10" s="104"/>
-      <c r="D10" s="105"/>
+      <c r="C10" s="112"/>
+      <c r="D10" s="113"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C11" s="104"/>
-      <c r="D11" s="105"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="113"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="104"/>
-      <c r="D12" s="105"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C13" s="104"/>
-      <c r="D13" s="105"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="113"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C14" s="104"/>
-      <c r="D14" s="105"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C15" s="104"/>
-      <c r="D15" s="105"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="113"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C16" s="104"/>
-      <c r="D16" s="105"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="113"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C17" s="104"/>
-      <c r="D17" s="105"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="113"/>
     </row>
     <row r="18" spans="3:4" ht="219" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="106"/>
-      <c r="D18" s="107"/>
+      <c r="C18" s="114"/>
+      <c r="D18" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -18875,7 +19770,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>1</v>
@@ -18883,238 +19778,238 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>210</v>
+        <v>191</v>
+      </c>
+      <c r="C7" s="106" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C8" s="99"/>
+        <v>209</v>
+      </c>
+      <c r="C8" s="107"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="98" t="s">
-        <v>216</v>
+        <v>191</v>
+      </c>
+      <c r="C9" s="106" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="99"/>
+        <v>209</v>
+      </c>
+      <c r="C10" s="107"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C11" s="43" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="98" t="s">
-        <v>223</v>
+        <v>191</v>
+      </c>
+      <c r="C12" s="106" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C13" s="99"/>
+        <v>209</v>
+      </c>
+      <c r="C13" s="107"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="313.5" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -19158,98 +20053,98 @@
     </row>
     <row r="2" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="41" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="41" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="41" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="41" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="41" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="41" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="41" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="41" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A10" s="41" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A11" s="41" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A12" s="41" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="41" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -19283,10 +20178,10 @@
     </row>
     <row r="2" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -19319,91 +20214,91 @@
     </row>
     <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="118" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="110" t="s">
-        <v>440</v>
-      </c>
-      <c r="B3" s="111"/>
+      <c r="B3" s="119"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="108" t="s">
-        <v>433</v>
-      </c>
-      <c r="B4" s="109"/>
+      <c r="A4" s="116" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" s="117"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="77" t="s">
-        <v>451</v>
-      </c>
-      <c r="B12" s="112"/>
+      <c r="A12" s="85" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="120"/>
     </row>
     <row r="13" spans="1:2" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="69" t="s">
-        <v>453</v>
-      </c>
-      <c r="B13" s="113"/>
+      <c r="A13" s="77" t="s">
+        <v>445</v>
+      </c>
+      <c r="B13" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Geek_space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655ED2DB-BE74-4B87-A17B-547DBBEA1A6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEA5D11-DFF0-41F0-A7F9-B1C4FB9C2103}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="659">
   <si>
     <t>command</t>
   </si>
@@ -13487,6 +13487,12 @@
       </rPr>
       <t>(for postgres)</t>
     </r>
+  </si>
+  <si>
+    <t>git remote show &lt;remote-name&gt;</t>
+  </si>
+  <si>
+    <t>get details of a remote name</t>
   </si>
 </sst>
 </file>
@@ -14488,6 +14494,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14495,12 +14507,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17583,7 +17589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD53EB3-5666-4086-A858-E334E9D7BFD5}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="64" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="64" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -17831,7 +17837,7 @@
       <c r="A5" s="96" t="s">
         <v>540</v>
       </c>
-      <c r="B5" s="105"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="45"/>
     </row>
   </sheetData>
@@ -17848,10 +17854,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9486391-4526-4CDB-B19C-462E8D7C0BE7}">
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="71" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="71" workbookViewId="0">
+      <selection activeCell="G18" activeCellId="1" sqref="B19 G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18003,107 +18009,111 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>657</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B26" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A26" s="4" t="s">
+    <row r="27" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="5" t="s">
+    <row r="29" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A29" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="159" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="160"/>
-    </row>
-    <row r="30" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
+      <c r="B30" s="160"/>
+    </row>
+    <row r="31" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A31" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="161" t="s">
+    <row r="32" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="161" t="s">
         <v>628</v>
       </c>
-      <c r="B31" s="162"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A32" s="163"/>
-      <c r="B32" s="164"/>
+      <c r="B32" s="162"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="163"/>
@@ -18169,11 +18179,11 @@
       <c r="A48" s="163"/>
       <c r="B48" s="164"/>
     </row>
-    <row r="49" spans="1:2" ht="6.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="163"/>
       <c r="B49" s="164"/>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" ht="6.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="163"/>
       <c r="B50" s="164"/>
     </row>
@@ -18214,13 +18224,17 @@
       <c r="B59" s="164"/>
     </row>
     <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="165"/>
-      <c r="B60" s="166"/>
+      <c r="A60" s="163"/>
+      <c r="B60" s="164"/>
+    </row>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="165"/>
+      <c r="B61" s="166"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A31:B60"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A32:B61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19265,10 +19279,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="169.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="105" t="s">
         <v>423</v>
       </c>
-      <c r="B6" s="109"/>
+      <c r="B6" s="106"/>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="61" t="s">
@@ -19456,7 +19470,7 @@
       <c r="A32" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B32" s="106" t="s">
+      <c r="B32" s="108" t="s">
         <v>385</v>
       </c>
     </row>
@@ -19464,7 +19478,7 @@
       <c r="A33" s="14" t="s">
         <v>389</v>
       </c>
-      <c r="B33" s="107"/>
+      <c r="B33" s="109"/>
     </row>
     <row r="34" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
@@ -19569,13 +19583,18 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="105" t="s">
+      <c r="A47" s="107" t="s">
         <v>589</v>
       </c>
       <c r="B47" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A13:B13"/>
@@ -19584,11 +19603,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A19" r:id="rId1" xr:uid="{B3A5F69C-D686-43CD-96E0-B7F7221DEAE2}"/>
@@ -19838,7 +19852,7 @@
       <c r="B7" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="108" t="s">
         <v>207</v>
       </c>
     </row>
@@ -19849,7 +19863,7 @@
       <c r="B8" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C8" s="107"/>
+      <c r="C8" s="109"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
@@ -19858,7 +19872,7 @@
       <c r="B9" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="106" t="s">
+      <c r="C9" s="108" t="s">
         <v>213</v>
       </c>
     </row>
@@ -19869,7 +19883,7 @@
       <c r="B10" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C10" s="107"/>
+      <c r="C10" s="109"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
@@ -19889,7 +19903,7 @@
       <c r="B12" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="106" t="s">
+      <c r="C12" s="108" t="s">
         <v>220</v>
       </c>
     </row>
@@ -19900,7 +19914,7 @@
       <c r="B13" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C13" s="107"/>
+      <c r="C13" s="109"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Geek_space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13F907C-DD0D-44F5-A3D1-5E5F00AB0342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8919E1-3C04-425E-B2AC-2568B970F13A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="766">
   <si>
     <t>command</t>
   </si>
@@ -2785,63 +2785,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">1. datetime is for formatting date and time
-2. timedelta is for finding out duration or difference(
-  ref- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://docs.python.org/2/library/datetime.html</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>representation-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-year-Y
-month-m
-day-d
-Hour-H
-min-m
-second-s</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Permission
 </t>
     </r>
@@ -7354,22 +7297,6 @@
     <t>packages</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">For pytest to identify files the filename should be in the format </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>test_something.py</t>
-    </r>
-  </si>
-  <si>
     <t>py.test</t>
   </si>
   <si>
@@ -7432,9 +7359,6 @@
       <t>[pytest]
 DJANGO_SETTINGS_MODULE = &lt;ProjectName&gt;.settings</t>
     </r>
-  </si>
-  <si>
-    <t>py.test -k &lt;keyword&gt;</t>
   </si>
   <si>
     <t>for executing test cases with name containing the &lt;keyword&gt;(with or without quotes)</t>
@@ -8040,85 +7964,6 @@
   </si>
   <si>
     <r>
-      <t>setUp() and setUpClass()
-setUpClass</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tearDownClass</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> are run once for the whole class; </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>setUp</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tearDown</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> are run before and after each test method.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>1. pytest(</t>
     </r>
     <r>
@@ -8185,45 +8030,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">pip install pytest-cov
-py.test --cov --cov-report=&lt;coverage-term&gt;
---cov </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for displaying coverage
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">--cov-report </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>to generate the report</t>
     </r>
   </si>
   <si>
@@ -11506,183 +11312,6 @@
   </si>
   <si>
     <r>
-      <t>from datetime import datetime
-from datetime import timedelta
-strftime()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is an instance method of datetime object and can be used to get a date/time in a particular format.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ob.strftime("format")
-S=datetime.now()
-X=datetime(2016,10,13)
-print(S) -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> prints current date and time</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-print(X) - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">prints custom date and time provided
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">print(datetime.now().strftime("%Y.%m.%d")) - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>yyyy.mm.dd</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-----------------------------------------------
-a = datetime(2020, 10, 10, 6, 48, 40)
-b = a + timedelta(minutes=1)
-print(a, b) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gives a=2020-10-10 06:48:40, b=2020-10-10 06:49:40</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-a.date() </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gives the date part</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-a.time() </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">gives the time part
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">print(a.replace(second=0)) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>gives 2020-10-10 06:48:00</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">to initialize a package(this will create a package.json file in the folder)
 </t>
     </r>
@@ -11782,516 +11411,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>This is same as Pipfile and Pipfile.lock in pipenv</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PIPENV
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. pip install pipenv.
-2. to create an environment-
-     a. navigate to the folder, run command </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pipenv install</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,
-     b. for specifying python version </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install --python 3.8
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">c. to activate the environment, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pipenv shell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(can also be used to create and activate a non-existing environment)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">d. to deactivate, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">exit
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(When the env is created, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pipfile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pipfile.lock</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> files are added to the location. Since python recognises these files, the actual executables are nomore required. So, activation can only be done from the location of the virtual env. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The environment is created in user-&gt;.virtualenvs folder in C-drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pipfile contains all packages, python version and other info about the env. Pipfile.lock is a more descriptive version that should not be touched. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3. to remove the env, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv --rm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">from the location. But this will not remove the Pipfile and Pipfile.lock files.
-4. if the files are already present, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">will create an env using the info present in the file.
-5. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> refers to Pipfile, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv sync </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">refers to Pipfile.lock for installation of packages
-6. to install a package </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install/uninstall &lt;package&gt;, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">this will also add/remove the package from Pipfile
-7. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv lock </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is to generate or update the Pipfile.lock file
-8. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv --dev &lt;package&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>installs the package in dev-mode, will not be part of main packages</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-9. This will fail a build if the Pipfile.lock is out–of–date, instead of generating a new one.
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install --deploy
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">This is useful when creating Dockerfile while creating containers using pipenv
-10. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install --system
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">This will install packages from Pipfile to the parent system and not create a separate virtaul env.    This is useful when creating a container when a separate virtual env is not required to be created and packages can be installed directly to the container.
-11. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">dev mode
-pipenv install --dev/-d &lt;package&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">installs the package in dev-mode and enlists the package name in Pipfile under 'dev-packages'. Now if the Pipfile is copied to some other location, and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">command is run, then only the regular packages are installed and the dev-packages are skipped. This is helpful when sending the files from dev to user environment
-12. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv --venv </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">searches for the pipfiles in the location, then identifies the virtual env linked to it and returns the location where the virtualenv is stored.
-</t>
     </r>
   </si>
   <si>
@@ -16542,12 +15661,1468 @@
       <t>x.__repr__()</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">body = {
+  "key1": "value1",
+  "key2": "value2"
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>make requests</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+get_res = requests.get(url, params=body)
+post_res = requests.post(url, data=body)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">extract data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_req.json()
+post_req.text</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">requests </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>module</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PIPENV
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. pip install pipenv.
+2. to create an environment-
+     a. navigate to the folder, run command </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pipenv install</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,
+     b. for specifying python version </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install --python 3.8
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">c. to activate the environment, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pipenv shell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(can also be used to create and activate a non-existing environment)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">d. to deactivate, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">exit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(When the env is created, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pipfile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pipfile.lock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> files are added to the location. Since python recognises these files, the actual executables are nomore required. So, activation can only be done from the location of the virtual env. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The environment is created in user-&gt;.virtualenvs folder in C-drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pipfile contains all packages, python version and other info about the env. Pipfile.lock is a more descriptive version that should not be touched. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. to remove the env, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv --rm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">from the location. But this will not remove the Pipfile and Pipfile.lock files.
+4. if the files are already present, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">will create an env using the info present in the file.
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> refers to Pipfile, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv sync </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">refers to Pipfile.lock for installation of packages
+6. to install a package </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install/uninstall &lt;package&gt;, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">this will also add/remove the package from Pipfile
+7. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv lock </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to generate or update the Pipfile.lock file
+8. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv graph </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">enlists all packages installed. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pip freeze </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">can also be used. But </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">graph </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shows main package and its dependencies separately.
+9. This will fail a build if the Pipfile.lock is out–of–date, instead of generating a new one.
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install --deploy
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This is useful when creating Dockerfile while creating containers using pipenv
+10. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install --system
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This will install packages from Pipfile to the parent system and not create a separate virtaul env.    This is useful when creating a container when a separate virtual env is not required to be created and packages can be installed directly to the container.
+11. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dev mode
+pipenv install --dev/-d &lt;package&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">installs the package in dev-mode and enlists the package name in Pipfile under 'dev-packages'. Now if the Pipfile is copied to some other location, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">command is run, then only the regular packages are installed and the dev-packages are skipped. This is helpful when sending the files from dev to user environment
+12. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv --venv </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">searches for the pipfiles in the location, then identifies the virtual env linked to it and returns the location where the virtualenv is stored.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>SELECT TOP(10) * FROM table_name</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <r>
+      <t>from datetime import datetime
+from datetime import timedelta
+strftime()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an instance method of datetime object and can be used to get a date/time in a particular format.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ob.strftime("format")
+S=datetime.now()
+X=datetime(2016,10,13)
+print(S) -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> prints current date and time</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+print(X) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">prints custom date and time provided
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">print(datetime.now().strftime("%Y.%m.%d")) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">yyyy.mm.dd
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>----------------------------------------------
+import datetime
+x = datetime.datetime.now().</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strftime</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("%Y-%M-%d")
+print(x)
+print(datetime.datetime.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strptime</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(x, "%Y-%M-%d"))
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o/p-
+2021-21-09
+2021-01-09 00:21:00</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+----------------------------------------------
+a = datetime(2020, 10, 10, 6, 48, 40)
+b = a + timedelta(minutes=1)
+print(a, b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gives a=2020-10-10 06:48:40, b=2020-10-10 06:49:40</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a.date() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gives the date part</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a.time() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">gives the time part
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">print(a.replace(second=0)) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gives 2020-10-10 06:48:00</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. datetime is for formatting date and time
+2. timedelta is for finding out duration or difference(
+  ref- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://docs.python.org/2/library/datetime.html</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>representation-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+year-Y
+month-m
+day-d
+Hour-H
+min-m
+second-s
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strftime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> formats datetime object to human readable format. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strptime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parses strings using date-time formats and returns daetime object</t>
+    </r>
+  </si>
+  <si>
+    <t>linting and formatting in vscode</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">settings.json
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+    "python.pythonPath": "C:\\Users\\pal18\\.virtualenvs\\server-845X3DJ8\\Scripts\\python.exe",
+    "editor.formatOnSave": true,
+    "python.formatting.provider": "autopep8",
+    "python.linting.pylintEnabled": true,
+    "python.linting.lintOnSave": true,
+    "python.linting.pylintArgs": [
+        "--load-plugins=pylint_django",
+        "--django-settings-module=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;mainapp&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.settings"
+    ],
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Change &lt;mainapp&gt; to be your main app directory</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">packages to be installed - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pylint, pylint-django(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for django</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), autopep8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">x = {"name": 12}
+x.setdefault("name", 20)
+print(x) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">gives {'name': 12}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+x = {"name": 12}
+x.setdefault("age", 20)
+print(x) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gives {'name': 12, 'age': 20}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setDefault()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> searches for a key, and if not found applies a default value to it</t>
+    </r>
+  </si>
+  <si>
+    <t>py.test -k &lt;keyword1&gt; -k &lt;keyword2&gt;</t>
+  </si>
+  <si>
+    <t>python manage.py makemigrations --dry-run</t>
+  </si>
+  <si>
+    <t>displays migrations without actually creating the migration files</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pip install pytest-cov
+py.test --cov --cov-report=&lt;coverage-term&gt;
+--cov </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for displaying coverage
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">--cov-report </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to generate the report</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+--verbose </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for showing expanded form of test cases</t>
+    </r>
+  </si>
+  <si>
+    <t>pytest --verbose</t>
+  </si>
+  <si>
+    <t>Executing pytest with the --verbose flag will cause it to list the fully qualified name of every test case(expanded view)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For pytest to identify files the filename should be in the format </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>test_something.py</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">even </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">test.py </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>will not work, must contain underscore</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>setUp() and setUpClass()
+setUpClass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tearDownClass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are run once for the whole class; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setUp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tearDown</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are run before and after each test method.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for class-level setup it is better to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setUpTestData</t>
+    </r>
+  </si>
+  <si>
+    <t>from rest_framework.test import APITestCase
+from django.shortcuts import reverse
+from rest_framework.test import APIRequestFactory
+from mixer.backend.django import mixer
+from blog_api.views import PostList
+from django.contrib.auth.models import User
+class TestCaseBlogAPI(APITestCase):
+    URL = reverse("blog_api:listcreate")
+    @classmethod
+    def setUpTestData(cls):
+        cls.factory = APIRequestFactory()
+        cls.user = mixer.blend(User, is_superuser=True)
+    def test_blog_list_response(self):
+        req = self.factory.get(self.URL)
+        req.user = self.user
+        res = PostList.as_view()(req)
+        self.assertEqual(res.status_code, 200)</t>
+  </si>
+  <si>
+    <t>a sample of testing setup</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">use of mixer
+usage- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mixer.blend('app-name.model-name', args)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> from mixer.backend.django import mixer
+mixer.blend('blog.Post', author=cls.user, category=category)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -16766,6 +17341,14 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -17281,7 +17864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -17852,6 +18435,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -17930,13 +18519,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>859895</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>959115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3355463</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>2664102</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -18422,10 +19011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12D5300-F2CC-4278-8E60-22661B83A8CD}">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="65" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A69" sqref="A67:A69"/>
+    <sheetView topLeftCell="A60" zoomScale="65" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18518,23 +19107,23 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>348</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>144</v>
@@ -18562,7 +19151,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="91" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B16" s="92"/>
     </row>
@@ -18592,322 +19181,346 @@
     </row>
     <row r="20" spans="1:2" ht="363.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>617</v>
+        <v>748</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>226</v>
+        <v>749</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="89" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B21" s="90"/>
     </row>
     <row r="22" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="89" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B24" s="90"/>
     </row>
     <row r="25" spans="1:2" ht="60.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="279.39999999999998" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A30" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="71.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+    </row>
+    <row r="44" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="150.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="83" t="s">
-        <v>467</v>
-      </c>
-      <c r="B45" s="84"/>
-    </row>
-    <row r="46" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="85" t="s">
-        <v>466</v>
-      </c>
-      <c r="B46" s="86"/>
-    </row>
-    <row r="47" spans="1:2" ht="357" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="5" t="s">
-        <v>531</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+        <v>743</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A45" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="150.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="83" t="s">
+        <v>462</v>
+      </c>
+      <c r="B46" s="84"/>
+    </row>
+    <row r="47" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="85" t="s">
+        <v>461</v>
+      </c>
+      <c r="B47" s="86"/>
+    </row>
+    <row r="48" spans="1:2" ht="357" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A50" s="14" t="s">
-        <v>566</v>
+        <v>551</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A50" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="50" t="s">
-        <v>591</v>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="14" t="s">
+        <v>561</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="B52" s="46" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>575</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A54" s="77" t="s">
-        <v>592</v>
-      </c>
-      <c r="B54" s="78"/>
+        <v>564</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A54" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="79"/>
-      <c r="B55" s="80"/>
+      <c r="A55" s="77" t="s">
+        <v>587</v>
+      </c>
+      <c r="B55" s="78"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" s="79"/>
       <c r="B56" s="80"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="81"/>
-      <c r="B57" s="82"/>
+      <c r="A57" s="79"/>
+      <c r="B57" s="80"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="75" t="s">
-        <v>600</v>
-      </c>
-      <c r="B58" s="76"/>
-    </row>
-    <row r="59" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A59" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A58" s="81"/>
+      <c r="B58" s="82"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="75" t="s">
+        <v>595</v>
+      </c>
+      <c r="B59" s="76"/>
+    </row>
+    <row r="60" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
-        <v>749</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+        <v>639</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>748</v>
+        <v>742</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A62" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
+      <c r="A63" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A64" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>753</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A54:B57"/>
-    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A55:B58"/>
     <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A24:B24"/>
@@ -18918,7 +19531,7 @@
     <hyperlink ref="A3" r:id="rId2" xr:uid="{C7A1E3B0-B6BD-4AB6-9524-E7E24FA698CF}"/>
     <hyperlink ref="A30" r:id="rId3" location=":~:text=In%20the%20method%20overloading%2C%20methods,same%20name%20and%20same%20signatures.&amp;text=Method%20overloading%20is%20a%20example%20of%20compile%20time%20polymorphism." display="https://www.geeksforgeeks.org/difference-between-method-overloading-and-method-overriding-in-python/#:~:text=In%20the%20method%20overloading%2C%20methods,same%20name%20and%20same%20signatures.&amp;text=Method%20overloading%20is%20a%20example%20of%20compile%20time%20polymorphism." xr:uid="{E7677120-9F8D-427F-AD24-A54EBE44C6EC}"/>
     <hyperlink ref="A43" r:id="rId4" xr:uid="{C1FBA173-A8F8-48CE-A143-90B48A8EE845}"/>
-    <hyperlink ref="A50" r:id="rId5" xr:uid="{E0241B67-CEC6-42C5-9AEF-EEC6BE6D7B66}"/>
+    <hyperlink ref="A51" r:id="rId5" xr:uid="{E0241B67-CEC6-42C5-9AEF-EEC6BE6D7B66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -18929,7 +19542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A03C223-3A32-4643-903E-5A6CFDBE4BF7}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView zoomScale="51" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="51" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:V39"/>
     </sheetView>
   </sheetViews>
@@ -18957,13 +19570,13 @@
     </row>
     <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="E3" s="141" t="s">
-        <v>619</v>
+        <v>745</v>
       </c>
       <c r="F3" s="141"/>
       <c r="G3" s="141"/>
@@ -18985,10 +19598,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="E4" s="141"/>
       <c r="F4" s="141"/>
@@ -19011,10 +19624,10 @@
     </row>
     <row r="5" spans="1:22" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E5" s="141"/>
       <c r="F5" s="141"/>
@@ -19037,10 +19650,10 @@
     </row>
     <row r="6" spans="1:22" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E6" s="141"/>
       <c r="F6" s="141"/>
@@ -19746,7 +20359,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="144" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B1" s="144"/>
       <c r="C1" s="47"/>
@@ -19856,51 +20469,51 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="142" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B10" s="143"/>
     </row>
     <row r="11" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="85.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="75" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B15" s="76"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="145" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B16" s="146"/>
     </row>
@@ -19910,7 +20523,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="149" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B18" s="150"/>
       <c r="C18" s="48"/>
@@ -19921,10 +20534,10 @@
     </row>
     <row r="20" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -20006,48 +20619,48 @@
     </row>
     <row r="7" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="89" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B7" s="153"/>
     </row>
     <row r="8" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -20085,104 +20698,104 @@
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="51" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="54" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B8" s="57" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C8" s="127" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="56" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C9" s="130"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C10" s="130"/>
     </row>
     <row r="11" spans="1:3" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="55" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C11" s="133"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="52" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -20201,8 +20814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B77C4E-3E7B-4D80-A747-5F4AAFEFADA7}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="66" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView zoomScale="66" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20233,13 +20846,13 @@
     </row>
     <row r="3" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="155" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="E3" s="72"/>
       <c r="F3" s="71"/>
@@ -20255,10 +20868,10 @@
     </row>
     <row r="4" spans="1:15" ht="387" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D4" s="156"/>
       <c r="E4" s="71"/>
@@ -20283,26 +20896,26 @@
     </row>
     <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
@@ -20315,18 +20928,18 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>233</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>231</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
@@ -20355,7 +20968,7 @@
     </row>
     <row r="16" spans="1:15" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>66</v>
@@ -20374,7 +20987,7 @@
         <v>67</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -20471,7 +21084,7 @@
     </row>
     <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>147</v>
@@ -20517,39 +21130,39 @@
     </row>
     <row r="37" spans="1:2" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="171" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B37" s="172"/>
     </row>
     <row r="38" spans="1:2" ht="202.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="163" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B38" s="164"/>
     </row>
     <row r="39" spans="1:2" ht="324" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="161" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B39" s="162"/>
     </row>
     <row r="40" spans="1:2" ht="149.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="173" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B40" s="174"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>239</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="381.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="159" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B42" s="160"/>
     </row>
@@ -20559,50 +21172,50 @@
     </row>
     <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>329</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A45" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>332</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A46" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>335</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A47" s="63" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="B47" s="64" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A48" s="18" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A49" s="18" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -20647,7 +21260,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -20658,7 +21271,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>73</v>
@@ -20669,7 +21282,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>89</v>
@@ -20677,13 +21290,13 @@
     </row>
     <row r="4" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="199.5" x14ac:dyDescent="0.45">
@@ -20691,237 +21304,237 @@
         <v>184</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="283.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>247</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="228" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="D11" s="72"/>
     </row>
     <row r="12" spans="1:4" ht="263.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="91" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B12" s="175"/>
       <c r="C12" s="139"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A16" s="60" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="D16" s="178" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="123.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="60" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="60" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="D17" s="179"/>
     </row>
     <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="62" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="D18" s="179"/>
     </row>
     <row r="19" spans="1:4" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="121.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B21" s="176"/>
       <c r="C21" s="177"/>
     </row>
     <row r="22" spans="1:4" ht="228" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="26" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -20963,104 +21576,104 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="14" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="299.64999999999998" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="14" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>505</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C6" s="74"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="249.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="180" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="B13" s="181"/>
     </row>
@@ -21170,39 +21783,39 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="212.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="102" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B5" s="113"/>
       <c r="C5" s="43"/>
@@ -21251,10 +21864,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -21360,7 +21973,7 @@
     </row>
     <row r="17" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
@@ -21368,18 +21981,18 @@
     </row>
     <row r="18" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -21392,10 +22005,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
@@ -21443,7 +22056,7 @@
         <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
@@ -21451,7 +22064,7 @@
         <v>220</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
@@ -21478,7 +22091,7 @@
     </row>
     <row r="32" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="184" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="B32" s="185"/>
     </row>
@@ -21721,11 +22334,11 @@
         <v>160</v>
       </c>
       <c r="B12" s="106" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C12" s="107"/>
       <c r="D12" s="108" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E12" s="109"/>
       <c r="F12" s="109"/>
@@ -21803,7 +22416,7 @@
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="95"/>
       <c r="C20" s="100" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D20" s="101"/>
       <c r="E20" s="101"/>
@@ -21813,7 +22426,7 @@
       <c r="A21" s="31"/>
       <c r="B21" s="96"/>
       <c r="C21" s="97" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D21" s="98"/>
       <c r="E21" s="98"/>
@@ -21821,11 +22434,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="102" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B22" s="102"/>
       <c r="C22" s="103" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -21840,10 +22453,10 @@
     </row>
     <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="32" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -21899,49 +22512,49 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>384</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="104.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="185.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D6" s="192" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E6" s="192"/>
       <c r="G6" s="193" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H6" s="193"/>
       <c r="I6" s="193"/>
@@ -21953,7 +22566,7 @@
       <c r="O6" s="193"/>
       <c r="P6" s="193"/>
       <c r="R6" s="190" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="S6" s="191"/>
       <c r="T6" s="191"/>
@@ -21968,10 +22581,10 @@
     </row>
     <row r="7" spans="1:28" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D7" s="94"/>
       <c r="E7" s="94"/>
@@ -21999,10 +22612,10 @@
     </row>
     <row r="8" spans="1:28" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
@@ -22030,10 +22643,10 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="D9" s="94"/>
       <c r="E9" s="94"/>
@@ -22061,10 +22674,10 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>407</v>
       </c>
       <c r="D10" s="94"/>
       <c r="E10" s="94"/>
@@ -22092,10 +22705,10 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>391</v>
       </c>
       <c r="D11" s="94"/>
       <c r="E11" s="94"/>
@@ -22123,10 +22736,10 @@
     </row>
     <row r="12" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D12" s="94"/>
       <c r="E12" s="94"/>
@@ -22154,10 +22767,10 @@
     </row>
     <row r="13" spans="1:28" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D13" s="94"/>
       <c r="E13" s="94"/>
@@ -22185,10 +22798,10 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>408</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>409</v>
       </c>
       <c r="D14" s="94"/>
       <c r="E14" s="94"/>
@@ -22216,10 +22829,10 @@
     </row>
     <row r="15" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="D15" s="94"/>
       <c r="E15" s="94"/>
@@ -22247,10 +22860,10 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="D16" s="94"/>
       <c r="E16" s="94"/>
@@ -22278,10 +22891,10 @@
     </row>
     <row r="17" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D17" s="94"/>
       <c r="E17" s="94"/>
@@ -22592,10 +23205,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B21"/>
+    <sheetView topLeftCell="A46" zoomScale="68" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22647,24 +23260,24 @@
     </row>
     <row r="6" spans="1:2" ht="169.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="111" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B6" s="112"/>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="42" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B8" s="44" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
@@ -22709,251 +23322,259 @@
     </row>
     <row r="15" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="89" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B15" s="90"/>
     </row>
     <row r="16" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B16" s="90"/>
     </row>
     <row r="17" spans="1:2" ht="56.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>283</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>289</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B21" s="90"/>
     </row>
     <row r="22" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="91" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B22" s="92"/>
     </row>
     <row r="23" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A23" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>322</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="91" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B28" s="92"/>
     </row>
     <row r="29" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>337</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B32" s="114" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B33" s="115"/>
     </row>
     <row r="34" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>414</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="36" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="243" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="75" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B43" s="76"/>
     </row>
     <row r="44" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="113" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B47" s="86"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>756</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -23003,55 +23624,55 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" t="s">
         <v>297</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>298</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>299</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>300</v>
-      </c>
-      <c r="E1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" t="s">
         <v>302</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>303</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="28" t="s">
         <v>304</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F4" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>318</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="116" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D9" s="117"/>
     </row>
@@ -23133,10 +23754,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533A02BA-541E-4738-ACF6-D15E2A394ADC}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScale="72" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView topLeftCell="A27" zoomScale="72" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23182,24 +23803,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -23246,10 +23867,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="C10" s="95"/>
     </row>
@@ -23264,29 +23885,29 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>188</v>
@@ -23306,13 +23927,13 @@
     </row>
     <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -23339,18 +23960,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C19" s="114" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>188</v>
@@ -23414,286 +24035,282 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>709</v>
+        <v>746</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>212</v>
+        <v>747</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>723</v>
+        <v>701</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>652</v>
+        <v>717</v>
       </c>
       <c r="B33" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="285" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="122" t="s">
-        <v>726</v>
-      </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="124"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" s="70" t="s">
-        <v>698</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>661</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A52" s="5" t="s">
+      <c r="C34" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="285" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="122" t="s">
+        <v>719</v>
+      </c>
+      <c r="B35" s="123"/>
+      <c r="C35" s="124"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A52" s="70" t="s">
+        <v>691</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>654</v>
+      </c>
+      <c r="C52" s="34" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A53" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" s="5" t="s">
-        <v>668</v>
-      </c>
       <c r="B53" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>544</v>
+        <v>656</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>660</v>
+        <v>539</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>664</v>
+        <v>655</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
-        <v>666</v>
+        <v>657</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="175.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="134" t="s">
-        <v>673</v>
-      </c>
-      <c r="B59" s="134"/>
-      <c r="C59" s="134"/>
-    </row>
-    <row r="60" spans="1:3" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="122" t="s">
-        <v>674</v>
-      </c>
-      <c r="B60" s="123"/>
-      <c r="C60" s="124"/>
-    </row>
-    <row r="61" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A61" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>678</v>
-      </c>
+        <v>663</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="175.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="134" t="s">
+        <v>666</v>
+      </c>
+      <c r="B60" s="134"/>
+      <c r="C60" s="134"/>
+    </row>
+    <row r="61" spans="1:3" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="122" t="s">
+        <v>667</v>
+      </c>
+      <c r="B61" s="123"/>
+      <c r="C61" s="124"/>
     </row>
     <row r="62" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="157.15" thickBot="1" x14ac:dyDescent="0.5">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="157.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="5" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C65" s="65" t="s">
-        <v>682</v>
-      </c>
-      <c r="D65" s="125" t="s">
-        <v>715</v>
-      </c>
-      <c r="E65" s="126"/>
-      <c r="F65" s="126"/>
-      <c r="G65" s="127"/>
+        <v>654</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C66" s="65" t="s">
-        <v>683</v>
-      </c>
-      <c r="D66" s="128"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="129"/>
-      <c r="G66" s="130"/>
-    </row>
-    <row r="67" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+        <v>675</v>
+      </c>
+      <c r="D66" s="125" t="s">
+        <v>708</v>
+      </c>
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="127"/>
+    </row>
+    <row r="67" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C67" s="65" t="s">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="D67" s="128"/>
       <c r="E67" s="129"/>
@@ -23702,161 +24319,176 @@
     </row>
     <row r="68" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C68" s="65" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D68" s="128"/>
       <c r="E68" s="129"/>
       <c r="F68" s="129"/>
       <c r="G68" s="130"/>
     </row>
-    <row r="69" spans="1:7" ht="100.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
-        <v>710</v>
+        <v>680</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C69" s="65" t="s">
-        <v>697</v>
-      </c>
-      <c r="D69" s="131"/>
-      <c r="E69" s="132"/>
-      <c r="F69" s="132"/>
-      <c r="G69" s="133"/>
-    </row>
-    <row r="70" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
+        <v>681</v>
+      </c>
+      <c r="D69" s="128"/>
+      <c r="E69" s="129"/>
+      <c r="F69" s="129"/>
+      <c r="G69" s="130"/>
+    </row>
+    <row r="70" spans="1:7" ht="100.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="5" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+        <v>654</v>
+      </c>
+      <c r="C70" s="65" t="s">
+        <v>690</v>
+      </c>
+      <c r="D70" s="131"/>
+      <c r="E70" s="132"/>
+      <c r="F70" s="132"/>
+      <c r="G70" s="133"/>
+    </row>
+    <row r="71" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A72" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>689</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A72" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>661</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
         <v>713</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>728</v>
+        <v>707</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A80" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D65:G69"/>
-    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D66:G70"/>
+    <mergeCell ref="A35:C35"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A21" r:id="rId1" xr:uid="{68DBA053-7371-4398-A53E-B47D78DBF7AB}"/>
     <hyperlink ref="A22" r:id="rId2" xr:uid="{07771D4D-6E7B-44A9-AA95-183992AF4406}"/>
     <hyperlink ref="A24" r:id="rId3" display="https://www.tutorialspoint.com/postgresql/postgresql_create_table.htm" xr:uid="{8B6962A8-95F5-4823-BDFB-D78B04C44888}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{D5A9A024-43DB-4234-BE09-F4816880D748}"/>
-    <hyperlink ref="A51" r:id="rId5" xr:uid="{4EBB99E2-A60C-4056-A820-CCF98BE3B3EA}"/>
+    <hyperlink ref="A52" r:id="rId5" xr:uid="{4EBB99E2-A60C-4056-A820-CCF98BE3B3EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -23888,98 +24520,98 @@
     </row>
     <row r="2" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="40" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="40" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="40" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="40" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="40" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="40" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="40" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="40" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A10" s="40" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A11" s="40" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A12" s="40" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="40" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -24013,10 +24645,10 @@
     </row>
     <row r="2" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -24027,10 +24659,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864B1FE4-3AA2-4ABE-8291-75C714086D86}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="65" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24049,98 +24681,122 @@
     </row>
     <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="137" t="s">
-        <v>425</v>
-      </c>
-      <c r="B3" s="138"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A4" s="135" t="s">
-        <v>418</v>
-      </c>
-      <c r="B4" s="136"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A5" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>420</v>
-      </c>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" s="194" t="s">
+        <v>765</v>
+      </c>
+      <c r="B3" s="195" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="137" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="138"/>
+    </row>
+    <row r="5" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="135" t="s">
+        <v>760</v>
+      </c>
+      <c r="B5" s="136"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="285" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="91" t="s">
-        <v>436</v>
-      </c>
-      <c r="B12" s="139"/>
-    </row>
-    <row r="13" spans="1:2" ht="48.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="83" t="s">
-        <v>438</v>
-      </c>
-      <c r="B13" s="140"/>
+    <row r="13" spans="1:2" ht="285" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="91" t="s">
+        <v>433</v>
+      </c>
+      <c r="B14" s="139"/>
+    </row>
+    <row r="15" spans="1:2" ht="95.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="83" t="s">
+        <v>761</v>
+      </c>
+      <c r="B15" s="140"/>
+    </row>
+    <row r="16" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>763</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Geek_space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8919E1-3C04-425E-B2AC-2568B970F13A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3970A0-67D9-489B-B53A-D0C55F3F600D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="769">
   <si>
     <t>command</t>
   </si>
@@ -2899,45 +2899,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Switch</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
- is unique in that it renders a route exclusively. In contrast, every &lt;Route&gt; that matches the location renders inclusively.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Ref-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>https://reactrouter.com/core/api/Switch</t>
-    </r>
-  </si>
-  <si>
     <t>npm cache clean --force</t>
   </si>
   <si>
@@ -11121,32 +11082,6 @@
   </si>
   <si>
     <r>
-      <t>df.ExcelFile("</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>location of excel file</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>")</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>pd.read_excel("</t>
     </r>
     <r>
@@ -14255,331 +14190,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>(this will not ask for any questions and create a package.json woth default settings)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>PACKAGES
-1. bootstrap
-2. jquery</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dependency of bootstrap)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3. react-icons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(includes font-awesome as well)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4. popper.js</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(dependency of bootstrap)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-5. moment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(utility for date and time)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-6. react-moment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(moment binding library for react)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-7. lodash</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(utility for managing arrays)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8. redux</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(state management)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>9. react-redux</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(redux binding library for react)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-10. redux-thunk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(middleware that allows you to return functions, rather than just actions, within Redux)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-11. express</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(create backend server with node)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-12. concurrently</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(running multiple commands in a single line)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-13. cors</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(for adding cors support)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>14. graphql</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(for adding graphql functionality)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-15. express-graphql</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(graphql binding library for express)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-16. mongoose</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(object data modeling (ODM) library that provides a rigorous modeling environment for your data, enforcing structure as needed while still maintaining the flexibility that makes MongoDB powerful.)</t>
     </r>
   </si>
   <si>
@@ -17116,6 +16726,550 @@
   <si>
     <t xml:space="preserve"> from mixer.backend.django import mixer
 mixer.blend('blog.Post', author=cls.user, category=category)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const Header = ({ name }) =&gt; &lt;div&gt;hi {name}&lt;/div&gt;; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#component</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Header.propTypes = {
+  name: PropTypes.string
+};
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// Same approach for defaultProps too</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Header.defaultProps = {
+  name: "Alan"
+};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>defaultProps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>propTypes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in function based component</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Routing example
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import { Route, BrowserRouter as Router, Switch } from "react-router-dom";
+&lt;Router&gt;
+        &lt;Switch&gt;
+          &lt;Route exact path="/"&gt;
+            Home sweet Home
+          &lt;/Route&gt;
+          &lt;Route exact path="/header" component={Header} /&gt;
+          &lt;Route exact path="/footer" component={Footer} /&gt;
+        &lt;/Switch&gt;
+      &lt;/Router&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Routing in react
+Ref-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://reactrouter.com/core/api/Switch</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PACKAGES
+1. bootstrap
+2. jquery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dependency of bootstrap)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. react-icons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(includes font-awesome as well)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+4. popper.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dependency of bootstrap)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. moment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(utility for date and time)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+6. react-moment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(moment binding library for react)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+7. lodash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(utility for managing arrays)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8. redux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(state management)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9. react-redux</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(redux binding library for react)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+10. redux-thunk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(middleware that allows you to return functions, rather than just actions, within Redux)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+11. express</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(create backend server with node)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+12. concurrently</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(running multiple commands in a single line)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+13. cors</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(for adding cors support)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14. graphql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(for adding graphql functionality)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+15. express-graphql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(graphql binding library for express)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+16. mongoose</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(object data modeling (ODM) library that provides a rigorous modeling environment for your data, enforcing structure as needed while still maintaining the flexibility that makes MongoDB powerful.)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+17. apollo-boost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(interacting with graphql)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>18. react-apollo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(apollo binding for react)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>pd.ExcelFile("</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>location of excel file</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>")</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -17864,7 +18018,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18078,6 +18232,12 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -18186,12 +18346,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -18199,6 +18353,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18366,12 +18526,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -18434,12 +18588,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19107,23 +19255,23 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>565</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>347</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>144</v>
@@ -19136,10 +19284,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="151.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="88"/>
+      <c r="B14" s="90"/>
     </row>
     <row r="15" spans="1:4" ht="171" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
@@ -19150,10 +19298,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="91" t="s">
-        <v>342</v>
-      </c>
-      <c r="B16" s="92"/>
+      <c r="A16" s="93" t="s">
+        <v>341</v>
+      </c>
+      <c r="B16" s="94"/>
     </row>
     <row r="17" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
@@ -19181,338 +19329,338 @@
     </row>
     <row r="20" spans="1:2" ht="363.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="91" t="s">
         <v>226</v>
       </c>
-      <c r="B21" s="90"/>
+      <c r="B21" s="92"/>
     </row>
     <row r="22" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="89" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" s="90"/>
+      <c r="A24" s="91" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" s="92"/>
     </row>
     <row r="25" spans="1:2" ht="60.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="279.39999999999998" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A30" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="71.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>459</v>
-      </c>
     </row>
     <row r="46" spans="1:2" ht="150.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="83" t="s">
-        <v>462</v>
-      </c>
-      <c r="B46" s="84"/>
+      <c r="A46" s="85" t="s">
+        <v>461</v>
+      </c>
+      <c r="B46" s="86"/>
     </row>
     <row r="47" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="85" t="s">
-        <v>461</v>
-      </c>
-      <c r="B47" s="86"/>
+      <c r="A47" s="87" t="s">
+        <v>460</v>
+      </c>
+      <c r="B47" s="88"/>
     </row>
     <row r="48" spans="1:2" ht="357" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>550</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>561</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="50" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A55" s="77" t="s">
-        <v>587</v>
-      </c>
-      <c r="B55" s="78"/>
+      <c r="A55" s="79" t="s">
+        <v>586</v>
+      </c>
+      <c r="B55" s="80"/>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="79"/>
-      <c r="B56" s="80"/>
+      <c r="A56" s="81"/>
+      <c r="B56" s="82"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="79"/>
-      <c r="B57" s="80"/>
+      <c r="A57" s="81"/>
+      <c r="B57" s="82"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="81"/>
-      <c r="B58" s="82"/>
+      <c r="A58" s="83"/>
+      <c r="B58" s="84"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" s="75" t="s">
-        <v>595</v>
-      </c>
-      <c r="B59" s="76"/>
+      <c r="A59" s="77" t="s">
+        <v>594</v>
+      </c>
+      <c r="B59" s="78"/>
     </row>
     <row r="60" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -19575,764 +19723,764 @@
       <c r="B3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="141" t="s">
-        <v>745</v>
-      </c>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
+      <c r="E3" s="143" t="s">
+        <v>742</v>
+      </c>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="143"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="143"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="143"/>
+      <c r="U3" s="143"/>
+      <c r="V3" s="143"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
-      <c r="I4" s="141"/>
-      <c r="J4" s="141"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="141"/>
-      <c r="M4" s="141"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="141"/>
-      <c r="S4" s="141"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="141"/>
-      <c r="V4" s="141"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="143"/>
     </row>
     <row r="5" spans="1:22" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
-      <c r="O5" s="141"/>
-      <c r="P5" s="141"/>
-      <c r="Q5" s="141"/>
-      <c r="R5" s="141"/>
-      <c r="S5" s="141"/>
-      <c r="T5" s="141"/>
-      <c r="U5" s="141"/>
-      <c r="V5" s="141"/>
+        <v>527</v>
+      </c>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="143"/>
+      <c r="O5" s="143"/>
+      <c r="P5" s="143"/>
+      <c r="Q5" s="143"/>
+      <c r="R5" s="143"/>
+      <c r="S5" s="143"/>
+      <c r="T5" s="143"/>
+      <c r="U5" s="143"/>
+      <c r="V5" s="143"/>
     </row>
     <row r="6" spans="1:22" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>542</v>
-      </c>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
-      <c r="M6" s="141"/>
-      <c r="N6" s="141"/>
-      <c r="O6" s="141"/>
-      <c r="P6" s="141"/>
-      <c r="Q6" s="141"/>
-      <c r="R6" s="141"/>
-      <c r="S6" s="141"/>
-      <c r="T6" s="141"/>
-      <c r="U6" s="141"/>
-      <c r="V6" s="141"/>
+        <v>541</v>
+      </c>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="143"/>
+      <c r="K6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="143"/>
+      <c r="O6" s="143"/>
+      <c r="P6" s="143"/>
+      <c r="Q6" s="143"/>
+      <c r="R6" s="143"/>
+      <c r="S6" s="143"/>
+      <c r="T6" s="143"/>
+      <c r="U6" s="143"/>
+      <c r="V6" s="143"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="141"/>
-      <c r="S7" s="141"/>
-      <c r="T7" s="141"/>
-      <c r="U7" s="141"/>
-      <c r="V7" s="141"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="143"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="143"/>
+      <c r="R8" s="143"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="143"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E9" s="141"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="141"/>
-      <c r="S9" s="141"/>
-      <c r="T9" s="141"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="141"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
+      <c r="J9" s="143"/>
+      <c r="K9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
+      <c r="O9" s="143"/>
+      <c r="P9" s="143"/>
+      <c r="Q9" s="143"/>
+      <c r="R9" s="143"/>
+      <c r="S9" s="143"/>
+      <c r="T9" s="143"/>
+      <c r="U9" s="143"/>
+      <c r="V9" s="143"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="141"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="141"/>
-      <c r="T10" s="141"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="141"/>
+      <c r="E10" s="143"/>
+      <c r="F10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="143"/>
+      <c r="J10" s="143"/>
+      <c r="K10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="143"/>
+      <c r="P10" s="143"/>
+      <c r="Q10" s="143"/>
+      <c r="R10" s="143"/>
+      <c r="S10" s="143"/>
+      <c r="T10" s="143"/>
+      <c r="U10" s="143"/>
+      <c r="V10" s="143"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="141"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="141"/>
-      <c r="Q11" s="141"/>
-      <c r="R11" s="141"/>
-      <c r="S11" s="141"/>
-      <c r="T11" s="141"/>
-      <c r="U11" s="141"/>
-      <c r="V11" s="141"/>
+      <c r="E11" s="143"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="143"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="143"/>
+      <c r="J11" s="143"/>
+      <c r="K11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="143"/>
+      <c r="O11" s="143"/>
+      <c r="P11" s="143"/>
+      <c r="Q11" s="143"/>
+      <c r="R11" s="143"/>
+      <c r="S11" s="143"/>
+      <c r="T11" s="143"/>
+      <c r="U11" s="143"/>
+      <c r="V11" s="143"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="141"/>
-      <c r="R12" s="141"/>
-      <c r="S12" s="141"/>
-      <c r="T12" s="141"/>
-      <c r="U12" s="141"/>
-      <c r="V12" s="141"/>
+      <c r="E12" s="143"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="143"/>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="143"/>
+      <c r="R12" s="143"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
+      <c r="U12" s="143"/>
+      <c r="V12" s="143"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="141"/>
-      <c r="T13" s="141"/>
-      <c r="U13" s="141"/>
-      <c r="V13" s="141"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="143"/>
+      <c r="O13" s="143"/>
+      <c r="P13" s="143"/>
+      <c r="Q13" s="143"/>
+      <c r="R13" s="143"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="143"/>
+      <c r="U13" s="143"/>
+      <c r="V13" s="143"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="141"/>
-      <c r="T14" s="141"/>
-      <c r="U14" s="141"/>
-      <c r="V14" s="141"/>
+      <c r="E14" s="143"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="143"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="143"/>
+      <c r="J14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="143"/>
+      <c r="N14" s="143"/>
+      <c r="O14" s="143"/>
+      <c r="P14" s="143"/>
+      <c r="Q14" s="143"/>
+      <c r="R14" s="143"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="143"/>
+      <c r="U14" s="143"/>
+      <c r="V14" s="143"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E15" s="141"/>
-      <c r="F15" s="141"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="141"/>
-      <c r="I15" s="141"/>
-      <c r="J15" s="141"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="141"/>
-      <c r="Q15" s="141"/>
-      <c r="R15" s="141"/>
-      <c r="S15" s="141"/>
-      <c r="T15" s="141"/>
-      <c r="U15" s="141"/>
-      <c r="V15" s="141"/>
+      <c r="E15" s="143"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="143"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="143"/>
+      <c r="N15" s="143"/>
+      <c r="O15" s="143"/>
+      <c r="P15" s="143"/>
+      <c r="Q15" s="143"/>
+      <c r="R15" s="143"/>
+      <c r="S15" s="143"/>
+      <c r="T15" s="143"/>
+      <c r="U15" s="143"/>
+      <c r="V15" s="143"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E16" s="141"/>
-      <c r="F16" s="141"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="141"/>
-      <c r="I16" s="141"/>
-      <c r="J16" s="141"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="141"/>
-      <c r="Q16" s="141"/>
-      <c r="R16" s="141"/>
-      <c r="S16" s="141"/>
-      <c r="T16" s="141"/>
-      <c r="U16" s="141"/>
-      <c r="V16" s="141"/>
+      <c r="E16" s="143"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="143"/>
+      <c r="J16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="143"/>
+      <c r="N16" s="143"/>
+      <c r="O16" s="143"/>
+      <c r="P16" s="143"/>
+      <c r="Q16" s="143"/>
+      <c r="R16" s="143"/>
+      <c r="S16" s="143"/>
+      <c r="T16" s="143"/>
+      <c r="U16" s="143"/>
+      <c r="V16" s="143"/>
     </row>
     <row r="17" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E17" s="141"/>
-      <c r="F17" s="141"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="141"/>
-      <c r="I17" s="141"/>
-      <c r="J17" s="141"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="141"/>
-      <c r="Q17" s="141"/>
-      <c r="R17" s="141"/>
-      <c r="S17" s="141"/>
-      <c r="T17" s="141"/>
-      <c r="U17" s="141"/>
-      <c r="V17" s="141"/>
+      <c r="E17" s="143"/>
+      <c r="F17" s="143"/>
+      <c r="G17" s="143"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="143"/>
+      <c r="J17" s="143"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="143"/>
+      <c r="N17" s="143"/>
+      <c r="O17" s="143"/>
+      <c r="P17" s="143"/>
+      <c r="Q17" s="143"/>
+      <c r="R17" s="143"/>
+      <c r="S17" s="143"/>
+      <c r="T17" s="143"/>
+      <c r="U17" s="143"/>
+      <c r="V17" s="143"/>
     </row>
     <row r="18" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="141"/>
-      <c r="I18" s="141"/>
-      <c r="J18" s="141"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="141"/>
-      <c r="Q18" s="141"/>
-      <c r="R18" s="141"/>
-      <c r="S18" s="141"/>
-      <c r="T18" s="141"/>
-      <c r="U18" s="141"/>
-      <c r="V18" s="141"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="143"/>
+      <c r="G18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="143"/>
+      <c r="J18" s="143"/>
+      <c r="K18" s="143"/>
+      <c r="L18" s="143"/>
+      <c r="M18" s="143"/>
+      <c r="N18" s="143"/>
+      <c r="O18" s="143"/>
+      <c r="P18" s="143"/>
+      <c r="Q18" s="143"/>
+      <c r="R18" s="143"/>
+      <c r="S18" s="143"/>
+      <c r="T18" s="143"/>
+      <c r="U18" s="143"/>
+      <c r="V18" s="143"/>
     </row>
     <row r="19" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="141"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="141"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="141"/>
-      <c r="Q19" s="141"/>
-      <c r="R19" s="141"/>
-      <c r="S19" s="141"/>
-      <c r="T19" s="141"/>
-      <c r="U19" s="141"/>
-      <c r="V19" s="141"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
+      <c r="N19" s="143"/>
+      <c r="O19" s="143"/>
+      <c r="P19" s="143"/>
+      <c r="Q19" s="143"/>
+      <c r="R19" s="143"/>
+      <c r="S19" s="143"/>
+      <c r="T19" s="143"/>
+      <c r="U19" s="143"/>
+      <c r="V19" s="143"/>
     </row>
     <row r="20" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="141"/>
-      <c r="Q20" s="141"/>
-      <c r="R20" s="141"/>
-      <c r="S20" s="141"/>
-      <c r="T20" s="141"/>
-      <c r="U20" s="141"/>
-      <c r="V20" s="141"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143"/>
+      <c r="O20" s="143"/>
+      <c r="P20" s="143"/>
+      <c r="Q20" s="143"/>
+      <c r="R20" s="143"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="143"/>
+      <c r="U20" s="143"/>
+      <c r="V20" s="143"/>
     </row>
     <row r="21" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="141"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="141"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="141"/>
-      <c r="Q21" s="141"/>
-      <c r="R21" s="141"/>
-      <c r="S21" s="141"/>
-      <c r="T21" s="141"/>
-      <c r="U21" s="141"/>
-      <c r="V21" s="141"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="143"/>
+      <c r="J21" s="143"/>
+      <c r="K21" s="143"/>
+      <c r="L21" s="143"/>
+      <c r="M21" s="143"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="143"/>
+      <c r="P21" s="143"/>
+      <c r="Q21" s="143"/>
+      <c r="R21" s="143"/>
+      <c r="S21" s="143"/>
+      <c r="T21" s="143"/>
+      <c r="U21" s="143"/>
+      <c r="V21" s="143"/>
     </row>
     <row r="22" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="141"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="141"/>
-      <c r="Q22" s="141"/>
-      <c r="R22" s="141"/>
-      <c r="S22" s="141"/>
-      <c r="T22" s="141"/>
-      <c r="U22" s="141"/>
-      <c r="V22" s="141"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="143"/>
+      <c r="G22" s="143"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="143"/>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="143"/>
+      <c r="N22" s="143"/>
+      <c r="O22" s="143"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="143"/>
+      <c r="R22" s="143"/>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="143"/>
+      <c r="V22" s="143"/>
     </row>
     <row r="23" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="141"/>
-      <c r="Q23" s="141"/>
-      <c r="R23" s="141"/>
-      <c r="S23" s="141"/>
-      <c r="T23" s="141"/>
-      <c r="U23" s="141"/>
-      <c r="V23" s="141"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="143"/>
+      <c r="J23" s="143"/>
+      <c r="K23" s="143"/>
+      <c r="L23" s="143"/>
+      <c r="M23" s="143"/>
+      <c r="N23" s="143"/>
+      <c r="O23" s="143"/>
+      <c r="P23" s="143"/>
+      <c r="Q23" s="143"/>
+      <c r="R23" s="143"/>
+      <c r="S23" s="143"/>
+      <c r="T23" s="143"/>
+      <c r="U23" s="143"/>
+      <c r="V23" s="143"/>
     </row>
     <row r="24" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E24" s="141"/>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="141"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="141"/>
-      <c r="Q24" s="141"/>
-      <c r="R24" s="141"/>
-      <c r="S24" s="141"/>
-      <c r="T24" s="141"/>
-      <c r="U24" s="141"/>
-      <c r="V24" s="141"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="143"/>
+      <c r="J24" s="143"/>
+      <c r="K24" s="143"/>
+      <c r="L24" s="143"/>
+      <c r="M24" s="143"/>
+      <c r="N24" s="143"/>
+      <c r="O24" s="143"/>
+      <c r="P24" s="143"/>
+      <c r="Q24" s="143"/>
+      <c r="R24" s="143"/>
+      <c r="S24" s="143"/>
+      <c r="T24" s="143"/>
+      <c r="U24" s="143"/>
+      <c r="V24" s="143"/>
     </row>
     <row r="25" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="141"/>
-      <c r="J25" s="141"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="141"/>
-      <c r="Q25" s="141"/>
-      <c r="R25" s="141"/>
-      <c r="S25" s="141"/>
-      <c r="T25" s="141"/>
-      <c r="U25" s="141"/>
-      <c r="V25" s="141"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="143"/>
+      <c r="J25" s="143"/>
+      <c r="K25" s="143"/>
+      <c r="L25" s="143"/>
+      <c r="M25" s="143"/>
+      <c r="N25" s="143"/>
+      <c r="O25" s="143"/>
+      <c r="P25" s="143"/>
+      <c r="Q25" s="143"/>
+      <c r="R25" s="143"/>
+      <c r="S25" s="143"/>
+      <c r="T25" s="143"/>
+      <c r="U25" s="143"/>
+      <c r="V25" s="143"/>
     </row>
     <row r="26" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E26" s="141"/>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="141"/>
-      <c r="Q26" s="141"/>
-      <c r="R26" s="141"/>
-      <c r="S26" s="141"/>
-      <c r="T26" s="141"/>
-      <c r="U26" s="141"/>
-      <c r="V26" s="141"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="143"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
+      <c r="J26" s="143"/>
+      <c r="K26" s="143"/>
+      <c r="L26" s="143"/>
+      <c r="M26" s="143"/>
+      <c r="N26" s="143"/>
+      <c r="O26" s="143"/>
+      <c r="P26" s="143"/>
+      <c r="Q26" s="143"/>
+      <c r="R26" s="143"/>
+      <c r="S26" s="143"/>
+      <c r="T26" s="143"/>
+      <c r="U26" s="143"/>
+      <c r="V26" s="143"/>
     </row>
     <row r="27" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E27" s="141"/>
-      <c r="F27" s="141"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="141"/>
-      <c r="Q27" s="141"/>
-      <c r="R27" s="141"/>
-      <c r="S27" s="141"/>
-      <c r="T27" s="141"/>
-      <c r="U27" s="141"/>
-      <c r="V27" s="141"/>
+      <c r="E27" s="143"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="143"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="143"/>
+      <c r="J27" s="143"/>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="143"/>
+      <c r="O27" s="143"/>
+      <c r="P27" s="143"/>
+      <c r="Q27" s="143"/>
+      <c r="R27" s="143"/>
+      <c r="S27" s="143"/>
+      <c r="T27" s="143"/>
+      <c r="U27" s="143"/>
+      <c r="V27" s="143"/>
     </row>
     <row r="28" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="141"/>
-      <c r="Q28" s="141"/>
-      <c r="R28" s="141"/>
-      <c r="S28" s="141"/>
-      <c r="T28" s="141"/>
-      <c r="U28" s="141"/>
-      <c r="V28" s="141"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="143"/>
+      <c r="O28" s="143"/>
+      <c r="P28" s="143"/>
+      <c r="Q28" s="143"/>
+      <c r="R28" s="143"/>
+      <c r="S28" s="143"/>
+      <c r="T28" s="143"/>
+      <c r="U28" s="143"/>
+      <c r="V28" s="143"/>
     </row>
     <row r="29" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E29" s="141"/>
-      <c r="F29" s="141"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="141"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="141"/>
-      <c r="Q29" s="141"/>
-      <c r="R29" s="141"/>
-      <c r="S29" s="141"/>
-      <c r="T29" s="141"/>
-      <c r="U29" s="141"/>
-      <c r="V29" s="141"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="143"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="143"/>
+      <c r="P29" s="143"/>
+      <c r="Q29" s="143"/>
+      <c r="R29" s="143"/>
+      <c r="S29" s="143"/>
+      <c r="T29" s="143"/>
+      <c r="U29" s="143"/>
+      <c r="V29" s="143"/>
     </row>
     <row r="30" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E30" s="141"/>
-      <c r="F30" s="141"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="141"/>
-      <c r="J30" s="141"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="141"/>
-      <c r="Q30" s="141"/>
-      <c r="R30" s="141"/>
-      <c r="S30" s="141"/>
-      <c r="T30" s="141"/>
-      <c r="U30" s="141"/>
-      <c r="V30" s="141"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="143"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="143"/>
+      <c r="M30" s="143"/>
+      <c r="N30" s="143"/>
+      <c r="O30" s="143"/>
+      <c r="P30" s="143"/>
+      <c r="Q30" s="143"/>
+      <c r="R30" s="143"/>
+      <c r="S30" s="143"/>
+      <c r="T30" s="143"/>
+      <c r="U30" s="143"/>
+      <c r="V30" s="143"/>
     </row>
     <row r="31" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E31" s="141"/>
-      <c r="F31" s="141"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="141"/>
-      <c r="J31" s="141"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="141"/>
-      <c r="Q31" s="141"/>
-      <c r="R31" s="141"/>
-      <c r="S31" s="141"/>
-      <c r="T31" s="141"/>
-      <c r="U31" s="141"/>
-      <c r="V31" s="141"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="143"/>
+      <c r="J31" s="143"/>
+      <c r="K31" s="143"/>
+      <c r="L31" s="143"/>
+      <c r="M31" s="143"/>
+      <c r="N31" s="143"/>
+      <c r="O31" s="143"/>
+      <c r="P31" s="143"/>
+      <c r="Q31" s="143"/>
+      <c r="R31" s="143"/>
+      <c r="S31" s="143"/>
+      <c r="T31" s="143"/>
+      <c r="U31" s="143"/>
+      <c r="V31" s="143"/>
     </row>
     <row r="32" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E32" s="141"/>
-      <c r="F32" s="141"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="141"/>
-      <c r="J32" s="141"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="141"/>
-      <c r="Q32" s="141"/>
-      <c r="R32" s="141"/>
-      <c r="S32" s="141"/>
-      <c r="T32" s="141"/>
-      <c r="U32" s="141"/>
-      <c r="V32" s="141"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="143"/>
+      <c r="J32" s="143"/>
+      <c r="K32" s="143"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="143"/>
+      <c r="N32" s="143"/>
+      <c r="O32" s="143"/>
+      <c r="P32" s="143"/>
+      <c r="Q32" s="143"/>
+      <c r="R32" s="143"/>
+      <c r="S32" s="143"/>
+      <c r="T32" s="143"/>
+      <c r="U32" s="143"/>
+      <c r="V32" s="143"/>
     </row>
     <row r="33" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E33" s="141"/>
-      <c r="F33" s="141"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="141"/>
-      <c r="J33" s="141"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="141"/>
-      <c r="Q33" s="141"/>
-      <c r="R33" s="141"/>
-      <c r="S33" s="141"/>
-      <c r="T33" s="141"/>
-      <c r="U33" s="141"/>
-      <c r="V33" s="141"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143"/>
+      <c r="J33" s="143"/>
+      <c r="K33" s="143"/>
+      <c r="L33" s="143"/>
+      <c r="M33" s="143"/>
+      <c r="N33" s="143"/>
+      <c r="O33" s="143"/>
+      <c r="P33" s="143"/>
+      <c r="Q33" s="143"/>
+      <c r="R33" s="143"/>
+      <c r="S33" s="143"/>
+      <c r="T33" s="143"/>
+      <c r="U33" s="143"/>
+      <c r="V33" s="143"/>
     </row>
     <row r="34" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E34" s="141"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="141"/>
-      <c r="J34" s="141"/>
-      <c r="K34" s="141"/>
-      <c r="L34" s="141"/>
-      <c r="M34" s="141"/>
-      <c r="N34" s="141"/>
-      <c r="O34" s="141"/>
-      <c r="P34" s="141"/>
-      <c r="Q34" s="141"/>
-      <c r="R34" s="141"/>
-      <c r="S34" s="141"/>
-      <c r="T34" s="141"/>
-      <c r="U34" s="141"/>
-      <c r="V34" s="141"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="143"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="143"/>
+      <c r="N34" s="143"/>
+      <c r="O34" s="143"/>
+      <c r="P34" s="143"/>
+      <c r="Q34" s="143"/>
+      <c r="R34" s="143"/>
+      <c r="S34" s="143"/>
+      <c r="T34" s="143"/>
+      <c r="U34" s="143"/>
+      <c r="V34" s="143"/>
     </row>
     <row r="35" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="141"/>
-      <c r="J35" s="141"/>
-      <c r="K35" s="141"/>
-      <c r="L35" s="141"/>
-      <c r="M35" s="141"/>
-      <c r="N35" s="141"/>
-      <c r="O35" s="141"/>
-      <c r="P35" s="141"/>
-      <c r="Q35" s="141"/>
-      <c r="R35" s="141"/>
-      <c r="S35" s="141"/>
-      <c r="T35" s="141"/>
-      <c r="U35" s="141"/>
-      <c r="V35" s="141"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="143"/>
+      <c r="L35" s="143"/>
+      <c r="M35" s="143"/>
+      <c r="N35" s="143"/>
+      <c r="O35" s="143"/>
+      <c r="P35" s="143"/>
+      <c r="Q35" s="143"/>
+      <c r="R35" s="143"/>
+      <c r="S35" s="143"/>
+      <c r="T35" s="143"/>
+      <c r="U35" s="143"/>
+      <c r="V35" s="143"/>
     </row>
     <row r="36" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E36" s="141"/>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="141"/>
-      <c r="J36" s="141"/>
-      <c r="K36" s="141"/>
-      <c r="L36" s="141"/>
-      <c r="M36" s="141"/>
-      <c r="N36" s="141"/>
-      <c r="O36" s="141"/>
-      <c r="P36" s="141"/>
-      <c r="Q36" s="141"/>
-      <c r="R36" s="141"/>
-      <c r="S36" s="141"/>
-      <c r="T36" s="141"/>
-      <c r="U36" s="141"/>
-      <c r="V36" s="141"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="143"/>
+      <c r="L36" s="143"/>
+      <c r="M36" s="143"/>
+      <c r="N36" s="143"/>
+      <c r="O36" s="143"/>
+      <c r="P36" s="143"/>
+      <c r="Q36" s="143"/>
+      <c r="R36" s="143"/>
+      <c r="S36" s="143"/>
+      <c r="T36" s="143"/>
+      <c r="U36" s="143"/>
+      <c r="V36" s="143"/>
     </row>
     <row r="37" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E37" s="141"/>
-      <c r="F37" s="141"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="141"/>
-      <c r="J37" s="141"/>
-      <c r="K37" s="141"/>
-      <c r="L37" s="141"/>
-      <c r="M37" s="141"/>
-      <c r="N37" s="141"/>
-      <c r="O37" s="141"/>
-      <c r="P37" s="141"/>
-      <c r="Q37" s="141"/>
-      <c r="R37" s="141"/>
-      <c r="S37" s="141"/>
-      <c r="T37" s="141"/>
-      <c r="U37" s="141"/>
-      <c r="V37" s="141"/>
+      <c r="E37" s="143"/>
+      <c r="F37" s="143"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="143"/>
+      <c r="J37" s="143"/>
+      <c r="K37" s="143"/>
+      <c r="L37" s="143"/>
+      <c r="M37" s="143"/>
+      <c r="N37" s="143"/>
+      <c r="O37" s="143"/>
+      <c r="P37" s="143"/>
+      <c r="Q37" s="143"/>
+      <c r="R37" s="143"/>
+      <c r="S37" s="143"/>
+      <c r="T37" s="143"/>
+      <c r="U37" s="143"/>
+      <c r="V37" s="143"/>
     </row>
     <row r="38" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E38" s="141"/>
-      <c r="F38" s="141"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="141"/>
-      <c r="I38" s="141"/>
-      <c r="J38" s="141"/>
-      <c r="K38" s="141"/>
-      <c r="L38" s="141"/>
-      <c r="M38" s="141"/>
-      <c r="N38" s="141"/>
-      <c r="O38" s="141"/>
-      <c r="P38" s="141"/>
-      <c r="Q38" s="141"/>
-      <c r="R38" s="141"/>
-      <c r="S38" s="141"/>
-      <c r="T38" s="141"/>
-      <c r="U38" s="141"/>
-      <c r="V38" s="141"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="143"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="143"/>
+      <c r="J38" s="143"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="143"/>
+      <c r="M38" s="143"/>
+      <c r="N38" s="143"/>
+      <c r="O38" s="143"/>
+      <c r="P38" s="143"/>
+      <c r="Q38" s="143"/>
+      <c r="R38" s="143"/>
+      <c r="S38" s="143"/>
+      <c r="T38" s="143"/>
+      <c r="U38" s="143"/>
+      <c r="V38" s="143"/>
     </row>
     <row r="39" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E39" s="141"/>
-      <c r="F39" s="141"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="141"/>
-      <c r="I39" s="141"/>
-      <c r="J39" s="141"/>
-      <c r="K39" s="141"/>
-      <c r="L39" s="141"/>
-      <c r="M39" s="141"/>
-      <c r="N39" s="141"/>
-      <c r="O39" s="141"/>
-      <c r="P39" s="141"/>
-      <c r="Q39" s="141"/>
-      <c r="R39" s="141"/>
-      <c r="S39" s="141"/>
-      <c r="T39" s="141"/>
-      <c r="U39" s="141"/>
-      <c r="V39" s="141"/>
+      <c r="E39" s="143"/>
+      <c r="F39" s="143"/>
+      <c r="G39" s="143"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="143"/>
+      <c r="J39" s="143"/>
+      <c r="K39" s="143"/>
+      <c r="L39" s="143"/>
+      <c r="M39" s="143"/>
+      <c r="N39" s="143"/>
+      <c r="O39" s="143"/>
+      <c r="P39" s="143"/>
+      <c r="Q39" s="143"/>
+      <c r="R39" s="143"/>
+      <c r="S39" s="143"/>
+      <c r="T39" s="143"/>
+      <c r="U39" s="143"/>
+      <c r="V39" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -20358,10 +20506,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="144" t="s">
-        <v>576</v>
-      </c>
-      <c r="B1" s="144"/>
+      <c r="A1" s="146" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1" s="146"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
@@ -20372,8 +20520,8 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
@@ -20384,8 +20532,8 @@
       <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="146"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
@@ -20396,8 +20544,8 @@
       <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="144"/>
-      <c r="B4" s="144"/>
+      <c r="A4" s="146"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
@@ -20408,8 +20556,8 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="144"/>
-      <c r="B5" s="144"/>
+      <c r="A5" s="146"/>
+      <c r="B5" s="146"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -20420,8 +20568,8 @@
       <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="144"/>
-      <c r="B6" s="144"/>
+      <c r="A6" s="146"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
@@ -20432,8 +20580,8 @@
       <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="144"/>
-      <c r="B7" s="144"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -20444,8 +20592,8 @@
       <c r="J7" s="47"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="144"/>
-      <c r="B8" s="144"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
@@ -20456,8 +20604,8 @@
       <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="144"/>
-      <c r="B9" s="144"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
@@ -20468,76 +20616,76 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="142" t="s">
-        <v>577</v>
-      </c>
-      <c r="B10" s="143"/>
+      <c r="A10" s="144" t="s">
+        <v>576</v>
+      </c>
+      <c r="B10" s="145"/>
     </row>
     <row r="11" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>579</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>583</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="B13" s="48" t="s">
         <v>581</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>588</v>
       </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="85.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="77" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="85.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="75" t="s">
+      <c r="B15" s="78"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="147" t="s">
+        <v>591</v>
+      </c>
+      <c r="B16" s="148"/>
+    </row>
+    <row r="17" spans="1:3" ht="131.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="149"/>
+      <c r="B17" s="150"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="151" t="s">
         <v>590</v>
       </c>
-      <c r="B15" s="76"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="145" t="s">
-        <v>592</v>
-      </c>
-      <c r="B16" s="146"/>
-    </row>
-    <row r="17" spans="1:3" ht="131.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="147"/>
-      <c r="B17" s="148"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="149" t="s">
-        <v>591</v>
-      </c>
-      <c r="B18" s="150"/>
+      <c r="B18" s="152"/>
       <c r="C18" s="48"/>
     </row>
     <row r="19" spans="1:3" ht="44.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="151"/>
-      <c r="B19" s="152"/>
+      <c r="A19" s="153"/>
+      <c r="B19" s="154"/>
     </row>
     <row r="20" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -20618,49 +20766,49 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="89" t="s">
-        <v>623</v>
-      </c>
-      <c r="B7" s="153"/>
+      <c r="A7" s="91" t="s">
+        <v>621</v>
+      </c>
+      <c r="B7" s="155"/>
     </row>
     <row r="8" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>398</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>446</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>571</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -20676,8 +20824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9940D856-1DA9-4EA4-B8AA-DCA1B7E1C3D3}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20698,104 +20846,104 @@
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>456</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>463</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>467</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="51" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>515</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="54" t="s">
-        <v>605</v>
+        <v>768</v>
       </c>
       <c r="B8" s="57" t="s">
+        <v>602</v>
+      </c>
+      <c r="C8" s="129" t="s">
         <v>603</v>
-      </c>
-      <c r="C8" s="127" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="56" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>601</v>
-      </c>
-      <c r="C9" s="130"/>
+        <v>600</v>
+      </c>
+      <c r="C9" s="132"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="C10" s="130"/>
+        <v>598</v>
+      </c>
+      <c r="C10" s="132"/>
     </row>
     <row r="11" spans="1:3" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="55" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>600</v>
-      </c>
-      <c r="C11" s="133"/>
+        <v>599</v>
+      </c>
+      <c r="C11" s="135"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="52" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B12" s="53" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -20812,10 +20960,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B77C4E-3E7B-4D80-A747-5F4AAFEFADA7}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView zoomScale="66" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView topLeftCell="B1" zoomScale="66" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20846,13 +20994,13 @@
     </row>
     <row r="3" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="155" t="s">
-        <v>724</v>
+      <c r="D3" s="157" t="s">
+        <v>767</v>
       </c>
       <c r="E3" s="72"/>
       <c r="F3" s="71"/>
@@ -20864,16 +21012,16 @@
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
-      <c r="O3" s="154"/>
+      <c r="O3" s="156"/>
     </row>
     <row r="4" spans="1:15" ht="387" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" s="156"/>
+        <v>255</v>
+      </c>
+      <c r="D4" s="158"/>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
       <c r="G4" s="71"/>
@@ -20884,7 +21032,7 @@
       <c r="L4" s="71"/>
       <c r="M4" s="71"/>
       <c r="N4" s="71"/>
-      <c r="O4" s="154"/>
+      <c r="O4" s="156"/>
     </row>
     <row r="5" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
@@ -20896,26 +21044,26 @@
     </row>
     <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>559</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
@@ -20968,7 +21116,7 @@
     </row>
     <row r="16" spans="1:15" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>66</v>
@@ -21039,10 +21187,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="165" t="s">
+      <c r="A25" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="166"/>
+      <c r="B25" s="168"/>
     </row>
     <row r="26" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A26" s="18" t="s">
@@ -21069,10 +21217,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="167" t="s">
+      <c r="A29" s="169" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="168"/>
+      <c r="B29" s="170"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="18" t="s">
@@ -21084,7 +21232,7 @@
     </row>
     <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>147</v>
@@ -21115,10 +21263,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="169" t="s">
+      <c r="A35" s="171" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="170"/>
+      <c r="B35" s="172"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="18" t="s">
@@ -21128,98 +21276,108 @@
         <v>182</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="171" t="s">
-        <v>237</v>
-      </c>
-      <c r="B37" s="172"/>
+    <row r="37" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+      <c r="A37" s="16" t="s">
+        <v>765</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>766</v>
+      </c>
     </row>
     <row r="38" spans="1:2" ht="202.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="163" t="s">
-        <v>250</v>
-      </c>
-      <c r="B38" s="164"/>
+      <c r="A38" s="165" t="s">
+        <v>249</v>
+      </c>
+      <c r="B38" s="166"/>
     </row>
     <row r="39" spans="1:2" ht="324" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="161" t="s">
-        <v>270</v>
-      </c>
-      <c r="B39" s="162"/>
+      <c r="A39" s="163" t="s">
+        <v>269</v>
+      </c>
+      <c r="B39" s="164"/>
     </row>
     <row r="40" spans="1:2" ht="149.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="173" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B40" s="174"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>239</v>
-      </c>
     </row>
     <row r="42" spans="1:2" ht="381.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="159" t="s">
-        <v>258</v>
-      </c>
-      <c r="B42" s="160"/>
+      <c r="A42" s="161" t="s">
+        <v>257</v>
+      </c>
+      <c r="B42" s="162"/>
     </row>
     <row r="43" spans="1:2" ht="238.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="157"/>
-      <c r="B43" s="158"/>
+      <c r="A43" s="159"/>
+      <c r="B43" s="160"/>
     </row>
     <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>328</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A45" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>331</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A46" s="18" t="s">
+        <v>333</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A47" s="63" t="s">
-        <v>624</v>
-      </c>
-      <c r="B47" s="64" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
+      <c r="A48" s="63" t="s">
+        <v>622</v>
+      </c>
+      <c r="B48" s="64" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A49" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="B49" s="19" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A48" s="18" t="s">
-        <v>628</v>
-      </c>
-      <c r="B48" s="19" t="s">
+    <row r="50" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A50" s="18" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A49" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>725</v>
+      <c r="B50" s="19" t="s">
+        <v>722</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="A43:B43"/>
@@ -21229,7 +21387,6 @@
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A40:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21260,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -21271,7 +21428,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>73</v>
@@ -21282,7 +21439,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>89</v>
@@ -21290,13 +21447,13 @@
     </row>
     <row r="4" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="199.5" x14ac:dyDescent="0.45">
@@ -21304,237 +21461,237 @@
         <v>184</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="283.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B7" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>246</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="228" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>620</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D11" s="72"/>
     </row>
     <row r="12" spans="1:4" ht="263.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="91" t="s">
-        <v>262</v>
+      <c r="A12" s="93" t="s">
+        <v>261</v>
       </c>
       <c r="B12" s="175"/>
-      <c r="C12" s="139"/>
+      <c r="C12" s="141"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A16" s="60" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D16" s="178" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="123.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="60" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="60" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D17" s="179"/>
     </row>
     <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="62" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D18" s="179"/>
     </row>
     <row r="19" spans="1:4" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="121.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="75" t="s">
-        <v>274</v>
+      <c r="A21" s="77" t="s">
+        <v>273</v>
       </c>
       <c r="B21" s="176"/>
       <c r="C21" s="177"/>
     </row>
     <row r="22" spans="1:4" ht="228" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="26" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -21576,104 +21733,104 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="299.64999999999998" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C6" s="74"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>510</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="249.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="180" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B13" s="181"/>
     </row>
@@ -21783,39 +21940,39 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="212.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="102" t="s">
-        <v>527</v>
+      <c r="A5" s="104" t="s">
+        <v>526</v>
       </c>
       <c r="B5" s="113"/>
       <c r="C5" s="43"/>
@@ -21864,10 +22021,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -21973,7 +22130,7 @@
     </row>
     <row r="17" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
@@ -21981,18 +22138,18 @@
     </row>
     <row r="18" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -22056,7 +22213,7 @@
         <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
@@ -22064,7 +22221,7 @@
         <v>220</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
@@ -22091,7 +22248,7 @@
     </row>
     <row r="32" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="184" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B32" s="185"/>
     </row>
@@ -22255,13 +22412,13 @@
       <c r="B2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="94"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="106" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -22269,7 +22426,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="105"/>
+      <c r="A4" s="107"/>
       <c r="B4" s="5" t="s">
         <v>103</v>
       </c>
@@ -22283,7 +22440,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="106" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -22291,13 +22448,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="105"/>
+      <c r="A7" s="107"/>
       <c r="B7" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="106" t="s">
         <v>127</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -22305,7 +22462,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="105"/>
+      <c r="A9" s="107"/>
       <c r="B9" s="6" t="s">
         <v>128</v>
       </c>
@@ -22333,28 +22490,28 @@
       <c r="A12" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="108" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110" t="s">
         <v>370</v>
       </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="108" t="s">
-        <v>371</v>
-      </c>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="112"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="95"/>
+      <c r="B13" s="97"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B14" s="95"/>
+      <c r="B14" s="97"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="95"/>
+      <c r="B15" s="97"/>
       <c r="D15" s="5" t="s">
         <v>166</v>
       </c>
@@ -22366,7 +22523,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="95"/>
+      <c r="B16" s="97"/>
       <c r="D16" s="5" t="s">
         <v>162</v>
       </c>
@@ -22378,7 +22535,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="95"/>
+      <c r="B17" s="97"/>
       <c r="D17" s="5" t="s">
         <v>163</v>
       </c>
@@ -22390,7 +22547,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B18" s="95"/>
+      <c r="B18" s="97"/>
       <c r="D18" s="5" t="s">
         <v>164</v>
       </c>
@@ -22402,7 +22559,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B19" s="95"/>
+      <c r="B19" s="97"/>
       <c r="D19" s="5" t="s">
         <v>165</v>
       </c>
@@ -22414,49 +22571,49 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="95"/>
-      <c r="C20" s="100" t="s">
-        <v>353</v>
-      </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="102" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" s="103"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="103"/>
     </row>
     <row r="21" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="31"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="97" t="s">
-        <v>352</v>
-      </c>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="99"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="99" t="s">
+        <v>351</v>
+      </c>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="101"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="102" t="s">
+      <c r="A22" s="104" t="s">
+        <v>353</v>
+      </c>
+      <c r="B22" s="104"/>
+      <c r="C22" s="105" t="s">
         <v>354</v>
       </c>
-      <c r="B22" s="102"/>
-      <c r="C22" s="103" t="s">
-        <v>355</v>
-      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="102"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="103"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="105"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="102"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="103"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="105"/>
     </row>
     <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="32" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -22512,49 +22669,49 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="104.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="185.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D6" s="192" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E6" s="192"/>
       <c r="G6" s="193" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H6" s="193"/>
       <c r="I6" s="193"/>
@@ -22566,7 +22723,7 @@
       <c r="O6" s="193"/>
       <c r="P6" s="193"/>
       <c r="R6" s="190" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="S6" s="191"/>
       <c r="T6" s="191"/>
@@ -22581,13 +22738,13 @@
     </row>
     <row r="7" spans="1:28" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>573</v>
-      </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
+        <v>572</v>
+      </c>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
       <c r="G7" s="193"/>
       <c r="H7" s="193"/>
       <c r="I7" s="193"/>
@@ -22612,13 +22769,13 @@
     </row>
     <row r="8" spans="1:28" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
+        <v>400</v>
+      </c>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
       <c r="G8" s="193"/>
       <c r="H8" s="193"/>
       <c r="I8" s="193"/>
@@ -22643,13 +22800,13 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
       <c r="G9" s="193"/>
       <c r="H9" s="193"/>
       <c r="I9" s="193"/>
@@ -22674,13 +22831,13 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
       <c r="G10" s="193"/>
       <c r="H10" s="193"/>
       <c r="I10" s="193"/>
@@ -22705,13 +22862,13 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
       <c r="G11" s="193"/>
       <c r="H11" s="193"/>
       <c r="I11" s="193"/>
@@ -22736,13 +22893,13 @@
     </row>
     <row r="12" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>395</v>
-      </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
+        <v>394</v>
+      </c>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
       <c r="G12" s="193"/>
       <c r="H12" s="193"/>
       <c r="I12" s="193"/>
@@ -22767,13 +22924,13 @@
     </row>
     <row r="13" spans="1:28" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
+        <v>392</v>
+      </c>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
       <c r="G13" s="193"/>
       <c r="H13" s="193"/>
       <c r="I13" s="193"/>
@@ -22798,13 +22955,13 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
       <c r="G14" s="193"/>
       <c r="H14" s="193"/>
       <c r="I14" s="193"/>
@@ -22829,13 +22986,13 @@
     </row>
     <row r="15" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
       <c r="G15" s="193"/>
       <c r="H15" s="193"/>
       <c r="I15" s="193"/>
@@ -22860,13 +23017,13 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
       <c r="G16" s="193"/>
       <c r="H16" s="193"/>
       <c r="I16" s="193"/>
@@ -22891,13 +23048,13 @@
     </row>
     <row r="17" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>557</v>
-      </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
       <c r="G17" s="193"/>
       <c r="H17" s="193"/>
       <c r="I17" s="193"/>
@@ -22921,8 +23078,8 @@
       <c r="AB17" s="191"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
       <c r="G18" s="193"/>
       <c r="H18" s="193"/>
       <c r="I18" s="193"/>
@@ -22946,8 +23103,8 @@
       <c r="AB18" s="191"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
       <c r="G19" s="193"/>
       <c r="H19" s="193"/>
       <c r="I19" s="193"/>
@@ -22971,8 +23128,8 @@
       <c r="AB19" s="191"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
       <c r="G20" s="193"/>
       <c r="H20" s="193"/>
       <c r="I20" s="193"/>
@@ -22996,8 +23153,8 @@
       <c r="AB20" s="191"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D21" s="94"/>
-      <c r="E21" s="94"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
       <c r="G21" s="193"/>
       <c r="H21" s="193"/>
       <c r="I21" s="193"/>
@@ -23021,8 +23178,8 @@
       <c r="AB21" s="191"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
       <c r="G22" s="193"/>
       <c r="H22" s="193"/>
       <c r="I22" s="193"/>
@@ -23046,8 +23203,8 @@
       <c r="AB22" s="191"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
       <c r="G23" s="193"/>
       <c r="H23" s="193"/>
       <c r="I23" s="193"/>
@@ -23071,8 +23228,8 @@
       <c r="AB23" s="191"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="96"/>
       <c r="G24" s="193"/>
       <c r="H24" s="193"/>
       <c r="I24" s="193"/>
@@ -23096,8 +23253,8 @@
       <c r="AB24" s="191"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
       <c r="G25" s="193"/>
       <c r="H25" s="193"/>
       <c r="I25" s="193"/>
@@ -23259,25 +23416,25 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="169.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="111" t="s">
-        <v>415</v>
-      </c>
-      <c r="B6" s="112"/>
+      <c r="A6" s="116" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="117"/>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B7" s="44" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="42" t="s">
+        <v>420</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>421</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
@@ -23289,28 +23446,28 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="111.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="90"/>
+      <c r="B10" s="92"/>
     </row>
     <row r="11" spans="1:2" ht="142.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="90"/>
+      <c r="B11" s="92"/>
     </row>
     <row r="12" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="91" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="90"/>
+      <c r="B12" s="92"/>
     </row>
     <row r="13" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="91" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="90"/>
+      <c r="B13" s="92"/>
     </row>
     <row r="14" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
@@ -23321,268 +23478,263 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="89" t="s">
-        <v>546</v>
-      </c>
-      <c r="B15" s="90"/>
+      <c r="A15" s="91" t="s">
+        <v>545</v>
+      </c>
+      <c r="B15" s="92"/>
     </row>
     <row r="16" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="91" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="90"/>
+      <c r="B16" s="92"/>
     </row>
     <row r="17" spans="1:2" ht="56.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>253</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>289</v>
-      </c>
     </row>
     <row r="21" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="89" t="s">
-        <v>294</v>
-      </c>
-      <c r="B21" s="90"/>
+      <c r="A21" s="91" t="s">
+        <v>293</v>
+      </c>
+      <c r="B21" s="92"/>
     </row>
     <row r="22" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="91" t="s">
-        <v>312</v>
-      </c>
-      <c r="B22" s="92"/>
+      <c r="A22" s="93" t="s">
+        <v>311</v>
+      </c>
+      <c r="B22" s="94"/>
     </row>
     <row r="23" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A23" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B27" s="6" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="93" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="91" t="s">
-        <v>323</v>
-      </c>
-      <c r="B28" s="92"/>
+      <c r="B28" s="94"/>
     </row>
     <row r="29" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B32" s="114" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B33" s="115"/>
     </row>
     <row r="34" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A36" s="36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>438</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>530</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>540</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B42" s="6" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="243" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="77" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="243" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="75" t="s">
-        <v>545</v>
-      </c>
-      <c r="B43" s="76"/>
+      <c r="B43" s="78"/>
     </row>
     <row r="44" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>554</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>567</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="113" t="s">
-        <v>575</v>
-      </c>
-      <c r="B47" s="86"/>
+        <v>574</v>
+      </c>
+      <c r="B47" s="88"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A13:B13"/>
@@ -23591,6 +23743,11 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A19" r:id="rId1" xr:uid="{B3A5F69C-D686-43CD-96E0-B7F7221DEAE2}"/>
@@ -23624,93 +23781,93 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B1" t="s">
         <v>296</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>297</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>298</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>299</v>
-      </c>
-      <c r="E1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" t="s">
         <v>301</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>302</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="28" t="s">
         <v>303</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F4" s="29" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>317</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="116" t="s">
-        <v>333</v>
-      </c>
-      <c r="D9" s="117"/>
+      <c r="C9" s="118" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" s="119"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C10" s="118"/>
-      <c r="D10" s="119"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="121"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C11" s="118"/>
-      <c r="D11" s="119"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="121"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="118"/>
-      <c r="D12" s="119"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="121"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C13" s="118"/>
-      <c r="D13" s="119"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="121"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C14" s="118"/>
-      <c r="D14" s="119"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="121"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C15" s="118"/>
-      <c r="D15" s="119"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C16" s="118"/>
-      <c r="D16" s="119"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="121"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C17" s="118"/>
-      <c r="D17" s="119"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="121"/>
     </row>
     <row r="18" spans="3:4" ht="219" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="120"/>
-      <c r="D18" s="121"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -23803,24 +23960,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -23867,12 +24024,12 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="C10" s="95"/>
+        <v>641</v>
+      </c>
+      <c r="C10" s="97"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
@@ -23885,29 +24042,29 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>188</v>
@@ -23927,13 +24084,13 @@
     </row>
     <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C16" s="68" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -23960,18 +24117,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C19" s="114" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>188</v>
@@ -24035,119 +24192,119 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="285" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="122" t="s">
-        <v>719</v>
-      </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="124"/>
+      <c r="A35" s="124" t="s">
+        <v>717</v>
+      </c>
+      <c r="B35" s="125"/>
+      <c r="C35" s="126"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="70" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -24155,321 +24312,321 @@
         <v>216</v>
       </c>
       <c r="B53" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>654</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="175.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="136" t="s">
         <v>664</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="C59" s="6" t="s">
+      <c r="B60" s="136"/>
+      <c r="C60" s="136"/>
+    </row>
+    <row r="61" spans="1:3" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="124" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="175.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="134" t="s">
-        <v>666</v>
-      </c>
-      <c r="B60" s="134"/>
-      <c r="C60" s="134"/>
-    </row>
-    <row r="61" spans="1:3" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="122" t="s">
-        <v>667</v>
-      </c>
-      <c r="B61" s="123"/>
-      <c r="C61" s="124"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="126"/>
     </row>
     <row r="62" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="157.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="5" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C66" s="65" t="s">
-        <v>675</v>
-      </c>
-      <c r="D66" s="125" t="s">
-        <v>708</v>
-      </c>
-      <c r="E66" s="126"/>
-      <c r="F66" s="126"/>
-      <c r="G66" s="127"/>
+        <v>673</v>
+      </c>
+      <c r="D66" s="127" t="s">
+        <v>706</v>
+      </c>
+      <c r="E66" s="128"/>
+      <c r="F66" s="128"/>
+      <c r="G66" s="129"/>
     </row>
     <row r="67" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C67" s="65" t="s">
-        <v>676</v>
-      </c>
-      <c r="D67" s="128"/>
-      <c r="E67" s="129"/>
-      <c r="F67" s="129"/>
-      <c r="G67" s="130"/>
+        <v>674</v>
+      </c>
+      <c r="D67" s="130"/>
+      <c r="E67" s="131"/>
+      <c r="F67" s="131"/>
+      <c r="G67" s="132"/>
     </row>
     <row r="68" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C68" s="65" t="s">
-        <v>685</v>
-      </c>
-      <c r="D68" s="128"/>
-      <c r="E68" s="129"/>
-      <c r="F68" s="129"/>
-      <c r="G68" s="130"/>
+        <v>683</v>
+      </c>
+      <c r="D68" s="130"/>
+      <c r="E68" s="131"/>
+      <c r="F68" s="131"/>
+      <c r="G68" s="132"/>
     </row>
     <row r="69" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C69" s="65" t="s">
-        <v>681</v>
-      </c>
-      <c r="D69" s="128"/>
-      <c r="E69" s="129"/>
-      <c r="F69" s="129"/>
-      <c r="G69" s="130"/>
+        <v>679</v>
+      </c>
+      <c r="D69" s="130"/>
+      <c r="E69" s="131"/>
+      <c r="F69" s="131"/>
+      <c r="G69" s="132"/>
     </row>
     <row r="70" spans="1:7" ht="100.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="5" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C70" s="65" t="s">
-        <v>690</v>
-      </c>
-      <c r="D70" s="131"/>
-      <c r="E70" s="132"/>
-      <c r="F70" s="132"/>
-      <c r="G70" s="133"/>
+        <v>688</v>
+      </c>
+      <c r="D70" s="133"/>
+      <c r="E70" s="134"/>
+      <c r="F70" s="134"/>
+      <c r="G70" s="135"/>
     </row>
     <row r="71" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -24520,98 +24677,98 @@
     </row>
     <row r="2" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>449</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>469</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>477</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>479</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>471</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>473</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>475</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A10" s="40" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A11" s="40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A12" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>487</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -24645,10 +24802,10 @@
     </row>
     <row r="2" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>436</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -24661,7 +24818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864B1FE4-3AA2-4ABE-8291-75C714086D86}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+    <sheetView zoomScale="65" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -24681,114 +24838,114 @@
     </row>
     <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A3" s="194" t="s">
-        <v>765</v>
-      </c>
-      <c r="B3" s="195" t="s">
-        <v>764</v>
+      <c r="A3" s="75" t="s">
+        <v>762</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="137" t="s">
-        <v>423</v>
-      </c>
-      <c r="B4" s="138"/>
+      <c r="A4" s="139" t="s">
+        <v>422</v>
+      </c>
+      <c r="B4" s="140"/>
     </row>
     <row r="5" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="135" t="s">
-        <v>760</v>
-      </c>
-      <c r="B5" s="136"/>
+      <c r="A5" s="137" t="s">
+        <v>757</v>
+      </c>
+      <c r="B5" s="138"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>417</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>419</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>426</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="91" t="s">
-        <v>433</v>
-      </c>
-      <c r="B14" s="139"/>
+      <c r="A14" s="93" t="s">
+        <v>432</v>
+      </c>
+      <c r="B14" s="141"/>
     </row>
     <row r="15" spans="1:2" ht="95.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="83" t="s">
-        <v>761</v>
-      </c>
-      <c r="B15" s="140"/>
+      <c r="A15" s="85" t="s">
+        <v>758</v>
+      </c>
+      <c r="B15" s="142"/>
     </row>
     <row r="16" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Geek_space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E3970A0-67D9-489B-B53A-D0C55F3F600D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02D159-37B3-4BA7-AC3F-C159341E9757}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="14400" windowHeight="7373" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="776">
   <si>
     <t>command</t>
   </si>
@@ -10113,32 +10113,6 @@
     <t>npm install</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">run this command in the directory containing the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">package.json </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>file, this will install all the dependencies in the file locally.</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.tutorialsteacher.com/python/property-decorator</t>
   </si>
   <si>
@@ -15348,537 +15322,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>module</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PIPENV
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-1. pip install pipenv.
-2. to create an environment-
-     a. navigate to the folder, run command </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pipenv install</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">,
-     b. for specifying python version </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install --python 3.8
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">c. to activate the environment, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pipenv shell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(can also be used to create and activate a non-existing environment)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">d. to deactivate, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">exit
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(When the env is created, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pipfile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pipfile.lock</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> files are added to the location. Since python recognises these files, the actual executables are nomore required. So, activation can only be done from the location of the virtual env. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The environment is created in user-&gt;.virtualenvs folder in C-drive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pipfile contains all packages, python version and other info about the env. Pipfile.lock is a more descriptive version that should not be touched. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-3. to remove the env, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv --rm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">from the location. But this will not remove the Pipfile and Pipfile.lock files.
-4. if the files are already present, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">will create an env using the info present in the file.
-5. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> refers to Pipfile, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv sync </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">refers to Pipfile.lock for installation of packages
-6. to install a package </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install/uninstall &lt;package&gt;, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">this will also add/remove the package from Pipfile
-7. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv lock </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is to generate or update the Pipfile.lock file
-8. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv graph </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">enlists all packages installed. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pip freeze </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">can also be used. But </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">graph </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> shows main package and its dependencies separately.
-9. This will fail a build if the Pipfile.lock is out–of–date, instead of generating a new one.
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install --deploy
-     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">This is useful when creating Dockerfile while creating containers using pipenv
-10. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install --system
-        </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">This will install packages from Pipfile to the parent system and not create a separate virtaul env.    This is useful when creating a container when a separate virtual env is not required to be created and packages can be installed directly to the container.
-11. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">dev mode
-pipenv install --dev/-d &lt;package&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">installs the package in dev-mode and enlists the package name in Pipfile under 'dev-packages'. Now if the Pipfile is copied to some other location, and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv install </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">command is run, then only the regular packages are installed and the dev-packages are skipped. This is helpful when sending the files from dev to user environment
-12. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">pipenv --venv </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">searches for the pipfiles in the location, then identifies the virtual env linked to it and returns the location where the virtualenv is stored.
-</t>
     </r>
   </si>
   <si>
@@ -17271,12 +16714,1018 @@
       <t>")</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inspectdb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> returns django model for a specified table of a database
+(for exisitng databases, this command can be used to let django create models.py for us)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">python manage.py </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inspectdb</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --database {db-name}  &gt; file.txt  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(for specific database)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+python manage.py </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inspectdb</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(for all)
+or,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">python manage.py </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inspectdb</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;table-name1&gt; &lt;table-name2&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(for specific tables, table names must match with that in the database)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">python manage.py </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dumpdata</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --format=json --datebase=&lt;db-name&gt; &lt;app&gt;.&lt;Model&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">python manage.py </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dumpdata</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --format=json &gt; file.json </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(to write the data to a file)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">python manage.py </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>loaddata</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> blog\fixtures\data.json
+format:
+[
+  { "model": "blog.category", "pk": 1, "fields": { "name": "django" } },
+  { "model": "blog.category", "pk": 2, "fields": { "name": "porn" } },
+  { "model": "blog.category", "pk": 3, "fields": { "name": "sports" } },
+  { "model": "blog.category", "pk": 4, "fields": { "name": "cooking" } },
+  { "model": "blog.category", "pk": 5, "fields": { "name": "nonsense" } }
+]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dumpdata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dumps all the data of table of database
+(same can be done with django-admin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">loaddata </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>helps to load data to a table of a database</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(same can be done with django-admin)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fixtures</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(dumps or copy of data from a database)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ref - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://coderwall.com/p/mvsoyg/django-dumpdata-and-loaddata</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">run this command in the directory containing the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">package.json </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">file, this will install all the dependencies in the file locally. This can also be used to sync </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">node_modules </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>package.json</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PIPENV
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+1. pip install pipenv.
+2. to create an environment-
+     a. navigate to the folder, run command </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pipenv install</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">,
+     b. for specifying python version </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install --python 3.8
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">c. to activate the environment, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pipenv shell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(can also be used to create and activate a non-existing environment)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">d. to deactivate, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">exit
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(When the env is created, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pipfile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pipfile.lock</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> files are added to the location. Since python recognises these files, the actual executables are nomore required. So, activation can only be done from the location of the virtual env. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The environment is created in user-&gt;.virtualenvs folder in C-drive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pipfile contains all packages, python version and other info about the env. Pipfile.lock is a more descriptive version that should not be touched. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. to remove the env, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv --rm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">from the location. But this will not remove the Pipfile and Pipfile.lock files.
+4. if the files are already present, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">will create an env using the info present in the file.
+5. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> refers to Pipfile, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv sync </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">refers to Pipfile.lock for installation of packages
+6. to install a package </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install/uninstall &lt;package&gt;, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">this will also add/remove the package from Pipfile
+7. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv lock </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to generate or update the Pipfile.lock file
+8. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv graph </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">enlists all packages installed. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pip freeze </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">can also be used. But </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">graph </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shows main package and its dependencies separately.
+9. This will fail a build if the Pipfile.lock is out–of–date, instead of generating a new one.
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install --deploy
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This is useful when creating Dockerfile while creating containers using pipenv
+10. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install --system
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This will install packages from Pipfile to the parent system and not create a separate virtaul env.    This is useful when creating a container when a separate virtual env is not required to be created and packages can be installed directly to the container.
+11. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dev mode
+pipenv install --dev/-d &lt;package&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">installs the package in dev-mode and enlists the package name in Pipfile under 'dev-packages'. Now if the Pipfile is copied to some other location, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv install </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">command is run, then only the regular packages are installed and the dev-packages are skipped. This is helpful when sending the files from dev to user environment
+12. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv --venv </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">searches for the pipfiles in the location, then identifies the virtual env linked to it and returns the location where the virtualenv is stored.
+13. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pipenv sync </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for syncing Pipfile with the installed packages.
+</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17503,6 +17952,36 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -18018,7 +18497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18346,6 +18825,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -18353,12 +18838,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18588,6 +19067,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19255,10 +19737,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>564</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -19271,7 +19753,7 @@
     </row>
     <row r="13" spans="1:4" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>144</v>
@@ -19329,10 +19811,10 @@
     </row>
     <row r="20" spans="1:2" ht="363.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -19504,7 +19986,7 @@
         <v>453</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
@@ -19517,10 +19999,10 @@
     </row>
     <row r="44" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>740</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="114" x14ac:dyDescent="0.45">
@@ -19569,39 +20051,39 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>560</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="50" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="79" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B55" s="80"/>
     </row>
@@ -19619,48 +20101,48 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="77" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B59" s="78"/>
     </row>
     <row r="60" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>637</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>737</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -19690,8 +20172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A03C223-3A32-4643-903E-5A6CFDBE4BF7}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="51" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:V39"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="51" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -19724,7 +20206,7 @@
         <v>228</v>
       </c>
       <c r="E3" s="143" t="s">
-        <v>742</v>
+        <v>775</v>
       </c>
       <c r="F3" s="143"/>
       <c r="G3" s="143"/>
@@ -20507,7 +20989,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="146" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B1" s="146"/>
       <c r="C1" s="47"/>
@@ -20617,51 +21099,51 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="144" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B10" s="145"/>
     </row>
     <row r="11" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>578</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>582</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" s="48" t="s">
         <v>580</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>587</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="85.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="77" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B15" s="78"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="147" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B16" s="148"/>
     </row>
@@ -20671,7 +21153,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="151" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B18" s="152"/>
       <c r="C18" s="48"/>
@@ -20682,10 +21164,10 @@
     </row>
     <row r="20" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -20767,7 +21249,7 @@
     </row>
     <row r="7" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="91" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B7" s="155"/>
     </row>
@@ -20805,10 +21287,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>570</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -20824,7 +21306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9940D856-1DA9-4EA4-B8AA-DCA1B7E1C3D3}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="82" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -20894,56 +21376,56 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="54" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B8" s="57" t="s">
+        <v>601</v>
+      </c>
+      <c r="C8" s="129" t="s">
         <v>602</v>
-      </c>
-      <c r="C8" s="129" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="56" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C9" s="132"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C10" s="132"/>
     </row>
     <row r="11" spans="1:3" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="55" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C11" s="135"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="52" t="s">
+        <v>603</v>
+      </c>
+      <c r="B12" s="53" t="s">
         <v>604</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -20962,8 +21444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B77C4E-3E7B-4D80-A747-5F4AAFEFADA7}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="66" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="B5" zoomScale="66" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20994,13 +21476,13 @@
     </row>
     <row r="3" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="157" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="E3" s="72"/>
       <c r="F3" s="71"/>
@@ -21047,15 +21529,15 @@
         <v>558</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>559</v>
+        <v>774</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
@@ -21063,7 +21545,7 @@
         <v>254</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
@@ -21116,7 +21598,7 @@
     </row>
     <row r="16" spans="1:15" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>66</v>
@@ -21278,10 +21760,10 @@
     </row>
     <row r="37" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="202.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -21346,34 +21828,34 @@
     </row>
     <row r="47" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A47" s="18" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A48" s="63" t="s">
+        <v>621</v>
+      </c>
+      <c r="B48" s="64" t="s">
         <v>622</v>
-      </c>
-      <c r="B48" s="64" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A49" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A50" s="18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -21399,8 +21881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E09B06-1057-4116-8B55-B9253BA9DADF}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="60" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A16" zoomScale="60" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -21519,7 +22001,7 @@
         <v>243</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>276</v>
@@ -21527,13 +22009,13 @@
     </row>
     <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D11" s="72"/>
     </row>
@@ -21579,37 +22061,37 @@
     </row>
     <row r="16" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A16" s="60" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D16" s="178" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="123.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="60" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="60" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D17" s="179"/>
     </row>
     <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="62" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D18" s="179"/>
     </row>
@@ -21644,7 +22126,7 @@
     </row>
     <row r="22" spans="1:4" ht="228" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>243</v>
@@ -21655,24 +22137,24 @@
     </row>
     <row r="23" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -21688,10 +22170,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>723</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -21752,7 +22234,7 @@
         <v>513</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -21806,31 +22288,31 @@
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>629</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="249.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="180" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B13" s="181"/>
     </row>
@@ -21974,7 +22456,7 @@
       <c r="A5" s="104" t="s">
         <v>526</v>
       </c>
-      <c r="B5" s="113"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="43"/>
     </row>
   </sheetData>
@@ -22138,18 +22620,18 @@
     </row>
     <row r="18" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>608</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>634</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -22213,7 +22695,7 @@
         <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
@@ -22221,7 +22703,7 @@
         <v>220</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
@@ -22248,7 +22730,7 @@
     </row>
     <row r="32" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="184" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B32" s="185"/>
     </row>
@@ -22741,7 +23223,7 @@
         <v>396</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D7" s="96"/>
       <c r="E7" s="96"/>
@@ -23362,17 +23844,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="68" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView topLeftCell="A49" zoomScale="68" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="93.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="85" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="37"/>
+    <col min="3" max="3" width="9.06640625" style="37"/>
+    <col min="4" max="4" width="39.86328125" style="37" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
@@ -23416,17 +23900,17 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="169.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="116" t="s">
+      <c r="A6" s="113" t="s">
         <v>414</v>
       </c>
-      <c r="B6" s="117"/>
+      <c r="B6" s="114"/>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
+        <v>618</v>
+      </c>
+      <c r="B7" s="44" t="s">
         <v>619</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -23607,7 +24091,7 @@
       <c r="A32" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B32" s="114" t="s">
+      <c r="B32" s="116" t="s">
         <v>376</v>
       </c>
     </row>
@@ -23615,7 +24099,7 @@
       <c r="A33" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="B33" s="115"/>
+      <c r="B33" s="117"/>
     </row>
     <row r="34" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
@@ -23713,28 +24197,64 @@
     </row>
     <row r="46" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>567</v>
-      </c>
     </row>
     <row r="47" spans="1:2" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="113" t="s">
-        <v>574</v>
+      <c r="A47" s="115" t="s">
+        <v>573</v>
       </c>
       <c r="B47" s="88"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>753</v>
-      </c>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A49" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A50" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="C50" s="194" t="s">
+        <v>773</v>
+      </c>
+      <c r="D50" s="194"/>
+    </row>
+    <row r="51" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="C51" s="194"/>
+      <c r="D51" s="194"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A13:B13"/>
@@ -23743,11 +24263,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A19" r:id="rId1" xr:uid="{B3A5F69C-D686-43CD-96E0-B7F7221DEAE2}"/>
@@ -23998,7 +24513,7 @@
       <c r="B7" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="114" t="s">
+      <c r="C7" s="116" t="s">
         <v>204</v>
       </c>
     </row>
@@ -24009,7 +24524,7 @@
       <c r="B8" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="115"/>
+      <c r="C8" s="117"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
@@ -24018,16 +24533,16 @@
       <c r="B9" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="116" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>640</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>641</v>
       </c>
       <c r="C10" s="97"/>
     </row>
@@ -24038,11 +24553,11 @@
       <c r="B11" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="115"/>
+      <c r="C11" s="117"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>212</v>
@@ -24053,23 +24568,23 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="116" t="s">
         <v>217</v>
       </c>
     </row>
@@ -24080,14 +24595,14 @@
       <c r="B15" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="115"/>
+      <c r="C15" s="117"/>
     </row>
     <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>645</v>
       </c>
       <c r="C16" s="68" t="s">
         <v>451</v>
@@ -24117,23 +24632,23 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="114" t="s">
-        <v>647</v>
+      <c r="C19" s="116" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="115"/>
+      <c r="C20" s="117"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
@@ -24203,108 +24718,108 @@
     </row>
     <row r="27" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="285" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="124" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B35" s="125"/>
       <c r="C35" s="126"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="70" t="s">
+        <v>688</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>651</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>689</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>652</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -24312,18 +24827,18 @@
         <v>216</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>538</v>
@@ -24331,129 +24846,129 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>655</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>657</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>660</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>662</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="175.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="136" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B60" s="136"/>
       <c r="C60" s="136"/>
     </row>
     <row r="61" spans="1:3" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="124" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B61" s="125"/>
       <c r="C61" s="126"/>
     </row>
     <row r="62" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>667</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="157.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C66" s="65" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D66" s="127" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E66" s="128"/>
       <c r="F66" s="128"/>
@@ -24461,13 +24976,13 @@
     </row>
     <row r="67" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C67" s="65" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D67" s="130"/>
       <c r="E67" s="131"/>
@@ -24476,13 +24991,13 @@
     </row>
     <row r="68" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C68" s="65" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D68" s="130"/>
       <c r="E68" s="131"/>
@@ -24491,13 +25006,13 @@
     </row>
     <row r="69" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C69" s="65" t="s">
         <v>678</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C69" s="65" t="s">
-        <v>679</v>
       </c>
       <c r="D69" s="130"/>
       <c r="E69" s="131"/>
@@ -24506,13 +25021,13 @@
     </row>
     <row r="70" spans="1:7" ht="100.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C70" s="65" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D70" s="133"/>
       <c r="E70" s="134"/>
@@ -24521,112 +25036,112 @@
     </row>
     <row r="71" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>681</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>685</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>707</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>709</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>711</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>704</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>718</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -24846,10 +25361,10 @@
     </row>
     <row r="3" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="75" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
@@ -24860,7 +25375,7 @@
     </row>
     <row r="5" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="137" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B5" s="138"/>
     </row>
@@ -24882,7 +25397,7 @@
     </row>
     <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>423</v>
@@ -24906,10 +25421,10 @@
     </row>
     <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
@@ -24922,7 +25437,7 @@
     </row>
     <row r="13" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>433</v>
@@ -24936,16 +25451,16 @@
     </row>
     <row r="15" spans="1:2" ht="95.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="85" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B15" s="142"/>
     </row>
     <row r="16" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Geek_space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB02D159-37B3-4BA7-AC3F-C159341E9757}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6536D25C-8D8A-4B3D-AA0D-C632E47653F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="14400" windowHeight="7373" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="14" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="779">
   <si>
     <t>command</t>
   </si>
@@ -17720,12 +17720,161 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>som-string.substr(0,60)</t>
+  </si>
+  <si>
+    <t>get a substring upto 60 characters</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PUT vs PATCH</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+In PUT operation, whole object is updated or replaced with the new data provided in the request body, whereas in PATCH operation, only particular fields can be updated as provided in the request body.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In both cases, auto-update fields(e.g. dates, times) get updated as part of the request. So, save() method can be provided with the argument</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> obj.save(update_field=['field1', 'field2'])
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+E.g. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object details</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+pk=1
+title="django"
+author="sam"
+PUT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(for updating author</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+{"title":"django", "author":"Fisher"}
+note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if a mandatory field is not provided, it will throw up error even when the field is not getting updated</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PATCH
+{"author":"Fisher"}
+note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>only the field necessary needs to be provided</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -17982,6 +18131,14 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -18497,7 +18654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -18825,10 +18982,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18838,6 +18992,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -19068,8 +19228,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -20172,7 +20335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A03C223-3A32-4643-903E-5A6CFDBE4BF7}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="51" workbookViewId="0">
+    <sheetView topLeftCell="B3" zoomScale="51" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -20205,26 +20368,26 @@
       <c r="B3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="143" t="s">
+      <c r="E3" s="144" t="s">
         <v>775</v>
       </c>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="144"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
@@ -20233,24 +20396,24 @@
       <c r="B4" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
-      <c r="R4" s="143"/>
-      <c r="S4" s="143"/>
-      <c r="T4" s="143"/>
-      <c r="U4" s="143"/>
-      <c r="V4" s="143"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
+      <c r="R4" s="144"/>
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="V4" s="144"/>
     </row>
     <row r="5" spans="1:22" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
@@ -20259,24 +20422,24 @@
       <c r="B5" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="143"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="143"/>
-      <c r="O5" s="143"/>
-      <c r="P5" s="143"/>
-      <c r="Q5" s="143"/>
-      <c r="R5" s="143"/>
-      <c r="S5" s="143"/>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="143"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="144"/>
+      <c r="O5" s="144"/>
+      <c r="P5" s="144"/>
+      <c r="Q5" s="144"/>
+      <c r="R5" s="144"/>
+      <c r="S5" s="144"/>
+      <c r="T5" s="144"/>
+      <c r="U5" s="144"/>
+      <c r="V5" s="144"/>
     </row>
     <row r="6" spans="1:22" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
@@ -20285,684 +20448,684 @@
       <c r="B6" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="143"/>
-      <c r="O6" s="143"/>
-      <c r="P6" s="143"/>
-      <c r="Q6" s="143"/>
-      <c r="R6" s="143"/>
-      <c r="S6" s="143"/>
-      <c r="T6" s="143"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="143"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="144"/>
+      <c r="R6" s="144"/>
+      <c r="S6" s="144"/>
+      <c r="T6" s="144"/>
+      <c r="U6" s="144"/>
+      <c r="V6" s="144"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="143"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="144"/>
+      <c r="R7" s="144"/>
+      <c r="S7" s="144"/>
+      <c r="T7" s="144"/>
+      <c r="U7" s="144"/>
+      <c r="V7" s="144"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="143"/>
-      <c r="R8" s="143"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="143"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="144"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="144"/>
+      <c r="Q8" s="144"/>
+      <c r="R8" s="144"/>
+      <c r="S8" s="144"/>
+      <c r="T8" s="144"/>
+      <c r="U8" s="144"/>
+      <c r="V8" s="144"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E9" s="143"/>
-      <c r="F9" s="143"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="143"/>
-      <c r="J9" s="143"/>
-      <c r="K9" s="143"/>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="143"/>
-      <c r="O9" s="143"/>
-      <c r="P9" s="143"/>
-      <c r="Q9" s="143"/>
-      <c r="R9" s="143"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="143"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="144"/>
+      <c r="T9" s="144"/>
+      <c r="U9" s="144"/>
+      <c r="V9" s="144"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="143"/>
-      <c r="J10" s="143"/>
-      <c r="K10" s="143"/>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="143"/>
-      <c r="O10" s="143"/>
-      <c r="P10" s="143"/>
-      <c r="Q10" s="143"/>
-      <c r="R10" s="143"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="143"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="144"/>
+      <c r="R10" s="144"/>
+      <c r="S10" s="144"/>
+      <c r="T10" s="144"/>
+      <c r="U10" s="144"/>
+      <c r="V10" s="144"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="143"/>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="143"/>
-      <c r="O11" s="143"/>
-      <c r="P11" s="143"/>
-      <c r="Q11" s="143"/>
-      <c r="R11" s="143"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="143"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="144"/>
+      <c r="S11" s="144"/>
+      <c r="T11" s="144"/>
+      <c r="U11" s="144"/>
+      <c r="V11" s="144"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E12" s="143"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="143"/>
-      <c r="O12" s="143"/>
-      <c r="P12" s="143"/>
-      <c r="Q12" s="143"/>
-      <c r="R12" s="143"/>
-      <c r="S12" s="143"/>
-      <c r="T12" s="143"/>
-      <c r="U12" s="143"/>
-      <c r="V12" s="143"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="144"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="144"/>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="144"/>
+      <c r="P12" s="144"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="144"/>
+      <c r="S12" s="144"/>
+      <c r="T12" s="144"/>
+      <c r="U12" s="144"/>
+      <c r="V12" s="144"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143"/>
-      <c r="N13" s="143"/>
-      <c r="O13" s="143"/>
-      <c r="P13" s="143"/>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="143"/>
-      <c r="S13" s="143"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="143"/>
-      <c r="V13" s="143"/>
+      <c r="E13" s="144"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="144"/>
+      <c r="P13" s="144"/>
+      <c r="Q13" s="144"/>
+      <c r="R13" s="144"/>
+      <c r="S13" s="144"/>
+      <c r="T13" s="144"/>
+      <c r="U13" s="144"/>
+      <c r="V13" s="144"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="143"/>
-      <c r="J14" s="143"/>
-      <c r="K14" s="143"/>
-      <c r="L14" s="143"/>
-      <c r="M14" s="143"/>
-      <c r="N14" s="143"/>
-      <c r="O14" s="143"/>
-      <c r="P14" s="143"/>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="143"/>
-      <c r="S14" s="143"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="143"/>
+      <c r="E14" s="144"/>
+      <c r="F14" s="144"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="144"/>
+      <c r="P14" s="144"/>
+      <c r="Q14" s="144"/>
+      <c r="R14" s="144"/>
+      <c r="S14" s="144"/>
+      <c r="T14" s="144"/>
+      <c r="U14" s="144"/>
+      <c r="V14" s="144"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E15" s="143"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="143"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="143"/>
-      <c r="J15" s="143"/>
-      <c r="K15" s="143"/>
-      <c r="L15" s="143"/>
-      <c r="M15" s="143"/>
-      <c r="N15" s="143"/>
-      <c r="O15" s="143"/>
-      <c r="P15" s="143"/>
-      <c r="Q15" s="143"/>
-      <c r="R15" s="143"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="143"/>
+      <c r="E15" s="144"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="144"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="144"/>
+      <c r="P15" s="144"/>
+      <c r="Q15" s="144"/>
+      <c r="R15" s="144"/>
+      <c r="S15" s="144"/>
+      <c r="T15" s="144"/>
+      <c r="U15" s="144"/>
+      <c r="V15" s="144"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
-      <c r="J16" s="143"/>
-      <c r="K16" s="143"/>
-      <c r="L16" s="143"/>
-      <c r="M16" s="143"/>
-      <c r="N16" s="143"/>
-      <c r="O16" s="143"/>
-      <c r="P16" s="143"/>
-      <c r="Q16" s="143"/>
-      <c r="R16" s="143"/>
-      <c r="S16" s="143"/>
-      <c r="T16" s="143"/>
-      <c r="U16" s="143"/>
-      <c r="V16" s="143"/>
+      <c r="E16" s="144"/>
+      <c r="F16" s="144"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="144"/>
+      <c r="I16" s="144"/>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="144"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="144"/>
+      <c r="R16" s="144"/>
+      <c r="S16" s="144"/>
+      <c r="T16" s="144"/>
+      <c r="U16" s="144"/>
+      <c r="V16" s="144"/>
     </row>
     <row r="17" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E17" s="143"/>
-      <c r="F17" s="143"/>
-      <c r="G17" s="143"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="143"/>
-      <c r="J17" s="143"/>
-      <c r="K17" s="143"/>
-      <c r="L17" s="143"/>
-      <c r="M17" s="143"/>
-      <c r="N17" s="143"/>
-      <c r="O17" s="143"/>
-      <c r="P17" s="143"/>
-      <c r="Q17" s="143"/>
-      <c r="R17" s="143"/>
-      <c r="S17" s="143"/>
-      <c r="T17" s="143"/>
-      <c r="U17" s="143"/>
-      <c r="V17" s="143"/>
+      <c r="E17" s="144"/>
+      <c r="F17" s="144"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="144"/>
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="144"/>
+      <c r="P17" s="144"/>
+      <c r="Q17" s="144"/>
+      <c r="R17" s="144"/>
+      <c r="S17" s="144"/>
+      <c r="T17" s="144"/>
+      <c r="U17" s="144"/>
+      <c r="V17" s="144"/>
     </row>
     <row r="18" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E18" s="143"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="143"/>
-      <c r="J18" s="143"/>
-      <c r="K18" s="143"/>
-      <c r="L18" s="143"/>
-      <c r="M18" s="143"/>
-      <c r="N18" s="143"/>
-      <c r="O18" s="143"/>
-      <c r="P18" s="143"/>
-      <c r="Q18" s="143"/>
-      <c r="R18" s="143"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="143"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="143"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="144"/>
+      <c r="R18" s="144"/>
+      <c r="S18" s="144"/>
+      <c r="T18" s="144"/>
+      <c r="U18" s="144"/>
+      <c r="V18" s="144"/>
     </row>
     <row r="19" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
-      <c r="N19" s="143"/>
-      <c r="O19" s="143"/>
-      <c r="P19" s="143"/>
-      <c r="Q19" s="143"/>
-      <c r="R19" s="143"/>
-      <c r="S19" s="143"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="143"/>
-      <c r="V19" s="143"/>
+      <c r="E19" s="144"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="144"/>
+      <c r="I19" s="144"/>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="144"/>
+      <c r="P19" s="144"/>
+      <c r="Q19" s="144"/>
+      <c r="R19" s="144"/>
+      <c r="S19" s="144"/>
+      <c r="T19" s="144"/>
+      <c r="U19" s="144"/>
+      <c r="V19" s="144"/>
     </row>
     <row r="20" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143"/>
-      <c r="O20" s="143"/>
-      <c r="P20" s="143"/>
-      <c r="Q20" s="143"/>
-      <c r="R20" s="143"/>
-      <c r="S20" s="143"/>
-      <c r="T20" s="143"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="143"/>
+      <c r="E20" s="144"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="144"/>
+      <c r="I20" s="144"/>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="144"/>
+      <c r="O20" s="144"/>
+      <c r="P20" s="144"/>
+      <c r="Q20" s="144"/>
+      <c r="R20" s="144"/>
+      <c r="S20" s="144"/>
+      <c r="T20" s="144"/>
+      <c r="U20" s="144"/>
+      <c r="V20" s="144"/>
     </row>
     <row r="21" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E21" s="143"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="143"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="143"/>
-      <c r="K21" s="143"/>
-      <c r="L21" s="143"/>
-      <c r="M21" s="143"/>
-      <c r="N21" s="143"/>
-      <c r="O21" s="143"/>
-      <c r="P21" s="143"/>
-      <c r="Q21" s="143"/>
-      <c r="R21" s="143"/>
-      <c r="S21" s="143"/>
-      <c r="T21" s="143"/>
-      <c r="U21" s="143"/>
-      <c r="V21" s="143"/>
+      <c r="E21" s="144"/>
+      <c r="F21" s="144"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="144"/>
+      <c r="I21" s="144"/>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="144"/>
+      <c r="O21" s="144"/>
+      <c r="P21" s="144"/>
+      <c r="Q21" s="144"/>
+      <c r="R21" s="144"/>
+      <c r="S21" s="144"/>
+      <c r="T21" s="144"/>
+      <c r="U21" s="144"/>
+      <c r="V21" s="144"/>
     </row>
     <row r="22" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="143"/>
-      <c r="K22" s="143"/>
-      <c r="L22" s="143"/>
-      <c r="M22" s="143"/>
-      <c r="N22" s="143"/>
-      <c r="O22" s="143"/>
-      <c r="P22" s="143"/>
-      <c r="Q22" s="143"/>
-      <c r="R22" s="143"/>
-      <c r="S22" s="143"/>
-      <c r="T22" s="143"/>
-      <c r="U22" s="143"/>
-      <c r="V22" s="143"/>
+      <c r="E22" s="144"/>
+      <c r="F22" s="144"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="144"/>
+      <c r="I22" s="144"/>
+      <c r="J22" s="144"/>
+      <c r="K22" s="144"/>
+      <c r="L22" s="144"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="144"/>
+      <c r="O22" s="144"/>
+      <c r="P22" s="144"/>
+      <c r="Q22" s="144"/>
+      <c r="R22" s="144"/>
+      <c r="S22" s="144"/>
+      <c r="T22" s="144"/>
+      <c r="U22" s="144"/>
+      <c r="V22" s="144"/>
     </row>
     <row r="23" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="143"/>
-      <c r="J23" s="143"/>
-      <c r="K23" s="143"/>
-      <c r="L23" s="143"/>
-      <c r="M23" s="143"/>
-      <c r="N23" s="143"/>
-      <c r="O23" s="143"/>
-      <c r="P23" s="143"/>
-      <c r="Q23" s="143"/>
-      <c r="R23" s="143"/>
-      <c r="S23" s="143"/>
-      <c r="T23" s="143"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="143"/>
+      <c r="E23" s="144"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
+      <c r="J23" s="144"/>
+      <c r="K23" s="144"/>
+      <c r="L23" s="144"/>
+      <c r="M23" s="144"/>
+      <c r="N23" s="144"/>
+      <c r="O23" s="144"/>
+      <c r="P23" s="144"/>
+      <c r="Q23" s="144"/>
+      <c r="R23" s="144"/>
+      <c r="S23" s="144"/>
+      <c r="T23" s="144"/>
+      <c r="U23" s="144"/>
+      <c r="V23" s="144"/>
     </row>
     <row r="24" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
-      <c r="K24" s="143"/>
-      <c r="L24" s="143"/>
-      <c r="M24" s="143"/>
-      <c r="N24" s="143"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="143"/>
-      <c r="Q24" s="143"/>
-      <c r="R24" s="143"/>
-      <c r="S24" s="143"/>
-      <c r="T24" s="143"/>
-      <c r="U24" s="143"/>
-      <c r="V24" s="143"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="144"/>
+      <c r="I24" s="144"/>
+      <c r="J24" s="144"/>
+      <c r="K24" s="144"/>
+      <c r="L24" s="144"/>
+      <c r="M24" s="144"/>
+      <c r="N24" s="144"/>
+      <c r="O24" s="144"/>
+      <c r="P24" s="144"/>
+      <c r="Q24" s="144"/>
+      <c r="R24" s="144"/>
+      <c r="S24" s="144"/>
+      <c r="T24" s="144"/>
+      <c r="U24" s="144"/>
+      <c r="V24" s="144"/>
     </row>
     <row r="25" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="143"/>
-      <c r="J25" s="143"/>
-      <c r="K25" s="143"/>
-      <c r="L25" s="143"/>
-      <c r="M25" s="143"/>
-      <c r="N25" s="143"/>
-      <c r="O25" s="143"/>
-      <c r="P25" s="143"/>
-      <c r="Q25" s="143"/>
-      <c r="R25" s="143"/>
-      <c r="S25" s="143"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="143"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+      <c r="K25" s="144"/>
+      <c r="L25" s="144"/>
+      <c r="M25" s="144"/>
+      <c r="N25" s="144"/>
+      <c r="O25" s="144"/>
+      <c r="P25" s="144"/>
+      <c r="Q25" s="144"/>
+      <c r="R25" s="144"/>
+      <c r="S25" s="144"/>
+      <c r="T25" s="144"/>
+      <c r="U25" s="144"/>
+      <c r="V25" s="144"/>
     </row>
     <row r="26" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E26" s="143"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="143"/>
-      <c r="J26" s="143"/>
-      <c r="K26" s="143"/>
-      <c r="L26" s="143"/>
-      <c r="M26" s="143"/>
-      <c r="N26" s="143"/>
-      <c r="O26" s="143"/>
-      <c r="P26" s="143"/>
-      <c r="Q26" s="143"/>
-      <c r="R26" s="143"/>
-      <c r="S26" s="143"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="143"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+      <c r="K26" s="144"/>
+      <c r="L26" s="144"/>
+      <c r="M26" s="144"/>
+      <c r="N26" s="144"/>
+      <c r="O26" s="144"/>
+      <c r="P26" s="144"/>
+      <c r="Q26" s="144"/>
+      <c r="R26" s="144"/>
+      <c r="S26" s="144"/>
+      <c r="T26" s="144"/>
+      <c r="U26" s="144"/>
+      <c r="V26" s="144"/>
     </row>
     <row r="27" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E27" s="143"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="143"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="143"/>
-      <c r="J27" s="143"/>
-      <c r="K27" s="143"/>
-      <c r="L27" s="143"/>
-      <c r="M27" s="143"/>
-      <c r="N27" s="143"/>
-      <c r="O27" s="143"/>
-      <c r="P27" s="143"/>
-      <c r="Q27" s="143"/>
-      <c r="R27" s="143"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="143"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+      <c r="K27" s="144"/>
+      <c r="L27" s="144"/>
+      <c r="M27" s="144"/>
+      <c r="N27" s="144"/>
+      <c r="O27" s="144"/>
+      <c r="P27" s="144"/>
+      <c r="Q27" s="144"/>
+      <c r="R27" s="144"/>
+      <c r="S27" s="144"/>
+      <c r="T27" s="144"/>
+      <c r="U27" s="144"/>
+      <c r="V27" s="144"/>
     </row>
     <row r="28" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E28" s="143"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="143"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="143"/>
-      <c r="K28" s="143"/>
-      <c r="L28" s="143"/>
-      <c r="M28" s="143"/>
-      <c r="N28" s="143"/>
-      <c r="O28" s="143"/>
-      <c r="P28" s="143"/>
-      <c r="Q28" s="143"/>
-      <c r="R28" s="143"/>
-      <c r="S28" s="143"/>
-      <c r="T28" s="143"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="144"/>
+      <c r="I28" s="144"/>
+      <c r="J28" s="144"/>
+      <c r="K28" s="144"/>
+      <c r="L28" s="144"/>
+      <c r="M28" s="144"/>
+      <c r="N28" s="144"/>
+      <c r="O28" s="144"/>
+      <c r="P28" s="144"/>
+      <c r="Q28" s="144"/>
+      <c r="R28" s="144"/>
+      <c r="S28" s="144"/>
+      <c r="T28" s="144"/>
+      <c r="U28" s="144"/>
+      <c r="V28" s="144"/>
     </row>
     <row r="29" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E29" s="143"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="143"/>
-      <c r="K29" s="143"/>
-      <c r="L29" s="143"/>
-      <c r="M29" s="143"/>
-      <c r="N29" s="143"/>
-      <c r="O29" s="143"/>
-      <c r="P29" s="143"/>
-      <c r="Q29" s="143"/>
-      <c r="R29" s="143"/>
-      <c r="S29" s="143"/>
-      <c r="T29" s="143"/>
-      <c r="U29" s="143"/>
-      <c r="V29" s="143"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="144"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="144"/>
+      <c r="Q29" s="144"/>
+      <c r="R29" s="144"/>
+      <c r="S29" s="144"/>
+      <c r="T29" s="144"/>
+      <c r="U29" s="144"/>
+      <c r="V29" s="144"/>
     </row>
     <row r="30" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="143"/>
-      <c r="K30" s="143"/>
-      <c r="L30" s="143"/>
-      <c r="M30" s="143"/>
-      <c r="N30" s="143"/>
-      <c r="O30" s="143"/>
-      <c r="P30" s="143"/>
-      <c r="Q30" s="143"/>
-      <c r="R30" s="143"/>
-      <c r="S30" s="143"/>
-      <c r="T30" s="143"/>
-      <c r="U30" s="143"/>
-      <c r="V30" s="143"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="144"/>
+      <c r="N30" s="144"/>
+      <c r="O30" s="144"/>
+      <c r="P30" s="144"/>
+      <c r="Q30" s="144"/>
+      <c r="R30" s="144"/>
+      <c r="S30" s="144"/>
+      <c r="T30" s="144"/>
+      <c r="U30" s="144"/>
+      <c r="V30" s="144"/>
     </row>
     <row r="31" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E31" s="143"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="143"/>
-      <c r="J31" s="143"/>
-      <c r="K31" s="143"/>
-      <c r="L31" s="143"/>
-      <c r="M31" s="143"/>
-      <c r="N31" s="143"/>
-      <c r="O31" s="143"/>
-      <c r="P31" s="143"/>
-      <c r="Q31" s="143"/>
-      <c r="R31" s="143"/>
-      <c r="S31" s="143"/>
-      <c r="T31" s="143"/>
-      <c r="U31" s="143"/>
-      <c r="V31" s="143"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="144"/>
+      <c r="N31" s="144"/>
+      <c r="O31" s="144"/>
+      <c r="P31" s="144"/>
+      <c r="Q31" s="144"/>
+      <c r="R31" s="144"/>
+      <c r="S31" s="144"/>
+      <c r="T31" s="144"/>
+      <c r="U31" s="144"/>
+      <c r="V31" s="144"/>
     </row>
     <row r="32" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E32" s="143"/>
-      <c r="F32" s="143"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="143"/>
-      <c r="J32" s="143"/>
-      <c r="K32" s="143"/>
-      <c r="L32" s="143"/>
-      <c r="M32" s="143"/>
-      <c r="N32" s="143"/>
-      <c r="O32" s="143"/>
-      <c r="P32" s="143"/>
-      <c r="Q32" s="143"/>
-      <c r="R32" s="143"/>
-      <c r="S32" s="143"/>
-      <c r="T32" s="143"/>
-      <c r="U32" s="143"/>
-      <c r="V32" s="143"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="144"/>
+      <c r="P32" s="144"/>
+      <c r="Q32" s="144"/>
+      <c r="R32" s="144"/>
+      <c r="S32" s="144"/>
+      <c r="T32" s="144"/>
+      <c r="U32" s="144"/>
+      <c r="V32" s="144"/>
     </row>
     <row r="33" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E33" s="143"/>
-      <c r="F33" s="143"/>
-      <c r="G33" s="143"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="143"/>
-      <c r="J33" s="143"/>
-      <c r="K33" s="143"/>
-      <c r="L33" s="143"/>
-      <c r="M33" s="143"/>
-      <c r="N33" s="143"/>
-      <c r="O33" s="143"/>
-      <c r="P33" s="143"/>
-      <c r="Q33" s="143"/>
-      <c r="R33" s="143"/>
-      <c r="S33" s="143"/>
-      <c r="T33" s="143"/>
-      <c r="U33" s="143"/>
-      <c r="V33" s="143"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="144"/>
+      <c r="O33" s="144"/>
+      <c r="P33" s="144"/>
+      <c r="Q33" s="144"/>
+      <c r="R33" s="144"/>
+      <c r="S33" s="144"/>
+      <c r="T33" s="144"/>
+      <c r="U33" s="144"/>
+      <c r="V33" s="144"/>
     </row>
     <row r="34" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E34" s="143"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="143"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="143"/>
-      <c r="N34" s="143"/>
-      <c r="O34" s="143"/>
-      <c r="P34" s="143"/>
-      <c r="Q34" s="143"/>
-      <c r="R34" s="143"/>
-      <c r="S34" s="143"/>
-      <c r="T34" s="143"/>
-      <c r="U34" s="143"/>
-      <c r="V34" s="143"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="144"/>
+      <c r="L34" s="144"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="144"/>
+      <c r="O34" s="144"/>
+      <c r="P34" s="144"/>
+      <c r="Q34" s="144"/>
+      <c r="R34" s="144"/>
+      <c r="S34" s="144"/>
+      <c r="T34" s="144"/>
+      <c r="U34" s="144"/>
+      <c r="V34" s="144"/>
     </row>
     <row r="35" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E35" s="143"/>
-      <c r="F35" s="143"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="143"/>
-      <c r="L35" s="143"/>
-      <c r="M35" s="143"/>
-      <c r="N35" s="143"/>
-      <c r="O35" s="143"/>
-      <c r="P35" s="143"/>
-      <c r="Q35" s="143"/>
-      <c r="R35" s="143"/>
-      <c r="S35" s="143"/>
-      <c r="T35" s="143"/>
-      <c r="U35" s="143"/>
-      <c r="V35" s="143"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="144"/>
+      <c r="N35" s="144"/>
+      <c r="O35" s="144"/>
+      <c r="P35" s="144"/>
+      <c r="Q35" s="144"/>
+      <c r="R35" s="144"/>
+      <c r="S35" s="144"/>
+      <c r="T35" s="144"/>
+      <c r="U35" s="144"/>
+      <c r="V35" s="144"/>
     </row>
     <row r="36" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="143"/>
-      <c r="L36" s="143"/>
-      <c r="M36" s="143"/>
-      <c r="N36" s="143"/>
-      <c r="O36" s="143"/>
-      <c r="P36" s="143"/>
-      <c r="Q36" s="143"/>
-      <c r="R36" s="143"/>
-      <c r="S36" s="143"/>
-      <c r="T36" s="143"/>
-      <c r="U36" s="143"/>
-      <c r="V36" s="143"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="144"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="144"/>
+      <c r="P36" s="144"/>
+      <c r="Q36" s="144"/>
+      <c r="R36" s="144"/>
+      <c r="S36" s="144"/>
+      <c r="T36" s="144"/>
+      <c r="U36" s="144"/>
+      <c r="V36" s="144"/>
     </row>
     <row r="37" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E37" s="143"/>
-      <c r="F37" s="143"/>
-      <c r="G37" s="143"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="143"/>
-      <c r="J37" s="143"/>
-      <c r="K37" s="143"/>
-      <c r="L37" s="143"/>
-      <c r="M37" s="143"/>
-      <c r="N37" s="143"/>
-      <c r="O37" s="143"/>
-      <c r="P37" s="143"/>
-      <c r="Q37" s="143"/>
-      <c r="R37" s="143"/>
-      <c r="S37" s="143"/>
-      <c r="T37" s="143"/>
-      <c r="U37" s="143"/>
-      <c r="V37" s="143"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
+      <c r="H37" s="144"/>
+      <c r="I37" s="144"/>
+      <c r="J37" s="144"/>
+      <c r="K37" s="144"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="144"/>
+      <c r="N37" s="144"/>
+      <c r="O37" s="144"/>
+      <c r="P37" s="144"/>
+      <c r="Q37" s="144"/>
+      <c r="R37" s="144"/>
+      <c r="S37" s="144"/>
+      <c r="T37" s="144"/>
+      <c r="U37" s="144"/>
+      <c r="V37" s="144"/>
     </row>
     <row r="38" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="143"/>
-      <c r="J38" s="143"/>
-      <c r="K38" s="143"/>
-      <c r="L38" s="143"/>
-      <c r="M38" s="143"/>
-      <c r="N38" s="143"/>
-      <c r="O38" s="143"/>
-      <c r="P38" s="143"/>
-      <c r="Q38" s="143"/>
-      <c r="R38" s="143"/>
-      <c r="S38" s="143"/>
-      <c r="T38" s="143"/>
-      <c r="U38" s="143"/>
-      <c r="V38" s="143"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="144"/>
+      <c r="H38" s="144"/>
+      <c r="I38" s="144"/>
+      <c r="J38" s="144"/>
+      <c r="K38" s="144"/>
+      <c r="L38" s="144"/>
+      <c r="M38" s="144"/>
+      <c r="N38" s="144"/>
+      <c r="O38" s="144"/>
+      <c r="P38" s="144"/>
+      <c r="Q38" s="144"/>
+      <c r="R38" s="144"/>
+      <c r="S38" s="144"/>
+      <c r="T38" s="144"/>
+      <c r="U38" s="144"/>
+      <c r="V38" s="144"/>
     </row>
     <row r="39" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E39" s="143"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="143"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="143"/>
-      <c r="J39" s="143"/>
-      <c r="K39" s="143"/>
-      <c r="L39" s="143"/>
-      <c r="M39" s="143"/>
-      <c r="N39" s="143"/>
-      <c r="O39" s="143"/>
-      <c r="P39" s="143"/>
-      <c r="Q39" s="143"/>
-      <c r="R39" s="143"/>
-      <c r="S39" s="143"/>
-      <c r="T39" s="143"/>
-      <c r="U39" s="143"/>
-      <c r="V39" s="143"/>
+      <c r="E39" s="144"/>
+      <c r="F39" s="144"/>
+      <c r="G39" s="144"/>
+      <c r="H39" s="144"/>
+      <c r="I39" s="144"/>
+      <c r="J39" s="144"/>
+      <c r="K39" s="144"/>
+      <c r="L39" s="144"/>
+      <c r="M39" s="144"/>
+      <c r="N39" s="144"/>
+      <c r="O39" s="144"/>
+      <c r="P39" s="144"/>
+      <c r="Q39" s="144"/>
+      <c r="R39" s="144"/>
+      <c r="S39" s="144"/>
+      <c r="T39" s="144"/>
+      <c r="U39" s="144"/>
+      <c r="V39" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -20988,10 +21151,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>574</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
@@ -21002,8 +21165,8 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
@@ -21014,8 +21177,8 @@
       <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="146"/>
-      <c r="B3" s="146"/>
+      <c r="A3" s="147"/>
+      <c r="B3" s="147"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
@@ -21026,8 +21189,8 @@
       <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="146"/>
-      <c r="B4" s="146"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
@@ -21038,8 +21201,8 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="146"/>
-      <c r="B5" s="146"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -21050,8 +21213,8 @@
       <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="146"/>
-      <c r="B6" s="146"/>
+      <c r="A6" s="147"/>
+      <c r="B6" s="147"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
@@ -21062,8 +21225,8 @@
       <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="146"/>
-      <c r="B7" s="146"/>
+      <c r="A7" s="147"/>
+      <c r="B7" s="147"/>
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -21074,8 +21237,8 @@
       <c r="J7" s="47"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="146"/>
-      <c r="B8" s="146"/>
+      <c r="A8" s="147"/>
+      <c r="B8" s="147"/>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
@@ -21086,8 +21249,8 @@
       <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="146"/>
-      <c r="B9" s="146"/>
+      <c r="A9" s="147"/>
+      <c r="B9" s="147"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
@@ -21098,10 +21261,10 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="145" t="s">
         <v>575</v>
       </c>
-      <c r="B10" s="145"/>
+      <c r="B10" s="146"/>
     </row>
     <row r="11" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
@@ -21142,25 +21305,25 @@
       <c r="B15" s="78"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="147" t="s">
+      <c r="A16" s="148" t="s">
         <v>590</v>
       </c>
-      <c r="B16" s="148"/>
+      <c r="B16" s="149"/>
     </row>
     <row r="17" spans="1:3" ht="131.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="149"/>
-      <c r="B17" s="150"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="151"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="151" t="s">
+      <c r="A18" s="152" t="s">
         <v>589</v>
       </c>
-      <c r="B18" s="152"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="48"/>
     </row>
     <row r="19" spans="1:3" ht="44.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="153"/>
-      <c r="B19" s="154"/>
+      <c r="A19" s="154"/>
+      <c r="B19" s="155"/>
     </row>
     <row r="20" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
@@ -21251,7 +21414,7 @@
       <c r="A7" s="91" t="s">
         <v>620</v>
       </c>
-      <c r="B7" s="155"/>
+      <c r="B7" s="156"/>
     </row>
     <row r="8" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
@@ -21381,7 +21544,7 @@
       <c r="B8" s="57" t="s">
         <v>601</v>
       </c>
-      <c r="C8" s="129" t="s">
+      <c r="C8" s="130" t="s">
         <v>602</v>
       </c>
     </row>
@@ -21392,7 +21555,7 @@
       <c r="B9" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="C9" s="132"/>
+      <c r="C9" s="133"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
@@ -21401,7 +21564,7 @@
       <c r="B10" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="C10" s="132"/>
+      <c r="C10" s="133"/>
     </row>
     <row r="11" spans="1:3" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="55" t="s">
@@ -21410,7 +21573,7 @@
       <c r="B11" s="58" t="s">
         <v>598</v>
       </c>
-      <c r="C11" s="135"/>
+      <c r="C11" s="136"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="52" t="s">
@@ -21481,7 +21644,7 @@
       <c r="B3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="157" t="s">
+      <c r="D3" s="158" t="s">
         <v>765</v>
       </c>
       <c r="E3" s="72"/>
@@ -21494,7 +21657,7 @@
       <c r="L3" s="71"/>
       <c r="M3" s="71"/>
       <c r="N3" s="71"/>
-      <c r="O3" s="156"/>
+      <c r="O3" s="157"/>
     </row>
     <row r="4" spans="1:15" ht="387" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
@@ -21503,7 +21666,7 @@
       <c r="B4" s="19" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="158"/>
+      <c r="D4" s="159"/>
       <c r="E4" s="71"/>
       <c r="F4" s="71"/>
       <c r="G4" s="71"/>
@@ -21514,7 +21677,7 @@
       <c r="L4" s="71"/>
       <c r="M4" s="71"/>
       <c r="N4" s="71"/>
-      <c r="O4" s="156"/>
+      <c r="O4" s="157"/>
     </row>
     <row r="5" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
@@ -21669,10 +21832,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="167" t="s">
+      <c r="A25" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="168"/>
+      <c r="B25" s="169"/>
     </row>
     <row r="26" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A26" s="18" t="s">
@@ -21699,10 +21862,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="169" t="s">
+      <c r="A29" s="170" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="170"/>
+      <c r="B29" s="171"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="18" t="s">
@@ -21745,10 +21908,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="171" t="s">
+      <c r="A35" s="172" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="172"/>
+      <c r="B35" s="173"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="18" t="s">
@@ -21767,22 +21930,22 @@
       </c>
     </row>
     <row r="38" spans="1:2" ht="202.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="165" t="s">
+      <c r="A38" s="166" t="s">
         <v>249</v>
       </c>
-      <c r="B38" s="166"/>
+      <c r="B38" s="167"/>
     </row>
     <row r="39" spans="1:2" ht="324" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="163" t="s">
+      <c r="A39" s="164" t="s">
         <v>269</v>
       </c>
-      <c r="B39" s="164"/>
+      <c r="B39" s="165"/>
     </row>
     <row r="40" spans="1:2" ht="149.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="173" t="s">
+      <c r="A40" s="174" t="s">
         <v>270</v>
       </c>
-      <c r="B40" s="174"/>
+      <c r="B40" s="175"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="18" t="s">
@@ -21793,14 +21956,14 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="381.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="161" t="s">
+      <c r="A42" s="162" t="s">
         <v>257</v>
       </c>
-      <c r="B42" s="162"/>
+      <c r="B42" s="163"/>
     </row>
     <row r="43" spans="1:2" ht="238.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="159"/>
-      <c r="B43" s="160"/>
+      <c r="A43" s="160"/>
+      <c r="B43" s="161"/>
     </row>
     <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="18" t="s">
@@ -21879,10 +22042,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E09B06-1057-4116-8B55-B9253BA9DADF}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="60" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16:D18"/>
+    <sheetView topLeftCell="A24" zoomScale="60" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -22023,8 +22186,8 @@
       <c r="A12" s="93" t="s">
         <v>261</v>
       </c>
-      <c r="B12" s="175"/>
-      <c r="C12" s="141"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="142"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
@@ -22069,7 +22232,7 @@
       <c r="C16" s="61" t="s">
         <v>614</v>
       </c>
-      <c r="D16" s="178" t="s">
+      <c r="D16" s="179" t="s">
         <v>724</v>
       </c>
     </row>
@@ -22081,7 +22244,7 @@
       <c r="C17" s="60" t="s">
         <v>616</v>
       </c>
-      <c r="D17" s="179"/>
+      <c r="D17" s="180"/>
     </row>
     <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="62" t="s">
@@ -22093,7 +22256,7 @@
       <c r="C18" s="61" t="s">
         <v>613</v>
       </c>
-      <c r="D18" s="179"/>
+      <c r="D18" s="180"/>
     </row>
     <row r="19" spans="1:4" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
@@ -22121,8 +22284,8 @@
       <c r="A21" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="B21" s="176"/>
-      <c r="C21" s="177"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="178"/>
     </row>
     <row r="22" spans="1:4" ht="228" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
@@ -22174,6 +22337,17 @@
       </c>
       <c r="C26" s="3" t="s">
         <v>723</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -22311,10 +22485,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="249.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="180" t="s">
+      <c r="A13" s="181" t="s">
         <v>734</v>
       </c>
-      <c r="B13" s="181"/>
+      <c r="B13" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -22456,7 +22630,7 @@
       <c r="A5" s="104" t="s">
         <v>526</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="43"/>
     </row>
   </sheetData>
@@ -22715,10 +22889,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="183"/>
+      <c r="B30" s="184"/>
     </row>
     <row r="31" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
@@ -22729,126 +22903,126 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="184" t="s">
+      <c r="A32" s="185" t="s">
         <v>727</v>
       </c>
-      <c r="B32" s="185"/>
+      <c r="B32" s="186"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="186"/>
-      <c r="B33" s="187"/>
+      <c r="A33" s="187"/>
+      <c r="B33" s="188"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="186"/>
-      <c r="B34" s="187"/>
+      <c r="A34" s="187"/>
+      <c r="B34" s="188"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="186"/>
-      <c r="B35" s="187"/>
+      <c r="A35" s="187"/>
+      <c r="B35" s="188"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="186"/>
-      <c r="B36" s="187"/>
+      <c r="A36" s="187"/>
+      <c r="B36" s="188"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="186"/>
-      <c r="B37" s="187"/>
+      <c r="A37" s="187"/>
+      <c r="B37" s="188"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="186"/>
-      <c r="B38" s="187"/>
+      <c r="A38" s="187"/>
+      <c r="B38" s="188"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="186"/>
-      <c r="B39" s="187"/>
+      <c r="A39" s="187"/>
+      <c r="B39" s="188"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="186"/>
-      <c r="B40" s="187"/>
+      <c r="A40" s="187"/>
+      <c r="B40" s="188"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="186"/>
-      <c r="B41" s="187"/>
+      <c r="A41" s="187"/>
+      <c r="B41" s="188"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="186"/>
-      <c r="B42" s="187"/>
+      <c r="A42" s="187"/>
+      <c r="B42" s="188"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="186"/>
-      <c r="B43" s="187"/>
+      <c r="A43" s="187"/>
+      <c r="B43" s="188"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="186"/>
-      <c r="B44" s="187"/>
+      <c r="A44" s="187"/>
+      <c r="B44" s="188"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="186"/>
-      <c r="B45" s="187"/>
+      <c r="A45" s="187"/>
+      <c r="B45" s="188"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="186"/>
-      <c r="B46" s="187"/>
+      <c r="A46" s="187"/>
+      <c r="B46" s="188"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="186"/>
-      <c r="B47" s="187"/>
+      <c r="A47" s="187"/>
+      <c r="B47" s="188"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="186"/>
-      <c r="B48" s="187"/>
+      <c r="A48" s="187"/>
+      <c r="B48" s="188"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="186"/>
-      <c r="B49" s="187"/>
+      <c r="A49" s="187"/>
+      <c r="B49" s="188"/>
     </row>
     <row r="50" spans="1:2" ht="6.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="186"/>
-      <c r="B50" s="187"/>
+      <c r="A50" s="187"/>
+      <c r="B50" s="188"/>
     </row>
     <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="186"/>
-      <c r="B51" s="187"/>
+      <c r="A51" s="187"/>
+      <c r="B51" s="188"/>
     </row>
     <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="186"/>
-      <c r="B52" s="187"/>
+      <c r="A52" s="187"/>
+      <c r="B52" s="188"/>
     </row>
     <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="186"/>
-      <c r="B53" s="187"/>
+      <c r="A53" s="187"/>
+      <c r="B53" s="188"/>
     </row>
     <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="186"/>
-      <c r="B54" s="187"/>
+      <c r="A54" s="187"/>
+      <c r="B54" s="188"/>
     </row>
     <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="186"/>
-      <c r="B55" s="187"/>
+      <c r="A55" s="187"/>
+      <c r="B55" s="188"/>
     </row>
     <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="186"/>
-      <c r="B56" s="187"/>
+      <c r="A56" s="187"/>
+      <c r="B56" s="188"/>
     </row>
     <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="186"/>
-      <c r="B57" s="187"/>
+      <c r="A57" s="187"/>
+      <c r="B57" s="188"/>
     </row>
     <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="186"/>
-      <c r="B58" s="187"/>
+      <c r="A58" s="187"/>
+      <c r="B58" s="188"/>
     </row>
     <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="186"/>
-      <c r="B59" s="187"/>
+      <c r="A59" s="187"/>
+      <c r="B59" s="188"/>
     </row>
     <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="186"/>
-      <c r="B60" s="187"/>
+      <c r="A60" s="187"/>
+      <c r="B60" s="188"/>
     </row>
     <row r="61" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="188"/>
-      <c r="B61" s="189"/>
+      <c r="A61" s="189"/>
+      <c r="B61" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23188,35 +23362,35 @@
       <c r="B6" s="35" t="s">
         <v>395</v>
       </c>
-      <c r="D6" s="192" t="s">
+      <c r="D6" s="193" t="s">
         <v>385</v>
       </c>
-      <c r="E6" s="192"/>
-      <c r="G6" s="193" t="s">
+      <c r="E6" s="193"/>
+      <c r="G6" s="194" t="s">
         <v>490</v>
       </c>
-      <c r="H6" s="193"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="193"/>
-      <c r="M6" s="193"/>
-      <c r="N6" s="193"/>
-      <c r="O6" s="193"/>
-      <c r="P6" s="193"/>
-      <c r="R6" s="190" t="s">
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+      <c r="J6" s="194"/>
+      <c r="K6" s="194"/>
+      <c r="L6" s="194"/>
+      <c r="M6" s="194"/>
+      <c r="N6" s="194"/>
+      <c r="O6" s="194"/>
+      <c r="P6" s="194"/>
+      <c r="R6" s="191" t="s">
         <v>557</v>
       </c>
-      <c r="S6" s="191"/>
-      <c r="T6" s="191"/>
-      <c r="U6" s="191"/>
-      <c r="V6" s="191"/>
-      <c r="W6" s="191"/>
-      <c r="X6" s="191"/>
-      <c r="Y6" s="191"/>
-      <c r="Z6" s="191"/>
-      <c r="AA6" s="191"/>
-      <c r="AB6" s="191"/>
+      <c r="S6" s="192"/>
+      <c r="T6" s="192"/>
+      <c r="U6" s="192"/>
+      <c r="V6" s="192"/>
+      <c r="W6" s="192"/>
+      <c r="X6" s="192"/>
+      <c r="Y6" s="192"/>
+      <c r="Z6" s="192"/>
+      <c r="AA6" s="192"/>
+      <c r="AB6" s="192"/>
     </row>
     <row r="7" spans="1:28" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
@@ -23227,27 +23401,27 @@
       </c>
       <c r="D7" s="96"/>
       <c r="E7" s="96"/>
-      <c r="G7" s="193"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="193"/>
-      <c r="J7" s="193"/>
-      <c r="K7" s="193"/>
-      <c r="L7" s="193"/>
-      <c r="M7" s="193"/>
-      <c r="N7" s="193"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="193"/>
-      <c r="R7" s="191"/>
-      <c r="S7" s="191"/>
-      <c r="T7" s="191"/>
-      <c r="U7" s="191"/>
-      <c r="V7" s="191"/>
-      <c r="W7" s="191"/>
-      <c r="X7" s="191"/>
-      <c r="Y7" s="191"/>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="191"/>
-      <c r="AB7" s="191"/>
+      <c r="G7" s="194"/>
+      <c r="H7" s="194"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="194"/>
+      <c r="K7" s="194"/>
+      <c r="L7" s="194"/>
+      <c r="M7" s="194"/>
+      <c r="N7" s="194"/>
+      <c r="O7" s="194"/>
+      <c r="P7" s="194"/>
+      <c r="R7" s="192"/>
+      <c r="S7" s="192"/>
+      <c r="T7" s="192"/>
+      <c r="U7" s="192"/>
+      <c r="V7" s="192"/>
+      <c r="W7" s="192"/>
+      <c r="X7" s="192"/>
+      <c r="Y7" s="192"/>
+      <c r="Z7" s="192"/>
+      <c r="AA7" s="192"/>
+      <c r="AB7" s="192"/>
     </row>
     <row r="8" spans="1:28" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
@@ -23258,27 +23432,27 @@
       </c>
       <c r="D8" s="96"/>
       <c r="E8" s="96"/>
-      <c r="G8" s="193"/>
-      <c r="H8" s="193"/>
-      <c r="I8" s="193"/>
-      <c r="J8" s="193"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="193"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="193"/>
-      <c r="P8" s="193"/>
-      <c r="R8" s="191"/>
-      <c r="S8" s="191"/>
-      <c r="T8" s="191"/>
-      <c r="U8" s="191"/>
-      <c r="V8" s="191"/>
-      <c r="W8" s="191"/>
-      <c r="X8" s="191"/>
-      <c r="Y8" s="191"/>
-      <c r="Z8" s="191"/>
-      <c r="AA8" s="191"/>
-      <c r="AB8" s="191"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="194"/>
+      <c r="P8" s="194"/>
+      <c r="R8" s="192"/>
+      <c r="S8" s="192"/>
+      <c r="T8" s="192"/>
+      <c r="U8" s="192"/>
+      <c r="V8" s="192"/>
+      <c r="W8" s="192"/>
+      <c r="X8" s="192"/>
+      <c r="Y8" s="192"/>
+      <c r="Z8" s="192"/>
+      <c r="AA8" s="192"/>
+      <c r="AB8" s="192"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
@@ -23289,27 +23463,27 @@
       </c>
       <c r="D9" s="96"/>
       <c r="E9" s="96"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
-      <c r="M9" s="193"/>
-      <c r="N9" s="193"/>
-      <c r="O9" s="193"/>
-      <c r="P9" s="193"/>
-      <c r="R9" s="191"/>
-      <c r="S9" s="191"/>
-      <c r="T9" s="191"/>
-      <c r="U9" s="191"/>
-      <c r="V9" s="191"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="191"/>
-      <c r="Y9" s="191"/>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="191"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="194"/>
+      <c r="R9" s="192"/>
+      <c r="S9" s="192"/>
+      <c r="T9" s="192"/>
+      <c r="U9" s="192"/>
+      <c r="V9" s="192"/>
+      <c r="W9" s="192"/>
+      <c r="X9" s="192"/>
+      <c r="Y9" s="192"/>
+      <c r="Z9" s="192"/>
+      <c r="AA9" s="192"/>
+      <c r="AB9" s="192"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
@@ -23320,27 +23494,27 @@
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="193"/>
-      <c r="L10" s="193"/>
-      <c r="M10" s="193"/>
-      <c r="N10" s="193"/>
-      <c r="O10" s="193"/>
-      <c r="P10" s="193"/>
-      <c r="R10" s="191"/>
-      <c r="S10" s="191"/>
-      <c r="T10" s="191"/>
-      <c r="U10" s="191"/>
-      <c r="V10" s="191"/>
-      <c r="W10" s="191"/>
-      <c r="X10" s="191"/>
-      <c r="Y10" s="191"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="191"/>
-      <c r="AB10" s="191"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="194"/>
+      <c r="P10" s="194"/>
+      <c r="R10" s="192"/>
+      <c r="S10" s="192"/>
+      <c r="T10" s="192"/>
+      <c r="U10" s="192"/>
+      <c r="V10" s="192"/>
+      <c r="W10" s="192"/>
+      <c r="X10" s="192"/>
+      <c r="Y10" s="192"/>
+      <c r="Z10" s="192"/>
+      <c r="AA10" s="192"/>
+      <c r="AB10" s="192"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
@@ -23351,27 +23525,27 @@
       </c>
       <c r="D11" s="96"/>
       <c r="E11" s="96"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="193"/>
-      <c r="L11" s="193"/>
-      <c r="M11" s="193"/>
-      <c r="N11" s="193"/>
-      <c r="O11" s="193"/>
-      <c r="P11" s="193"/>
-      <c r="R11" s="191"/>
-      <c r="S11" s="191"/>
-      <c r="T11" s="191"/>
-      <c r="U11" s="191"/>
-      <c r="V11" s="191"/>
-      <c r="W11" s="191"/>
-      <c r="X11" s="191"/>
-      <c r="Y11" s="191"/>
-      <c r="Z11" s="191"/>
-      <c r="AA11" s="191"/>
-      <c r="AB11" s="191"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="194"/>
+      <c r="O11" s="194"/>
+      <c r="P11" s="194"/>
+      <c r="R11" s="192"/>
+      <c r="S11" s="192"/>
+      <c r="T11" s="192"/>
+      <c r="U11" s="192"/>
+      <c r="V11" s="192"/>
+      <c r="W11" s="192"/>
+      <c r="X11" s="192"/>
+      <c r="Y11" s="192"/>
+      <c r="Z11" s="192"/>
+      <c r="AA11" s="192"/>
+      <c r="AB11" s="192"/>
     </row>
     <row r="12" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
@@ -23382,27 +23556,27 @@
       </c>
       <c r="D12" s="96"/>
       <c r="E12" s="96"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="193"/>
-      <c r="L12" s="193"/>
-      <c r="M12" s="193"/>
-      <c r="N12" s="193"/>
-      <c r="O12" s="193"/>
-      <c r="P12" s="193"/>
-      <c r="R12" s="191"/>
-      <c r="S12" s="191"/>
-      <c r="T12" s="191"/>
-      <c r="U12" s="191"/>
-      <c r="V12" s="191"/>
-      <c r="W12" s="191"/>
-      <c r="X12" s="191"/>
-      <c r="Y12" s="191"/>
-      <c r="Z12" s="191"/>
-      <c r="AA12" s="191"/>
-      <c r="AB12" s="191"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="194"/>
+      <c r="P12" s="194"/>
+      <c r="R12" s="192"/>
+      <c r="S12" s="192"/>
+      <c r="T12" s="192"/>
+      <c r="U12" s="192"/>
+      <c r="V12" s="192"/>
+      <c r="W12" s="192"/>
+      <c r="X12" s="192"/>
+      <c r="Y12" s="192"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="192"/>
     </row>
     <row r="13" spans="1:28" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
@@ -23413,27 +23587,27 @@
       </c>
       <c r="D13" s="96"/>
       <c r="E13" s="96"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="193"/>
-      <c r="M13" s="193"/>
-      <c r="N13" s="193"/>
-      <c r="O13" s="193"/>
-      <c r="P13" s="193"/>
-      <c r="R13" s="191"/>
-      <c r="S13" s="191"/>
-      <c r="T13" s="191"/>
-      <c r="U13" s="191"/>
-      <c r="V13" s="191"/>
-      <c r="W13" s="191"/>
-      <c r="X13" s="191"/>
-      <c r="Y13" s="191"/>
-      <c r="Z13" s="191"/>
-      <c r="AA13" s="191"/>
-      <c r="AB13" s="191"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="194"/>
+      <c r="P13" s="194"/>
+      <c r="R13" s="192"/>
+      <c r="S13" s="192"/>
+      <c r="T13" s="192"/>
+      <c r="U13" s="192"/>
+      <c r="V13" s="192"/>
+      <c r="W13" s="192"/>
+      <c r="X13" s="192"/>
+      <c r="Y13" s="192"/>
+      <c r="Z13" s="192"/>
+      <c r="AA13" s="192"/>
+      <c r="AB13" s="192"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
@@ -23444,27 +23618,27 @@
       </c>
       <c r="D14" s="96"/>
       <c r="E14" s="96"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
-      <c r="L14" s="193"/>
-      <c r="M14" s="193"/>
-      <c r="N14" s="193"/>
-      <c r="O14" s="193"/>
-      <c r="P14" s="193"/>
-      <c r="R14" s="191"/>
-      <c r="S14" s="191"/>
-      <c r="T14" s="191"/>
-      <c r="U14" s="191"/>
-      <c r="V14" s="191"/>
-      <c r="W14" s="191"/>
-      <c r="X14" s="191"/>
-      <c r="Y14" s="191"/>
-      <c r="Z14" s="191"/>
-      <c r="AA14" s="191"/>
-      <c r="AB14" s="191"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="194"/>
+      <c r="O14" s="194"/>
+      <c r="P14" s="194"/>
+      <c r="R14" s="192"/>
+      <c r="S14" s="192"/>
+      <c r="T14" s="192"/>
+      <c r="U14" s="192"/>
+      <c r="V14" s="192"/>
+      <c r="W14" s="192"/>
+      <c r="X14" s="192"/>
+      <c r="Y14" s="192"/>
+      <c r="Z14" s="192"/>
+      <c r="AA14" s="192"/>
+      <c r="AB14" s="192"/>
     </row>
     <row r="15" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
@@ -23475,27 +23649,27 @@
       </c>
       <c r="D15" s="96"/>
       <c r="E15" s="96"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="193"/>
-      <c r="L15" s="193"/>
-      <c r="M15" s="193"/>
-      <c r="N15" s="193"/>
-      <c r="O15" s="193"/>
-      <c r="P15" s="193"/>
-      <c r="R15" s="191"/>
-      <c r="S15" s="191"/>
-      <c r="T15" s="191"/>
-      <c r="U15" s="191"/>
-      <c r="V15" s="191"/>
-      <c r="W15" s="191"/>
-      <c r="X15" s="191"/>
-      <c r="Y15" s="191"/>
-      <c r="Z15" s="191"/>
-      <c r="AA15" s="191"/>
-      <c r="AB15" s="191"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="194"/>
+      <c r="R15" s="192"/>
+      <c r="S15" s="192"/>
+      <c r="T15" s="192"/>
+      <c r="U15" s="192"/>
+      <c r="V15" s="192"/>
+      <c r="W15" s="192"/>
+      <c r="X15" s="192"/>
+      <c r="Y15" s="192"/>
+      <c r="Z15" s="192"/>
+      <c r="AA15" s="192"/>
+      <c r="AB15" s="192"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
@@ -23506,27 +23680,27 @@
       </c>
       <c r="D16" s="96"/>
       <c r="E16" s="96"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
-      <c r="L16" s="193"/>
-      <c r="M16" s="193"/>
-      <c r="N16" s="193"/>
-      <c r="O16" s="193"/>
-      <c r="P16" s="193"/>
-      <c r="R16" s="191"/>
-      <c r="S16" s="191"/>
-      <c r="T16" s="191"/>
-      <c r="U16" s="191"/>
-      <c r="V16" s="191"/>
-      <c r="W16" s="191"/>
-      <c r="X16" s="191"/>
-      <c r="Y16" s="191"/>
-      <c r="Z16" s="191"/>
-      <c r="AA16" s="191"/>
-      <c r="AB16" s="191"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="194"/>
+      <c r="P16" s="194"/>
+      <c r="R16" s="192"/>
+      <c r="S16" s="192"/>
+      <c r="T16" s="192"/>
+      <c r="U16" s="192"/>
+      <c r="V16" s="192"/>
+      <c r="W16" s="192"/>
+      <c r="X16" s="192"/>
+      <c r="Y16" s="192"/>
+      <c r="Z16" s="192"/>
+      <c r="AA16" s="192"/>
+      <c r="AB16" s="192"/>
     </row>
     <row r="17" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
@@ -23537,296 +23711,296 @@
       </c>
       <c r="D17" s="96"/>
       <c r="E17" s="96"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="193"/>
-      <c r="M17" s="193"/>
-      <c r="N17" s="193"/>
-      <c r="O17" s="193"/>
-      <c r="P17" s="193"/>
-      <c r="R17" s="191"/>
-      <c r="S17" s="191"/>
-      <c r="T17" s="191"/>
-      <c r="U17" s="191"/>
-      <c r="V17" s="191"/>
-      <c r="W17" s="191"/>
-      <c r="X17" s="191"/>
-      <c r="Y17" s="191"/>
-      <c r="Z17" s="191"/>
-      <c r="AA17" s="191"/>
-      <c r="AB17" s="191"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="194"/>
+      <c r="P17" s="194"/>
+      <c r="R17" s="192"/>
+      <c r="S17" s="192"/>
+      <c r="T17" s="192"/>
+      <c r="U17" s="192"/>
+      <c r="V17" s="192"/>
+      <c r="W17" s="192"/>
+      <c r="X17" s="192"/>
+      <c r="Y17" s="192"/>
+      <c r="Z17" s="192"/>
+      <c r="AA17" s="192"/>
+      <c r="AB17" s="192"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="D18" s="96"/>
       <c r="E18" s="96"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
-      <c r="L18" s="193"/>
-      <c r="M18" s="193"/>
-      <c r="N18" s="193"/>
-      <c r="O18" s="193"/>
-      <c r="P18" s="193"/>
-      <c r="R18" s="191"/>
-      <c r="S18" s="191"/>
-      <c r="T18" s="191"/>
-      <c r="U18" s="191"/>
-      <c r="V18" s="191"/>
-      <c r="W18" s="191"/>
-      <c r="X18" s="191"/>
-      <c r="Y18" s="191"/>
-      <c r="Z18" s="191"/>
-      <c r="AA18" s="191"/>
-      <c r="AB18" s="191"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="194"/>
+      <c r="P18" s="194"/>
+      <c r="R18" s="192"/>
+      <c r="S18" s="192"/>
+      <c r="T18" s="192"/>
+      <c r="U18" s="192"/>
+      <c r="V18" s="192"/>
+      <c r="W18" s="192"/>
+      <c r="X18" s="192"/>
+      <c r="Y18" s="192"/>
+      <c r="Z18" s="192"/>
+      <c r="AA18" s="192"/>
+      <c r="AB18" s="192"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="193"/>
-      <c r="K19" s="193"/>
-      <c r="L19" s="193"/>
-      <c r="M19" s="193"/>
-      <c r="N19" s="193"/>
-      <c r="O19" s="193"/>
-      <c r="P19" s="193"/>
-      <c r="R19" s="191"/>
-      <c r="S19" s="191"/>
-      <c r="T19" s="191"/>
-      <c r="U19" s="191"/>
-      <c r="V19" s="191"/>
-      <c r="W19" s="191"/>
-      <c r="X19" s="191"/>
-      <c r="Y19" s="191"/>
-      <c r="Z19" s="191"/>
-      <c r="AA19" s="191"/>
-      <c r="AB19" s="191"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
+      <c r="L19" s="194"/>
+      <c r="M19" s="194"/>
+      <c r="N19" s="194"/>
+      <c r="O19" s="194"/>
+      <c r="P19" s="194"/>
+      <c r="R19" s="192"/>
+      <c r="S19" s="192"/>
+      <c r="T19" s="192"/>
+      <c r="U19" s="192"/>
+      <c r="V19" s="192"/>
+      <c r="W19" s="192"/>
+      <c r="X19" s="192"/>
+      <c r="Y19" s="192"/>
+      <c r="Z19" s="192"/>
+      <c r="AA19" s="192"/>
+      <c r="AB19" s="192"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="D20" s="96"/>
       <c r="E20" s="96"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="193"/>
-      <c r="L20" s="193"/>
-      <c r="M20" s="193"/>
-      <c r="N20" s="193"/>
-      <c r="O20" s="193"/>
-      <c r="P20" s="193"/>
-      <c r="R20" s="191"/>
-      <c r="S20" s="191"/>
-      <c r="T20" s="191"/>
-      <c r="U20" s="191"/>
-      <c r="V20" s="191"/>
-      <c r="W20" s="191"/>
-      <c r="X20" s="191"/>
-      <c r="Y20" s="191"/>
-      <c r="Z20" s="191"/>
-      <c r="AA20" s="191"/>
-      <c r="AB20" s="191"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="194"/>
+      <c r="L20" s="194"/>
+      <c r="M20" s="194"/>
+      <c r="N20" s="194"/>
+      <c r="O20" s="194"/>
+      <c r="P20" s="194"/>
+      <c r="R20" s="192"/>
+      <c r="S20" s="192"/>
+      <c r="T20" s="192"/>
+      <c r="U20" s="192"/>
+      <c r="V20" s="192"/>
+      <c r="W20" s="192"/>
+      <c r="X20" s="192"/>
+      <c r="Y20" s="192"/>
+      <c r="Z20" s="192"/>
+      <c r="AA20" s="192"/>
+      <c r="AB20" s="192"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="D21" s="96"/>
       <c r="E21" s="96"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="193"/>
-      <c r="L21" s="193"/>
-      <c r="M21" s="193"/>
-      <c r="N21" s="193"/>
-      <c r="O21" s="193"/>
-      <c r="P21" s="193"/>
-      <c r="R21" s="191"/>
-      <c r="S21" s="191"/>
-      <c r="T21" s="191"/>
-      <c r="U21" s="191"/>
-      <c r="V21" s="191"/>
-      <c r="W21" s="191"/>
-      <c r="X21" s="191"/>
-      <c r="Y21" s="191"/>
-      <c r="Z21" s="191"/>
-      <c r="AA21" s="191"/>
-      <c r="AB21" s="191"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
+      <c r="L21" s="194"/>
+      <c r="M21" s="194"/>
+      <c r="N21" s="194"/>
+      <c r="O21" s="194"/>
+      <c r="P21" s="194"/>
+      <c r="R21" s="192"/>
+      <c r="S21" s="192"/>
+      <c r="T21" s="192"/>
+      <c r="U21" s="192"/>
+      <c r="V21" s="192"/>
+      <c r="W21" s="192"/>
+      <c r="X21" s="192"/>
+      <c r="Y21" s="192"/>
+      <c r="Z21" s="192"/>
+      <c r="AA21" s="192"/>
+      <c r="AB21" s="192"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="D22" s="96"/>
       <c r="E22" s="96"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="193"/>
-      <c r="L22" s="193"/>
-      <c r="M22" s="193"/>
-      <c r="N22" s="193"/>
-      <c r="O22" s="193"/>
-      <c r="P22" s="193"/>
-      <c r="R22" s="191"/>
-      <c r="S22" s="191"/>
-      <c r="T22" s="191"/>
-      <c r="U22" s="191"/>
-      <c r="V22" s="191"/>
-      <c r="W22" s="191"/>
-      <c r="X22" s="191"/>
-      <c r="Y22" s="191"/>
-      <c r="Z22" s="191"/>
-      <c r="AA22" s="191"/>
-      <c r="AB22" s="191"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="194"/>
+      <c r="L22" s="194"/>
+      <c r="M22" s="194"/>
+      <c r="N22" s="194"/>
+      <c r="O22" s="194"/>
+      <c r="P22" s="194"/>
+      <c r="R22" s="192"/>
+      <c r="S22" s="192"/>
+      <c r="T22" s="192"/>
+      <c r="U22" s="192"/>
+      <c r="V22" s="192"/>
+      <c r="W22" s="192"/>
+      <c r="X22" s="192"/>
+      <c r="Y22" s="192"/>
+      <c r="Z22" s="192"/>
+      <c r="AA22" s="192"/>
+      <c r="AB22" s="192"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="D23" s="96"/>
       <c r="E23" s="96"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="193"/>
-      <c r="L23" s="193"/>
-      <c r="M23" s="193"/>
-      <c r="N23" s="193"/>
-      <c r="O23" s="193"/>
-      <c r="P23" s="193"/>
-      <c r="R23" s="191"/>
-      <c r="S23" s="191"/>
-      <c r="T23" s="191"/>
-      <c r="U23" s="191"/>
-      <c r="V23" s="191"/>
-      <c r="W23" s="191"/>
-      <c r="X23" s="191"/>
-      <c r="Y23" s="191"/>
-      <c r="Z23" s="191"/>
-      <c r="AA23" s="191"/>
-      <c r="AB23" s="191"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="194"/>
+      <c r="L23" s="194"/>
+      <c r="M23" s="194"/>
+      <c r="N23" s="194"/>
+      <c r="O23" s="194"/>
+      <c r="P23" s="194"/>
+      <c r="R23" s="192"/>
+      <c r="S23" s="192"/>
+      <c r="T23" s="192"/>
+      <c r="U23" s="192"/>
+      <c r="V23" s="192"/>
+      <c r="W23" s="192"/>
+      <c r="X23" s="192"/>
+      <c r="Y23" s="192"/>
+      <c r="Z23" s="192"/>
+      <c r="AA23" s="192"/>
+      <c r="AB23" s="192"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="D24" s="96"/>
       <c r="E24" s="96"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="193"/>
-      <c r="L24" s="193"/>
-      <c r="M24" s="193"/>
-      <c r="N24" s="193"/>
-      <c r="O24" s="193"/>
-      <c r="P24" s="193"/>
-      <c r="R24" s="191"/>
-      <c r="S24" s="191"/>
-      <c r="T24" s="191"/>
-      <c r="U24" s="191"/>
-      <c r="V24" s="191"/>
-      <c r="W24" s="191"/>
-      <c r="X24" s="191"/>
-      <c r="Y24" s="191"/>
-      <c r="Z24" s="191"/>
-      <c r="AA24" s="191"/>
-      <c r="AB24" s="191"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="194"/>
+      <c r="L24" s="194"/>
+      <c r="M24" s="194"/>
+      <c r="N24" s="194"/>
+      <c r="O24" s="194"/>
+      <c r="P24" s="194"/>
+      <c r="R24" s="192"/>
+      <c r="S24" s="192"/>
+      <c r="T24" s="192"/>
+      <c r="U24" s="192"/>
+      <c r="V24" s="192"/>
+      <c r="W24" s="192"/>
+      <c r="X24" s="192"/>
+      <c r="Y24" s="192"/>
+      <c r="Z24" s="192"/>
+      <c r="AA24" s="192"/>
+      <c r="AB24" s="192"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="D25" s="96"/>
       <c r="E25" s="96"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
-      <c r="K25" s="193"/>
-      <c r="L25" s="193"/>
-      <c r="M25" s="193"/>
-      <c r="N25" s="193"/>
-      <c r="O25" s="193"/>
-      <c r="P25" s="193"/>
-      <c r="R25" s="191"/>
-      <c r="S25" s="191"/>
-      <c r="T25" s="191"/>
-      <c r="U25" s="191"/>
-      <c r="V25" s="191"/>
-      <c r="W25" s="191"/>
-      <c r="X25" s="191"/>
-      <c r="Y25" s="191"/>
-      <c r="Z25" s="191"/>
-      <c r="AA25" s="191"/>
-      <c r="AB25" s="191"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="194"/>
+      <c r="L25" s="194"/>
+      <c r="M25" s="194"/>
+      <c r="N25" s="194"/>
+      <c r="O25" s="194"/>
+      <c r="P25" s="194"/>
+      <c r="R25" s="192"/>
+      <c r="S25" s="192"/>
+      <c r="T25" s="192"/>
+      <c r="U25" s="192"/>
+      <c r="V25" s="192"/>
+      <c r="W25" s="192"/>
+      <c r="X25" s="192"/>
+      <c r="Y25" s="192"/>
+      <c r="Z25" s="192"/>
+      <c r="AA25" s="192"/>
+      <c r="AB25" s="192"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193"/>
-      <c r="K26" s="193"/>
-      <c r="L26" s="193"/>
-      <c r="M26" s="193"/>
-      <c r="N26" s="193"/>
-      <c r="O26" s="193"/>
-      <c r="P26" s="193"/>
-      <c r="R26" s="191"/>
-      <c r="S26" s="191"/>
-      <c r="T26" s="191"/>
-      <c r="U26" s="191"/>
-      <c r="V26" s="191"/>
-      <c r="W26" s="191"/>
-      <c r="X26" s="191"/>
-      <c r="Y26" s="191"/>
-      <c r="Z26" s="191"/>
-      <c r="AA26" s="191"/>
-      <c r="AB26" s="191"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="194"/>
+      <c r="L26" s="194"/>
+      <c r="M26" s="194"/>
+      <c r="N26" s="194"/>
+      <c r="O26" s="194"/>
+      <c r="P26" s="194"/>
+      <c r="R26" s="192"/>
+      <c r="S26" s="192"/>
+      <c r="T26" s="192"/>
+      <c r="U26" s="192"/>
+      <c r="V26" s="192"/>
+      <c r="W26" s="192"/>
+      <c r="X26" s="192"/>
+      <c r="Y26" s="192"/>
+      <c r="Z26" s="192"/>
+      <c r="AA26" s="192"/>
+      <c r="AB26" s="192"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="G27" s="193"/>
-      <c r="H27" s="193"/>
-      <c r="I27" s="193"/>
-      <c r="J27" s="193"/>
-      <c r="K27" s="193"/>
-      <c r="L27" s="193"/>
-      <c r="M27" s="193"/>
-      <c r="N27" s="193"/>
-      <c r="O27" s="193"/>
-      <c r="P27" s="193"/>
-      <c r="R27" s="191"/>
-      <c r="S27" s="191"/>
-      <c r="T27" s="191"/>
-      <c r="U27" s="191"/>
-      <c r="V27" s="191"/>
-      <c r="W27" s="191"/>
-      <c r="X27" s="191"/>
-      <c r="Y27" s="191"/>
-      <c r="Z27" s="191"/>
-      <c r="AA27" s="191"/>
-      <c r="AB27" s="191"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="194"/>
+      <c r="J27" s="194"/>
+      <c r="K27" s="194"/>
+      <c r="L27" s="194"/>
+      <c r="M27" s="194"/>
+      <c r="N27" s="194"/>
+      <c r="O27" s="194"/>
+      <c r="P27" s="194"/>
+      <c r="R27" s="192"/>
+      <c r="S27" s="192"/>
+      <c r="T27" s="192"/>
+      <c r="U27" s="192"/>
+      <c r="V27" s="192"/>
+      <c r="W27" s="192"/>
+      <c r="X27" s="192"/>
+      <c r="Y27" s="192"/>
+      <c r="Z27" s="192"/>
+      <c r="AA27" s="192"/>
+      <c r="AB27" s="192"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="193"/>
-      <c r="K28" s="193"/>
-      <c r="L28" s="193"/>
-      <c r="M28" s="193"/>
-      <c r="N28" s="193"/>
-      <c r="O28" s="193"/>
-      <c r="P28" s="193"/>
-      <c r="R28" s="191"/>
-      <c r="S28" s="191"/>
-      <c r="T28" s="191"/>
-      <c r="U28" s="191"/>
-      <c r="V28" s="191"/>
-      <c r="W28" s="191"/>
-      <c r="X28" s="191"/>
-      <c r="Y28" s="191"/>
-      <c r="Z28" s="191"/>
-      <c r="AA28" s="191"/>
-      <c r="AB28" s="191"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="194"/>
+      <c r="J28" s="194"/>
+      <c r="K28" s="194"/>
+      <c r="L28" s="194"/>
+      <c r="M28" s="194"/>
+      <c r="N28" s="194"/>
+      <c r="O28" s="194"/>
+      <c r="P28" s="194"/>
+      <c r="R28" s="192"/>
+      <c r="S28" s="192"/>
+      <c r="T28" s="192"/>
+      <c r="U28" s="192"/>
+      <c r="V28" s="192"/>
+      <c r="W28" s="192"/>
+      <c r="X28" s="192"/>
+      <c r="Y28" s="192"/>
+      <c r="Z28" s="192"/>
+      <c r="AA28" s="192"/>
+      <c r="AB28" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -23844,10 +24018,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="68" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="68" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -23900,10 +24074,10 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="169.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="113" t="s">
+      <c r="A6" s="117" t="s">
         <v>414</v>
       </c>
-      <c r="B6" s="114"/>
+      <c r="B6" s="118"/>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
@@ -24091,7 +24265,7 @@
       <c r="A32" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B32" s="116" t="s">
+      <c r="B32" s="115" t="s">
         <v>376</v>
       </c>
     </row>
@@ -24099,7 +24273,7 @@
       <c r="A33" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="B33" s="117"/>
+      <c r="B33" s="116"/>
     </row>
     <row r="34" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
@@ -24204,7 +24378,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="115" t="s">
+      <c r="A47" s="114" t="s">
         <v>573</v>
       </c>
       <c r="B47" s="88"/>
@@ -24232,10 +24406,10 @@
       <c r="B50" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="C50" s="194" t="s">
+      <c r="C50" s="113" t="s">
         <v>773</v>
       </c>
-      <c r="D50" s="194"/>
+      <c r="D50" s="113"/>
     </row>
     <row r="51" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
@@ -24244,16 +24418,18 @@
       <c r="B51" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="C51" s="194"/>
-      <c r="D51" s="194"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+    </row>
+    <row r="52" spans="1:4" ht="287.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="195" t="s">
+        <v>778</v>
+      </c>
+      <c r="B52" s="196"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A28:B28"/>
+  <mergeCells count="15">
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A6:B6"/>
@@ -24263,6 +24439,11 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C50:D51"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A28:B28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A19" r:id="rId1" xr:uid="{B3A5F69C-D686-43CD-96E0-B7F7221DEAE2}"/>
@@ -24343,46 +24524,46 @@
     </row>
     <row r="8" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="119" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="119"/>
+      <c r="D9" s="120"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C10" s="120"/>
-      <c r="D10" s="121"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="122"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C11" s="120"/>
-      <c r="D11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="122"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="120"/>
-      <c r="D12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="122"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C13" s="120"/>
-      <c r="D13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C14" s="120"/>
-      <c r="D14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="122"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C15" s="120"/>
-      <c r="D15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="122"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C16" s="120"/>
-      <c r="D16" s="121"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="122"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C17" s="120"/>
-      <c r="D17" s="121"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="122"/>
     </row>
     <row r="18" spans="3:4" ht="219" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="122"/>
-      <c r="D18" s="123"/>
+      <c r="C18" s="123"/>
+      <c r="D18" s="124"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24513,7 +24694,7 @@
       <c r="B7" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="116" t="s">
+      <c r="C7" s="115" t="s">
         <v>204</v>
       </c>
     </row>
@@ -24524,7 +24705,7 @@
       <c r="B8" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="117"/>
+      <c r="C8" s="116"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
@@ -24533,7 +24714,7 @@
       <c r="B9" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="115" t="s">
         <v>210</v>
       </c>
     </row>
@@ -24553,7 +24734,7 @@
       <c r="B11" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="117"/>
+      <c r="C11" s="116"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
@@ -24584,7 +24765,7 @@
       <c r="B14" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="115" t="s">
         <v>217</v>
       </c>
     </row>
@@ -24595,7 +24776,7 @@
       <c r="B15" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="117"/>
+      <c r="C15" s="116"/>
     </row>
     <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
@@ -24637,7 +24818,7 @@
       <c r="B19" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="115" t="s">
         <v>646</v>
       </c>
     </row>
@@ -24648,7 +24829,7 @@
       <c r="B20" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="117"/>
+      <c r="C20" s="116"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
@@ -24805,11 +24986,11 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="285" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="124" t="s">
+      <c r="A35" s="125" t="s">
         <v>716</v>
       </c>
-      <c r="B35" s="125"/>
-      <c r="C35" s="126"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="127"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="70" t="s">
@@ -24900,18 +25081,18 @@
       </c>
     </row>
     <row r="60" spans="1:3" ht="175.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="136" t="s">
+      <c r="A60" s="137" t="s">
         <v>663</v>
       </c>
-      <c r="B60" s="136"/>
-      <c r="C60" s="136"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="137"/>
     </row>
     <row r="61" spans="1:3" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="124" t="s">
+      <c r="A61" s="125" t="s">
         <v>664</v>
       </c>
-      <c r="B61" s="125"/>
-      <c r="C61" s="126"/>
+      <c r="B61" s="126"/>
+      <c r="C61" s="127"/>
     </row>
     <row r="62" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
@@ -24967,12 +25148,12 @@
       <c r="C66" s="65" t="s">
         <v>672</v>
       </c>
-      <c r="D66" s="127" t="s">
+      <c r="D66" s="128" t="s">
         <v>705</v>
       </c>
-      <c r="E66" s="128"/>
-      <c r="F66" s="128"/>
-      <c r="G66" s="129"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="129"/>
+      <c r="G66" s="130"/>
     </row>
     <row r="67" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
@@ -24984,10 +25165,10 @@
       <c r="C67" s="65" t="s">
         <v>673</v>
       </c>
-      <c r="D67" s="130"/>
-      <c r="E67" s="131"/>
-      <c r="F67" s="131"/>
-      <c r="G67" s="132"/>
+      <c r="D67" s="131"/>
+      <c r="E67" s="132"/>
+      <c r="F67" s="132"/>
+      <c r="G67" s="133"/>
     </row>
     <row r="68" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
@@ -24999,10 +25180,10 @@
       <c r="C68" s="65" t="s">
         <v>682</v>
       </c>
-      <c r="D68" s="130"/>
-      <c r="E68" s="131"/>
-      <c r="F68" s="131"/>
-      <c r="G68" s="132"/>
+      <c r="D68" s="131"/>
+      <c r="E68" s="132"/>
+      <c r="F68" s="132"/>
+      <c r="G68" s="133"/>
     </row>
     <row r="69" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
@@ -25014,10 +25195,10 @@
       <c r="C69" s="65" t="s">
         <v>678</v>
       </c>
-      <c r="D69" s="130"/>
-      <c r="E69" s="131"/>
-      <c r="F69" s="131"/>
-      <c r="G69" s="132"/>
+      <c r="D69" s="131"/>
+      <c r="E69" s="132"/>
+      <c r="F69" s="132"/>
+      <c r="G69" s="133"/>
     </row>
     <row r="70" spans="1:7" ht="100.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="5" t="s">
@@ -25029,10 +25210,10 @@
       <c r="C70" s="65" t="s">
         <v>687</v>
       </c>
-      <c r="D70" s="133"/>
-      <c r="E70" s="134"/>
-      <c r="F70" s="134"/>
-      <c r="G70" s="135"/>
+      <c r="D70" s="134"/>
+      <c r="E70" s="135"/>
+      <c r="F70" s="135"/>
+      <c r="G70" s="136"/>
     </row>
     <row r="71" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
@@ -25368,16 +25549,16 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="140" t="s">
         <v>422</v>
       </c>
-      <c r="B4" s="140"/>
+      <c r="B4" s="141"/>
     </row>
     <row r="5" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="137" t="s">
+      <c r="A5" s="138" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="138"/>
+      <c r="B5" s="139"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
@@ -25447,13 +25628,13 @@
       <c r="A14" s="93" t="s">
         <v>432</v>
       </c>
-      <c r="B14" s="141"/>
+      <c r="B14" s="142"/>
     </row>
     <row r="15" spans="1:2" ht="95.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="85" t="s">
         <v>756</v>
       </c>
-      <c r="B15" s="142"/>
+      <c r="B15" s="143"/>
     </row>
     <row r="16" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Geek_space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6536D25C-8D8A-4B3D-AA0D-C632E47653F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9100BC-162D-4758-9330-083F00660384}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="782">
   <si>
     <t>command</t>
   </si>
@@ -4988,24 +4988,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Foreign key vs OneToOne
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ForeignKey means that you are referencing an element that exists inside of another table. OneToOne, is a type of ForeignKey in which an element of table1 and table2 are uniquely bound together
-e.g. 
-    A user can have only one user profile and a user profile can belong to only one user, that is why a one-to-one relationship is present.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>spread operators
 **</t>
     </r>
@@ -17867,6 +17849,1057 @@
         <scheme val="minor"/>
       </rPr>
       <t>only the field necessary needs to be provided</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Foreign key vs OneToOne</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ForeignKey means that you are referencing an element that exists inside of another table. OneToOne, is a type of ForeignKey in which an element of table1 and table2 are uniquely bound together
+e.g. 
+    A user can have only one user profile and a user profile can belong to only one user, that is why a one-to-one relationship is present.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">USE OF related_name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model1:
+   field1 = charfield
+model2:
+   field2 = foreignkey(model1, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>related_name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rel_name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">")
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">object of model1 can access objects of model2 as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model1_obj.rel_name.all()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DJANGO ORM filtering
+ref- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://docs.djangoproject.com/en/3.1/ref/models/querysets/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for single object without condition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model.objects.first()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for single object with condition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model.objects.get(condition)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for queryset without condition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model.objects.all()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for queryset with condition
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model.objects.filter(condition)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+model.objects.filter(field__icontains="substring") </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case-insensitive</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+model.objects.filter(field__contains="substring")
+model.objects.filter(field__exact="substring")
+model.objects.filter(field__iexact="substring") </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>case-insensitive</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+model.objects.filter(field__gt/gte/lt/lte=value)
+model.objects.filter(field__isnull=True)
+model.objects.filter(field__startswith="substring")
+model.objects.filter(field__istartswith="substring") </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">case-insenstive
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+model.objects.filter(field__endswith="substring")
+model.objects.filter(field__iendswith="substring") </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">case-insensitive
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+model.objects.filter(field__in=[1,2,3,4]) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">field in list of values
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model.objects.filter(field__range(0,50))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> field inrange of values</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+model.objects.all().count() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getting count</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+model.objects.all().order_by("field(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for ascending</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)" / "-field(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for descending</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)")
+model.objects.all().distinct() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">distinct entries only
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model.objects.filter(date_field__year=2010) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">filter on year
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model.objects.filter(date_field__year__gte=2010) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>logical filter on year</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">similarly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>day</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(for day), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(for month)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">model.objects.latest("date field") </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for latest entry
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model.objects.filter(date_field__date=datetime.date(2005, 1, 1))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">models.objects.filter(field="value").exists() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>works only with queryset</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PERMISSIONS and GROUPS
+1. user.get_group_permissions() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">to get all permissions in all groups the current user belongs
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2. user.get_all_permissions()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to get all permissions related to a user including ones that are not in any group</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>To get groups associated to a user</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    user.groups.all()
+    user.groups.filter(name="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>group name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>").first()
+    user.groups.get(name="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>group name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">")
+4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To get permissions associated to a user
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>user.user_permissions.all()
+     user.user_permissions.filter(name="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>permission name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>").first()
+     user.user_permissions.get(name="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>permission name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">")
+     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>verify if a user has a permission</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+     user.has_perm("blog.can_add_post")   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>argument format =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "appname.permission_codename" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e.g. can add post =&gt; can_add_post</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+5. from django.contrib.auth.models import Permission, Group
+    Group.obects.all()
+    Permission.objects.all()
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To get all the permissions and groups present in the system
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">To set a group or permission
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from django.contrib.auth.models import Permission
+    permission = Permission.objects.get(name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>permission name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>')
+    user.user_permissions.add(permission)
+    from django.contrib.auth.models import Group
+    group = Group.objects.get(name='</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>group name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>')
+    user.groups.add(group)</t>
     </r>
   </si>
 </sst>
@@ -18144,7 +19177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18190,6 +19223,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18654,7 +19693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -19233,6 +20272,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -19900,23 +20951,23 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>563</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>346</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B13" s="15" t="s">
         <v>144</v>
@@ -19944,7 +20995,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="93" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B16" s="94"/>
     </row>
@@ -19974,10 +21025,10 @@
     </row>
     <row r="20" spans="1:2" ht="363.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -20004,249 +21055,249 @@
     </row>
     <row r="24" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="91" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B24" s="92"/>
     </row>
     <row r="25" spans="1:2" ht="60.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="279.39999999999998" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A30" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>357</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>363</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="71.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>739</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>457</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="150.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="85" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B46" s="86"/>
     </row>
     <row r="47" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="87" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B47" s="88"/>
     </row>
     <row r="48" spans="1:2" ht="357" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="B49" s="24" t="s">
         <v>549</v>
-      </c>
-      <c r="B49" s="24" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>559</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="50" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55" s="79" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B55" s="80"/>
     </row>
@@ -20264,48 +21315,48 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="77" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B59" s="78"/>
     </row>
     <row r="60" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>636</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>736</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>747</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -20335,7 +21386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A03C223-3A32-4643-903E-5A6CFDBE4BF7}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="51" workbookViewId="0">
+    <sheetView topLeftCell="B11" zoomScale="63" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -20369,7 +21420,7 @@
         <v>228</v>
       </c>
       <c r="E3" s="144" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F3" s="144"/>
       <c r="G3" s="144"/>
@@ -20417,10 +21468,10 @@
     </row>
     <row r="5" spans="1:22" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E5" s="144"/>
       <c r="F5" s="144"/>
@@ -20443,10 +21494,10 @@
     </row>
     <row r="6" spans="1:22" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E6" s="144"/>
       <c r="F6" s="144"/>
@@ -21152,7 +22203,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="147" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B1" s="147"/>
       <c r="C1" s="47"/>
@@ -21262,51 +22313,51 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="145" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B10" s="146"/>
     </row>
     <row r="11" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>577</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>581</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="B13" s="48" t="s">
         <v>579</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>586</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="85.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="77" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B15" s="78"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="148" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B16" s="149"/>
     </row>
@@ -21316,7 +22367,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="152" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B18" s="153"/>
       <c r="C18" s="48"/>
@@ -21327,10 +22378,10 @@
     </row>
     <row r="20" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
@@ -21412,48 +22463,48 @@
     </row>
     <row r="7" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="91" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B7" s="156"/>
     </row>
     <row r="8" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>445</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -21491,104 +22542,104 @@
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>455</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>466</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="51" t="s">
+        <v>513</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>514</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="54" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B8" s="57" t="s">
+        <v>600</v>
+      </c>
+      <c r="C8" s="130" t="s">
         <v>601</v>
-      </c>
-      <c r="C8" s="130" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="56" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C9" s="133"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C10" s="133"/>
     </row>
     <row r="11" spans="1:3" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="55" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C11" s="136"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="52" t="s">
+        <v>602</v>
+      </c>
+      <c r="B12" s="53" t="s">
         <v>603</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -21639,13 +22690,13 @@
     </row>
     <row r="3" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="158" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E3" s="72"/>
       <c r="F3" s="71"/>
@@ -21689,18 +22740,18 @@
     </row>
     <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
@@ -21708,7 +22759,7 @@
         <v>254</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
@@ -21761,7 +22812,7 @@
     </row>
     <row r="16" spans="1:15" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>66</v>
@@ -21923,10 +22974,10 @@
     </row>
     <row r="37" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
+        <v>762</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>763</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="202.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -21967,58 +23018,58 @@
     </row>
     <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>327</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A45" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>330</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A46" s="18" t="s">
+        <v>332</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>333</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A47" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>761</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A48" s="63" t="s">
+        <v>620</v>
+      </c>
+      <c r="B48" s="64" t="s">
         <v>621</v>
-      </c>
-      <c r="B48" s="64" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A49" s="18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A50" s="18" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
   </sheetData>
@@ -22164,7 +23215,7 @@
         <v>243</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>276</v>
@@ -22172,13 +23223,13 @@
     </row>
     <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D11" s="72"/>
     </row>
@@ -22224,37 +23275,37 @@
     </row>
     <row r="16" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A16" s="60" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D16" s="179" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="123.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="60" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="60" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D17" s="180"/>
     </row>
     <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="62" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C18" s="61" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D18" s="180"/>
     </row>
@@ -22289,65 +23340,65 @@
     </row>
     <row r="22" spans="1:4" ht="228" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>722</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -22389,104 +23440,104 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="299.64999999999998" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C3" s="66" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C6" s="74"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>507</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>509</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="249.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="181" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B13" s="182"/>
     </row>
@@ -22596,39 +23647,39 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>516</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>518</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="212.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="104" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B5" s="114"/>
       <c r="C5" s="43"/>
@@ -22786,7 +23837,7 @@
     </row>
     <row r="17" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
@@ -22794,18 +23845,18 @@
     </row>
     <row r="18" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>607</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>633</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -22869,7 +23920,7 @@
         <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
@@ -22877,7 +23928,7 @@
         <v>220</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
@@ -22904,7 +23955,7 @@
     </row>
     <row r="32" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="185" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B32" s="186"/>
     </row>
@@ -23147,11 +24198,11 @@
         <v>160</v>
       </c>
       <c r="B12" s="108" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C12" s="109"/>
       <c r="D12" s="110" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E12" s="111"/>
       <c r="F12" s="111"/>
@@ -23229,7 +24280,7 @@
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="97"/>
       <c r="C20" s="102" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D20" s="103"/>
       <c r="E20" s="103"/>
@@ -23239,7 +24290,7 @@
       <c r="A21" s="31"/>
       <c r="B21" s="98"/>
       <c r="C21" s="99" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D21" s="100"/>
       <c r="E21" s="100"/>
@@ -23247,11 +24298,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="104" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B22" s="104"/>
       <c r="C22" s="105" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -23266,10 +24317,10 @@
     </row>
     <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="32" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -23325,49 +24376,49 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="104.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>402</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="185.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D6" s="193" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E6" s="193"/>
       <c r="G6" s="194" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H6" s="194"/>
       <c r="I6" s="194"/>
@@ -23379,7 +24430,7 @@
       <c r="O6" s="194"/>
       <c r="P6" s="194"/>
       <c r="R6" s="191" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="S6" s="192"/>
       <c r="T6" s="192"/>
@@ -23394,10 +24445,10 @@
     </row>
     <row r="7" spans="1:28" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D7" s="96"/>
       <c r="E7" s="96"/>
@@ -23425,10 +24476,10 @@
     </row>
     <row r="8" spans="1:28" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D8" s="96"/>
       <c r="E8" s="96"/>
@@ -23456,10 +24507,10 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="D9" s="96"/>
       <c r="E9" s="96"/>
@@ -23487,10 +24538,10 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>404</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>405</v>
       </c>
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
@@ -23518,10 +24569,10 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>389</v>
       </c>
       <c r="D11" s="96"/>
       <c r="E11" s="96"/>
@@ -23549,10 +24600,10 @@
     </row>
     <row r="12" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D12" s="96"/>
       <c r="E12" s="96"/>
@@ -23580,10 +24631,10 @@
     </row>
     <row r="13" spans="1:28" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D13" s="96"/>
       <c r="E13" s="96"/>
@@ -23611,10 +24662,10 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>407</v>
       </c>
       <c r="D14" s="96"/>
       <c r="E14" s="96"/>
@@ -23642,10 +24693,10 @@
     </row>
     <row r="15" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>492</v>
       </c>
       <c r="D15" s="96"/>
       <c r="E15" s="96"/>
@@ -23673,10 +24724,10 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>493</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="D16" s="96"/>
       <c r="E16" s="96"/>
@@ -23704,10 +24755,10 @@
     </row>
     <row r="17" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>555</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>556</v>
       </c>
       <c r="D17" s="96"/>
       <c r="E17" s="96"/>
@@ -24018,10 +25069,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="68" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="58" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -24075,24 +25126,24 @@
     </row>
     <row r="6" spans="1:2" ht="169.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="117" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B6" s="118"/>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="59" t="s">
+        <v>617</v>
+      </c>
+      <c r="B7" s="44" t="s">
         <v>618</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="42" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>420</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
@@ -24137,7 +25188,7 @@
     </row>
     <row r="15" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="91" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B15" s="92"/>
     </row>
@@ -24179,257 +25230,272 @@
         <v>288</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="91" t="s">
-        <v>293</v>
-      </c>
-      <c r="B21" s="92"/>
+    <row r="21" spans="1:2" ht="226.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="197" t="s">
+        <v>778</v>
+      </c>
+      <c r="B21" s="198"/>
     </row>
     <row r="22" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="93" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B22" s="94"/>
     </row>
     <row r="23" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A23" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>312</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>320</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="93" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B28" s="94"/>
     </row>
     <row r="29" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>335</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B32" s="115" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B33" s="116"/>
     </row>
-    <row r="34" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:2" ht="409.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="199" t="s">
+        <v>780</v>
+      </c>
+      <c r="B34" s="200" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A35" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="285" x14ac:dyDescent="0.45">
-      <c r="A35" s="5" t="s">
+    </row>
+    <row r="36" spans="1:2" ht="285" x14ac:dyDescent="0.45">
+      <c r="A36" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B35" s="6" t="s">
+    </row>
+    <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A37" s="36" t="s">
+        <v>430</v>
+      </c>
+      <c r="B37" s="45" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A36" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="B36" s="45" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A37" s="5" t="s">
+    <row r="38" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A38" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A38" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="B38" s="6" t="s">
+    </row>
+    <row r="39" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A39" s="5" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="5" t="s">
-        <v>529</v>
-      </c>
       <c r="B39" s="6" t="s">
-        <v>530</v>
+        <v>440</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
+    </row>
+    <row r="42" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A42" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A42" s="5" t="s">
+    </row>
+    <row r="43" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A43" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="B42" s="6" t="s">
+    </row>
+    <row r="44" spans="1:2" ht="243" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="77" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="243" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="77" t="s">
-        <v>544</v>
-      </c>
-      <c r="B43" s="78"/>
-    </row>
-    <row r="44" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A44" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="78"/>
+    </row>
+    <row r="45" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A45" s="5" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A45" s="5" t="s">
+      <c r="B45" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A46" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A46" s="5" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A47" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="114" t="s">
-        <v>573</v>
-      </c>
-      <c r="B47" s="88"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="5" t="s">
+    </row>
+    <row r="48" spans="1:2" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="114" t="s">
+        <v>572</v>
+      </c>
+      <c r="B48" s="88"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A49" s="5" t="s">
+    </row>
+    <row r="50" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A50" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A51" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
+      <c r="B51" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="C51" s="113" t="s">
+        <v>772</v>
+      </c>
+      <c r="D51" s="113"/>
+    </row>
+    <row r="52" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="C50" s="113" t="s">
-        <v>773</v>
-      </c>
-      <c r="D50" s="113"/>
-    </row>
-    <row r="51" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="5" t="s">
-        <v>770</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>772</v>
-      </c>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-    </row>
-    <row r="52" spans="1:4" ht="287.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="195" t="s">
-        <v>778</v>
-      </c>
-      <c r="B52" s="196"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+    </row>
+    <row r="53" spans="1:4" ht="287.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="195" t="s">
+        <v>777</v>
+      </c>
+      <c r="B53" s="196"/>
+    </row>
+    <row r="54" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="197" t="s">
+        <v>781</v>
+      </c>
+      <c r="B54" s="198"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A52:B52"/>
+  <mergeCells count="16">
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A6:B6"/>
@@ -24439,9 +25505,9 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C50:D51"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A44:B44"/>
     <mergeCell ref="B32:B33"/>
     <mergeCell ref="A28:B28"/>
   </mergeCells>
@@ -24477,55 +25543,55 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1" t="s">
         <v>295</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>296</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>297</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>298</v>
-      </c>
-      <c r="E1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" t="s">
         <v>300</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>301</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="28" t="s">
         <v>302</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F4" s="29" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>316</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="119" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D9" s="120"/>
     </row>
@@ -24656,24 +25722,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -24720,10 +25786,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>639</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>640</v>
       </c>
       <c r="C10" s="97"/>
     </row>
@@ -24738,29 +25804,29 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>188</v>
@@ -24780,13 +25846,13 @@
     </row>
     <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>644</v>
-      </c>
       <c r="C16" s="68" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -24813,18 +25879,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C19" s="115" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>188</v>
@@ -24888,119 +25954,119 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>742</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="285" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="125" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B35" s="126"/>
       <c r="C35" s="127"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="70" t="s">
+        <v>687</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>650</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>688</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>651</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -25008,148 +26074,148 @@
         <v>216</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>654</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>656</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>659</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>661</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="175.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="137" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B60" s="137"/>
       <c r="C60" s="137"/>
     </row>
     <row r="61" spans="1:3" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="125" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B61" s="126"/>
       <c r="C61" s="127"/>
     </row>
     <row r="62" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>666</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="157.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C66" s="65" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D66" s="128" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E66" s="129"/>
       <c r="F66" s="129"/>
@@ -25157,13 +26223,13 @@
     </row>
     <row r="67" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C67" s="65" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D67" s="131"/>
       <c r="E67" s="132"/>
@@ -25172,13 +26238,13 @@
     </row>
     <row r="68" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C68" s="65" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D68" s="131"/>
       <c r="E68" s="132"/>
@@ -25187,13 +26253,13 @@
     </row>
     <row r="69" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C69" s="65" t="s">
         <v>677</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C69" s="65" t="s">
-        <v>678</v>
       </c>
       <c r="D69" s="131"/>
       <c r="E69" s="132"/>
@@ -25202,13 +26268,13 @@
     </row>
     <row r="70" spans="1:7" ht="100.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C70" s="65" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D70" s="134"/>
       <c r="E70" s="135"/>
@@ -25217,112 +26283,112 @@
     </row>
     <row r="71" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>680</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>684</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>706</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>708</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>710</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>703</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>717</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -25373,98 +26439,98 @@
     </row>
     <row r="2" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>448</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>468</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="40" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>476</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="40" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>478</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>470</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>472</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="40" t="s">
+        <v>473</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>474</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A10" s="40" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A11" s="40" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A12" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>486</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="40" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -25498,10 +26564,10 @@
     </row>
     <row r="2" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>435</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -25534,114 +26600,114 @@
     </row>
     <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="75" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="140" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B4" s="141"/>
     </row>
     <row r="5" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="138" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B5" s="139"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>418</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>439</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>753</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>425</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="93" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B14" s="142"/>
     </row>
     <row r="15" spans="1:2" ht="95.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="85" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B15" s="143"/>
     </row>
     <row r="16" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>757</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>758</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Geek_space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FA2C41-F17E-496C-AB94-B4E5F83E9819}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000D274C-5FDA-48FE-85AF-9511F5C6BD8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="14" r:id="rId1"/>
@@ -31,8 +31,8 @@
     <sheet name="web" sheetId="7" r:id="rId16"/>
     <sheet name="heroku" sheetId="18" r:id="rId17"/>
     <sheet name="bootstrap" sheetId="13" r:id="rId18"/>
-    <sheet name="misc" sheetId="19" r:id="rId19"/>
-    <sheet name="azure" sheetId="21" r:id="rId20"/>
+    <sheet name="azure" sheetId="21" r:id="rId19"/>
+    <sheet name="misc" sheetId="19" r:id="rId20"/>
     <sheet name="git" sheetId="8" r:id="rId21"/>
     <sheet name="docker" sheetId="16" r:id="rId22"/>
     <sheet name="Spark" sheetId="22" r:id="rId23"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="901">
   <si>
     <t>command</t>
   </si>
@@ -7906,9 +7906,6 @@
     <t>https://pandas.pydata.org/docs/reference/api/pandas.read_json.html?highlight=read_json#pandas.read_json</t>
   </si>
   <si>
-    <t>pandas documentation</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">import urllib
 url = </t>
@@ -19328,143 +19325,6 @@
     <t>get code for all built-in methods in various class based views</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>File system vs IO sream:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-BytesIO and StringIO are a way of mimicing a file. Just like reading from and writing to a file, same
-can be done using these two. BytesIO and StringIO act as in in-memory buffers(in RAM) that can be 
-used like a file to read and write data. But since they are in-memory, the time taken is less compared to 
-file where data is read from file in disk storage or writing the data to the file in diska storage.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BytesIO accepts bytes stream data, whereas StringIO accepts unicode data</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-operations-
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">write() </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>returns the number of characters written to the buffer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-getvalue() </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>read operation for the buffer</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-close()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Switching from Bytes to Unicode</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- as in the screenshot</t>
-    </r>
-  </si>
-  <si>
     <t>get the value of environment variable</t>
   </si>
   <si>
@@ -19906,12 +19766,6 @@
     </r>
   </si>
   <si>
-    <t>df.to_json()</t>
-  </si>
-  <si>
-    <t>convert dataframe to json</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Column traversal
 </t>
@@ -20390,24 +20244,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - Not a Number)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">change datatype of column </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">df.astype({'Col1': int}) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>conversion will fail</t>
     </r>
   </si>
   <si>
@@ -23255,12 +23091,630 @@
   <si>
     <t>Authentication Summary of Django and Django REST</t>
   </si>
+  <si>
+    <t>change datatype of a whole dataframe</t>
+  </si>
+  <si>
+    <t>df = df.astype(str)
+df = df.astype({'col1': int, 'col2': float})</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/change-data-type-for-one-or-more-columns-in-pandas-dataframe/</t>
+  </si>
+  <si>
+    <t>methods to change datatypes</t>
+  </si>
+  <si>
+    <t>convert dataframe to json and store as a file</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>File system vs IO sream:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+BytesIO and StringIO are a way of mimicing a file. Just like reading from and writing to a file, same
+can be done using these two. BytesIO and StringIO act as in in-memory buffers(in RAM) that can be 
+used like a file to read and write data. But since they are in-memory, the time taken is less compared to 
+file where data is read from file in disk storage or writing the data to the file in diska storage.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BytesIO accepts bytes stream data(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>substitute for binary file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), whereas StringIO accepts unicode data
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>substitute for non-binary files</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">**refer to files types in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">misc </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">section
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+operations-
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">write() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>returns the number of characters written to the buffer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+getvalue() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read operation for the buffer</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+close()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Switching from Bytes to Unicode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- as in the screenshot</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">r : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Opens the file in read-only mode. Starts reading from the beginning of the file and is the default mode for the open() function. Ideal for non-binary files.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+rb : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Opens the file as read-only in binary format and starts reading from the beginning of the file. Ideal for binary files.</t>
+    </r>
+  </si>
+  <si>
+    <t>file reading in python</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Binary File</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Binary file are those typical files that store data in the form of sequence of bytes grouped into eight bits or sometimes sixteen bits. These </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bits represent custom data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and such files can store multiple types of data (images, audio, text, etc) under a single file.
+Binary file can have custom file formats and the developer, who designs these custom file formats, converts the information, to be stored, in bits and arranges these bits in binary file so that they are well understood by the supporting application and when needed, can easily be read by the supporting application. E.g. .docx, .xlsx can only be opened with office apps, video files can be opened with vidoe apps. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">They appear gibberish when opened with a text editor.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Binary files also store file information like file name, file format, etc., which may be included in the file as header to the file and is visible even when the file is opened in a text editor.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Since binary files store data in sequential bytes, a small change in the file can corrupt the file and make it unreadable to the supporting application.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Text Files</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Text files are special subset of binary files that are used to store human readable characters as a rich text document or plain text document. Text files also store data in sequential bytes but</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> bits in text file represents characters</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+Text files are less prone to get corrupted as any undesired change may just show up once the file is opened and then can easily be removed.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> They can be opened with any text editor.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Because of simple and standard format to store data, text files are one of the most used file formats for storing textual data and are supported in many applications.</t>
+    </r>
+  </si>
+  <si>
+    <t>pickling</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pickling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” is the process whereby a Python object hierarchy is converted into a byte stream(binary file), and “</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unpickling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>” is the inverse operation, whereby a byte stream (from a binary file or bytes-like object) is converted back into an object hierarchy.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">pandas documentation for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>read_json()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>df.to_pickle('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filename.pickle</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>')</t>
+    </r>
+  </si>
+  <si>
+    <t>pd.read_pickle("location of pickle file")</t>
+  </si>
+  <si>
+    <t>fetch dataframe from pickle file</t>
+  </si>
+  <si>
+    <t>convert dataframe to pickle file</t>
+  </si>
+  <si>
+    <r>
+      <t>df.to_json('</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filename.json</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>')</t>
+    </r>
+  </si>
+  <si>
+    <t>random.random()</t>
+  </si>
+  <si>
+    <t>returns random float numbers</t>
+  </si>
+  <si>
+    <t>collections.Counter</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23572,6 +24026,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -24151,7 +24620,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="243">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -24387,6 +24856,12 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -24501,6 +24976,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -24511,6 +24992,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -24552,12 +25063,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -24572,15 +25077,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -24792,6 +25288,24 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -24846,27 +25360,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -24896,13 +25389,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>873122</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>238124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3379859</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>2652447</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -24940,13 +25433,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3512344</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>2143125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>434197</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>3457585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -24984,13 +25477,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>125677</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>137165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2169583</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>1327687</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25028,13 +25521,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>2374635</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>158751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>4900198</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>1316301</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25060,6 +25553,138 @@
         <a:xfrm>
           <a:off x="2374635" y="69327450"/>
           <a:ext cx="2525563" cy="1157550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>343958</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>648230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3852927</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>2599532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67FCB47A-DA37-4AD9-89EA-007BE286AE6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="343958" y="74731563"/>
+          <a:ext cx="3508969" cy="1951302"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>26458</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>205052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5220413</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>1971146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73510111-EFFC-48B0-ACF8-B3605F09708F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26458" y="76749010"/>
+          <a:ext cx="5193955" cy="1766094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>575470</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>72760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4052120</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>1777747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB8A681-D655-4A1B-B8D4-72C3E6983347}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="575470" y="78746614"/>
+          <a:ext cx="3476650" cy="1704987"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26065,13 +26690,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>3956713</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>193360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>3223211</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>3600913</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -26283,6 +26908,55 @@
         <a:xfrm>
           <a:off x="14859000" y="22305005"/>
           <a:ext cx="3833813" cy="1813103"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>144318</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3911024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4764349</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A1337C0-A465-461D-8F2E-160CA1BF00FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="144318" y="11588751"/>
+          <a:ext cx="6366283" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26557,10 +27231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12D5300-F2CC-4278-8E60-22661B83A8CD}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="72" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -26653,13 +27327,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>556</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>341</v>
       </c>
@@ -26667,447 +27341,481 @@
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="327.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>567</v>
+        <v>897</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="327.75" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B14" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="5" t="s">
-        <v>832</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>831</v>
-      </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-    </row>
-    <row r="15" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>829</v>
+      </c>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+    </row>
+    <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="151.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="83" t="s">
+    <row r="19" spans="1:2" ht="151.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="B18" s="84"/>
-    </row>
-    <row r="19" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="86"/>
+    </row>
+    <row r="20" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A20" s="87" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="89" t="s">
         <v>336</v>
       </c>
-      <c r="B20" s="88"/>
-    </row>
-    <row r="21" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="90"/>
+    </row>
+    <row r="22" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="57" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="112.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:2" ht="112.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="363.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:2" ht="363.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="85" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="B25" s="86"/>
-    </row>
-    <row r="26" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="88"/>
+    </row>
+    <row r="27" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B27" s="27" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A28" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="85" t="s">
+    <row r="29" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="B28" s="86"/>
-    </row>
-    <row r="29" spans="1:2" ht="60.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
+      <c r="B29" s="88"/>
+    </row>
+    <row r="30" spans="1:2" ht="60.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="5" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="279.39999999999998" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="5" t="s">
+    <row r="32" spans="1:2" ht="279.39999999999998" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A32" s="5" t="s">
-        <v>835</v>
-      </c>
       <c r="B32" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A33" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
+      <c r="A34" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A34" s="14" t="s">
+    <row r="35" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A35" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A35" s="5" t="s">
+    <row r="36" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A36" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A38" s="5" t="s">
+    <row r="39" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A39" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>367</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>447</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="71.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="5" t="s">
+    <row r="44" spans="1:2" ht="71.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B43" s="24" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="14" t="s">
+      <c r="B44" s="24" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="171" x14ac:dyDescent="0.45">
-      <c r="A45" s="5" t="s">
+      <c r="B45" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="171" x14ac:dyDescent="0.45">
+      <c r="A46" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A46" s="5" t="s">
+    </row>
+    <row r="47" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A47" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="150.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="99" t="s">
-        <v>456</v>
-      </c>
-      <c r="B47" s="100"/>
-    </row>
-    <row r="48" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:2" ht="150.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="101" t="s">
         <v>455</v>
       </c>
       <c r="B48" s="102"/>
     </row>
-    <row r="49" spans="1:2" ht="357" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="B49" s="24" t="s">
+    <row r="49" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="103" t="s">
+        <v>454</v>
+      </c>
+      <c r="B49" s="104"/>
+    </row>
+    <row r="50" spans="1:2" ht="357" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="5" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
+      <c r="B50" s="24" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A51" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="B50" s="24" t="s">
+    </row>
+    <row r="52" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="B52" s="24" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A52" s="14" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>552</v>
       </c>
-      <c r="B52" s="24" t="s">
+    </row>
+    <row r="54" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="50" t="s">
+        <v>574</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A55" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B55" s="46" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="50" t="s">
+    <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A56" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="95" t="s">
         <v>575</v>
       </c>
-      <c r="B53" s="24" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A54" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="B54" s="46" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A56" s="93" t="s">
-        <v>576</v>
-      </c>
-      <c r="B56" s="94"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A57" s="95"/>
       <c r="B57" s="96"/>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A58" s="95"/>
-      <c r="B58" s="96"/>
+      <c r="A58" s="97"/>
+      <c r="B58" s="98"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="97"/>
       <c r="B59" s="98"/>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A60" s="91" t="s">
-        <v>584</v>
-      </c>
-      <c r="B60" s="92"/>
-    </row>
-    <row r="61" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A61" s="5" t="s">
+      <c r="A60" s="99"/>
+      <c r="B60" s="100"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="93" t="s">
+        <v>583</v>
+      </c>
+      <c r="B61" s="94"/>
+    </row>
+    <row r="62" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A62" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="B62" s="6" t="s">
+    </row>
+    <row r="63" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A63" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A64" s="5" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A63" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
-      <c r="A64" s="5" t="s">
+    </row>
+    <row r="65" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
+      <c r="A65" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A66" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A65" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="89" t="s">
-        <v>830</v>
-      </c>
-      <c r="B66" s="90"/>
-    </row>
-    <row r="67" spans="1:2" ht="116.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="4" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A68" s="5" t="s">
+    </row>
+    <row r="67" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="91" t="s">
+        <v>885</v>
+      </c>
+      <c r="B67" s="92"/>
+    </row>
+    <row r="68" spans="1:2" ht="116.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="114" x14ac:dyDescent="0.45">
+      <c r="A69" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>806</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>807</v>
+    </row>
+    <row r="70" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A70" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="226.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="84" t="s">
+        <v>890</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="167.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="3" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="147.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="3" t="s">
+        <v>900</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A56:B59"/>
-    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A57:B60"/>
     <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{D9981E33-B3E2-415E-93A8-3F81D8A3A6C1}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{C7A1E3B0-B6BD-4AB6-9524-E7E24FA698CF}"/>
-    <hyperlink ref="A34" r:id="rId3" location=":~:text=In%20the%20method%20overloading%2C%20methods,same%20name%20and%20same%20signatures.&amp;text=Method%20overloading%20is%20a%20example%20of%20compile%20time%20polymorphism." display="https://www.geeksforgeeks.org/difference-between-method-overloading-and-method-overriding-in-python/#:~:text=In%20the%20method%20overloading%2C%20methods,same%20name%20and%20same%20signatures.&amp;text=Method%20overloading%20is%20a%20example%20of%20compile%20time%20polymorphism." xr:uid="{E7677120-9F8D-427F-AD24-A54EBE44C6EC}"/>
-    <hyperlink ref="A44" r:id="rId4" xr:uid="{C1FBA173-A8F8-48CE-A143-90B48A8EE845}"/>
-    <hyperlink ref="A52" r:id="rId5" xr:uid="{E0241B67-CEC6-42C5-9AEF-EEC6BE6D7B66}"/>
+    <hyperlink ref="A35" r:id="rId3" location=":~:text=In%20the%20method%20overloading%2C%20methods,same%20name%20and%20same%20signatures.&amp;text=Method%20overloading%20is%20a%20example%20of%20compile%20time%20polymorphism." display="https://www.geeksforgeeks.org/difference-between-method-overloading-and-method-overriding-in-python/#:~:text=In%20the%20method%20overloading%2C%20methods,same%20name%20and%20same%20signatures.&amp;text=Method%20overloading%20is%20a%20example%20of%20compile%20time%20polymorphism." xr:uid="{E7677120-9F8D-427F-AD24-A54EBE44C6EC}"/>
+    <hyperlink ref="A45" r:id="rId4" xr:uid="{C1FBA173-A8F8-48CE-A143-90B48A8EE845}"/>
+    <hyperlink ref="A53" r:id="rId5" xr:uid="{E0241B67-CEC6-42C5-9AEF-EEC6BE6D7B66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -27147,23 +27855,23 @@
     </row>
     <row r="3" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="73" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="180" t="s">
         <v>417</v>
       </c>
-      <c r="B4" s="172"/>
+      <c r="B4" s="181"/>
     </row>
     <row r="5" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="169" t="s">
-        <v>745</v>
-      </c>
-      <c r="B5" s="170"/>
+      <c r="A5" s="178" t="s">
+        <v>744</v>
+      </c>
+      <c r="B5" s="179"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
@@ -27183,7 +27891,7 @@
     </row>
     <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>418</v>
@@ -27207,10 +27915,10 @@
     </row>
     <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>743</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
@@ -27223,30 +27931,30 @@
     </row>
     <row r="13" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="87" t="s">
+      <c r="A14" s="89" t="s">
         <v>427</v>
       </c>
-      <c r="B14" s="173"/>
+      <c r="B14" s="182"/>
     </row>
     <row r="15" spans="1:2" ht="95.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="99" t="s">
-        <v>746</v>
-      </c>
-      <c r="B15" s="174"/>
+      <c r="A15" s="101" t="s">
+        <v>745</v>
+      </c>
+      <c r="B15" s="183"/>
     </row>
     <row r="16" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>747</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -27298,26 +28006,26 @@
       <c r="B3" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E3" s="175" t="s">
-        <v>871</v>
-      </c>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="175"/>
-      <c r="K3" s="175"/>
-      <c r="L3" s="175"/>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
-      <c r="S3" s="175"/>
-      <c r="T3" s="175"/>
-      <c r="U3" s="175"/>
-      <c r="V3" s="175"/>
+      <c r="E3" s="184" t="s">
+        <v>865</v>
+      </c>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="184"/>
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
@@ -27326,736 +28034,736 @@
       <c r="B4" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
-      <c r="K4" s="175"/>
-      <c r="L4" s="175"/>
-      <c r="M4" s="175"/>
-      <c r="N4" s="175"/>
-      <c r="O4" s="175"/>
-      <c r="P4" s="175"/>
-      <c r="Q4" s="175"/>
-      <c r="R4" s="175"/>
-      <c r="S4" s="175"/>
-      <c r="T4" s="175"/>
-      <c r="U4" s="175"/>
-      <c r="V4" s="175"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="184"/>
+      <c r="L4" s="184"/>
+      <c r="M4" s="184"/>
+      <c r="N4" s="184"/>
+      <c r="O4" s="184"/>
+      <c r="P4" s="184"/>
+      <c r="Q4" s="184"/>
+      <c r="R4" s="184"/>
+      <c r="S4" s="184"/>
+      <c r="T4" s="184"/>
+      <c r="U4" s="184"/>
+      <c r="V4" s="184"/>
     </row>
     <row r="5" spans="1:22" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="175"/>
-      <c r="I5" s="175"/>
-      <c r="J5" s="175"/>
-      <c r="K5" s="175"/>
-      <c r="L5" s="175"/>
-      <c r="M5" s="175"/>
-      <c r="N5" s="175"/>
-      <c r="O5" s="175"/>
-      <c r="P5" s="175"/>
-      <c r="Q5" s="175"/>
-      <c r="R5" s="175"/>
-      <c r="S5" s="175"/>
-      <c r="T5" s="175"/>
-      <c r="U5" s="175"/>
-      <c r="V5" s="175"/>
+        <v>520</v>
+      </c>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="184"/>
+      <c r="L5" s="184"/>
+      <c r="M5" s="184"/>
+      <c r="N5" s="184"/>
+      <c r="O5" s="184"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="184"/>
+      <c r="R5" s="184"/>
+      <c r="S5" s="184"/>
+      <c r="T5" s="184"/>
+      <c r="U5" s="184"/>
+      <c r="V5" s="184"/>
     </row>
     <row r="6" spans="1:22" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="175"/>
-      <c r="I6" s="175"/>
-      <c r="J6" s="175"/>
-      <c r="K6" s="175"/>
-      <c r="L6" s="175"/>
-      <c r="M6" s="175"/>
-      <c r="N6" s="175"/>
-      <c r="O6" s="175"/>
-      <c r="P6" s="175"/>
-      <c r="Q6" s="175"/>
-      <c r="R6" s="175"/>
-      <c r="S6" s="175"/>
-      <c r="T6" s="175"/>
-      <c r="U6" s="175"/>
-      <c r="V6" s="175"/>
+        <v>534</v>
+      </c>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
+      <c r="K6" s="184"/>
+      <c r="L6" s="184"/>
+      <c r="M6" s="184"/>
+      <c r="N6" s="184"/>
+      <c r="O6" s="184"/>
+      <c r="P6" s="184"/>
+      <c r="Q6" s="184"/>
+      <c r="R6" s="184"/>
+      <c r="S6" s="184"/>
+      <c r="T6" s="184"/>
+      <c r="U6" s="184"/>
+      <c r="V6" s="184"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="175"/>
-      <c r="I7" s="175"/>
-      <c r="J7" s="175"/>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="175"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="175"/>
-      <c r="Q7" s="175"/>
-      <c r="R7" s="175"/>
-      <c r="S7" s="175"/>
-      <c r="T7" s="175"/>
-      <c r="U7" s="175"/>
-      <c r="V7" s="175"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="184"/>
+      <c r="R7" s="184"/>
+      <c r="S7" s="184"/>
+      <c r="T7" s="184"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="184"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="175"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="175"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="175"/>
-      <c r="V8" s="175"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="184"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="184"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="184"/>
+      <c r="V8" s="184"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="175"/>
-      <c r="M9" s="175"/>
-      <c r="N9" s="175"/>
-      <c r="O9" s="175"/>
-      <c r="P9" s="175"/>
-      <c r="Q9" s="175"/>
-      <c r="R9" s="175"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="175"/>
-      <c r="U9" s="175"/>
-      <c r="V9" s="175"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="184"/>
+      <c r="J9" s="184"/>
+      <c r="K9" s="184"/>
+      <c r="L9" s="184"/>
+      <c r="M9" s="184"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="184"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="184"/>
+      <c r="R9" s="184"/>
+      <c r="S9" s="184"/>
+      <c r="T9" s="184"/>
+      <c r="U9" s="184"/>
+      <c r="V9" s="184"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="175"/>
-      <c r="M10" s="175"/>
-      <c r="N10" s="175"/>
-      <c r="O10" s="175"/>
-      <c r="P10" s="175"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="175"/>
-      <c r="S10" s="175"/>
-      <c r="T10" s="175"/>
-      <c r="U10" s="175"/>
-      <c r="V10" s="175"/>
+      <c r="E10" s="184"/>
+      <c r="F10" s="184"/>
+      <c r="G10" s="184"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="184"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="184"/>
+      <c r="L10" s="184"/>
+      <c r="M10" s="184"/>
+      <c r="N10" s="184"/>
+      <c r="O10" s="184"/>
+      <c r="P10" s="184"/>
+      <c r="Q10" s="184"/>
+      <c r="R10" s="184"/>
+      <c r="S10" s="184"/>
+      <c r="T10" s="184"/>
+      <c r="U10" s="184"/>
+      <c r="V10" s="184"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="175"/>
-      <c r="M11" s="175"/>
-      <c r="N11" s="175"/>
-      <c r="O11" s="175"/>
-      <c r="P11" s="175"/>
-      <c r="Q11" s="175"/>
-      <c r="R11" s="175"/>
-      <c r="S11" s="175"/>
-      <c r="T11" s="175"/>
-      <c r="U11" s="175"/>
-      <c r="V11" s="175"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="184"/>
+      <c r="N11" s="184"/>
+      <c r="O11" s="184"/>
+      <c r="P11" s="184"/>
+      <c r="Q11" s="184"/>
+      <c r="R11" s="184"/>
+      <c r="S11" s="184"/>
+      <c r="T11" s="184"/>
+      <c r="U11" s="184"/>
+      <c r="V11" s="184"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="175"/>
-      <c r="L12" s="175"/>
-      <c r="M12" s="175"/>
-      <c r="N12" s="175"/>
-      <c r="O12" s="175"/>
-      <c r="P12" s="175"/>
-      <c r="Q12" s="175"/>
-      <c r="R12" s="175"/>
-      <c r="S12" s="175"/>
-      <c r="T12" s="175"/>
-      <c r="U12" s="175"/>
-      <c r="V12" s="175"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
+      <c r="G12" s="184"/>
+      <c r="H12" s="184"/>
+      <c r="I12" s="184"/>
+      <c r="J12" s="184"/>
+      <c r="K12" s="184"/>
+      <c r="L12" s="184"/>
+      <c r="M12" s="184"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="184"/>
+      <c r="P12" s="184"/>
+      <c r="Q12" s="184"/>
+      <c r="R12" s="184"/>
+      <c r="S12" s="184"/>
+      <c r="T12" s="184"/>
+      <c r="U12" s="184"/>
+      <c r="V12" s="184"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="175"/>
-      <c r="M13" s="175"/>
-      <c r="N13" s="175"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="175"/>
-      <c r="Q13" s="175"/>
-      <c r="R13" s="175"/>
-      <c r="S13" s="175"/>
-      <c r="T13" s="175"/>
-      <c r="U13" s="175"/>
-      <c r="V13" s="175"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
+      <c r="L13" s="184"/>
+      <c r="M13" s="184"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="184"/>
+      <c r="P13" s="184"/>
+      <c r="Q13" s="184"/>
+      <c r="R13" s="184"/>
+      <c r="S13" s="184"/>
+      <c r="T13" s="184"/>
+      <c r="U13" s="184"/>
+      <c r="V13" s="184"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="175"/>
-      <c r="M14" s="175"/>
-      <c r="N14" s="175"/>
-      <c r="O14" s="175"/>
-      <c r="P14" s="175"/>
-      <c r="Q14" s="175"/>
-      <c r="R14" s="175"/>
-      <c r="S14" s="175"/>
-      <c r="T14" s="175"/>
-      <c r="U14" s="175"/>
-      <c r="V14" s="175"/>
+      <c r="E14" s="184"/>
+      <c r="F14" s="184"/>
+      <c r="G14" s="184"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="184"/>
+      <c r="J14" s="184"/>
+      <c r="K14" s="184"/>
+      <c r="L14" s="184"/>
+      <c r="M14" s="184"/>
+      <c r="N14" s="184"/>
+      <c r="O14" s="184"/>
+      <c r="P14" s="184"/>
+      <c r="Q14" s="184"/>
+      <c r="R14" s="184"/>
+      <c r="S14" s="184"/>
+      <c r="T14" s="184"/>
+      <c r="U14" s="184"/>
+      <c r="V14" s="184"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="175"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="175"/>
-      <c r="L15" s="175"/>
-      <c r="M15" s="175"/>
-      <c r="N15" s="175"/>
-      <c r="O15" s="175"/>
-      <c r="P15" s="175"/>
-      <c r="Q15" s="175"/>
-      <c r="R15" s="175"/>
-      <c r="S15" s="175"/>
-      <c r="T15" s="175"/>
-      <c r="U15" s="175"/>
-      <c r="V15" s="175"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="184"/>
+      <c r="J15" s="184"/>
+      <c r="K15" s="184"/>
+      <c r="L15" s="184"/>
+      <c r="M15" s="184"/>
+      <c r="N15" s="184"/>
+      <c r="O15" s="184"/>
+      <c r="P15" s="184"/>
+      <c r="Q15" s="184"/>
+      <c r="R15" s="184"/>
+      <c r="S15" s="184"/>
+      <c r="T15" s="184"/>
+      <c r="U15" s="184"/>
+      <c r="V15" s="184"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="175"/>
-      <c r="M16" s="175"/>
-      <c r="N16" s="175"/>
-      <c r="O16" s="175"/>
-      <c r="P16" s="175"/>
-      <c r="Q16" s="175"/>
-      <c r="R16" s="175"/>
-      <c r="S16" s="175"/>
-      <c r="T16" s="175"/>
-      <c r="U16" s="175"/>
-      <c r="V16" s="175"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="184"/>
+      <c r="G16" s="184"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="184"/>
+      <c r="J16" s="184"/>
+      <c r="K16" s="184"/>
+      <c r="L16" s="184"/>
+      <c r="M16" s="184"/>
+      <c r="N16" s="184"/>
+      <c r="O16" s="184"/>
+      <c r="P16" s="184"/>
+      <c r="Q16" s="184"/>
+      <c r="R16" s="184"/>
+      <c r="S16" s="184"/>
+      <c r="T16" s="184"/>
+      <c r="U16" s="184"/>
+      <c r="V16" s="184"/>
     </row>
     <row r="17" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="175"/>
-      <c r="L17" s="175"/>
-      <c r="M17" s="175"/>
-      <c r="N17" s="175"/>
-      <c r="O17" s="175"/>
-      <c r="P17" s="175"/>
-      <c r="Q17" s="175"/>
-      <c r="R17" s="175"/>
-      <c r="S17" s="175"/>
-      <c r="T17" s="175"/>
-      <c r="U17" s="175"/>
-      <c r="V17" s="175"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="184"/>
+      <c r="K17" s="184"/>
+      <c r="L17" s="184"/>
+      <c r="M17" s="184"/>
+      <c r="N17" s="184"/>
+      <c r="O17" s="184"/>
+      <c r="P17" s="184"/>
+      <c r="Q17" s="184"/>
+      <c r="R17" s="184"/>
+      <c r="S17" s="184"/>
+      <c r="T17" s="184"/>
+      <c r="U17" s="184"/>
+      <c r="V17" s="184"/>
     </row>
     <row r="18" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="175"/>
-      <c r="M18" s="175"/>
-      <c r="N18" s="175"/>
-      <c r="O18" s="175"/>
-      <c r="P18" s="175"/>
-      <c r="Q18" s="175"/>
-      <c r="R18" s="175"/>
-      <c r="S18" s="175"/>
-      <c r="T18" s="175"/>
-      <c r="U18" s="175"/>
-      <c r="V18" s="175"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="184"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="184"/>
+      <c r="L18" s="184"/>
+      <c r="M18" s="184"/>
+      <c r="N18" s="184"/>
+      <c r="O18" s="184"/>
+      <c r="P18" s="184"/>
+      <c r="Q18" s="184"/>
+      <c r="R18" s="184"/>
+      <c r="S18" s="184"/>
+      <c r="T18" s="184"/>
+      <c r="U18" s="184"/>
+      <c r="V18" s="184"/>
     </row>
     <row r="19" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E19" s="175"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="175"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="175"/>
-      <c r="L19" s="175"/>
-      <c r="M19" s="175"/>
-      <c r="N19" s="175"/>
-      <c r="O19" s="175"/>
-      <c r="P19" s="175"/>
-      <c r="Q19" s="175"/>
-      <c r="R19" s="175"/>
-      <c r="S19" s="175"/>
-      <c r="T19" s="175"/>
-      <c r="U19" s="175"/>
-      <c r="V19" s="175"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="184"/>
+      <c r="K19" s="184"/>
+      <c r="L19" s="184"/>
+      <c r="M19" s="184"/>
+      <c r="N19" s="184"/>
+      <c r="O19" s="184"/>
+      <c r="P19" s="184"/>
+      <c r="Q19" s="184"/>
+      <c r="R19" s="184"/>
+      <c r="S19" s="184"/>
+      <c r="T19" s="184"/>
+      <c r="U19" s="184"/>
+      <c r="V19" s="184"/>
     </row>
     <row r="20" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="175"/>
-      <c r="M20" s="175"/>
-      <c r="N20" s="175"/>
-      <c r="O20" s="175"/>
-      <c r="P20" s="175"/>
-      <c r="Q20" s="175"/>
-      <c r="R20" s="175"/>
-      <c r="S20" s="175"/>
-      <c r="T20" s="175"/>
-      <c r="U20" s="175"/>
-      <c r="V20" s="175"/>
+      <c r="E20" s="184"/>
+      <c r="F20" s="184"/>
+      <c r="G20" s="184"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="184"/>
+      <c r="J20" s="184"/>
+      <c r="K20" s="184"/>
+      <c r="L20" s="184"/>
+      <c r="M20" s="184"/>
+      <c r="N20" s="184"/>
+      <c r="O20" s="184"/>
+      <c r="P20" s="184"/>
+      <c r="Q20" s="184"/>
+      <c r="R20" s="184"/>
+      <c r="S20" s="184"/>
+      <c r="T20" s="184"/>
+      <c r="U20" s="184"/>
+      <c r="V20" s="184"/>
     </row>
     <row r="21" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="175"/>
-      <c r="P21" s="175"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="175"/>
-      <c r="S21" s="175"/>
-      <c r="T21" s="175"/>
-      <c r="U21" s="175"/>
-      <c r="V21" s="175"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="184"/>
+      <c r="J21" s="184"/>
+      <c r="K21" s="184"/>
+      <c r="L21" s="184"/>
+      <c r="M21" s="184"/>
+      <c r="N21" s="184"/>
+      <c r="O21" s="184"/>
+      <c r="P21" s="184"/>
+      <c r="Q21" s="184"/>
+      <c r="R21" s="184"/>
+      <c r="S21" s="184"/>
+      <c r="T21" s="184"/>
+      <c r="U21" s="184"/>
+      <c r="V21" s="184"/>
     </row>
     <row r="22" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="175"/>
-      <c r="M22" s="175"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="175"/>
-      <c r="Q22" s="175"/>
-      <c r="R22" s="175"/>
-      <c r="S22" s="175"/>
-      <c r="T22" s="175"/>
-      <c r="U22" s="175"/>
-      <c r="V22" s="175"/>
+      <c r="E22" s="184"/>
+      <c r="F22" s="184"/>
+      <c r="G22" s="184"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="184"/>
+      <c r="J22" s="184"/>
+      <c r="K22" s="184"/>
+      <c r="L22" s="184"/>
+      <c r="M22" s="184"/>
+      <c r="N22" s="184"/>
+      <c r="O22" s="184"/>
+      <c r="P22" s="184"/>
+      <c r="Q22" s="184"/>
+      <c r="R22" s="184"/>
+      <c r="S22" s="184"/>
+      <c r="T22" s="184"/>
+      <c r="U22" s="184"/>
+      <c r="V22" s="184"/>
     </row>
     <row r="23" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="175"/>
-      <c r="K23" s="175"/>
-      <c r="L23" s="175"/>
-      <c r="M23" s="175"/>
-      <c r="N23" s="175"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="175"/>
-      <c r="Q23" s="175"/>
-      <c r="R23" s="175"/>
-      <c r="S23" s="175"/>
-      <c r="T23" s="175"/>
-      <c r="U23" s="175"/>
-      <c r="V23" s="175"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="184"/>
+      <c r="J23" s="184"/>
+      <c r="K23" s="184"/>
+      <c r="L23" s="184"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="184"/>
+      <c r="O23" s="184"/>
+      <c r="P23" s="184"/>
+      <c r="Q23" s="184"/>
+      <c r="R23" s="184"/>
+      <c r="S23" s="184"/>
+      <c r="T23" s="184"/>
+      <c r="U23" s="184"/>
+      <c r="V23" s="184"/>
     </row>
     <row r="24" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E24" s="175"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="175"/>
-      <c r="M24" s="175"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="175"/>
-      <c r="Q24" s="175"/>
-      <c r="R24" s="175"/>
-      <c r="S24" s="175"/>
-      <c r="T24" s="175"/>
-      <c r="U24" s="175"/>
-      <c r="V24" s="175"/>
+      <c r="E24" s="184"/>
+      <c r="F24" s="184"/>
+      <c r="G24" s="184"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="184"/>
+      <c r="K24" s="184"/>
+      <c r="L24" s="184"/>
+      <c r="M24" s="184"/>
+      <c r="N24" s="184"/>
+      <c r="O24" s="184"/>
+      <c r="P24" s="184"/>
+      <c r="Q24" s="184"/>
+      <c r="R24" s="184"/>
+      <c r="S24" s="184"/>
+      <c r="T24" s="184"/>
+      <c r="U24" s="184"/>
+      <c r="V24" s="184"/>
     </row>
     <row r="25" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="175"/>
-      <c r="K25" s="175"/>
-      <c r="L25" s="175"/>
-      <c r="M25" s="175"/>
-      <c r="N25" s="175"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="175"/>
-      <c r="Q25" s="175"/>
-      <c r="R25" s="175"/>
-      <c r="S25" s="175"/>
-      <c r="T25" s="175"/>
-      <c r="U25" s="175"/>
-      <c r="V25" s="175"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="184"/>
+      <c r="G25" s="184"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="184"/>
+      <c r="K25" s="184"/>
+      <c r="L25" s="184"/>
+      <c r="M25" s="184"/>
+      <c r="N25" s="184"/>
+      <c r="O25" s="184"/>
+      <c r="P25" s="184"/>
+      <c r="Q25" s="184"/>
+      <c r="R25" s="184"/>
+      <c r="S25" s="184"/>
+      <c r="T25" s="184"/>
+      <c r="U25" s="184"/>
+      <c r="V25" s="184"/>
     </row>
     <row r="26" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="175"/>
-      <c r="M26" s="175"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="175"/>
-      <c r="Q26" s="175"/>
-      <c r="R26" s="175"/>
-      <c r="S26" s="175"/>
-      <c r="T26" s="175"/>
-      <c r="U26" s="175"/>
-      <c r="V26" s="175"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="184"/>
+      <c r="K26" s="184"/>
+      <c r="L26" s="184"/>
+      <c r="M26" s="184"/>
+      <c r="N26" s="184"/>
+      <c r="O26" s="184"/>
+      <c r="P26" s="184"/>
+      <c r="Q26" s="184"/>
+      <c r="R26" s="184"/>
+      <c r="S26" s="184"/>
+      <c r="T26" s="184"/>
+      <c r="U26" s="184"/>
+      <c r="V26" s="184"/>
     </row>
     <row r="27" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E27" s="175"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="175"/>
-      <c r="M27" s="175"/>
-      <c r="N27" s="175"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="175"/>
-      <c r="R27" s="175"/>
-      <c r="S27" s="175"/>
-      <c r="T27" s="175"/>
-      <c r="U27" s="175"/>
-      <c r="V27" s="175"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="184"/>
+      <c r="K27" s="184"/>
+      <c r="L27" s="184"/>
+      <c r="M27" s="184"/>
+      <c r="N27" s="184"/>
+      <c r="O27" s="184"/>
+      <c r="P27" s="184"/>
+      <c r="Q27" s="184"/>
+      <c r="R27" s="184"/>
+      <c r="S27" s="184"/>
+      <c r="T27" s="184"/>
+      <c r="U27" s="184"/>
+      <c r="V27" s="184"/>
     </row>
     <row r="28" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="175"/>
-      <c r="M28" s="175"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="175"/>
-      <c r="R28" s="175"/>
-      <c r="S28" s="175"/>
-      <c r="T28" s="175"/>
-      <c r="U28" s="175"/>
-      <c r="V28" s="175"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="184"/>
+      <c r="J28" s="184"/>
+      <c r="K28" s="184"/>
+      <c r="L28" s="184"/>
+      <c r="M28" s="184"/>
+      <c r="N28" s="184"/>
+      <c r="O28" s="184"/>
+      <c r="P28" s="184"/>
+      <c r="Q28" s="184"/>
+      <c r="R28" s="184"/>
+      <c r="S28" s="184"/>
+      <c r="T28" s="184"/>
+      <c r="U28" s="184"/>
+      <c r="V28" s="184"/>
     </row>
     <row r="29" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="175"/>
-      <c r="M29" s="175"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="175"/>
-      <c r="Q29" s="175"/>
-      <c r="R29" s="175"/>
-      <c r="S29" s="175"/>
-      <c r="T29" s="175"/>
-      <c r="U29" s="175"/>
-      <c r="V29" s="175"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="184"/>
+      <c r="K29" s="184"/>
+      <c r="L29" s="184"/>
+      <c r="M29" s="184"/>
+      <c r="N29" s="184"/>
+      <c r="O29" s="184"/>
+      <c r="P29" s="184"/>
+      <c r="Q29" s="184"/>
+      <c r="R29" s="184"/>
+      <c r="S29" s="184"/>
+      <c r="T29" s="184"/>
+      <c r="U29" s="184"/>
+      <c r="V29" s="184"/>
     </row>
     <row r="30" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="175"/>
-      <c r="L30" s="175"/>
-      <c r="M30" s="175"/>
-      <c r="N30" s="175"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="175"/>
-      <c r="Q30" s="175"/>
-      <c r="R30" s="175"/>
-      <c r="S30" s="175"/>
-      <c r="T30" s="175"/>
-      <c r="U30" s="175"/>
-      <c r="V30" s="175"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="184"/>
+      <c r="J30" s="184"/>
+      <c r="K30" s="184"/>
+      <c r="L30" s="184"/>
+      <c r="M30" s="184"/>
+      <c r="N30" s="184"/>
+      <c r="O30" s="184"/>
+      <c r="P30" s="184"/>
+      <c r="Q30" s="184"/>
+      <c r="R30" s="184"/>
+      <c r="S30" s="184"/>
+      <c r="T30" s="184"/>
+      <c r="U30" s="184"/>
+      <c r="V30" s="184"/>
     </row>
     <row r="31" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="175"/>
-      <c r="M31" s="175"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="175"/>
-      <c r="Q31" s="175"/>
-      <c r="R31" s="175"/>
-      <c r="S31" s="175"/>
-      <c r="T31" s="175"/>
-      <c r="U31" s="175"/>
-      <c r="V31" s="175"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="184"/>
+      <c r="J31" s="184"/>
+      <c r="K31" s="184"/>
+      <c r="L31" s="184"/>
+      <c r="M31" s="184"/>
+      <c r="N31" s="184"/>
+      <c r="O31" s="184"/>
+      <c r="P31" s="184"/>
+      <c r="Q31" s="184"/>
+      <c r="R31" s="184"/>
+      <c r="S31" s="184"/>
+      <c r="T31" s="184"/>
+      <c r="U31" s="184"/>
+      <c r="V31" s="184"/>
     </row>
     <row r="32" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E32" s="175"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="175"/>
-      <c r="L32" s="175"/>
-      <c r="M32" s="175"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="175"/>
-      <c r="S32" s="175"/>
-      <c r="T32" s="175"/>
-      <c r="U32" s="175"/>
-      <c r="V32" s="175"/>
+      <c r="E32" s="184"/>
+      <c r="F32" s="184"/>
+      <c r="G32" s="184"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="184"/>
+      <c r="J32" s="184"/>
+      <c r="K32" s="184"/>
+      <c r="L32" s="184"/>
+      <c r="M32" s="184"/>
+      <c r="N32" s="184"/>
+      <c r="O32" s="184"/>
+      <c r="P32" s="184"/>
+      <c r="Q32" s="184"/>
+      <c r="R32" s="184"/>
+      <c r="S32" s="184"/>
+      <c r="T32" s="184"/>
+      <c r="U32" s="184"/>
+      <c r="V32" s="184"/>
     </row>
     <row r="33" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E33" s="175"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="175"/>
-      <c r="M33" s="175"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="175"/>
-      <c r="Q33" s="175"/>
-      <c r="R33" s="175"/>
-      <c r="S33" s="175"/>
-      <c r="T33" s="175"/>
-      <c r="U33" s="175"/>
-      <c r="V33" s="175"/>
+      <c r="E33" s="184"/>
+      <c r="F33" s="184"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="184"/>
+      <c r="L33" s="184"/>
+      <c r="M33" s="184"/>
+      <c r="N33" s="184"/>
+      <c r="O33" s="184"/>
+      <c r="P33" s="184"/>
+      <c r="Q33" s="184"/>
+      <c r="R33" s="184"/>
+      <c r="S33" s="184"/>
+      <c r="T33" s="184"/>
+      <c r="U33" s="184"/>
+      <c r="V33" s="184"/>
     </row>
     <row r="34" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E34" s="175"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="175"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="175"/>
-      <c r="K34" s="175"/>
-      <c r="L34" s="175"/>
-      <c r="M34" s="175"/>
-      <c r="N34" s="175"/>
-      <c r="O34" s="175"/>
-      <c r="P34" s="175"/>
-      <c r="Q34" s="175"/>
-      <c r="R34" s="175"/>
-      <c r="S34" s="175"/>
-      <c r="T34" s="175"/>
-      <c r="U34" s="175"/>
-      <c r="V34" s="175"/>
+      <c r="E34" s="184"/>
+      <c r="F34" s="184"/>
+      <c r="G34" s="184"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="184"/>
+      <c r="J34" s="184"/>
+      <c r="K34" s="184"/>
+      <c r="L34" s="184"/>
+      <c r="M34" s="184"/>
+      <c r="N34" s="184"/>
+      <c r="O34" s="184"/>
+      <c r="P34" s="184"/>
+      <c r="Q34" s="184"/>
+      <c r="R34" s="184"/>
+      <c r="S34" s="184"/>
+      <c r="T34" s="184"/>
+      <c r="U34" s="184"/>
+      <c r="V34" s="184"/>
     </row>
     <row r="35" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="175"/>
-      <c r="L35" s="175"/>
-      <c r="M35" s="175"/>
-      <c r="N35" s="175"/>
-      <c r="O35" s="175"/>
-      <c r="P35" s="175"/>
-      <c r="Q35" s="175"/>
-      <c r="R35" s="175"/>
-      <c r="S35" s="175"/>
-      <c r="T35" s="175"/>
-      <c r="U35" s="175"/>
-      <c r="V35" s="175"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="184"/>
+      <c r="J35" s="184"/>
+      <c r="K35" s="184"/>
+      <c r="L35" s="184"/>
+      <c r="M35" s="184"/>
+      <c r="N35" s="184"/>
+      <c r="O35" s="184"/>
+      <c r="P35" s="184"/>
+      <c r="Q35" s="184"/>
+      <c r="R35" s="184"/>
+      <c r="S35" s="184"/>
+      <c r="T35" s="184"/>
+      <c r="U35" s="184"/>
+      <c r="V35" s="184"/>
     </row>
     <row r="36" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E36" s="175"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="175"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="175"/>
-      <c r="L36" s="175"/>
-      <c r="M36" s="175"/>
-      <c r="N36" s="175"/>
-      <c r="O36" s="175"/>
-      <c r="P36" s="175"/>
-      <c r="Q36" s="175"/>
-      <c r="R36" s="175"/>
-      <c r="S36" s="175"/>
-      <c r="T36" s="175"/>
-      <c r="U36" s="175"/>
-      <c r="V36" s="175"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="184"/>
+      <c r="G36" s="184"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="184"/>
+      <c r="J36" s="184"/>
+      <c r="K36" s="184"/>
+      <c r="L36" s="184"/>
+      <c r="M36" s="184"/>
+      <c r="N36" s="184"/>
+      <c r="O36" s="184"/>
+      <c r="P36" s="184"/>
+      <c r="Q36" s="184"/>
+      <c r="R36" s="184"/>
+      <c r="S36" s="184"/>
+      <c r="T36" s="184"/>
+      <c r="U36" s="184"/>
+      <c r="V36" s="184"/>
     </row>
     <row r="37" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E37" s="175"/>
-      <c r="F37" s="175"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="175"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="175"/>
-      <c r="K37" s="175"/>
-      <c r="L37" s="175"/>
-      <c r="M37" s="175"/>
-      <c r="N37" s="175"/>
-      <c r="O37" s="175"/>
-      <c r="P37" s="175"/>
-      <c r="Q37" s="175"/>
-      <c r="R37" s="175"/>
-      <c r="S37" s="175"/>
-      <c r="T37" s="175"/>
-      <c r="U37" s="175"/>
-      <c r="V37" s="175"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="184"/>
+      <c r="G37" s="184"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="184"/>
+      <c r="J37" s="184"/>
+      <c r="K37" s="184"/>
+      <c r="L37" s="184"/>
+      <c r="M37" s="184"/>
+      <c r="N37" s="184"/>
+      <c r="O37" s="184"/>
+      <c r="P37" s="184"/>
+      <c r="Q37" s="184"/>
+      <c r="R37" s="184"/>
+      <c r="S37" s="184"/>
+      <c r="T37" s="184"/>
+      <c r="U37" s="184"/>
+      <c r="V37" s="184"/>
     </row>
     <row r="38" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E38" s="175"/>
-      <c r="F38" s="175"/>
-      <c r="G38" s="175"/>
-      <c r="H38" s="175"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="175"/>
-      <c r="K38" s="175"/>
-      <c r="L38" s="175"/>
-      <c r="M38" s="175"/>
-      <c r="N38" s="175"/>
-      <c r="O38" s="175"/>
-      <c r="P38" s="175"/>
-      <c r="Q38" s="175"/>
-      <c r="R38" s="175"/>
-      <c r="S38" s="175"/>
-      <c r="T38" s="175"/>
-      <c r="U38" s="175"/>
-      <c r="V38" s="175"/>
+      <c r="E38" s="184"/>
+      <c r="F38" s="184"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="184"/>
+      <c r="J38" s="184"/>
+      <c r="K38" s="184"/>
+      <c r="L38" s="184"/>
+      <c r="M38" s="184"/>
+      <c r="N38" s="184"/>
+      <c r="O38" s="184"/>
+      <c r="P38" s="184"/>
+      <c r="Q38" s="184"/>
+      <c r="R38" s="184"/>
+      <c r="S38" s="184"/>
+      <c r="T38" s="184"/>
+      <c r="U38" s="184"/>
+      <c r="V38" s="184"/>
     </row>
     <row r="39" spans="5:22" x14ac:dyDescent="0.45">
-      <c r="E39" s="175"/>
-      <c r="F39" s="175"/>
-      <c r="G39" s="175"/>
-      <c r="H39" s="175"/>
-      <c r="I39" s="175"/>
-      <c r="J39" s="175"/>
-      <c r="K39" s="175"/>
-      <c r="L39" s="175"/>
-      <c r="M39" s="175"/>
-      <c r="N39" s="175"/>
-      <c r="O39" s="175"/>
-      <c r="P39" s="175"/>
-      <c r="Q39" s="175"/>
-      <c r="R39" s="175"/>
-      <c r="S39" s="175"/>
-      <c r="T39" s="175"/>
-      <c r="U39" s="175"/>
-      <c r="V39" s="175"/>
+      <c r="E39" s="184"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="184"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="184"/>
+      <c r="J39" s="184"/>
+      <c r="K39" s="184"/>
+      <c r="L39" s="184"/>
+      <c r="M39" s="184"/>
+      <c r="N39" s="184"/>
+      <c r="O39" s="184"/>
+      <c r="P39" s="184"/>
+      <c r="Q39" s="184"/>
+      <c r="R39" s="184"/>
+      <c r="S39" s="184"/>
+      <c r="T39" s="184"/>
+      <c r="U39" s="184"/>
+      <c r="V39" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -28081,10 +28789,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="178" t="s">
-        <v>565</v>
-      </c>
-      <c r="B1" s="178"/>
+      <c r="A1" s="187" t="s">
+        <v>564</v>
+      </c>
+      <c r="B1" s="187"/>
       <c r="C1" s="47"/>
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
@@ -28095,8 +28803,8 @@
       <c r="J1" s="47"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" s="178"/>
-      <c r="B2" s="178"/>
+      <c r="A2" s="187"/>
+      <c r="B2" s="187"/>
       <c r="C2" s="47"/>
       <c r="D2" s="47"/>
       <c r="E2" s="47"/>
@@ -28107,8 +28815,8 @@
       <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="178"/>
-      <c r="B3" s="178"/>
+      <c r="A3" s="187"/>
+      <c r="B3" s="187"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
       <c r="E3" s="47"/>
@@ -28119,8 +28827,8 @@
       <c r="J3" s="47"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="178"/>
-      <c r="B4" s="178"/>
+      <c r="A4" s="187"/>
+      <c r="B4" s="187"/>
       <c r="C4" s="47"/>
       <c r="D4" s="47"/>
       <c r="E4" s="47"/>
@@ -28131,8 +28839,8 @@
       <c r="J4" s="47"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="178"/>
-      <c r="B5" s="178"/>
+      <c r="A5" s="187"/>
+      <c r="B5" s="187"/>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
       <c r="E5" s="47"/>
@@ -28143,8 +28851,8 @@
       <c r="J5" s="47"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="178"/>
-      <c r="B6" s="178"/>
+      <c r="A6" s="187"/>
+      <c r="B6" s="187"/>
       <c r="C6" s="47"/>
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
@@ -28155,8 +28863,8 @@
       <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="178"/>
-      <c r="B7" s="178"/>
+      <c r="A7" s="187"/>
+      <c r="B7" s="187"/>
       <c r="C7" s="47"/>
       <c r="D7" s="47"/>
       <c r="E7" s="47"/>
@@ -28167,8 +28875,8 @@
       <c r="J7" s="47"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="178"/>
-      <c r="B8" s="178"/>
+      <c r="A8" s="187"/>
+      <c r="B8" s="187"/>
       <c r="C8" s="47"/>
       <c r="D8" s="47"/>
       <c r="E8" s="47"/>
@@ -28179,8 +28887,8 @@
       <c r="J8" s="47"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="178"/>
-      <c r="B9" s="178"/>
+      <c r="A9" s="187"/>
+      <c r="B9" s="187"/>
       <c r="C9" s="47"/>
       <c r="D9" s="47"/>
       <c r="E9" s="47"/>
@@ -28191,76 +28899,76 @@
       <c r="J9" s="47"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="176" t="s">
-        <v>566</v>
-      </c>
-      <c r="B10" s="177"/>
+      <c r="A10" s="185" t="s">
+        <v>565</v>
+      </c>
+      <c r="B10" s="186"/>
     </row>
     <row r="11" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>568</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>572</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="B13" s="48" t="s">
         <v>570</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="B14" s="6" t="s">
+    </row>
+    <row r="15" spans="1:10" ht="85.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="93" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="85.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="91" t="s">
+      <c r="B15" s="94"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="188" t="s">
+        <v>580</v>
+      </c>
+      <c r="B16" s="189"/>
+    </row>
+    <row r="17" spans="1:3" ht="131.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="190"/>
+      <c r="B17" s="191"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="192" t="s">
         <v>579</v>
       </c>
-      <c r="B15" s="92"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="179" t="s">
-        <v>581</v>
-      </c>
-      <c r="B16" s="180"/>
-    </row>
-    <row r="17" spans="1:3" ht="131.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="181"/>
-      <c r="B17" s="182"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" s="183" t="s">
-        <v>580</v>
-      </c>
-      <c r="B18" s="184"/>
+      <c r="B18" s="193"/>
       <c r="C18" s="48"/>
     </row>
     <row r="19" spans="1:3" ht="44.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="185"/>
-      <c r="B19" s="186"/>
+      <c r="A19" s="194"/>
+      <c r="B19" s="195"/>
     </row>
     <row r="20" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -28341,10 +29049,10 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="85" t="s">
-        <v>610</v>
-      </c>
-      <c r="B7" s="187"/>
+      <c r="A7" s="87" t="s">
+        <v>609</v>
+      </c>
+      <c r="B7" s="196"/>
     </row>
     <row r="8" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
@@ -28380,10 +29088,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>560</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -28397,10 +29105,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9940D856-1DA9-4EA4-B8AA-DCA1B7E1C3D3}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="82" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -28424,206 +29132,231 @@
         <v>450</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>451</v>
+        <v>891</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>457</v>
+        <v>896</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>458</v>
+        <v>884</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>459</v>
+        <v>892</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>461</v>
+        <v>893</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="235.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="188" t="s">
-        <v>838</v>
-      </c>
-      <c r="B6" s="189"/>
+        <v>894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="235.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="197" t="s">
+        <v>834</v>
+      </c>
+      <c r="B9" s="198"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="B10" s="78" t="s">
         <v>825</v>
       </c>
-      <c r="B7" s="78" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A13" s="51" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="114" x14ac:dyDescent="0.45">
-      <c r="A9" s="5" t="s">
-        <v>479</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A10" s="51" t="s">
-        <v>827</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="5" t="s">
+      <c r="B13" s="34" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="83" t="s">
+        <v>882</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="81" t="s">
+        <v>755</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>590</v>
+      </c>
+      <c r="C16" s="170" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A17" s="55" t="s">
+        <v>821</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C17" s="173"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18" s="173"/>
+    </row>
+    <row r="19" spans="1:3" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="54" t="s">
+        <v>586</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>588</v>
+      </c>
+      <c r="C19" s="176"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" s="52" t="s">
+        <v>592</v>
+      </c>
+      <c r="B20" s="53" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="301.14999999999998" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="89" t="s">
+        <v>838</v>
+      </c>
+      <c r="B23" s="90"/>
+    </row>
+    <row r="24" spans="1:3" ht="88.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="199" t="s">
+        <v>837</v>
+      </c>
+      <c r="B24" s="200"/>
+    </row>
+    <row r="25" spans="1:3" ht="114" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" s="81" t="s">
-        <v>756</v>
-      </c>
-      <c r="B12" s="53" t="s">
-        <v>591</v>
-      </c>
-      <c r="C12" s="161" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A13" s="55" t="s">
-        <v>822</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="C13" s="164"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>588</v>
-      </c>
-      <c r="C14" s="164"/>
-    </row>
-    <row r="15" spans="1:3" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="54" t="s">
-        <v>587</v>
-      </c>
-      <c r="B15" s="56" t="s">
-        <v>589</v>
-      </c>
-      <c r="C15" s="167"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16" s="52" t="s">
-        <v>593</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="77.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A18" s="5" t="s">
-        <v>836</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="5" t="s">
-        <v>839</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="301.14999999999998" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="87" t="s">
-        <v>844</v>
-      </c>
-      <c r="B20" s="88"/>
-    </row>
-    <row r="21" spans="1:2" ht="88.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="190" t="s">
+      <c r="B27" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="B21" s="191"/>
-    </row>
-    <row r="22" spans="1:2" ht="114" x14ac:dyDescent="0.45">
-      <c r="A22" s="5" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>846</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A24" s="5" t="s">
-        <v>848</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>852</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" location="pandas.read_json" xr:uid="{F5CB712A-DBC3-4D83-8F30-AEF05734353B}"/>
+    <hyperlink ref="A15" r:id="rId2" xr:uid="{94008362-8EAB-4D9F-9EE2-19630D5BA77C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -28663,13 +29396,13 @@
     </row>
     <row r="3" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="193" t="s">
-        <v>755</v>
+      <c r="D3" s="202" t="s">
+        <v>754</v>
       </c>
       <c r="E3" s="70"/>
       <c r="F3" s="69"/>
@@ -28681,7 +29414,7 @@
       <c r="L3" s="69"/>
       <c r="M3" s="69"/>
       <c r="N3" s="69"/>
-      <c r="O3" s="192"/>
+      <c r="O3" s="201"/>
     </row>
     <row r="4" spans="1:15" ht="387" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
@@ -28690,7 +29423,7 @@
       <c r="B4" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="D4" s="194"/>
+      <c r="D4" s="203"/>
       <c r="E4" s="69"/>
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
@@ -28701,7 +29434,7 @@
       <c r="L4" s="69"/>
       <c r="M4" s="69"/>
       <c r="N4" s="69"/>
-      <c r="O4" s="192"/>
+      <c r="O4" s="201"/>
     </row>
     <row r="5" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
@@ -28713,18 +29446,18 @@
     </row>
     <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
@@ -28732,7 +29465,7 @@
         <v>253</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
@@ -28785,7 +29518,7 @@
     </row>
     <row r="16" spans="1:15" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>66</v>
@@ -28856,10 +29589,10 @@
       </c>
     </row>
     <row r="25" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="203" t="s">
+      <c r="A25" s="212" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="204"/>
+      <c r="B25" s="213"/>
     </row>
     <row r="26" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A26" s="18" t="s">
@@ -28886,10 +29619,10 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A29" s="205" t="s">
+      <c r="A29" s="214" t="s">
         <v>91</v>
       </c>
-      <c r="B29" s="206"/>
+      <c r="B29" s="215"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="18" t="s">
@@ -28932,10 +29665,10 @@
       </c>
     </row>
     <row r="35" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="207" t="s">
+      <c r="A35" s="216" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="208"/>
+      <c r="B35" s="217"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="18" t="s">
@@ -28947,29 +29680,29 @@
     </row>
     <row r="37" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
+        <v>752</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>753</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>754</v>
-      </c>
     </row>
     <row r="38" spans="1:2" ht="202.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="201" t="s">
+      <c r="A38" s="210" t="s">
         <v>249</v>
       </c>
-      <c r="B38" s="202"/>
+      <c r="B38" s="211"/>
     </row>
     <row r="39" spans="1:2" ht="324" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="199" t="s">
+      <c r="A39" s="208" t="s">
         <v>267</v>
       </c>
-      <c r="B39" s="200"/>
+      <c r="B39" s="209"/>
     </row>
     <row r="40" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="209" t="s">
-        <v>811</v>
-      </c>
-      <c r="B40" s="210"/>
+      <c r="A40" s="218" t="s">
+        <v>810</v>
+      </c>
+      <c r="B40" s="219"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="18" t="s">
@@ -28980,14 +29713,14 @@
       </c>
     </row>
     <row r="42" spans="1:2" ht="381.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="197" t="s">
+      <c r="A42" s="206" t="s">
         <v>256</v>
       </c>
-      <c r="B42" s="198"/>
+      <c r="B42" s="207"/>
     </row>
     <row r="43" spans="1:2" ht="238.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="195"/>
-      <c r="B43" s="196"/>
+      <c r="A43" s="204"/>
+      <c r="B43" s="205"/>
     </row>
     <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="18" t="s">
@@ -29015,34 +29748,34 @@
     </row>
     <row r="47" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A47" s="18" t="s">
+        <v>750</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>751</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A48" s="61" t="s">
+        <v>610</v>
+      </c>
+      <c r="B48" s="62" t="s">
         <v>611</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A49" s="18" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A50" s="18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>
@@ -29188,7 +29921,7 @@
         <v>243</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>273</v>
@@ -29196,22 +29929,22 @@
     </row>
     <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D11" s="70"/>
     </row>
     <row r="12" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="87" t="s">
-        <v>810</v>
-      </c>
-      <c r="B12" s="211"/>
-      <c r="C12" s="173"/>
+      <c r="A12" s="89" t="s">
+        <v>809</v>
+      </c>
+      <c r="B12" s="220"/>
+      <c r="C12" s="182"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
@@ -29248,39 +29981,39 @@
     </row>
     <row r="16" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A16" s="58" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>604</v>
-      </c>
-      <c r="D16" s="214" t="s">
-        <v>714</v>
+        <v>603</v>
+      </c>
+      <c r="D16" s="223" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="123.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="58" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="58" t="s">
-        <v>606</v>
-      </c>
-      <c r="D17" s="215"/>
+        <v>605</v>
+      </c>
+      <c r="D17" s="224"/>
     </row>
     <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="60" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>603</v>
-      </c>
-      <c r="D18" s="215"/>
+        <v>602</v>
+      </c>
+      <c r="D18" s="224"/>
     </row>
     <row r="19" spans="1:4" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
@@ -29305,15 +30038,15 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>270</v>
       </c>
-      <c r="B21" s="212"/>
-      <c r="C21" s="213"/>
+      <c r="B21" s="221"/>
+      <c r="C21" s="222"/>
     </row>
     <row r="22" spans="1:4" ht="228" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>243</v>
@@ -29324,35 +30057,35 @@
     </row>
     <row r="23" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -29368,54 +30101,54 @@
     </row>
     <row r="27" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>712</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -29457,106 +30190,106 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="299.64999999999998" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C6" s="72"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>502</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>504</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>618</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="249.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="216" t="s">
-        <v>724</v>
-      </c>
-      <c r="B13" s="217"/>
+      <c r="A13" s="225" t="s">
+        <v>723</v>
+      </c>
+      <c r="B13" s="226"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -29648,68 +30381,40 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FAF400-B8CB-4515-A548-ABE7E1C9E369}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE04A18D-E29D-4A76-8554-FF239DD74117}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.53125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.06640625" style="10"/>
+    <col min="1" max="1" width="44.06640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="212.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="112" t="s">
-        <v>520</v>
-      </c>
-      <c r="B5" s="122"/>
-      <c r="C5" s="43"/>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="77" t="s">
+        <v>807</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>808</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{11A22F27-1D33-4965-A8E5-758C85A4EAF3}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{8BFC66B4-4963-48FB-9164-C4F032B1F400}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -29747,13 +30452,13 @@
       <c r="B2" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="104"/>
+      <c r="G2" s="106"/>
     </row>
     <row r="3" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="116" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -29761,7 +30466,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A4" s="115"/>
+      <c r="A4" s="117"/>
       <c r="B4" s="5" t="s">
         <v>103</v>
       </c>
@@ -29775,7 +30480,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="116" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -29783,13 +30488,13 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A7" s="115"/>
+      <c r="A7" s="117"/>
       <c r="B7" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="114" t="s">
+      <c r="A8" s="116" t="s">
         <v>127</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -29797,7 +30502,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A9" s="115"/>
+      <c r="A9" s="117"/>
       <c r="B9" s="6" t="s">
         <v>128</v>
       </c>
@@ -29825,28 +30530,28 @@
       <c r="A12" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="116" t="s">
+      <c r="B12" s="118" t="s">
         <v>364</v>
       </c>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118" t="s">
+      <c r="C12" s="119"/>
+      <c r="D12" s="120" t="s">
         <v>365</v>
       </c>
-      <c r="E12" s="119"/>
-      <c r="F12" s="119"/>
-      <c r="G12" s="119"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="122"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B13" s="105"/>
+      <c r="B13" s="107"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B14" s="105"/>
+      <c r="B14" s="107"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B15" s="105"/>
+      <c r="B15" s="107"/>
       <c r="D15" s="5" t="s">
         <v>166</v>
       </c>
@@ -29858,7 +30563,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="B16" s="105"/>
+      <c r="B16" s="107"/>
       <c r="D16" s="5" t="s">
         <v>162</v>
       </c>
@@ -29870,7 +30575,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="105"/>
+      <c r="B17" s="107"/>
       <c r="D17" s="5" t="s">
         <v>163</v>
       </c>
@@ -29882,7 +30587,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B18" s="105"/>
+      <c r="B18" s="107"/>
       <c r="D18" s="5" t="s">
         <v>164</v>
       </c>
@@ -29894,7 +30599,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B19" s="105"/>
+      <c r="B19" s="107"/>
       <c r="D19" s="5" t="s">
         <v>165</v>
       </c>
@@ -29906,42 +30611,42 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B20" s="105"/>
-      <c r="C20" s="110" t="s">
+      <c r="B20" s="107"/>
+      <c r="C20" s="112" t="s">
         <v>347</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
     </row>
     <row r="21" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="31"/>
-      <c r="B21" s="106"/>
-      <c r="C21" s="107" t="s">
+      <c r="B21" s="108"/>
+      <c r="C21" s="109" t="s">
         <v>346</v>
       </c>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="111"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="114" t="s">
         <v>348</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="113" t="s">
+      <c r="B22" s="114"/>
+      <c r="C22" s="115" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23" s="112"/>
-      <c r="B23" s="112"/>
-      <c r="C23" s="113"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="115"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24" s="112"/>
-      <c r="B24" s="112"/>
-      <c r="C24" s="113"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="115"/>
     </row>
     <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="32" t="s">
@@ -29976,40 +30681,172 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE04A18D-E29D-4A76-8554-FF239DD74117}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FAF400-B8CB-4515-A548-ABE7E1C9E369}">
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A6" zoomScale="61" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="44.06640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" style="38" customWidth="1"/>
+    <col min="1" max="1" width="24.53125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="70.33203125" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="9.06640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A2" s="77" t="s">
-        <v>808</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>809</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A4" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="212.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="114" t="s">
+        <v>519</v>
+      </c>
+      <c r="B5" s="126"/>
+      <c r="C5" s="43"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="227" t="s">
+        <v>888</v>
+      </c>
+      <c r="B6" s="228"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="229"/>
+      <c r="B7" s="230"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="229"/>
+      <c r="B8" s="230"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="229"/>
+      <c r="B9" s="230"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="229"/>
+      <c r="B10" s="230"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="229"/>
+      <c r="B11" s="230"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="229"/>
+      <c r="B12" s="230"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="229"/>
+      <c r="B13" s="230"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="229"/>
+      <c r="B14" s="230"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="229"/>
+      <c r="B15" s="230"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="229"/>
+      <c r="B16" s="230"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="229"/>
+      <c r="B17" s="230"/>
+    </row>
+    <row r="18" spans="1:2" ht="409.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="229"/>
+      <c r="B18" s="230"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="229"/>
+      <c r="B19" s="230"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="229"/>
+      <c r="B20" s="230"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="229"/>
+      <c r="B21" s="230"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="229"/>
+      <c r="B22" s="230"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="229"/>
+      <c r="B23" s="230"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="229"/>
+      <c r="B24" s="230"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="229"/>
+      <c r="B25" s="230"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="229"/>
+      <c r="B26" s="230"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="229"/>
+      <c r="B27" s="230"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="229"/>
+      <c r="B28" s="230"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="229"/>
+      <c r="B29" s="230"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="231"/>
+      <c r="B30" s="232"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B30"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{8BFC66B4-4963-48FB-9164-C4F032B1F400}"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{11A22F27-1D33-4965-A8E5-758C85A4EAF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -30162,18 +30999,18 @@
     </row>
     <row r="18" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>623</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -30237,7 +31074,7 @@
         <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
@@ -30245,7 +31082,7 @@
         <v>220</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
@@ -30257,10 +31094,10 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A30" s="218" t="s">
+      <c r="A30" s="233" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="219"/>
+      <c r="B30" s="234"/>
     </row>
     <row r="31" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
@@ -30271,126 +31108,126 @@
       </c>
     </row>
     <row r="32" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="220" t="s">
-        <v>717</v>
-      </c>
-      <c r="B32" s="221"/>
+      <c r="A32" s="235" t="s">
+        <v>716</v>
+      </c>
+      <c r="B32" s="236"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" s="222"/>
-      <c r="B33" s="223"/>
+      <c r="A33" s="237"/>
+      <c r="B33" s="238"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A34" s="222"/>
-      <c r="B34" s="223"/>
+      <c r="A34" s="237"/>
+      <c r="B34" s="238"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A35" s="222"/>
-      <c r="B35" s="223"/>
+      <c r="A35" s="237"/>
+      <c r="B35" s="238"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A36" s="222"/>
-      <c r="B36" s="223"/>
+      <c r="A36" s="237"/>
+      <c r="B36" s="238"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A37" s="222"/>
-      <c r="B37" s="223"/>
+      <c r="A37" s="237"/>
+      <c r="B37" s="238"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A38" s="222"/>
-      <c r="B38" s="223"/>
+      <c r="A38" s="237"/>
+      <c r="B38" s="238"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A39" s="222"/>
-      <c r="B39" s="223"/>
+      <c r="A39" s="237"/>
+      <c r="B39" s="238"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" s="222"/>
-      <c r="B40" s="223"/>
+      <c r="A40" s="237"/>
+      <c r="B40" s="238"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A41" s="222"/>
-      <c r="B41" s="223"/>
+      <c r="A41" s="237"/>
+      <c r="B41" s="238"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A42" s="222"/>
-      <c r="B42" s="223"/>
+      <c r="A42" s="237"/>
+      <c r="B42" s="238"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A43" s="222"/>
-      <c r="B43" s="223"/>
+      <c r="A43" s="237"/>
+      <c r="B43" s="238"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A44" s="222"/>
-      <c r="B44" s="223"/>
+      <c r="A44" s="237"/>
+      <c r="B44" s="238"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A45" s="222"/>
-      <c r="B45" s="223"/>
+      <c r="A45" s="237"/>
+      <c r="B45" s="238"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A46" s="222"/>
-      <c r="B46" s="223"/>
+      <c r="A46" s="237"/>
+      <c r="B46" s="238"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A47" s="222"/>
-      <c r="B47" s="223"/>
+      <c r="A47" s="237"/>
+      <c r="B47" s="238"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" s="222"/>
-      <c r="B48" s="223"/>
+      <c r="A48" s="237"/>
+      <c r="B48" s="238"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A49" s="222"/>
-      <c r="B49" s="223"/>
+      <c r="A49" s="237"/>
+      <c r="B49" s="238"/>
     </row>
     <row r="50" spans="1:2" ht="6.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="222"/>
-      <c r="B50" s="223"/>
+      <c r="A50" s="237"/>
+      <c r="B50" s="238"/>
     </row>
     <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="222"/>
-      <c r="B51" s="223"/>
+      <c r="A51" s="237"/>
+      <c r="B51" s="238"/>
     </row>
     <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="222"/>
-      <c r="B52" s="223"/>
+      <c r="A52" s="237"/>
+      <c r="B52" s="238"/>
     </row>
     <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="222"/>
-      <c r="B53" s="223"/>
+      <c r="A53" s="237"/>
+      <c r="B53" s="238"/>
     </row>
     <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="222"/>
-      <c r="B54" s="223"/>
+      <c r="A54" s="237"/>
+      <c r="B54" s="238"/>
     </row>
     <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="222"/>
-      <c r="B55" s="223"/>
+      <c r="A55" s="237"/>
+      <c r="B55" s="238"/>
     </row>
     <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="222"/>
-      <c r="B56" s="223"/>
+      <c r="A56" s="237"/>
+      <c r="B56" s="238"/>
     </row>
     <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="222"/>
-      <c r="B57" s="223"/>
+      <c r="A57" s="237"/>
+      <c r="B57" s="238"/>
     </row>
     <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="222"/>
-      <c r="B58" s="223"/>
+      <c r="A58" s="237"/>
+      <c r="B58" s="238"/>
     </row>
     <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="222"/>
-      <c r="B59" s="223"/>
+      <c r="A59" s="237"/>
+      <c r="B59" s="238"/>
     </row>
     <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="222"/>
-      <c r="B60" s="223"/>
+      <c r="A60" s="237"/>
+      <c r="B60" s="238"/>
     </row>
     <row r="61" spans="1:2" ht="72.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="224"/>
-      <c r="B61" s="225"/>
+      <c r="A61" s="239"/>
+      <c r="B61" s="240"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -30431,10 +31268,10 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
@@ -30468,66 +31305,66 @@
       <c r="B6" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="D6" s="228" t="s">
+      <c r="D6" s="243" t="s">
         <v>380</v>
       </c>
-      <c r="E6" s="228"/>
-      <c r="G6" s="229" t="s">
-        <v>485</v>
-      </c>
-      <c r="H6" s="229"/>
-      <c r="I6" s="229"/>
-      <c r="J6" s="229"/>
-      <c r="K6" s="229"/>
-      <c r="L6" s="229"/>
-      <c r="M6" s="229"/>
-      <c r="N6" s="229"/>
-      <c r="O6" s="229"/>
-      <c r="P6" s="229"/>
-      <c r="R6" s="226" t="s">
-        <v>550</v>
-      </c>
-      <c r="S6" s="227"/>
-      <c r="T6" s="227"/>
-      <c r="U6" s="227"/>
-      <c r="V6" s="227"/>
-      <c r="W6" s="227"/>
-      <c r="X6" s="227"/>
-      <c r="Y6" s="227"/>
-      <c r="Z6" s="227"/>
-      <c r="AA6" s="227"/>
-      <c r="AB6" s="227"/>
+      <c r="E6" s="243"/>
+      <c r="G6" s="244" t="s">
+        <v>484</v>
+      </c>
+      <c r="H6" s="244"/>
+      <c r="I6" s="244"/>
+      <c r="J6" s="244"/>
+      <c r="K6" s="244"/>
+      <c r="L6" s="244"/>
+      <c r="M6" s="244"/>
+      <c r="N6" s="244"/>
+      <c r="O6" s="244"/>
+      <c r="P6" s="244"/>
+      <c r="R6" s="241" t="s">
+        <v>549</v>
+      </c>
+      <c r="S6" s="242"/>
+      <c r="T6" s="242"/>
+      <c r="U6" s="242"/>
+      <c r="V6" s="242"/>
+      <c r="W6" s="242"/>
+      <c r="X6" s="242"/>
+      <c r="Y6" s="242"/>
+      <c r="Z6" s="242"/>
+      <c r="AA6" s="242"/>
+      <c r="AB6" s="242"/>
     </row>
     <row r="7" spans="1:28" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>562</v>
-      </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="G7" s="229"/>
-      <c r="H7" s="229"/>
-      <c r="I7" s="229"/>
-      <c r="J7" s="229"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="229"/>
-      <c r="M7" s="229"/>
-      <c r="N7" s="229"/>
-      <c r="O7" s="229"/>
-      <c r="P7" s="229"/>
-      <c r="R7" s="227"/>
-      <c r="S7" s="227"/>
-      <c r="T7" s="227"/>
-      <c r="U7" s="227"/>
-      <c r="V7" s="227"/>
-      <c r="W7" s="227"/>
-      <c r="X7" s="227"/>
-      <c r="Y7" s="227"/>
-      <c r="Z7" s="227"/>
-      <c r="AA7" s="227"/>
-      <c r="AB7" s="227"/>
+        <v>561</v>
+      </c>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="244"/>
+      <c r="L7" s="244"/>
+      <c r="M7" s="244"/>
+      <c r="N7" s="244"/>
+      <c r="O7" s="244"/>
+      <c r="P7" s="244"/>
+      <c r="R7" s="242"/>
+      <c r="S7" s="242"/>
+      <c r="T7" s="242"/>
+      <c r="U7" s="242"/>
+      <c r="V7" s="242"/>
+      <c r="W7" s="242"/>
+      <c r="X7" s="242"/>
+      <c r="Y7" s="242"/>
+      <c r="Z7" s="242"/>
+      <c r="AA7" s="242"/>
+      <c r="AB7" s="242"/>
     </row>
     <row r="8" spans="1:28" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
@@ -30536,29 +31373,29 @@
       <c r="B8" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="229"/>
-      <c r="L8" s="229"/>
-      <c r="M8" s="229"/>
-      <c r="N8" s="229"/>
-      <c r="O8" s="229"/>
-      <c r="P8" s="229"/>
-      <c r="R8" s="227"/>
-      <c r="S8" s="227"/>
-      <c r="T8" s="227"/>
-      <c r="U8" s="227"/>
-      <c r="V8" s="227"/>
-      <c r="W8" s="227"/>
-      <c r="X8" s="227"/>
-      <c r="Y8" s="227"/>
-      <c r="Z8" s="227"/>
-      <c r="AA8" s="227"/>
-      <c r="AB8" s="227"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="G8" s="244"/>
+      <c r="H8" s="244"/>
+      <c r="I8" s="244"/>
+      <c r="J8" s="244"/>
+      <c r="K8" s="244"/>
+      <c r="L8" s="244"/>
+      <c r="M8" s="244"/>
+      <c r="N8" s="244"/>
+      <c r="O8" s="244"/>
+      <c r="P8" s="244"/>
+      <c r="R8" s="242"/>
+      <c r="S8" s="242"/>
+      <c r="T8" s="242"/>
+      <c r="U8" s="242"/>
+      <c r="V8" s="242"/>
+      <c r="W8" s="242"/>
+      <c r="X8" s="242"/>
+      <c r="Y8" s="242"/>
+      <c r="Z8" s="242"/>
+      <c r="AA8" s="242"/>
+      <c r="AB8" s="242"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
@@ -30567,29 +31404,29 @@
       <c r="B9" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="G9" s="229"/>
-      <c r="H9" s="229"/>
-      <c r="I9" s="229"/>
-      <c r="J9" s="229"/>
-      <c r="K9" s="229"/>
-      <c r="L9" s="229"/>
-      <c r="M9" s="229"/>
-      <c r="N9" s="229"/>
-      <c r="O9" s="229"/>
-      <c r="P9" s="229"/>
-      <c r="R9" s="227"/>
-      <c r="S9" s="227"/>
-      <c r="T9" s="227"/>
-      <c r="U9" s="227"/>
-      <c r="V9" s="227"/>
-      <c r="W9" s="227"/>
-      <c r="X9" s="227"/>
-      <c r="Y9" s="227"/>
-      <c r="Z9" s="227"/>
-      <c r="AA9" s="227"/>
-      <c r="AB9" s="227"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="G9" s="244"/>
+      <c r="H9" s="244"/>
+      <c r="I9" s="244"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="244"/>
+      <c r="L9" s="244"/>
+      <c r="M9" s="244"/>
+      <c r="N9" s="244"/>
+      <c r="O9" s="244"/>
+      <c r="P9" s="244"/>
+      <c r="R9" s="242"/>
+      <c r="S9" s="242"/>
+      <c r="T9" s="242"/>
+      <c r="U9" s="242"/>
+      <c r="V9" s="242"/>
+      <c r="W9" s="242"/>
+      <c r="X9" s="242"/>
+      <c r="Y9" s="242"/>
+      <c r="Z9" s="242"/>
+      <c r="AA9" s="242"/>
+      <c r="AB9" s="242"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
@@ -30598,29 +31435,29 @@
       <c r="B10" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="G10" s="229"/>
-      <c r="H10" s="229"/>
-      <c r="I10" s="229"/>
-      <c r="J10" s="229"/>
-      <c r="K10" s="229"/>
-      <c r="L10" s="229"/>
-      <c r="M10" s="229"/>
-      <c r="N10" s="229"/>
-      <c r="O10" s="229"/>
-      <c r="P10" s="229"/>
-      <c r="R10" s="227"/>
-      <c r="S10" s="227"/>
-      <c r="T10" s="227"/>
-      <c r="U10" s="227"/>
-      <c r="V10" s="227"/>
-      <c r="W10" s="227"/>
-      <c r="X10" s="227"/>
-      <c r="Y10" s="227"/>
-      <c r="Z10" s="227"/>
-      <c r="AA10" s="227"/>
-      <c r="AB10" s="227"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="G10" s="244"/>
+      <c r="H10" s="244"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="244"/>
+      <c r="M10" s="244"/>
+      <c r="N10" s="244"/>
+      <c r="O10" s="244"/>
+      <c r="P10" s="244"/>
+      <c r="R10" s="242"/>
+      <c r="S10" s="242"/>
+      <c r="T10" s="242"/>
+      <c r="U10" s="242"/>
+      <c r="V10" s="242"/>
+      <c r="W10" s="242"/>
+      <c r="X10" s="242"/>
+      <c r="Y10" s="242"/>
+      <c r="Z10" s="242"/>
+      <c r="AA10" s="242"/>
+      <c r="AB10" s="242"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
@@ -30629,29 +31466,29 @@
       <c r="B11" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="G11" s="229"/>
-      <c r="H11" s="229"/>
-      <c r="I11" s="229"/>
-      <c r="J11" s="229"/>
-      <c r="K11" s="229"/>
-      <c r="L11" s="229"/>
-      <c r="M11" s="229"/>
-      <c r="N11" s="229"/>
-      <c r="O11" s="229"/>
-      <c r="P11" s="229"/>
-      <c r="R11" s="227"/>
-      <c r="S11" s="227"/>
-      <c r="T11" s="227"/>
-      <c r="U11" s="227"/>
-      <c r="V11" s="227"/>
-      <c r="W11" s="227"/>
-      <c r="X11" s="227"/>
-      <c r="Y11" s="227"/>
-      <c r="Z11" s="227"/>
-      <c r="AA11" s="227"/>
-      <c r="AB11" s="227"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="244"/>
+      <c r="I11" s="244"/>
+      <c r="J11" s="244"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="244"/>
+      <c r="M11" s="244"/>
+      <c r="N11" s="244"/>
+      <c r="O11" s="244"/>
+      <c r="P11" s="244"/>
+      <c r="R11" s="242"/>
+      <c r="S11" s="242"/>
+      <c r="T11" s="242"/>
+      <c r="U11" s="242"/>
+      <c r="V11" s="242"/>
+      <c r="W11" s="242"/>
+      <c r="X11" s="242"/>
+      <c r="Y11" s="242"/>
+      <c r="Z11" s="242"/>
+      <c r="AA11" s="242"/>
+      <c r="AB11" s="242"/>
     </row>
     <row r="12" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
@@ -30660,29 +31497,29 @@
       <c r="B12" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="G12" s="229"/>
-      <c r="H12" s="229"/>
-      <c r="I12" s="229"/>
-      <c r="J12" s="229"/>
-      <c r="K12" s="229"/>
-      <c r="L12" s="229"/>
-      <c r="M12" s="229"/>
-      <c r="N12" s="229"/>
-      <c r="O12" s="229"/>
-      <c r="P12" s="229"/>
-      <c r="R12" s="227"/>
-      <c r="S12" s="227"/>
-      <c r="T12" s="227"/>
-      <c r="U12" s="227"/>
-      <c r="V12" s="227"/>
-      <c r="W12" s="227"/>
-      <c r="X12" s="227"/>
-      <c r="Y12" s="227"/>
-      <c r="Z12" s="227"/>
-      <c r="AA12" s="227"/>
-      <c r="AB12" s="227"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="G12" s="244"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="244"/>
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="244"/>
+      <c r="M12" s="244"/>
+      <c r="N12" s="244"/>
+      <c r="O12" s="244"/>
+      <c r="P12" s="244"/>
+      <c r="R12" s="242"/>
+      <c r="S12" s="242"/>
+      <c r="T12" s="242"/>
+      <c r="U12" s="242"/>
+      <c r="V12" s="242"/>
+      <c r="W12" s="242"/>
+      <c r="X12" s="242"/>
+      <c r="Y12" s="242"/>
+      <c r="Z12" s="242"/>
+      <c r="AA12" s="242"/>
+      <c r="AB12" s="242"/>
     </row>
     <row r="13" spans="1:28" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
@@ -30691,29 +31528,29 @@
       <c r="B13" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="G13" s="229"/>
-      <c r="H13" s="229"/>
-      <c r="I13" s="229"/>
-      <c r="J13" s="229"/>
-      <c r="K13" s="229"/>
-      <c r="L13" s="229"/>
-      <c r="M13" s="229"/>
-      <c r="N13" s="229"/>
-      <c r="O13" s="229"/>
-      <c r="P13" s="229"/>
-      <c r="R13" s="227"/>
-      <c r="S13" s="227"/>
-      <c r="T13" s="227"/>
-      <c r="U13" s="227"/>
-      <c r="V13" s="227"/>
-      <c r="W13" s="227"/>
-      <c r="X13" s="227"/>
-      <c r="Y13" s="227"/>
-      <c r="Z13" s="227"/>
-      <c r="AA13" s="227"/>
-      <c r="AB13" s="227"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="G13" s="244"/>
+      <c r="H13" s="244"/>
+      <c r="I13" s="244"/>
+      <c r="J13" s="244"/>
+      <c r="K13" s="244"/>
+      <c r="L13" s="244"/>
+      <c r="M13" s="244"/>
+      <c r="N13" s="244"/>
+      <c r="O13" s="244"/>
+      <c r="P13" s="244"/>
+      <c r="R13" s="242"/>
+      <c r="S13" s="242"/>
+      <c r="T13" s="242"/>
+      <c r="U13" s="242"/>
+      <c r="V13" s="242"/>
+      <c r="W13" s="242"/>
+      <c r="X13" s="242"/>
+      <c r="Y13" s="242"/>
+      <c r="Z13" s="242"/>
+      <c r="AA13" s="242"/>
+      <c r="AB13" s="242"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
@@ -30722,450 +31559,450 @@
       <c r="B14" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="G14" s="229"/>
-      <c r="H14" s="229"/>
-      <c r="I14" s="229"/>
-      <c r="J14" s="229"/>
-      <c r="K14" s="229"/>
-      <c r="L14" s="229"/>
-      <c r="M14" s="229"/>
-      <c r="N14" s="229"/>
-      <c r="O14" s="229"/>
-      <c r="P14" s="229"/>
-      <c r="R14" s="227"/>
-      <c r="S14" s="227"/>
-      <c r="T14" s="227"/>
-      <c r="U14" s="227"/>
-      <c r="V14" s="227"/>
-      <c r="W14" s="227"/>
-      <c r="X14" s="227"/>
-      <c r="Y14" s="227"/>
-      <c r="Z14" s="227"/>
-      <c r="AA14" s="227"/>
-      <c r="AB14" s="227"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="G14" s="244"/>
+      <c r="H14" s="244"/>
+      <c r="I14" s="244"/>
+      <c r="J14" s="244"/>
+      <c r="K14" s="244"/>
+      <c r="L14" s="244"/>
+      <c r="M14" s="244"/>
+      <c r="N14" s="244"/>
+      <c r="O14" s="244"/>
+      <c r="P14" s="244"/>
+      <c r="R14" s="242"/>
+      <c r="S14" s="242"/>
+      <c r="T14" s="242"/>
+      <c r="U14" s="242"/>
+      <c r="V14" s="242"/>
+      <c r="W14" s="242"/>
+      <c r="X14" s="242"/>
+      <c r="Y14" s="242"/>
+      <c r="Z14" s="242"/>
+      <c r="AA14" s="242"/>
+      <c r="AB14" s="242"/>
     </row>
     <row r="15" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="D15" s="104"/>
-      <c r="E15" s="104"/>
-      <c r="G15" s="229"/>
-      <c r="H15" s="229"/>
-      <c r="I15" s="229"/>
-      <c r="J15" s="229"/>
-      <c r="K15" s="229"/>
-      <c r="L15" s="229"/>
-      <c r="M15" s="229"/>
-      <c r="N15" s="229"/>
-      <c r="O15" s="229"/>
-      <c r="P15" s="229"/>
-      <c r="R15" s="227"/>
-      <c r="S15" s="227"/>
-      <c r="T15" s="227"/>
-      <c r="U15" s="227"/>
-      <c r="V15" s="227"/>
-      <c r="W15" s="227"/>
-      <c r="X15" s="227"/>
-      <c r="Y15" s="227"/>
-      <c r="Z15" s="227"/>
-      <c r="AA15" s="227"/>
-      <c r="AB15" s="227"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="G15" s="244"/>
+      <c r="H15" s="244"/>
+      <c r="I15" s="244"/>
+      <c r="J15" s="244"/>
+      <c r="K15" s="244"/>
+      <c r="L15" s="244"/>
+      <c r="M15" s="244"/>
+      <c r="N15" s="244"/>
+      <c r="O15" s="244"/>
+      <c r="P15" s="244"/>
+      <c r="R15" s="242"/>
+      <c r="S15" s="242"/>
+      <c r="T15" s="242"/>
+      <c r="U15" s="242"/>
+      <c r="V15" s="242"/>
+      <c r="W15" s="242"/>
+      <c r="X15" s="242"/>
+      <c r="Y15" s="242"/>
+      <c r="Z15" s="242"/>
+      <c r="AA15" s="242"/>
+      <c r="AB15" s="242"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="G16" s="229"/>
-      <c r="H16" s="229"/>
-      <c r="I16" s="229"/>
-      <c r="J16" s="229"/>
-      <c r="K16" s="229"/>
-      <c r="L16" s="229"/>
-      <c r="M16" s="229"/>
-      <c r="N16" s="229"/>
-      <c r="O16" s="229"/>
-      <c r="P16" s="229"/>
-      <c r="R16" s="227"/>
-      <c r="S16" s="227"/>
-      <c r="T16" s="227"/>
-      <c r="U16" s="227"/>
-      <c r="V16" s="227"/>
-      <c r="W16" s="227"/>
-      <c r="X16" s="227"/>
-      <c r="Y16" s="227"/>
-      <c r="Z16" s="227"/>
-      <c r="AA16" s="227"/>
-      <c r="AB16" s="227"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="G16" s="244"/>
+      <c r="H16" s="244"/>
+      <c r="I16" s="244"/>
+      <c r="J16" s="244"/>
+      <c r="K16" s="244"/>
+      <c r="L16" s="244"/>
+      <c r="M16" s="244"/>
+      <c r="N16" s="244"/>
+      <c r="O16" s="244"/>
+      <c r="P16" s="244"/>
+      <c r="R16" s="242"/>
+      <c r="S16" s="242"/>
+      <c r="T16" s="242"/>
+      <c r="U16" s="242"/>
+      <c r="V16" s="242"/>
+      <c r="W16" s="242"/>
+      <c r="X16" s="242"/>
+      <c r="Y16" s="242"/>
+      <c r="Z16" s="242"/>
+      <c r="AA16" s="242"/>
+      <c r="AB16" s="242"/>
     </row>
     <row r="17" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="G17" s="229"/>
-      <c r="H17" s="229"/>
-      <c r="I17" s="229"/>
-      <c r="J17" s="229"/>
-      <c r="K17" s="229"/>
-      <c r="L17" s="229"/>
-      <c r="M17" s="229"/>
-      <c r="N17" s="229"/>
-      <c r="O17" s="229"/>
-      <c r="P17" s="229"/>
-      <c r="R17" s="227"/>
-      <c r="S17" s="227"/>
-      <c r="T17" s="227"/>
-      <c r="U17" s="227"/>
-      <c r="V17" s="227"/>
-      <c r="W17" s="227"/>
-      <c r="X17" s="227"/>
-      <c r="Y17" s="227"/>
-      <c r="Z17" s="227"/>
-      <c r="AA17" s="227"/>
-      <c r="AB17" s="227"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="244"/>
+      <c r="I17" s="244"/>
+      <c r="J17" s="244"/>
+      <c r="K17" s="244"/>
+      <c r="L17" s="244"/>
+      <c r="M17" s="244"/>
+      <c r="N17" s="244"/>
+      <c r="O17" s="244"/>
+      <c r="P17" s="244"/>
+      <c r="R17" s="242"/>
+      <c r="S17" s="242"/>
+      <c r="T17" s="242"/>
+      <c r="U17" s="242"/>
+      <c r="V17" s="242"/>
+      <c r="W17" s="242"/>
+      <c r="X17" s="242"/>
+      <c r="Y17" s="242"/>
+      <c r="Z17" s="242"/>
+      <c r="AA17" s="242"/>
+      <c r="AB17" s="242"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D18" s="104"/>
-      <c r="E18" s="104"/>
-      <c r="G18" s="229"/>
-      <c r="H18" s="229"/>
-      <c r="I18" s="229"/>
-      <c r="J18" s="229"/>
-      <c r="K18" s="229"/>
-      <c r="L18" s="229"/>
-      <c r="M18" s="229"/>
-      <c r="N18" s="229"/>
-      <c r="O18" s="229"/>
-      <c r="P18" s="229"/>
-      <c r="R18" s="227"/>
-      <c r="S18" s="227"/>
-      <c r="T18" s="227"/>
-      <c r="U18" s="227"/>
-      <c r="V18" s="227"/>
-      <c r="W18" s="227"/>
-      <c r="X18" s="227"/>
-      <c r="Y18" s="227"/>
-      <c r="Z18" s="227"/>
-      <c r="AA18" s="227"/>
-      <c r="AB18" s="227"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="G18" s="244"/>
+      <c r="H18" s="244"/>
+      <c r="I18" s="244"/>
+      <c r="J18" s="244"/>
+      <c r="K18" s="244"/>
+      <c r="L18" s="244"/>
+      <c r="M18" s="244"/>
+      <c r="N18" s="244"/>
+      <c r="O18" s="244"/>
+      <c r="P18" s="244"/>
+      <c r="R18" s="242"/>
+      <c r="S18" s="242"/>
+      <c r="T18" s="242"/>
+      <c r="U18" s="242"/>
+      <c r="V18" s="242"/>
+      <c r="W18" s="242"/>
+      <c r="X18" s="242"/>
+      <c r="Y18" s="242"/>
+      <c r="Z18" s="242"/>
+      <c r="AA18" s="242"/>
+      <c r="AB18" s="242"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D19" s="104"/>
-      <c r="E19" s="104"/>
-      <c r="G19" s="229"/>
-      <c r="H19" s="229"/>
-      <c r="I19" s="229"/>
-      <c r="J19" s="229"/>
-      <c r="K19" s="229"/>
-      <c r="L19" s="229"/>
-      <c r="M19" s="229"/>
-      <c r="N19" s="229"/>
-      <c r="O19" s="229"/>
-      <c r="P19" s="229"/>
-      <c r="R19" s="227"/>
-      <c r="S19" s="227"/>
-      <c r="T19" s="227"/>
-      <c r="U19" s="227"/>
-      <c r="V19" s="227"/>
-      <c r="W19" s="227"/>
-      <c r="X19" s="227"/>
-      <c r="Y19" s="227"/>
-      <c r="Z19" s="227"/>
-      <c r="AA19" s="227"/>
-      <c r="AB19" s="227"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="G19" s="244"/>
+      <c r="H19" s="244"/>
+      <c r="I19" s="244"/>
+      <c r="J19" s="244"/>
+      <c r="K19" s="244"/>
+      <c r="L19" s="244"/>
+      <c r="M19" s="244"/>
+      <c r="N19" s="244"/>
+      <c r="O19" s="244"/>
+      <c r="P19" s="244"/>
+      <c r="R19" s="242"/>
+      <c r="S19" s="242"/>
+      <c r="T19" s="242"/>
+      <c r="U19" s="242"/>
+      <c r="V19" s="242"/>
+      <c r="W19" s="242"/>
+      <c r="X19" s="242"/>
+      <c r="Y19" s="242"/>
+      <c r="Z19" s="242"/>
+      <c r="AA19" s="242"/>
+      <c r="AB19" s="242"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="G20" s="229"/>
-      <c r="H20" s="229"/>
-      <c r="I20" s="229"/>
-      <c r="J20" s="229"/>
-      <c r="K20" s="229"/>
-      <c r="L20" s="229"/>
-      <c r="M20" s="229"/>
-      <c r="N20" s="229"/>
-      <c r="O20" s="229"/>
-      <c r="P20" s="229"/>
-      <c r="R20" s="227"/>
-      <c r="S20" s="227"/>
-      <c r="T20" s="227"/>
-      <c r="U20" s="227"/>
-      <c r="V20" s="227"/>
-      <c r="W20" s="227"/>
-      <c r="X20" s="227"/>
-      <c r="Y20" s="227"/>
-      <c r="Z20" s="227"/>
-      <c r="AA20" s="227"/>
-      <c r="AB20" s="227"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="G20" s="244"/>
+      <c r="H20" s="244"/>
+      <c r="I20" s="244"/>
+      <c r="J20" s="244"/>
+      <c r="K20" s="244"/>
+      <c r="L20" s="244"/>
+      <c r="M20" s="244"/>
+      <c r="N20" s="244"/>
+      <c r="O20" s="244"/>
+      <c r="P20" s="244"/>
+      <c r="R20" s="242"/>
+      <c r="S20" s="242"/>
+      <c r="T20" s="242"/>
+      <c r="U20" s="242"/>
+      <c r="V20" s="242"/>
+      <c r="W20" s="242"/>
+      <c r="X20" s="242"/>
+      <c r="Y20" s="242"/>
+      <c r="Z20" s="242"/>
+      <c r="AA20" s="242"/>
+      <c r="AB20" s="242"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
-      <c r="G21" s="229"/>
-      <c r="H21" s="229"/>
-      <c r="I21" s="229"/>
-      <c r="J21" s="229"/>
-      <c r="K21" s="229"/>
-      <c r="L21" s="229"/>
-      <c r="M21" s="229"/>
-      <c r="N21" s="229"/>
-      <c r="O21" s="229"/>
-      <c r="P21" s="229"/>
-      <c r="R21" s="227"/>
-      <c r="S21" s="227"/>
-      <c r="T21" s="227"/>
-      <c r="U21" s="227"/>
-      <c r="V21" s="227"/>
-      <c r="W21" s="227"/>
-      <c r="X21" s="227"/>
-      <c r="Y21" s="227"/>
-      <c r="Z21" s="227"/>
-      <c r="AA21" s="227"/>
-      <c r="AB21" s="227"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="244"/>
+      <c r="I21" s="244"/>
+      <c r="J21" s="244"/>
+      <c r="K21" s="244"/>
+      <c r="L21" s="244"/>
+      <c r="M21" s="244"/>
+      <c r="N21" s="244"/>
+      <c r="O21" s="244"/>
+      <c r="P21" s="244"/>
+      <c r="R21" s="242"/>
+      <c r="S21" s="242"/>
+      <c r="T21" s="242"/>
+      <c r="U21" s="242"/>
+      <c r="V21" s="242"/>
+      <c r="W21" s="242"/>
+      <c r="X21" s="242"/>
+      <c r="Y21" s="242"/>
+      <c r="Z21" s="242"/>
+      <c r="AA21" s="242"/>
+      <c r="AB21" s="242"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="G22" s="229"/>
-      <c r="H22" s="229"/>
-      <c r="I22" s="229"/>
-      <c r="J22" s="229"/>
-      <c r="K22" s="229"/>
-      <c r="L22" s="229"/>
-      <c r="M22" s="229"/>
-      <c r="N22" s="229"/>
-      <c r="O22" s="229"/>
-      <c r="P22" s="229"/>
-      <c r="R22" s="227"/>
-      <c r="S22" s="227"/>
-      <c r="T22" s="227"/>
-      <c r="U22" s="227"/>
-      <c r="V22" s="227"/>
-      <c r="W22" s="227"/>
-      <c r="X22" s="227"/>
-      <c r="Y22" s="227"/>
-      <c r="Z22" s="227"/>
-      <c r="AA22" s="227"/>
-      <c r="AB22" s="227"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="G22" s="244"/>
+      <c r="H22" s="244"/>
+      <c r="I22" s="244"/>
+      <c r="J22" s="244"/>
+      <c r="K22" s="244"/>
+      <c r="L22" s="244"/>
+      <c r="M22" s="244"/>
+      <c r="N22" s="244"/>
+      <c r="O22" s="244"/>
+      <c r="P22" s="244"/>
+      <c r="R22" s="242"/>
+      <c r="S22" s="242"/>
+      <c r="T22" s="242"/>
+      <c r="U22" s="242"/>
+      <c r="V22" s="242"/>
+      <c r="W22" s="242"/>
+      <c r="X22" s="242"/>
+      <c r="Y22" s="242"/>
+      <c r="Z22" s="242"/>
+      <c r="AA22" s="242"/>
+      <c r="AB22" s="242"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="G23" s="229"/>
-      <c r="H23" s="229"/>
-      <c r="I23" s="229"/>
-      <c r="J23" s="229"/>
-      <c r="K23" s="229"/>
-      <c r="L23" s="229"/>
-      <c r="M23" s="229"/>
-      <c r="N23" s="229"/>
-      <c r="O23" s="229"/>
-      <c r="P23" s="229"/>
-      <c r="R23" s="227"/>
-      <c r="S23" s="227"/>
-      <c r="T23" s="227"/>
-      <c r="U23" s="227"/>
-      <c r="V23" s="227"/>
-      <c r="W23" s="227"/>
-      <c r="X23" s="227"/>
-      <c r="Y23" s="227"/>
-      <c r="Z23" s="227"/>
-      <c r="AA23" s="227"/>
-      <c r="AB23" s="227"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="244"/>
+      <c r="J23" s="244"/>
+      <c r="K23" s="244"/>
+      <c r="L23" s="244"/>
+      <c r="M23" s="244"/>
+      <c r="N23" s="244"/>
+      <c r="O23" s="244"/>
+      <c r="P23" s="244"/>
+      <c r="R23" s="242"/>
+      <c r="S23" s="242"/>
+      <c r="T23" s="242"/>
+      <c r="U23" s="242"/>
+      <c r="V23" s="242"/>
+      <c r="W23" s="242"/>
+      <c r="X23" s="242"/>
+      <c r="Y23" s="242"/>
+      <c r="Z23" s="242"/>
+      <c r="AA23" s="242"/>
+      <c r="AB23" s="242"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="G24" s="229"/>
-      <c r="H24" s="229"/>
-      <c r="I24" s="229"/>
-      <c r="J24" s="229"/>
-      <c r="K24" s="229"/>
-      <c r="L24" s="229"/>
-      <c r="M24" s="229"/>
-      <c r="N24" s="229"/>
-      <c r="O24" s="229"/>
-      <c r="P24" s="229"/>
-      <c r="R24" s="227"/>
-      <c r="S24" s="227"/>
-      <c r="T24" s="227"/>
-      <c r="U24" s="227"/>
-      <c r="V24" s="227"/>
-      <c r="W24" s="227"/>
-      <c r="X24" s="227"/>
-      <c r="Y24" s="227"/>
-      <c r="Z24" s="227"/>
-      <c r="AA24" s="227"/>
-      <c r="AB24" s="227"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="G24" s="244"/>
+      <c r="H24" s="244"/>
+      <c r="I24" s="244"/>
+      <c r="J24" s="244"/>
+      <c r="K24" s="244"/>
+      <c r="L24" s="244"/>
+      <c r="M24" s="244"/>
+      <c r="N24" s="244"/>
+      <c r="O24" s="244"/>
+      <c r="P24" s="244"/>
+      <c r="R24" s="242"/>
+      <c r="S24" s="242"/>
+      <c r="T24" s="242"/>
+      <c r="U24" s="242"/>
+      <c r="V24" s="242"/>
+      <c r="W24" s="242"/>
+      <c r="X24" s="242"/>
+      <c r="Y24" s="242"/>
+      <c r="Z24" s="242"/>
+      <c r="AA24" s="242"/>
+      <c r="AB24" s="242"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D25" s="104"/>
-      <c r="E25" s="104"/>
-      <c r="G25" s="229"/>
-      <c r="H25" s="229"/>
-      <c r="I25" s="229"/>
-      <c r="J25" s="229"/>
-      <c r="K25" s="229"/>
-      <c r="L25" s="229"/>
-      <c r="M25" s="229"/>
-      <c r="N25" s="229"/>
-      <c r="O25" s="229"/>
-      <c r="P25" s="229"/>
-      <c r="R25" s="227"/>
-      <c r="S25" s="227"/>
-      <c r="T25" s="227"/>
-      <c r="U25" s="227"/>
-      <c r="V25" s="227"/>
-      <c r="W25" s="227"/>
-      <c r="X25" s="227"/>
-      <c r="Y25" s="227"/>
-      <c r="Z25" s="227"/>
-      <c r="AA25" s="227"/>
-      <c r="AB25" s="227"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="G25" s="244"/>
+      <c r="H25" s="244"/>
+      <c r="I25" s="244"/>
+      <c r="J25" s="244"/>
+      <c r="K25" s="244"/>
+      <c r="L25" s="244"/>
+      <c r="M25" s="244"/>
+      <c r="N25" s="244"/>
+      <c r="O25" s="244"/>
+      <c r="P25" s="244"/>
+      <c r="R25" s="242"/>
+      <c r="S25" s="242"/>
+      <c r="T25" s="242"/>
+      <c r="U25" s="242"/>
+      <c r="V25" s="242"/>
+      <c r="W25" s="242"/>
+      <c r="X25" s="242"/>
+      <c r="Y25" s="242"/>
+      <c r="Z25" s="242"/>
+      <c r="AA25" s="242"/>
+      <c r="AB25" s="242"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="G26" s="229"/>
-      <c r="H26" s="229"/>
-      <c r="I26" s="229"/>
-      <c r="J26" s="229"/>
-      <c r="K26" s="229"/>
-      <c r="L26" s="229"/>
-      <c r="M26" s="229"/>
-      <c r="N26" s="229"/>
-      <c r="O26" s="229"/>
-      <c r="P26" s="229"/>
-      <c r="R26" s="227"/>
-      <c r="S26" s="227"/>
-      <c r="T26" s="227"/>
-      <c r="U26" s="227"/>
-      <c r="V26" s="227"/>
-      <c r="W26" s="227"/>
-      <c r="X26" s="227"/>
-      <c r="Y26" s="227"/>
-      <c r="Z26" s="227"/>
-      <c r="AA26" s="227"/>
-      <c r="AB26" s="227"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="244"/>
+      <c r="I26" s="244"/>
+      <c r="J26" s="244"/>
+      <c r="K26" s="244"/>
+      <c r="L26" s="244"/>
+      <c r="M26" s="244"/>
+      <c r="N26" s="244"/>
+      <c r="O26" s="244"/>
+      <c r="P26" s="244"/>
+      <c r="R26" s="242"/>
+      <c r="S26" s="242"/>
+      <c r="T26" s="242"/>
+      <c r="U26" s="242"/>
+      <c r="V26" s="242"/>
+      <c r="W26" s="242"/>
+      <c r="X26" s="242"/>
+      <c r="Y26" s="242"/>
+      <c r="Z26" s="242"/>
+      <c r="AA26" s="242"/>
+      <c r="AB26" s="242"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="G27" s="229"/>
-      <c r="H27" s="229"/>
-      <c r="I27" s="229"/>
-      <c r="J27" s="229"/>
-      <c r="K27" s="229"/>
-      <c r="L27" s="229"/>
-      <c r="M27" s="229"/>
-      <c r="N27" s="229"/>
-      <c r="O27" s="229"/>
-      <c r="P27" s="229"/>
-      <c r="R27" s="227"/>
-      <c r="S27" s="227"/>
-      <c r="T27" s="227"/>
-      <c r="U27" s="227"/>
-      <c r="V27" s="227"/>
-      <c r="W27" s="227"/>
-      <c r="X27" s="227"/>
-      <c r="Y27" s="227"/>
-      <c r="Z27" s="227"/>
-      <c r="AA27" s="227"/>
-      <c r="AB27" s="227"/>
+      <c r="G27" s="244"/>
+      <c r="H27" s="244"/>
+      <c r="I27" s="244"/>
+      <c r="J27" s="244"/>
+      <c r="K27" s="244"/>
+      <c r="L27" s="244"/>
+      <c r="M27" s="244"/>
+      <c r="N27" s="244"/>
+      <c r="O27" s="244"/>
+      <c r="P27" s="244"/>
+      <c r="R27" s="242"/>
+      <c r="S27" s="242"/>
+      <c r="T27" s="242"/>
+      <c r="U27" s="242"/>
+      <c r="V27" s="242"/>
+      <c r="W27" s="242"/>
+      <c r="X27" s="242"/>
+      <c r="Y27" s="242"/>
+      <c r="Z27" s="242"/>
+      <c r="AA27" s="242"/>
+      <c r="AB27" s="242"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="G28" s="229"/>
-      <c r="H28" s="229"/>
-      <c r="I28" s="229"/>
-      <c r="J28" s="229"/>
-      <c r="K28" s="229"/>
-      <c r="L28" s="229"/>
-      <c r="M28" s="229"/>
-      <c r="N28" s="229"/>
-      <c r="O28" s="229"/>
-      <c r="P28" s="229"/>
-      <c r="R28" s="227"/>
-      <c r="S28" s="227"/>
-      <c r="T28" s="227"/>
-      <c r="U28" s="227"/>
-      <c r="V28" s="227"/>
-      <c r="W28" s="227"/>
-      <c r="X28" s="227"/>
-      <c r="Y28" s="227"/>
-      <c r="Z28" s="227"/>
-      <c r="AA28" s="227"/>
-      <c r="AB28" s="227"/>
+      <c r="G28" s="244"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="244"/>
+      <c r="J28" s="244"/>
+      <c r="K28" s="244"/>
+      <c r="L28" s="244"/>
+      <c r="M28" s="244"/>
+      <c r="N28" s="244"/>
+      <c r="O28" s="244"/>
+      <c r="P28" s="244"/>
+      <c r="R28" s="242"/>
+      <c r="S28" s="242"/>
+      <c r="T28" s="242"/>
+      <c r="U28" s="242"/>
+      <c r="V28" s="242"/>
+      <c r="W28" s="242"/>
+      <c r="X28" s="242"/>
+      <c r="Y28" s="242"/>
+      <c r="Z28" s="242"/>
+      <c r="AA28" s="242"/>
+      <c r="AB28" s="242"/>
     </row>
     <row r="29" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="D30" s="230" t="s">
-        <v>853</v>
-      </c>
-      <c r="E30" s="231"/>
+      <c r="D30" s="245" t="s">
+        <v>847</v>
+      </c>
+      <c r="E30" s="246"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D31" s="232"/>
-      <c r="E31" s="233"/>
+      <c r="D31" s="247"/>
+      <c r="E31" s="248"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.45">
-      <c r="D32" s="232"/>
-      <c r="E32" s="233"/>
+      <c r="D32" s="247"/>
+      <c r="E32" s="248"/>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D33" s="232"/>
-      <c r="E33" s="233"/>
+      <c r="D33" s="247"/>
+      <c r="E33" s="248"/>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D34" s="232"/>
-      <c r="E34" s="233"/>
+      <c r="D34" s="247"/>
+      <c r="E34" s="248"/>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D35" s="232"/>
-      <c r="E35" s="233"/>
+      <c r="D35" s="247"/>
+      <c r="E35" s="248"/>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D36" s="232"/>
-      <c r="E36" s="233"/>
+      <c r="D36" s="247"/>
+      <c r="E36" s="248"/>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D37" s="232"/>
-      <c r="E37" s="233"/>
+      <c r="D37" s="247"/>
+      <c r="E37" s="248"/>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D38" s="232"/>
-      <c r="E38" s="233"/>
+      <c r="D38" s="247"/>
+      <c r="E38" s="248"/>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D39" s="232"/>
-      <c r="E39" s="233"/>
+      <c r="D39" s="247"/>
+      <c r="E39" s="248"/>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D40" s="232"/>
-      <c r="E40" s="233"/>
+      <c r="D40" s="247"/>
+      <c r="E40" s="248"/>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D41" s="232"/>
-      <c r="E41" s="233"/>
+      <c r="D41" s="247"/>
+      <c r="E41" s="248"/>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D42" s="232"/>
-      <c r="E42" s="233"/>
+      <c r="D42" s="247"/>
+      <c r="E42" s="248"/>
     </row>
     <row r="43" spans="4:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="D43" s="234"/>
-      <c r="E43" s="235"/>
+      <c r="D43" s="249"/>
+      <c r="E43" s="250"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -31187,7 +32024,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="42" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31200,10 +32037,10 @@
     <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="64" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
   </sheetData>
@@ -31215,8 +32052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="67" zoomScaleNormal="42" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView topLeftCell="A82" zoomScale="67" zoomScaleNormal="42" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31269,17 +32106,17 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="169.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="138" t="s">
+      <c r="A6" s="129" t="s">
         <v>409</v>
       </c>
-      <c r="B6" s="139"/>
+      <c r="B6" s="130"/>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="57" t="s">
+        <v>607</v>
+      </c>
+      <c r="B7" s="44" t="s">
         <v>608</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -31299,28 +32136,28 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="111.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="87" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="86"/>
+      <c r="B10" s="88"/>
     </row>
     <row r="11" spans="1:2" ht="142.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="87" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="86"/>
+      <c r="B11" s="88"/>
     </row>
     <row r="12" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="87" t="s">
         <v>177</v>
       </c>
-      <c r="B12" s="86"/>
+      <c r="B12" s="88"/>
     </row>
     <row r="13" spans="1:2" ht="138.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="86"/>
+      <c r="B13" s="88"/>
     </row>
     <row r="14" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
@@ -31331,20 +32168,20 @@
       </c>
     </row>
     <row r="15" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="85" t="s">
-        <v>539</v>
-      </c>
-      <c r="B15" s="86"/>
+      <c r="A15" s="87" t="s">
+        <v>538</v>
+      </c>
+      <c r="B15" s="88"/>
     </row>
     <row r="16" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="87" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="86"/>
+      <c r="B16" s="88"/>
     </row>
     <row r="17" spans="1:2" ht="56.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>252</v>
@@ -31375,16 +32212,16 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="226.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="145" t="s">
-        <v>767</v>
-      </c>
-      <c r="B21" s="146"/>
+      <c r="A21" s="123" t="s">
+        <v>766</v>
+      </c>
+      <c r="B21" s="124"/>
     </row>
     <row r="22" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="89" t="s">
         <v>307</v>
       </c>
-      <c r="B22" s="88"/>
+      <c r="B22" s="90"/>
     </row>
     <row r="23" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A23" s="14" t="s">
@@ -31427,10 +32264,10 @@
       </c>
     </row>
     <row r="28" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="87" t="s">
+      <c r="A28" s="89" t="s">
         <v>318</v>
       </c>
-      <c r="B28" s="88"/>
+      <c r="B28" s="90"/>
     </row>
     <row r="29" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
@@ -31458,17 +32295,17 @@
     </row>
     <row r="32" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B33" s="123" t="s">
+      <c r="B33" s="127" t="s">
         <v>371</v>
       </c>
     </row>
@@ -31476,36 +32313,36 @@
       <c r="A34" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="B34" s="124"/>
+      <c r="B34" s="128"/>
     </row>
     <row r="35" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A35" s="75" t="s">
+        <v>771</v>
+      </c>
+      <c r="B35" s="76" t="s">
         <v>772</v>
       </c>
-      <c r="B35" s="76" t="s">
-        <v>773</v>
-      </c>
-      <c r="C35" s="125" t="s">
-        <v>797</v>
+      <c r="C35" s="139" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A36" s="75" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>798</v>
-      </c>
-      <c r="C36" s="126"/>
+        <v>797</v>
+      </c>
+      <c r="C36" s="140"/>
     </row>
     <row r="37" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A37" s="75" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="B37" s="76" t="s">
-        <v>796</v>
-      </c>
-      <c r="C37" s="127"/>
+        <v>795</v>
+      </c>
+      <c r="C37" s="141"/>
     </row>
     <row r="38" spans="1:3" ht="141" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
@@ -31549,334 +32386,334 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>788</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>526</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>533</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>786</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="B48" s="6" t="s">
+    </row>
+    <row r="49" spans="1:4" ht="243" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="93" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="243" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="91" t="s">
-        <v>538</v>
-      </c>
-      <c r="B49" s="92"/>
+      <c r="B49" s="94"/>
     </row>
     <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>546</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="B52" s="6" t="s">
-        <v>770</v>
-      </c>
     </row>
     <row r="53" spans="1:4" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="122" t="s">
-        <v>564</v>
-      </c>
-      <c r="B53" s="102"/>
+      <c r="A53" s="126" t="s">
+        <v>563</v>
+      </c>
+      <c r="B53" s="104"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>740</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="C56" s="147" t="s">
-        <v>763</v>
-      </c>
-      <c r="D56" s="147"/>
+        <v>760</v>
+      </c>
+      <c r="C56" s="131" t="s">
+        <v>762</v>
+      </c>
+      <c r="D56" s="131"/>
     </row>
     <row r="57" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>762</v>
-      </c>
-      <c r="C57" s="147"/>
-      <c r="D57" s="147"/>
+        <v>761</v>
+      </c>
+      <c r="C57" s="131"/>
+      <c r="D57" s="131"/>
     </row>
     <row r="58" spans="1:4" ht="287.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="143" t="s">
-        <v>795</v>
-      </c>
-      <c r="B58" s="144"/>
+      <c r="A58" s="155" t="s">
+        <v>794</v>
+      </c>
+      <c r="B58" s="156"/>
     </row>
     <row r="59" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="145" t="s">
-        <v>768</v>
-      </c>
-      <c r="B59" s="146"/>
+      <c r="A59" s="123" t="s">
+        <v>767</v>
+      </c>
+      <c r="B59" s="124"/>
     </row>
     <row r="60" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>774</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>775</v>
-      </c>
     </row>
     <row r="61" spans="1:4" ht="184.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="121" t="s">
-        <v>799</v>
-      </c>
-      <c r="B61" s="121"/>
+      <c r="A61" s="125" t="s">
+        <v>798</v>
+      </c>
+      <c r="B61" s="125"/>
     </row>
     <row r="62" spans="1:4" ht="246" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="B62" s="63" t="s">
         <v>790</v>
       </c>
-      <c r="B62" s="63" t="s">
+      <c r="C62" s="152" t="s">
         <v>791</v>
-      </c>
-      <c r="C62" s="140" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B63" s="63" t="s">
         <v>776</v>
       </c>
-      <c r="B63" s="63" t="s">
-        <v>777</v>
-      </c>
-      <c r="C63" s="141"/>
+      <c r="C63" s="153"/>
     </row>
     <row r="64" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B64" s="63" t="s">
-        <v>778</v>
-      </c>
-      <c r="C64" s="141"/>
+        <v>777</v>
+      </c>
+      <c r="C64" s="153"/>
     </row>
     <row r="65" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="B65" s="63" t="s">
         <v>779</v>
       </c>
-      <c r="B65" s="63" t="s">
-        <v>780</v>
-      </c>
-      <c r="C65" s="142"/>
+      <c r="C65" s="154"/>
     </row>
     <row r="66" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>782</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>784</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>793</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A69" s="14" t="s">
+        <v>801</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>802</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>804</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A71" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>828</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="85.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A72" s="5" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A73" s="75" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="B73" s="82" t="s">
+        <v>866</v>
+      </c>
+      <c r="C73" s="143" t="s">
         <v>872</v>
-      </c>
-      <c r="C73" s="129" t="s">
-        <v>878</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="B74" s="63" t="s">
-        <v>873</v>
-      </c>
-      <c r="C74" s="130"/>
+        <v>867</v>
+      </c>
+      <c r="C74" s="144"/>
     </row>
     <row r="75" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="B75" s="63" t="s">
-        <v>876</v>
-      </c>
-      <c r="C75" s="130"/>
+        <v>870</v>
+      </c>
+      <c r="C75" s="144"/>
     </row>
     <row r="76" spans="1:3" ht="179.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="87" t="s">
-        <v>879</v>
-      </c>
-      <c r="B76" s="128"/>
-      <c r="C76" s="131"/>
+      <c r="A76" s="89" t="s">
+        <v>873</v>
+      </c>
+      <c r="B76" s="142"/>
+      <c r="C76" s="145"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="132" t="s">
-        <v>877</v>
-      </c>
-      <c r="B77" s="133"/>
+      <c r="A77" s="146" t="s">
+        <v>871</v>
+      </c>
+      <c r="B77" s="147"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="134"/>
-      <c r="B78" s="135"/>
+      <c r="A78" s="148"/>
+      <c r="B78" s="149"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="134"/>
-      <c r="B79" s="135"/>
+      <c r="A79" s="148"/>
+      <c r="B79" s="149"/>
     </row>
     <row r="80" spans="1:3" ht="249.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="136"/>
-      <c r="B80" s="137"/>
+      <c r="A80" s="150"/>
+      <c r="B80" s="151"/>
     </row>
     <row r="81" spans="1:3" ht="262.89999999999998" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A82" s="5" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="236" t="s">
-        <v>884</v>
-      </c>
-      <c r="B83" s="237"/>
-      <c r="C83" s="240" t="s">
-        <v>885</v>
+      <c r="A83" s="132" t="s">
+        <v>878</v>
+      </c>
+      <c r="B83" s="133"/>
+      <c r="C83" s="136" t="s">
+        <v>879</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="95"/>
-      <c r="B84" s="238"/>
-      <c r="C84" s="241"/>
+      <c r="A84" s="97"/>
+      <c r="B84" s="134"/>
+      <c r="C84" s="137"/>
     </row>
     <row r="85" spans="1:3" ht="168.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="97"/>
-      <c r="B85" s="239"/>
-      <c r="C85" s="242"/>
+      <c r="A85" s="99"/>
+      <c r="B85" s="135"/>
+      <c r="C85" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -31887,6 +32724,9 @@
     <mergeCell ref="A76:B76"/>
     <mergeCell ref="C73:C76"/>
     <mergeCell ref="A77:B80"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
@@ -31894,9 +32734,6 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A61:B61"/>
@@ -31939,65 +32776,65 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="323.64999999999998" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="176.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="366.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="315.39999999999998" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="310.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="320.64999999999998" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="123"/>
-      <c r="B8" s="148" t="s">
-        <v>863</v>
+      <c r="A8" s="127"/>
+      <c r="B8" s="157" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="124"/>
-      <c r="B9" s="149"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="158"/>
     </row>
     <row r="10" spans="1:2" ht="266.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="190.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
   </sheetData>
@@ -32015,8 +32852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{360DF22D-9E64-4268-887F-33B2EE850176}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A11" zoomScale="81" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32078,48 +32915,49 @@
     </row>
     <row r="8" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="159" t="s">
         <v>328</v>
       </c>
-      <c r="D9" s="151"/>
+      <c r="D9" s="160"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C10" s="152"/>
-      <c r="D10" s="153"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="162"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C11" s="152"/>
-      <c r="D11" s="153"/>
+      <c r="C11" s="161"/>
+      <c r="D11" s="162"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C12" s="152"/>
-      <c r="D12" s="153"/>
+      <c r="C12" s="161"/>
+      <c r="D12" s="162"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C13" s="152"/>
-      <c r="D13" s="153"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="162"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C14" s="152"/>
-      <c r="D14" s="153"/>
+      <c r="C14" s="161"/>
+      <c r="D14" s="162"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C15" s="152"/>
-      <c r="D15" s="153"/>
+      <c r="C15" s="161"/>
+      <c r="D15" s="162"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="C16" s="152"/>
-      <c r="D16" s="153"/>
+      <c r="C16" s="161"/>
+      <c r="D16" s="162"/>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.45">
-      <c r="C17" s="152"/>
-      <c r="D17" s="153"/>
+      <c r="C17" s="161"/>
+      <c r="D17" s="162"/>
     </row>
     <row r="18" spans="3:4" ht="219" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="164"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="7QC0XeF0q0mjpkx0EkI8ZrPnTnocrWn2onVfjXU3HUYgHjd7FI7THqvI2r8N3pkELPqkwVbUdr2UR4WbbgSrYw==" saltValue="oXz9uO+eUptUNPHgZcFLvg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="C9:D18"/>
   </mergeCells>
@@ -32210,24 +33048,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -32248,7 +33086,7 @@
       <c r="B7" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="123" t="s">
+      <c r="C7" s="127" t="s">
         <v>204</v>
       </c>
     </row>
@@ -32259,7 +33097,7 @@
       <c r="B8" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="124"/>
+      <c r="C8" s="128"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
@@ -32268,18 +33106,18 @@
       <c r="B9" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="123" t="s">
+      <c r="C9" s="127" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="C10" s="105"/>
+      <c r="C10" s="107"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
@@ -32288,38 +33126,38 @@
       <c r="B11" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="124"/>
+      <c r="C11" s="128"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="123" t="s">
+      <c r="C14" s="127" t="s">
         <v>217</v>
       </c>
     </row>
@@ -32330,14 +33168,14 @@
       <c r="B15" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="124"/>
+      <c r="C15" s="128"/>
     </row>
     <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>633</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>634</v>
       </c>
       <c r="C16" s="66" t="s">
         <v>446</v>
@@ -32367,23 +33205,23 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="123" t="s">
-        <v>636</v>
+      <c r="C19" s="127" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="124"/>
+      <c r="C20" s="128"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
@@ -32453,108 +33291,108 @@
     </row>
     <row r="27" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>732</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="285" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="156" t="s">
-        <v>706</v>
-      </c>
-      <c r="B35" s="157"/>
-      <c r="C35" s="158"/>
+      <c r="A35" s="165" t="s">
+        <v>705</v>
+      </c>
+      <c r="B35" s="166"/>
+      <c r="C35" s="167"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" s="68" t="s">
+        <v>677</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>640</v>
+      </c>
+      <c r="C52" s="34" t="s">
         <v>678</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>641</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="57" x14ac:dyDescent="0.45">
@@ -32562,321 +33400,321 @@
         <v>216</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C56" s="6" t="s">
         <v>644</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>646</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>649</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C59" s="6" t="s">
+    </row>
+    <row r="60" spans="1:3" ht="175.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="177" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="175.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="168" t="s">
+      <c r="B60" s="177"/>
+      <c r="C60" s="177"/>
+    </row>
+    <row r="61" spans="1:3" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="165" t="s">
         <v>653</v>
       </c>
-      <c r="B60" s="168"/>
-      <c r="C60" s="168"/>
-    </row>
-    <row r="61" spans="1:3" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="156" t="s">
-        <v>654</v>
-      </c>
-      <c r="B61" s="157"/>
-      <c r="C61" s="158"/>
+      <c r="B61" s="166"/>
+      <c r="C61" s="167"/>
     </row>
     <row r="62" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>656</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="157.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A65" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C66" s="63" t="s">
-        <v>662</v>
-      </c>
-      <c r="D66" s="159" t="s">
-        <v>695</v>
-      </c>
-      <c r="E66" s="160"/>
-      <c r="F66" s="160"/>
-      <c r="G66" s="161"/>
+        <v>661</v>
+      </c>
+      <c r="D66" s="168" t="s">
+        <v>694</v>
+      </c>
+      <c r="E66" s="169"/>
+      <c r="F66" s="169"/>
+      <c r="G66" s="170"/>
     </row>
     <row r="67" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C67" s="63" t="s">
-        <v>663</v>
-      </c>
-      <c r="D67" s="162"/>
-      <c r="E67" s="163"/>
-      <c r="F67" s="163"/>
-      <c r="G67" s="164"/>
+        <v>662</v>
+      </c>
+      <c r="D67" s="171"/>
+      <c r="E67" s="172"/>
+      <c r="F67" s="172"/>
+      <c r="G67" s="173"/>
     </row>
     <row r="68" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C68" s="63" t="s">
-        <v>672</v>
-      </c>
-      <c r="D68" s="162"/>
-      <c r="E68" s="163"/>
-      <c r="F68" s="163"/>
-      <c r="G68" s="164"/>
+        <v>671</v>
+      </c>
+      <c r="D68" s="171"/>
+      <c r="E68" s="172"/>
+      <c r="F68" s="172"/>
+      <c r="G68" s="173"/>
     </row>
     <row r="69" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C69" s="63" t="s">
         <v>667</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C69" s="63" t="s">
-        <v>668</v>
-      </c>
-      <c r="D69" s="162"/>
-      <c r="E69" s="163"/>
-      <c r="F69" s="163"/>
-      <c r="G69" s="164"/>
+      <c r="D69" s="171"/>
+      <c r="E69" s="172"/>
+      <c r="F69" s="172"/>
+      <c r="G69" s="173"/>
     </row>
     <row r="70" spans="1:7" ht="100.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A70" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C70" s="63" t="s">
-        <v>677</v>
-      </c>
-      <c r="D70" s="165"/>
-      <c r="E70" s="166"/>
-      <c r="F70" s="166"/>
-      <c r="G70" s="167"/>
+        <v>676</v>
+      </c>
+      <c r="D70" s="174"/>
+      <c r="E70" s="175"/>
+      <c r="F70" s="175"/>
+      <c r="G70" s="176"/>
     </row>
     <row r="71" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>670</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>674</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>696</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>698</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>700</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>693</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>707</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -32943,82 +33781,82 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>463</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>471</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>473</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>465</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="40" t="s">
+        <v>466</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>467</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>469</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A10" s="40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A11" s="40" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A12" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>481</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="40" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>

--- a/Notes.xlsx
+++ b/Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Geek_space\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{000D274C-5FDA-48FE-85AF-9511F5C6BD8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E68596-0686-400E-A311-A862D0248084}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10546" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="14" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="901">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="920">
   <si>
     <t>command</t>
   </si>
@@ -3376,9 +3376,6 @@
     </r>
   </si>
   <si>
-    <t>npm i -D &lt;package name(s)&gt;</t>
-  </si>
-  <si>
     <t>create react app manually(as part of Django-app)</t>
   </si>
   <si>
@@ -11357,39 +11354,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">import Moment from 'react-moment';
-&lt;Moment
-										date={ item.aptDate }
-										parse="YYYY-MM-DD hh:mm"
-										format="MMM-D h:mma"
-									/&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">or,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Moment format="MMM-D, YYYY h:mma"&gt;{launch_date_local}&lt;/Moment&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">using a dynamic variable in </t>
     </r>
     <r>
@@ -12220,145 +12184,6 @@
     <t>drop a collection</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">To start a mongoDB CLI,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1. navigate to the location of mongoDB server-
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">C:\Program Files\MongoDB\Server\4.4\bin&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2. execute </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">mongodb.exe
-ctrl+C to exit terminal
-Note:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">In mongoDB, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">collection </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is equivalent to table.
-There is no schema involved ass all data are in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">key-value or json </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">format.
-So each </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">collection </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">contains a set of key-value data called </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>documents</t>
-    </r>
-  </si>
-  <si>
     <t>MongoDB supports JSON and BSON.
 BSON is binary-encoded JSON and suppports additional data types- date, timestamp, object ID</t>
   </si>
@@ -12671,35 +12496,6 @@
   </si>
   <si>
     <t>find the first document satisfying a criteria and delete it(it displays the document in console and then deletes it)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">update documents-
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">note:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. as part of update, fields can be updated, new fields added as well,
-2. document content will bereplaced with the data provided</t>
-    </r>
   </si>
   <si>
     <t>db.col_name.remove({})</t>
@@ -15408,9 +15204,6 @@
   </si>
   <si>
     <t>python manage.py makemigrations --dry-run</t>
-  </si>
-  <si>
-    <t>displays migrations without actually creating the migration files</t>
   </si>
   <si>
     <r>
@@ -16284,154 +16077,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>inspectdb</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> --database {db-name}  &gt; file.txt  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(for specific database)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-python manage.py </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inspectdb</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">(for all)
-or,
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">python manage.py </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inspectdb</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;table-name1&gt; &lt;table-name2&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(for specific tables, table names must match with that in the database)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">python manage.py </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>dumpdata</t>
     </r>
     <r>
@@ -23707,6 +23352,691 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> method</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To start a mongoDB CLI,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1. navigate to the location of mongoDB server-
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">C:\Program Files\MongoDB\Server\4.4\bin&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2. execute </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">mongodb.exe
+ctrl+C to exit terminal
+Note:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">In mongoDB, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">collection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is equivalent to table.
+There is no schema involved as all data are in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">key-value or json </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">format.
+So each </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">collection </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">contains a set of key-value data called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>documents</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">update document-
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">note:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. as part of update, fields can be updated, new fields added as well,
+2. document content will be replaced with the data provided</t>
+    </r>
+  </si>
+  <si>
+    <t>npm i -D &lt;package name(s)&gt;
+npm I --dev &lt;package name(s)&gt;
+npm i --save-dev &lt;package name(s)&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import Moment from 'react-moment';
+&lt;Moment
+										date={ item.aptDate }
+										parse="YYYY-MM-DD hh:mm"
+										format="MMM-D h:mma"
+									/&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">or,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">&lt;Moment format="MMM-D, YYYY h:mma"&gt;{launch_date_local}&lt;/Moment&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Another use
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+import moment from "moment";
+moment(date variable).fromNow();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">python manage.py </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inspectdb</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> --database &lt;db-name&gt;  &gt; file.txt  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(for specific database)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+python manage.py </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inspectdb</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(for all)
+or,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">python manage.py </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inspectdb</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;table-name1&gt; &lt;table-name2&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(for specific tables, table names must match with that in the database)</t>
+    </r>
+  </si>
+  <si>
+    <t>to enable indexing for a column</t>
+  </si>
+  <si>
+    <t>python manage.py migrate --fake</t>
+  </si>
+  <si>
+    <r>
+      <t>python manage.py showmigrations &lt;appname&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(optional)</t>
+    </r>
+  </si>
+  <si>
+    <t>displays unapplied migrations without actually creating the migration files</t>
+  </si>
+  <si>
+    <t>displays unapplied migrations for specific app</t>
+  </si>
+  <si>
+    <t>display all applied migrations for an app(or for all)</t>
+  </si>
+  <si>
+    <t>python manage.py migrate &lt;appname&gt; &lt;migration-id&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">migrate to  a specific version of migrations.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In the example, there were 2 unapplied migrations - 0003, 0004
+When migration done to 0004, both migrations are applied together.
+When migrated to 0002, latest migrations- 0003, 0004 get unapplied.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fake migration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Django provides a built-in way of marking migrations as executed, without actually executing them. To use this option, set the --fake flag when applying the migration.
+This is used when an unapplied migration has been created, and needs to be ignored(migration file can be deleted to serve the same purpose).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Other unapplied migrations will also be faked.
+Direct access to the database is required.</t>
+    </r>
+  </si>
+  <si>
+    <t>python manage.py makemigrations &lt;appname&gt; --empty --name &lt;name-of-the-migration&gt;</t>
+  </si>
+  <si>
+    <t>create an empty migration</t>
+  </si>
+  <si>
+    <t>create a migration with SQL commands
+(an empty migration needs to be created first)</t>
+  </si>
+  <si>
+    <r>
+      <t>print(queryset.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>query</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>get sql commands of a queryset(needs to be printed)</t>
+  </si>
+  <si>
+    <r>
+      <t>python manage.py makemigrations &lt;appname&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(optional)</t>
+    </r>
+  </si>
+  <si>
+    <t>python manage.py &lt;app-name&gt; &lt;migration_id&gt;</t>
+  </si>
+  <si>
+    <t>get all SQL commands associated with a specific migration</t>
+  </si>
+  <si>
+    <t>https://realpython.com/create-django-index-without-downtime/</t>
+  </si>
+  <si>
+    <t>get  knowledge on manual migration and indexing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SHARDING vs HORIZONTAL SCALING vs VERTICAL SCALING:
+1. Vertical scaling - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Increase the strength of the hardware where the database resides by increasing the memory, the storage capacity. But every hardware has a limit for up-scaling(a hardware with max 32GB capacity cannot be upscaled beyond that).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Horizontal scaling - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Create replicas(nodes) of the database(master) and load the data from master to the nodes. This helps in fault tolerance(if one master db fails, switch to the the nodes).
+User has write-access to the master db only. Data written to master db is sent to the nodes asynchronously. So, data consistency(all db have same data) takes some time, which is referred as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eventual consistency. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This may cause problem when multiple read-write requests are coming, when before completion of data migrations, any fault occurs.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3. Sharding - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This is a subset of horizontal scaling, where instead of creating replicas, database is seggregated to smaller databases(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">). So, the data gets stored distributedly between the shards.
+But it requires a mapping application that maps the data to the shards(e.g. data with id-1 may be stored in shard1, and data with id-2 for the same table is stored in shard2, so mapping is required to know the location of each record).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>refer to youtube library for more details.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
 </sst>
@@ -24043,7 +24373,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -24125,6 +24455,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -24620,7 +24956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -24976,30 +25312,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -25077,6 +25389,30 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -25358,6 +25694,27 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -25751,13 +26108,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5020805</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>84120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1333314</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>1113940</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25795,13 +26152,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1477183</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>40361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4597969</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>1130084</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25839,13 +26196,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5025504</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>1352583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1371884</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>3036810</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25883,13 +26240,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1506939</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>1309298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>4712742</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>2960006</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -25915,6 +26272,226 @@
         <a:xfrm>
           <a:off x="8174439" y="96516649"/>
           <a:ext cx="3205803" cy="1650708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>270112</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>71082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3056530</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1300769</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A189BCB9-5DC7-4FB8-A702-FB35870F2A77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="270112" y="60590373"/>
+          <a:ext cx="2786418" cy="1229687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>462033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5693947</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>2038365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F766D5C3-AFB1-4C5B-8420-04A01319B515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="61159030"/>
+          <a:ext cx="5693947" cy="1576332"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106623</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>383844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5621638</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>1326826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{368C9B62-07B0-4A81-AE67-A34A4CC1FDA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="106623" y="60903135"/>
+          <a:ext cx="5515015" cy="942982"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>426493</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>163489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3787851</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>2591823</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96BAA51C-D3D2-4514-87E1-2671AAA02C1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="426493" y="62324777"/>
+          <a:ext cx="3361358" cy="2428334"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78190</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>405169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4080282</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1375019</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CE86BC-C75D-46B4-8D7F-02D71F409F41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="78190" y="38768173"/>
+          <a:ext cx="4002092" cy="969850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -26641,13 +27218,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>859895</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>959115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3355463</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>2664102</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -27231,10 +27808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12D5300-F2CC-4278-8E60-22661B83A8CD}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="72" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView topLeftCell="A74" zoomScale="72" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27327,31 +27904,31 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>555</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>341</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="327.75" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B14" s="15" t="s">
         <v>144</v>
@@ -27365,36 +27942,36 @@
     </row>
     <row r="15" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="79"/>
     </row>
     <row r="16" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="151.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -27413,7 +27990,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="89" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B21" s="90"/>
     </row>
@@ -27443,10 +28020,10 @@
     </row>
     <row r="25" spans="1:2" ht="363.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -27457,241 +28034,241 @@
     </row>
     <row r="27" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B29" s="88"/>
     </row>
     <row r="30" spans="1:2" ht="60.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="279.39999999999998" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A35" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="71.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>451</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="150.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="101" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B48" s="102"/>
     </row>
     <row r="49" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="103" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B49" s="104"/>
     </row>
     <row r="50" spans="1:2" ht="357" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="B51" s="24" t="s">
         <v>542</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="B53" s="24" t="s">
         <v>551</v>
-      </c>
-      <c r="B53" s="24" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="50" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="95" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B57" s="96"/>
     </row>
@@ -27709,95 +28286,96 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="93" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B61" s="94"/>
     </row>
     <row r="62" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="279" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="91" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B67" s="92"/>
     </row>
     <row r="68" spans="1:2" ht="116.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="4" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="226.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="84" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="167.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="3" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="147.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="3" t="s">
-        <v>900</v>
-      </c>
-    </row>
+        <v>894</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="139.9" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A19:B19"/>
@@ -27847,114 +28425,114 @@
     </row>
     <row r="2" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A3" s="73" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="65.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="180" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B4" s="181"/>
     </row>
     <row r="5" spans="1:2" ht="55.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="178" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B5" s="179"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>411</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>434</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="285" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="105" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="89" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B14" s="182"/>
     </row>
     <row r="15" spans="1:2" ht="95.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="101" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B15" s="183"/>
     </row>
     <row r="16" spans="1:2" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -28007,7 +28585,7 @@
         <v>228</v>
       </c>
       <c r="E3" s="184" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="F3" s="184"/>
       <c r="G3" s="184"/>
@@ -28029,10 +28607,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="E4" s="184"/>
       <c r="F4" s="184"/>
@@ -28055,10 +28633,10 @@
     </row>
     <row r="5" spans="1:22" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E5" s="184"/>
       <c r="F5" s="184"/>
@@ -28081,10 +28659,10 @@
     </row>
     <row r="6" spans="1:22" ht="57" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E6" s="184"/>
       <c r="F6" s="184"/>
@@ -28790,7 +29368,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="187" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B1" s="187"/>
       <c r="C1" s="47"/>
@@ -28900,51 +29478,51 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="185" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B10" s="186"/>
     </row>
     <row r="11" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B11" s="49" t="s">
         <v>567</v>
-      </c>
-      <c r="B11" s="49" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="B12" s="49" t="s">
         <v>571</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="B13" s="48" t="s">
         <v>569</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>576</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="85.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="93" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B15" s="94"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="188" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B16" s="189"/>
     </row>
@@ -28954,7 +29532,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="192" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B18" s="193"/>
       <c r="C18" s="48"/>
@@ -28965,10 +29543,10 @@
     </row>
     <row r="20" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -29050,48 +29628,48 @@
     </row>
     <row r="7" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="87" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B7" s="196"/>
     </row>
     <row r="8" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>440</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>559</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -29129,218 +29707,218 @@
     </row>
     <row r="2" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="11" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>456</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>460</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="235.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="197" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B9" s="198"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B10" s="78" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="51" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="83" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="81" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B16" s="53" t="s">
+        <v>589</v>
+      </c>
+      <c r="C16" s="170" t="s">
         <v>590</v>
-      </c>
-      <c r="C16" s="170" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A17" s="55" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C17" s="173"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="18" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C18" s="173"/>
     </row>
     <row r="19" spans="1:3" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A19" s="54" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B19" s="56" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C19" s="176"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="52" t="s">
+        <v>591</v>
+      </c>
+      <c r="B20" s="53" t="s">
         <v>592</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="77.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="301.14999999999998" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="89" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B23" s="90"/>
     </row>
     <row r="24" spans="1:3" ht="88.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="199" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B24" s="200"/>
     </row>
     <row r="25" spans="1:3" ht="114" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -29364,8 +29942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B77C4E-3E7B-4D80-A747-5F4AAFEFADA7}">
   <dimension ref="A1:O50"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="97" zoomScaleNormal="74" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:B40"/>
+    <sheetView zoomScale="68" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29396,13 +29974,13 @@
     </row>
     <row r="3" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="18" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D3" s="202" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E3" s="70"/>
       <c r="F3" s="69"/>
@@ -29418,10 +29996,10 @@
     </row>
     <row r="4" spans="1:15" ht="387" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D4" s="203"/>
       <c r="E4" s="69"/>
@@ -29446,26 +30024,26 @@
     </row>
     <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
-        <v>253</v>
+        <v>897</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
@@ -29516,9 +30094,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="156.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" ht="228" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
-        <v>612</v>
+        <v>898</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>66</v>
@@ -29634,7 +30212,7 @@
     </row>
     <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="23" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B31" s="19" t="s">
         <v>147</v>
@@ -29680,10 +30258,10 @@
     </row>
     <row r="37" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A37" s="16" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="202.15" customHeight="1" x14ac:dyDescent="0.45">
@@ -29694,13 +30272,13 @@
     </row>
     <row r="39" spans="1:2" ht="324" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="208" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B39" s="209"/>
     </row>
     <row r="40" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="218" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B40" s="219"/>
     </row>
@@ -29714,7 +30292,7 @@
     </row>
     <row r="42" spans="1:2" ht="381.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="206" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B42" s="207"/>
     </row>
@@ -29724,58 +30302,58 @@
     </row>
     <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A44" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B44" s="19" t="s">
         <v>323</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A45" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>326</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="128.25" x14ac:dyDescent="0.45">
       <c r="A46" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>329</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A47" s="18" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A48" s="61" t="s">
+        <v>609</v>
+      </c>
+      <c r="B48" s="62" t="s">
         <v>610</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A49" s="18" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A50" s="18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -29802,7 +30380,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView topLeftCell="A23" zoomScale="60" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -29849,13 +30427,13 @@
     </row>
     <row r="4" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="199.5" x14ac:dyDescent="0.45">
@@ -29904,251 +30482,251 @@
     </row>
     <row r="9" spans="1:4" ht="299.25" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="185.25" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>243</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D11" s="70"/>
     </row>
     <row r="12" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="89" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B12" s="220"/>
       <c r="C12" s="182"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B13" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B14" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B15" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A16" s="58" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D16" s="223" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="123.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="58" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="58" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D17" s="224"/>
     </row>
     <row r="18" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A18" s="60" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D18" s="224"/>
     </row>
     <row r="19" spans="1:4" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="121.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B20" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" s="93" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B21" s="221"/>
       <c r="C21" s="222"/>
     </row>
     <row r="22" spans="1:4" ht="228" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B22" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B23" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B24" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B25" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B26" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="114" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B27" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="26" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B29" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A30" s="4" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B30" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B31" s="25" t="s">
         <v>243</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
   </sheetData>
@@ -30190,104 +30768,104 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="299.64999999999998" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C3" s="64" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C6" s="72"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>501</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>503</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="249.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="225" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B13" s="226"/>
     </row>
@@ -30404,10 +30982,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="77" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -30531,11 +31109,11 @@
         <v>160</v>
       </c>
       <c r="B12" s="118" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C12" s="119"/>
       <c r="D12" s="120" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E12" s="121"/>
       <c r="F12" s="121"/>
@@ -30613,7 +31191,7 @@
     <row r="20" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="107"/>
       <c r="C20" s="112" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D20" s="113"/>
       <c r="E20" s="113"/>
@@ -30623,7 +31201,7 @@
       <c r="A21" s="31"/>
       <c r="B21" s="108"/>
       <c r="C21" s="109" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D21" s="110"/>
       <c r="E21" s="110"/>
@@ -30631,11 +31209,11 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="114" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B22" s="114"/>
       <c r="C22" s="115" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -30650,10 +31228,10 @@
     </row>
     <row r="25" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A25" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -30697,46 +31275,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>509</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>511</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="212.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="114" t="s">
-        <v>519</v>
-      </c>
-      <c r="B5" s="126"/>
+        <v>518</v>
+      </c>
+      <c r="B5" s="154"/>
       <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="227" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="B6" s="228"/>
     </row>
@@ -30854,8 +31432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9486391-4526-4CDB-B19C-462E8D7C0BE7}">
   <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="71" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B61"/>
+    <sheetView topLeftCell="A4" zoomScale="71" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -30882,10 +31460,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
@@ -30991,7 +31569,7 @@
     </row>
     <row r="17" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>27</v>
@@ -30999,18 +31577,18 @@
     </row>
     <row r="18" spans="1:2" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>596</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -31074,7 +31652,7 @@
         <v>42</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="313.5" x14ac:dyDescent="0.45">
@@ -31082,7 +31660,7 @@
         <v>220</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
@@ -31109,7 +31687,7 @@
     </row>
     <row r="32" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="235" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="B32" s="236"/>
     </row>
@@ -31268,49 +31846,49 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>505</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="104.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="185.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D6" s="243" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E6" s="243"/>
       <c r="G6" s="244" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H6" s="244"/>
       <c r="I6" s="244"/>
@@ -31322,7 +31900,7 @@
       <c r="O6" s="244"/>
       <c r="P6" s="244"/>
       <c r="R6" s="241" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="S6" s="242"/>
       <c r="T6" s="242"/>
@@ -31337,10 +31915,10 @@
     </row>
     <row r="7" spans="1:28" ht="57" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D7" s="106"/>
       <c r="E7" s="106"/>
@@ -31368,10 +31946,10 @@
     </row>
     <row r="8" spans="1:28" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D8" s="106"/>
       <c r="E8" s="106"/>
@@ -31399,10 +31977,10 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>381</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>382</v>
       </c>
       <c r="D9" s="106"/>
       <c r="E9" s="106"/>
@@ -31430,10 +32008,10 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>400</v>
       </c>
       <c r="D10" s="106"/>
       <c r="E10" s="106"/>
@@ -31461,10 +32039,10 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>383</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>384</v>
       </c>
       <c r="D11" s="106"/>
       <c r="E11" s="106"/>
@@ -31492,10 +32070,10 @@
     </row>
     <row r="12" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D12" s="106"/>
       <c r="E12" s="106"/>
@@ -31523,10 +32101,10 @@
     </row>
     <row r="13" spans="1:28" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D13" s="106"/>
       <c r="E13" s="106"/>
@@ -31554,10 +32132,10 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>401</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="D14" s="106"/>
       <c r="E14" s="106"/>
@@ -31585,10 +32163,10 @@
     </row>
     <row r="15" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>486</v>
       </c>
       <c r="D15" s="106"/>
       <c r="E15" s="106"/>
@@ -31616,10 +32194,10 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>487</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>488</v>
       </c>
       <c r="D16" s="106"/>
       <c r="E16" s="106"/>
@@ -31647,10 +32225,10 @@
     </row>
     <row r="17" spans="1:28" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>548</v>
       </c>
       <c r="D17" s="106"/>
       <c r="E17" s="106"/>
@@ -31948,7 +32526,7 @@
     <row r="29" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="30" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D30" s="245" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="E30" s="246"/>
     </row>
@@ -32037,10 +32615,10 @@
     <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="1:2" ht="409.6" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="64" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -32050,10 +32628,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScale="67" zoomScaleNormal="42" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:B85"/>
+    <sheetView topLeftCell="A51" zoomScale="67" zoomScaleNormal="42" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -32106,25 +32684,25 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="169.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="129" t="s">
-        <v>409</v>
-      </c>
-      <c r="B6" s="130"/>
+      <c r="A6" s="151" t="s">
+        <v>408</v>
+      </c>
+      <c r="B6" s="152"/>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="57" t="s">
+        <v>606</v>
+      </c>
+      <c r="B7" s="44" t="s">
         <v>607</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="42" t="s">
+        <v>414</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>415</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
@@ -32169,7 +32747,7 @@
     </row>
     <row r="15" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="87" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B15" s="88"/>
     </row>
@@ -32181,7 +32759,7 @@
     </row>
     <row r="17" spans="1:2" ht="56.65" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>252</v>
@@ -32189,544 +32767,617 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>285</v>
-      </c>
     </row>
     <row r="21" spans="1:2" ht="226.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="123" t="s">
-        <v>766</v>
-      </c>
-      <c r="B21" s="124"/>
+      <c r="A21" s="149" t="s">
+        <v>760</v>
+      </c>
+      <c r="B21" s="150"/>
     </row>
     <row r="22" spans="1:2" ht="111" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="89" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B22" s="90"/>
     </row>
     <row r="23" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A23" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="89" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B28" s="90"/>
     </row>
     <row r="29" spans="1:2" ht="199.5" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="114" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>321</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="270.75" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B33" s="127" t="s">
         <v>371</v>
+      </c>
+      <c r="B33" s="155" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="B34" s="128"/>
+        <v>374</v>
+      </c>
+      <c r="B34" s="156"/>
     </row>
     <row r="35" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A35" s="75" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>772</v>
-      </c>
-      <c r="C35" s="139" t="s">
-        <v>796</v>
+        <v>766</v>
+      </c>
+      <c r="C35" s="131" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="256.5" x14ac:dyDescent="0.45">
       <c r="A36" s="75" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>797</v>
-      </c>
-      <c r="C36" s="140"/>
-    </row>
-    <row r="37" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="75" t="s">
-        <v>848</v>
+        <v>791</v>
+      </c>
+      <c r="C36" s="132"/>
+    </row>
+    <row r="37" spans="1:3" ht="134.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="252" t="s">
+        <v>912</v>
       </c>
       <c r="B37" s="76" t="s">
-        <v>795</v>
-      </c>
-      <c r="C37" s="141"/>
-    </row>
-    <row r="38" spans="1:3" ht="141" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="C37" s="132"/>
+    </row>
+    <row r="38" spans="1:3" ht="409.6" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="75" t="s">
+        <v>842</v>
+      </c>
+      <c r="B38" s="76" t="s">
+        <v>789</v>
+      </c>
+      <c r="C38" s="133"/>
+    </row>
+    <row r="39" spans="1:3" ht="141" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="285" x14ac:dyDescent="0.45">
-      <c r="A39" s="5" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="285" x14ac:dyDescent="0.45">
+      <c r="A40" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="B39" s="6" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A41" s="36" t="s">
+        <v>425</v>
+      </c>
+      <c r="B41" s="45" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A40" s="36" t="s">
-        <v>426</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A41" s="5" t="s">
+    <row r="42" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A42" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A42" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="B42" s="6" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A43" s="5" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" s="5" t="s">
-        <v>522</v>
-      </c>
       <c r="B43" s="6" t="s">
-        <v>523</v>
+        <v>435</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>787</v>
+        <v>521</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>788</v>
+        <v>522</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A46" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A46" s="5" t="s">
+    </row>
+    <row r="47" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A47" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" s="5" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A48" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A49" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="243" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="93" t="s">
+        <v>536</v>
+      </c>
+      <c r="B50" s="94"/>
+    </row>
+    <row r="51" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A51" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A52" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A53" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="154" t="s">
+        <v>562</v>
+      </c>
+      <c r="B54" s="104"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="253" t="s">
+        <v>917</v>
+      </c>
+      <c r="B55" s="254" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="251" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="84" t="s">
+        <v>909</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="251" customFormat="1" ht="129.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="251" customFormat="1" ht="223.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="84"/>
+      <c r="B60" s="6" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="175.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="84" t="s">
+        <v>906</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A63" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="6" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A65" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A66" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="C66" s="123" t="s">
+        <v>756</v>
+      </c>
+      <c r="D66" s="123"/>
+    </row>
+    <row r="67" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A67" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="C67" s="123"/>
+      <c r="D67" s="123"/>
+    </row>
+    <row r="68" spans="1:4" ht="287.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="147" t="s">
+        <v>788</v>
+      </c>
+      <c r="B68" s="148"/>
+    </row>
+    <row r="69" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="149" t="s">
+        <v>761</v>
+      </c>
+      <c r="B69" s="150"/>
+    </row>
+    <row r="70" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A70" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="184.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="153" t="s">
+        <v>792</v>
+      </c>
+      <c r="B71" s="153"/>
+    </row>
+    <row r="72" spans="1:4" ht="246" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="B72" s="63" t="s">
+        <v>784</v>
+      </c>
+      <c r="C72" s="144" t="s">
         <v>785</v>
       </c>
-      <c r="B47" s="6" t="s">
+    </row>
+    <row r="73" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A73" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="B73" s="63" t="s">
+        <v>770</v>
+      </c>
+      <c r="C73" s="145"/>
+    </row>
+    <row r="74" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A74" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="B74" s="63" t="s">
+        <v>771</v>
+      </c>
+      <c r="C74" s="145"/>
+    </row>
+    <row r="75" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A75" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="B75" s="63" t="s">
+        <v>773</v>
+      </c>
+      <c r="C75" s="146"/>
+    </row>
+    <row r="76" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A76" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="185.25" x14ac:dyDescent="0.45">
+      <c r="A77" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
+      <c r="A78" s="5" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A48" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="243" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="93" t="s">
-        <v>537</v>
-      </c>
-      <c r="B49" s="94"/>
-    </row>
-    <row r="50" spans="1:4" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A50" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A51" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A52" s="5" t="s">
-        <v>768</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="40.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="126" t="s">
-        <v>563</v>
-      </c>
-      <c r="B53" s="104"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" s="5" t="s">
-        <v>739</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="5" t="s">
-        <v>757</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A56" s="5" t="s">
-        <v>758</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="C56" s="131" t="s">
-        <v>762</v>
-      </c>
-      <c r="D56" s="131"/>
-    </row>
-    <row r="57" spans="1:4" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>761</v>
-      </c>
-      <c r="C57" s="131"/>
-      <c r="D57" s="131"/>
-    </row>
-    <row r="58" spans="1:4" ht="287.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="155" t="s">
-        <v>794</v>
-      </c>
-      <c r="B58" s="156"/>
-    </row>
-    <row r="59" spans="1:4" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="123" t="s">
-        <v>767</v>
-      </c>
-      <c r="B59" s="124"/>
-    </row>
-    <row r="60" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
-      <c r="A60" s="5" t="s">
-        <v>773</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="184.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A61" s="125" t="s">
+      <c r="B78" s="6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="57" x14ac:dyDescent="0.45">
+      <c r="A79" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" s="14" t="s">
+        <v>797</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="B61" s="125"/>
-    </row>
-    <row r="62" spans="1:4" ht="246" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="B62" s="63" t="s">
-        <v>790</v>
-      </c>
-      <c r="C62" s="152" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="5" t="s">
-        <v>775</v>
-      </c>
-      <c r="B63" s="63" t="s">
-        <v>776</v>
-      </c>
-      <c r="C63" s="153"/>
-    </row>
-    <row r="64" spans="1:4" ht="99.75" x14ac:dyDescent="0.45">
-      <c r="A64" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="B64" s="63" t="s">
-        <v>777</v>
-      </c>
-      <c r="C64" s="153"/>
-    </row>
-    <row r="65" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="14" t="s">
-        <v>778</v>
-      </c>
-      <c r="B65" s="63" t="s">
-        <v>779</v>
-      </c>
-      <c r="C65" s="154"/>
-    </row>
-    <row r="66" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A66" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A67" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="142.5" x14ac:dyDescent="0.45">
-      <c r="A68" s="5" t="s">
-        <v>792</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A69" s="14" t="s">
-        <v>801</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" s="14" t="s">
-        <v>827</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="85.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A72" s="5" t="s">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A81" s="14" t="s">
+        <v>821</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="85.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A82" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A83" s="75" t="s">
         <v>858</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A73" s="75" t="s">
+      <c r="B83" s="82" t="s">
+        <v>860</v>
+      </c>
+      <c r="C83" s="135" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="185.25" x14ac:dyDescent="0.45">
+      <c r="A84" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="B84" s="63" t="s">
+        <v>861</v>
+      </c>
+      <c r="C84" s="136"/>
+    </row>
+    <row r="85" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A85" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="B85" s="63" t="s">
         <v>864</v>
       </c>
-      <c r="B73" s="82" t="s">
-        <v>866</v>
-      </c>
-      <c r="C73" s="143" t="s">
+      <c r="C85" s="136"/>
+    </row>
+    <row r="86" spans="1:3" ht="179.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A86" s="89" t="s">
+        <v>867</v>
+      </c>
+      <c r="B86" s="134"/>
+      <c r="C86" s="137"/>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A87" s="138" t="s">
+        <v>865</v>
+      </c>
+      <c r="B87" s="139"/>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A88" s="140"/>
+      <c r="B88" s="141"/>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A89" s="140"/>
+      <c r="B89" s="141"/>
+    </row>
+    <row r="90" spans="1:3" ht="249.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="142"/>
+      <c r="B90" s="143"/>
+    </row>
+    <row r="91" spans="1:3" ht="262.89999999999998" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A92" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A93" s="124" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="185.25" x14ac:dyDescent="0.45">
-      <c r="A74" s="5" t="s">
-        <v>868</v>
-      </c>
-      <c r="B74" s="63" t="s">
-        <v>867</v>
-      </c>
-      <c r="C74" s="144"/>
-    </row>
-    <row r="75" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A75" s="5" t="s">
-        <v>869</v>
-      </c>
-      <c r="B75" s="63" t="s">
-        <v>870</v>
-      </c>
-      <c r="C75" s="144"/>
-    </row>
-    <row r="76" spans="1:3" ht="179.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A76" s="89" t="s">
+      <c r="B93" s="125"/>
+      <c r="C93" s="128" t="s">
         <v>873</v>
       </c>
-      <c r="B76" s="142"/>
-      <c r="C76" s="145"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" s="146" t="s">
-        <v>871</v>
-      </c>
-      <c r="B77" s="147"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" s="148"/>
-      <c r="B78" s="149"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" s="148"/>
-      <c r="B79" s="149"/>
-    </row>
-    <row r="80" spans="1:3" ht="249.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="150"/>
-      <c r="B80" s="151"/>
-    </row>
-    <row r="81" spans="1:3" ht="262.89999999999998" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A81" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="43.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A82" s="5" t="s">
-        <v>875</v>
-      </c>
-      <c r="B82" s="12" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" s="132" t="s">
-        <v>878</v>
-      </c>
-      <c r="B83" s="133"/>
-      <c r="C83" s="136" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" s="97"/>
-      <c r="B84" s="134"/>
-      <c r="C84" s="137"/>
-    </row>
-    <row r="85" spans="1:3" ht="168.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A85" s="99"/>
-      <c r="B85" s="135"/>
-      <c r="C85" s="138"/>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A94" s="97"/>
+      <c r="B94" s="126"/>
+      <c r="C94" s="129"/>
+    </row>
+    <row r="95" spans="1:3" ht="168.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A95" s="99"/>
+      <c r="B95" s="127"/>
+      <c r="C95" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="A83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="A77:B80"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A16:B16"/>
@@ -32734,13 +33385,16 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="A93:B95"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="A87:B90"/>
+    <mergeCell ref="C72:C75"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A19" r:id="rId1" xr:uid="{B3A5F69C-D686-43CD-96E0-B7F7221DEAE2}"/>
@@ -32748,14 +33402,15 @@
     <hyperlink ref="A25" r:id="rId3" xr:uid="{BF850609-5B29-47FB-BC2C-FF245182470F}"/>
     <hyperlink ref="A26" r:id="rId4" xr:uid="{EFB79A59-163D-4498-B11F-2FDAE67D8C27}"/>
     <hyperlink ref="A34" r:id="rId5" xr:uid="{A5C1ECE4-53CB-4192-B030-792C595341DA}"/>
-    <hyperlink ref="A65" r:id="rId6" location="a-full-example" xr:uid="{EE4D8589-CEFA-42AE-812B-585EF4BFFD8F}"/>
-    <hyperlink ref="A69" r:id="rId7" location=":~:text=Scheduling%20Tasks%20in%20Django%20with%20the%20Advanced%20Python%20Scheduler,-Kevin%20Horan&amp;text=Scheduling%20tasks%20for%20the%20future,intervals%20are%20just%20as%20essential." display="https://medium.com/@kevin.michael.horan/scheduling-tasks-in-django-with-the-advanced-python-scheduler-663f17e868e6#:~:text=Scheduling%20Tasks%20in%20Django%20with%20the%20Advanced%20Python%20Scheduler,-Kevin%20Horan&amp;text=Scheduling%20tasks%20for%20the%20future,intervals%20are%20just%20as%20essential." xr:uid="{4E31D88C-7072-48D1-A18E-39FA6A922D15}"/>
-    <hyperlink ref="A70" r:id="rId8" xr:uid="{B8B9E96A-45E5-41B1-A92E-E7B21CB1D521}"/>
-    <hyperlink ref="A71" r:id="rId9" xr:uid="{9CD4B923-DCFD-48FD-B0E6-26566989705B}"/>
+    <hyperlink ref="A75" r:id="rId6" location="a-full-example" xr:uid="{EE4D8589-CEFA-42AE-812B-585EF4BFFD8F}"/>
+    <hyperlink ref="A79" r:id="rId7" location=":~:text=Scheduling%20Tasks%20in%20Django%20with%20the%20Advanced%20Python%20Scheduler,-Kevin%20Horan&amp;text=Scheduling%20tasks%20for%20the%20future,intervals%20are%20just%20as%20essential." display="https://medium.com/@kevin.michael.horan/scheduling-tasks-in-django-with-the-advanced-python-scheduler-663f17e868e6#:~:text=Scheduling%20Tasks%20in%20Django%20with%20the%20Advanced%20Python%20Scheduler,-Kevin%20Horan&amp;text=Scheduling%20tasks%20for%20the%20future,intervals%20are%20just%20as%20essential." xr:uid="{4E31D88C-7072-48D1-A18E-39FA6A922D15}"/>
+    <hyperlink ref="A80" r:id="rId8" xr:uid="{B8B9E96A-45E5-41B1-A92E-E7B21CB1D521}"/>
+    <hyperlink ref="A81" r:id="rId9" xr:uid="{9CD4B923-DCFD-48FD-B0E6-26566989705B}"/>
+    <hyperlink ref="A55" r:id="rId10" xr:uid="{2C35BD16-4351-4640-8440-84D9CB62042D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
-  <drawing r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -32776,65 +33431,65 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="9" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="6" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="323.64999999999998" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="176.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="366.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="315.39999999999998" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="6" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="310.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="6" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="320.64999999999998" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="127"/>
+      <c r="A8" s="155"/>
       <c r="B8" s="157" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="128"/>
+      <c r="A9" s="156"/>
       <c r="B9" s="158"/>
     </row>
     <row r="10" spans="1:2" ht="266.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="6" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="190.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="6" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="123" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
   </sheetData>
@@ -32868,55 +33523,55 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" t="s">
         <v>291</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>292</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>293</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>294</v>
-      </c>
-      <c r="E1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" t="s">
         <v>296</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>297</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="28" t="s">
         <v>298</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F4" s="29" t="s">
+        <v>311</v>
+      </c>
+      <c r="G4" s="30" t="s">
         <v>312</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="9" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C9" s="159" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D9" s="160"/>
     </row>
@@ -32999,10 +33654,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533A02BA-541E-4738-ACF6-D15E2A394ADC}">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="72" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:C60"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="72" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33048,24 +33703,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -33086,7 +33741,7 @@
       <c r="B7" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="127" t="s">
+      <c r="C7" s="155" t="s">
         <v>204</v>
       </c>
     </row>
@@ -33097,7 +33752,7 @@
       <c r="B8" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="128"/>
+      <c r="C8" s="156"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
@@ -33106,16 +33761,16 @@
       <c r="B9" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="155" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="C10" s="107"/>
     </row>
@@ -33126,38 +33781,38 @@
       <c r="B11" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C11" s="128"/>
+      <c r="C11" s="156"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>206</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="155" t="s">
         <v>217</v>
       </c>
     </row>
@@ -33168,17 +33823,17 @@
       <c r="B15" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C15" s="128"/>
+      <c r="C15" s="156"/>
     </row>
     <row r="16" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C16" s="66" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -33205,23 +33860,23 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="127" t="s">
-        <v>635</v>
+      <c r="C19" s="155" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="C20" s="128"/>
+      <c r="C20" s="156"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
@@ -33280,297 +33935,289 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" s="5" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>212</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="409.5" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>188</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="285" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="165" t="s">
-        <v>705</v>
-      </c>
-      <c r="B35" s="166"/>
-      <c r="C35" s="167"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" s="68" t="s">
-        <v>677</v>
-      </c>
-      <c r="B52" s="34" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="252.4" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="255" t="s">
+        <v>919</v>
+      </c>
+      <c r="B35" s="256"/>
+      <c r="C35" s="257"/>
+    </row>
+    <row r="36" spans="1:3" ht="285" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="165" t="s">
+        <v>701</v>
+      </c>
+      <c r="B36" s="166"/>
+      <c r="C36" s="167"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A53" s="68" t="s">
+        <v>673</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>638</v>
+      </c>
+      <c r="C53" s="34" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A54" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>640</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A53" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>639</v>
+        <v>530</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A57" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A58" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C56" s="6" t="s">
+      <c r="B58" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>644</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="175.9" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="177" t="s">
+        <v>895</v>
+      </c>
+      <c r="B61" s="177"/>
+      <c r="C61" s="177"/>
+    </row>
+    <row r="62" spans="1:3" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="165" t="s">
         <v>650</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="175.9" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="177" t="s">
-        <v>652</v>
-      </c>
-      <c r="B60" s="177"/>
-      <c r="C60" s="177"/>
-    </row>
-    <row r="61" spans="1:3" ht="47.65" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="165" t="s">
-        <v>653</v>
-      </c>
-      <c r="B61" s="166"/>
-      <c r="C61" s="167"/>
-    </row>
-    <row r="62" spans="1:3" ht="57" x14ac:dyDescent="0.45">
-      <c r="A62" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>657</v>
-      </c>
+      <c r="B62" s="166"/>
+      <c r="C62" s="167"/>
     </row>
     <row r="63" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+      <c r="A64" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="156.75" x14ac:dyDescent="0.45">
+      <c r="A65" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="157.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A66" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
-      <c r="A64" s="5" t="s">
-        <v>659</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="157.15" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A65" s="5" t="s">
-        <v>660</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A66" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C66" s="63" t="s">
-        <v>661</v>
-      </c>
-      <c r="D66" s="168" t="s">
-        <v>694</v>
-      </c>
-      <c r="E66" s="169"/>
-      <c r="F66" s="169"/>
-      <c r="G66" s="170"/>
     </row>
     <row r="67" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C67" s="63" t="s">
-        <v>662</v>
-      </c>
-      <c r="D67" s="171"/>
-      <c r="E67" s="172"/>
-      <c r="F67" s="172"/>
-      <c r="G67" s="173"/>
-    </row>
-    <row r="68" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+        <v>658</v>
+      </c>
+      <c r="D67" s="168" t="s">
+        <v>690</v>
+      </c>
+      <c r="E67" s="169"/>
+      <c r="F67" s="169"/>
+      <c r="G67" s="170"/>
+    </row>
+    <row r="68" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C68" s="63" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="D68" s="171"/>
       <c r="E68" s="172"/>
@@ -33579,161 +34226,177 @@
     </row>
     <row r="69" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C69" s="63" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D69" s="171"/>
       <c r="E69" s="172"/>
       <c r="F69" s="172"/>
       <c r="G69" s="173"/>
     </row>
-    <row r="70" spans="1:7" ht="100.15" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C70" s="63" t="s">
+        <v>664</v>
+      </c>
+      <c r="D70" s="171"/>
+      <c r="E70" s="172"/>
+      <c r="F70" s="172"/>
+      <c r="G70" s="173"/>
+    </row>
+    <row r="71" spans="1:7" ht="100.15" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A71" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C71" s="63" t="s">
+        <v>672</v>
+      </c>
+      <c r="D71" s="174"/>
+      <c r="E71" s="175"/>
+      <c r="F71" s="175"/>
+      <c r="G71" s="176"/>
+    </row>
+    <row r="72" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
+      <c r="A72" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="D70" s="174"/>
-      <c r="E70" s="175"/>
-      <c r="F70" s="175"/>
-      <c r="G70" s="176"/>
-    </row>
-    <row r="71" spans="1:7" ht="128.25" x14ac:dyDescent="0.45">
-      <c r="A71" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A72" s="5" t="s">
-        <v>668</v>
-      </c>
       <c r="B72" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="142.5" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>707</v>
+        <v>689</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="A81" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>703</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D66:G70"/>
-    <mergeCell ref="A35:C35"/>
+  <mergeCells count="9">
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D67:G71"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C9:C11"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C19:C20"/>
-    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A21" r:id="rId1" xr:uid="{68DBA053-7371-4398-A53E-B47D78DBF7AB}"/>
     <hyperlink ref="A22" r:id="rId2" xr:uid="{07771D4D-6E7B-44A9-AA95-183992AF4406}"/>
     <hyperlink ref="A24" r:id="rId3" display="https://www.tutorialspoint.com/postgresql/postgresql_create_table.htm" xr:uid="{8B6962A8-95F5-4823-BDFB-D78B04C44888}"/>
     <hyperlink ref="A5" r:id="rId4" xr:uid="{D5A9A024-43DB-4234-BE09-F4816880D748}"/>
-    <hyperlink ref="A52" r:id="rId5" xr:uid="{4EBB99E2-A60C-4056-A820-CCF98BE3B3EA}"/>
+    <hyperlink ref="A53" r:id="rId5" xr:uid="{4EBB99E2-A60C-4056-A820-CCF98BE3B3EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
@@ -33765,98 +34428,98 @@
     </row>
     <row r="2" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A2" s="40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>443</v>
-      </c>
-      <c r="B3" s="41" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="B4" s="41" t="s">
         <v>462</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="40" t="s">
+        <v>469</v>
+      </c>
+      <c r="B5" s="41" t="s">
         <v>470</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" s="41" t="s">
         <v>472</v>
-      </c>
-      <c r="B6" s="41" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="40" t="s">
+        <v>463</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>464</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A8" s="40" t="s">
+        <v>465</v>
+      </c>
+      <c r="B8" s="41" t="s">
         <v>466</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="B9" s="41" t="s">
         <v>468</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="213.75" x14ac:dyDescent="0.45">
       <c r="A10" s="40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B10" s="41" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="242.25" x14ac:dyDescent="0.45">
       <c r="A11" s="40" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
       <c r="A12" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="B12" s="41" t="s">
         <v>480</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.45">
       <c r="A13" s="40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -33890,10 +34553,10 @@
     </row>
     <row r="2" spans="1:2" ht="171" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>430</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>431</v>
       </c>
     </row>
   </sheetData>
